--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45687.01041666666</v>
+        <v>45733.01041666666</v>
       </c>
       <c r="B2">
-        <v>460</v>
+        <v>312</v>
       </c>
       <c r="C2">
-        <v>575</v>
+        <v>800</v>
       </c>
       <c r="D2">
-        <v>1236.016170161702</v>
+        <v>1540.703954600242</v>
       </c>
       <c r="E2">
-        <v>1035</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45687.02083333334</v>
+        <v>45733.02083333334</v>
       </c>
       <c r="B3">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="C3">
-        <v>575</v>
+        <v>792</v>
       </c>
       <c r="D3">
-        <v>1224.861152728291</v>
+        <v>1532.863944573949</v>
       </c>
       <c r="E3">
-        <v>1028</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45687.03125</v>
+        <v>45733.03125</v>
       </c>
       <c r="B4">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="C4">
-        <v>576</v>
+        <v>792</v>
       </c>
       <c r="D4">
-        <v>1213.706135294881</v>
+        <v>1525.023934547655</v>
       </c>
       <c r="E4">
-        <v>1029</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45687.04166666666</v>
+        <v>45733.04166666666</v>
       </c>
       <c r="B5">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="C5">
-        <v>576</v>
+        <v>792</v>
       </c>
       <c r="D5">
-        <v>1202.551117861471</v>
+        <v>1517.183924521361</v>
       </c>
       <c r="E5">
-        <v>1015</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45687.05208333334</v>
+        <v>45733.05208333334</v>
       </c>
       <c r="B6">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="C6">
-        <v>613</v>
+        <v>791</v>
       </c>
       <c r="D6">
-        <v>1201.589863854183</v>
+        <v>1512.072484913668</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45687.0625</v>
+        <v>45733.0625</v>
       </c>
       <c r="B7">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="C7">
-        <v>615</v>
+        <v>791</v>
       </c>
       <c r="D7">
-        <v>1200.628609846895</v>
+        <v>1506.961045305974</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45687.07291666666</v>
+        <v>45733.07291666666</v>
       </c>
       <c r="B8">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="C8">
-        <v>605</v>
+        <v>791</v>
       </c>
       <c r="D8">
-        <v>1199.667355839607</v>
+        <v>1501.84960569828</v>
       </c>
       <c r="E8">
-        <v>990</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45687.08333333334</v>
+        <v>45733.08333333334</v>
       </c>
       <c r="B9">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="C9">
-        <v>604</v>
+        <v>791</v>
       </c>
       <c r="D9">
-        <v>1198.706101832319</v>
+        <v>1496.738166090586</v>
       </c>
       <c r="E9">
-        <v>988</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45687.09375</v>
+        <v>45733.09375</v>
       </c>
       <c r="B10">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C10">
-        <v>601</v>
+        <v>793</v>
       </c>
       <c r="D10">
-        <v>1187.461665421442</v>
+        <v>1501.775526863386</v>
       </c>
       <c r="E10">
-        <v>985</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45687.10416666666</v>
+        <v>45733.10416666666</v>
       </c>
       <c r="B11">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C11">
-        <v>601</v>
+        <v>790</v>
       </c>
       <c r="D11">
-        <v>1176.217229010564</v>
+        <v>1506.812887636186</v>
       </c>
       <c r="E11">
-        <v>986</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45687.11458333334</v>
+        <v>45733.11458333334</v>
       </c>
       <c r="B12">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="C12">
-        <v>602</v>
+        <v>790</v>
       </c>
       <c r="D12">
-        <v>1164.972792599686</v>
+        <v>1511.850248408986</v>
       </c>
       <c r="E12">
-        <v>1001</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45687.125</v>
+        <v>45733.125</v>
       </c>
       <c r="B13">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="C13">
-        <v>601</v>
+        <v>790</v>
       </c>
       <c r="D13">
-        <v>1153.728356188809</v>
+        <v>1516.887609181785</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45687.13541666666</v>
+        <v>45733.13541666666</v>
       </c>
       <c r="B14">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="C14">
-        <v>601</v>
+        <v>795</v>
       </c>
       <c r="D14">
-        <v>1169.443741470793</v>
+        <v>1523.307774872559</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45687.14583333334</v>
+        <v>45733.14583333334</v>
       </c>
       <c r="B15">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="C15">
-        <v>601</v>
+        <v>795</v>
       </c>
       <c r="D15">
-        <v>1185.159126752777</v>
+        <v>1529.727940563333</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45687.15625</v>
+        <v>45733.15625</v>
       </c>
       <c r="B16">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="C16">
-        <v>601</v>
+        <v>794</v>
       </c>
       <c r="D16">
-        <v>1200.874512034761</v>
+        <v>1536.148106254107</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45687.16666666666</v>
+        <v>45733.16666666666</v>
       </c>
       <c r="B17">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="C17">
-        <v>601</v>
+        <v>795</v>
       </c>
       <c r="D17">
-        <v>1216.589897316745</v>
+        <v>1542.568271944881</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45687.17708333334</v>
+        <v>45733.17708333334</v>
       </c>
       <c r="B18">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="C18">
-        <v>613</v>
+        <v>814</v>
       </c>
       <c r="D18">
-        <v>1232.685313252778</v>
+        <v>1545.049912913883</v>
       </c>
       <c r="E18">
-        <v>1012</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45687.1875</v>
+        <v>45733.1875</v>
       </c>
       <c r="B19">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="C19">
-        <v>615</v>
+        <v>815</v>
       </c>
       <c r="D19">
-        <v>1248.780729188811</v>
+        <v>1547.531553882885</v>
       </c>
       <c r="E19">
-        <v>1013</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45687.19791666666</v>
+        <v>45733.19791666666</v>
       </c>
       <c r="B20">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="C20">
-        <v>615</v>
+        <v>815</v>
       </c>
       <c r="D20">
-        <v>1264.876145124844</v>
+        <v>1550.013194851887</v>
       </c>
       <c r="E20">
-        <v>1014</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45687.20833333334</v>
+        <v>45733.20833333334</v>
       </c>
       <c r="B21">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="C21">
-        <v>620</v>
+        <v>814</v>
       </c>
       <c r="D21">
-        <v>1280.971561060877</v>
+        <v>1552.494835820889</v>
       </c>
       <c r="E21">
-        <v>1029</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45687.21875</v>
+        <v>45733.21875</v>
       </c>
       <c r="B22">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="C22">
-        <v>638</v>
+        <v>807</v>
       </c>
       <c r="D22">
-        <v>1328.263022744896</v>
+        <v>1606.967472413026</v>
       </c>
       <c r="E22">
-        <v>1119</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45687.22916666666</v>
+        <v>45733.22916666666</v>
       </c>
       <c r="B23">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="C23">
-        <v>622</v>
+        <v>801</v>
       </c>
       <c r="D23">
-        <v>1375.554484428915</v>
+        <v>1661.440109005164</v>
       </c>
       <c r="E23">
-        <v>1105</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45687.23958333334</v>
+        <v>45733.23958333334</v>
       </c>
       <c r="B24">
-        <v>485</v>
+        <v>408</v>
       </c>
       <c r="C24">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="D24">
-        <v>1422.845946112935</v>
+        <v>1715.912745597302</v>
       </c>
       <c r="E24">
-        <v>1107</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45687.25</v>
+        <v>45733.25</v>
       </c>
       <c r="B25">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="C25">
-        <v>625</v>
+        <v>809</v>
       </c>
       <c r="D25">
-        <v>1470.137407796954</v>
+        <v>1770.385382189439</v>
       </c>
       <c r="E25">
-        <v>1113</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45687.26041666666</v>
+        <v>45733.26041666666</v>
       </c>
       <c r="B26">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="C26">
-        <v>720</v>
+        <v>936</v>
       </c>
       <c r="D26">
-        <v>1479.76112524195</v>
+        <v>1794.683240034649</v>
       </c>
       <c r="E26">
-        <v>1210</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45687.27083333334</v>
+        <v>45733.27083333334</v>
       </c>
       <c r="B27">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="C27">
-        <v>731</v>
+        <v>914</v>
       </c>
       <c r="D27">
-        <v>1489.384842686946</v>
+        <v>1818.981097879859</v>
       </c>
       <c r="E27">
-        <v>1226</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45687.28125</v>
+        <v>45733.28125</v>
       </c>
       <c r="B28">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="C28">
-        <v>786</v>
+        <v>912</v>
       </c>
       <c r="D28">
-        <v>1499.008560131942</v>
+        <v>1843.278955725068</v>
       </c>
       <c r="E28">
-        <v>1305</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45687.29166666666</v>
+        <v>45733.29166666666</v>
       </c>
       <c r="B29">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="C29">
-        <v>784</v>
+        <v>913</v>
       </c>
       <c r="D29">
-        <v>1508.632277576937</v>
+        <v>1867.576813570278</v>
       </c>
       <c r="E29">
-        <v>1305</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45687.30208333334</v>
+        <v>45733.30208333334</v>
       </c>
       <c r="B30">
-        <v>511</v>
+        <v>602</v>
       </c>
       <c r="C30">
-        <v>742</v>
+        <v>925</v>
       </c>
       <c r="D30">
-        <v>1498.449691523169</v>
+        <v>1833.821557803586</v>
       </c>
       <c r="E30">
-        <v>1253</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45687.3125</v>
+        <v>45733.3125</v>
       </c>
       <c r="B31">
-        <v>510</v>
+        <v>597</v>
       </c>
       <c r="C31">
-        <v>747</v>
+        <v>929</v>
       </c>
       <c r="D31">
-        <v>1488.2671054694</v>
+        <v>1800.066302036895</v>
       </c>
       <c r="E31">
-        <v>1257</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45687.32291666666</v>
+        <v>45733.32291666666</v>
       </c>
       <c r="B32">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="C32">
-        <v>801</v>
+        <v>927</v>
       </c>
       <c r="D32">
-        <v>1478.084519415631</v>
+        <v>1766.311046270204</v>
       </c>
       <c r="E32">
-        <v>1334</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45687.33333333334</v>
+        <v>45733.33333333334</v>
       </c>
       <c r="B33">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="C33">
-        <v>802</v>
+        <v>924</v>
       </c>
       <c r="D33">
-        <v>1467.901933361862</v>
+        <v>1732.555790503512</v>
       </c>
       <c r="E33">
-        <v>1346</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45687.34375</v>
+        <v>45733.34375</v>
       </c>
       <c r="B34">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="C34">
-        <v>874</v>
+        <v>941</v>
       </c>
       <c r="D34">
-        <v>1465.711168414962</v>
+        <v>1730.70381963116</v>
       </c>
       <c r="E34">
-        <v>1334</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45687.35416666666</v>
+        <v>45733.35416666666</v>
       </c>
       <c r="B35">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="C35">
-        <v>906</v>
+        <v>952</v>
       </c>
       <c r="D35">
-        <v>1463.520403468063</v>
+        <v>1728.851848758807</v>
       </c>
       <c r="E35">
-        <v>1362</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45687.36458333334</v>
+        <v>45733.36458333334</v>
       </c>
       <c r="B36">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="C36">
-        <v>863</v>
+        <v>955</v>
       </c>
       <c r="D36">
-        <v>1461.329638521163</v>
+        <v>1726.999877886454</v>
       </c>
       <c r="E36">
-        <v>1300</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45687.375</v>
+        <v>45733.375</v>
       </c>
       <c r="B37">
-        <v>441</v>
+        <v>502</v>
       </c>
       <c r="C37">
-        <v>860</v>
+        <v>955</v>
       </c>
       <c r="D37">
-        <v>1459.138873574263</v>
+        <v>1725.147907014101</v>
       </c>
       <c r="E37">
-        <v>1301</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45687.38541666666</v>
+        <v>45733.38541666666</v>
       </c>
       <c r="B38">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="C38">
-        <v>844</v>
+        <v>965</v>
       </c>
       <c r="D38">
-        <v>1449.470446640496</v>
+        <v>1699.232661273592</v>
       </c>
       <c r="E38">
-        <v>1326</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45687.39583333334</v>
+        <v>45733.39583333334</v>
       </c>
       <c r="B39">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C39">
-        <v>841</v>
+        <v>960</v>
       </c>
       <c r="D39">
-        <v>1439.802019706729</v>
+        <v>1673.317415533083</v>
       </c>
       <c r="E39">
-        <v>1286</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45687.40625</v>
+        <v>45733.40625</v>
       </c>
       <c r="B40">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C40">
-        <v>840</v>
+        <v>958</v>
       </c>
       <c r="D40">
-        <v>1430.133592772961</v>
+        <v>1647.402169792574</v>
       </c>
       <c r="E40">
-        <v>1283</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45687.41666666666</v>
+        <v>45733.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="D41">
-        <v>1420.465165839193</v>
+        <v>1621.486924052065</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45687.42708333334</v>
+        <v>45733.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="D42">
-        <v>1414.127595814345</v>
+        <v>1604.831532673424</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45687.4375</v>
+        <v>45733.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1407.790025789497</v>
+        <v>1588.176141294783</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45687.44791666666</v>
+        <v>45733.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1401.452455764649</v>
+        <v>1571.520749916142</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45687.45833333334</v>
+        <v>45733.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1395.114885739801</v>
+        <v>1554.8653585375</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45687.46875</v>
+        <v>45733.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1392.253478462402</v>
+        <v>1580.089201818999</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45687.47916666666</v>
+        <v>45733.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1389.392071185003</v>
+        <v>1605.313045100497</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45687.48958333334</v>
+        <v>45733.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1386.530663907604</v>
+        <v>1630.536888381995</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45687.5</v>
+        <v>45733.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1383.669256630205</v>
+        <v>1655.760731663494</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45687.51041666666</v>
+        <v>45733.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1385.245266107161</v>
+        <v>1669.144307834256</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45687.52083333334</v>
+        <v>45733.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1386.821275584118</v>
+        <v>1682.527884005018</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45687.53125</v>
+        <v>45733.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1388.397285061074</v>
+        <v>1695.91146017578</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45687.54166666666</v>
+        <v>45733.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1389.97329453803</v>
+        <v>1709.295036346543</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45687.55208333334</v>
+        <v>45733.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1397.383892291999</v>
+        <v>1706.739316542805</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45687.5625</v>
+        <v>45733.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1404.794490045968</v>
+        <v>1704.183596739067</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45687.57291666666</v>
+        <v>45733.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1412.205087799937</v>
+        <v>1701.627876935328</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45687.58333333334</v>
+        <v>45733.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1419.615685553906</v>
+        <v>1699.072157131591</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45687.59375</v>
+        <v>45733.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1437.767737970483</v>
+        <v>1745.717130169742</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45687.60416666666</v>
+        <v>45733.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1455.919790387061</v>
+        <v>1792.362103207894</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45687.61458333334</v>
+        <v>45733.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1474.071842803638</v>
+        <v>1839.007076246046</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45687.625</v>
+        <v>45733.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1492.223895220216</v>
+        <v>1885.652049284198</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45687.63541666666</v>
+        <v>45733.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1513.181468053585</v>
+        <v>1907.567037940493</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45687.64583333334</v>
+        <v>45733.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1534.139040886955</v>
+        <v>1929.482026596788</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45687.65625</v>
+        <v>45733.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1555.096613720325</v>
+        <v>1951.397015253084</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45687.66666666666</v>
+        <v>45733.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1576.054186553694</v>
+        <v>1973.312003909379</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45687.67708333334</v>
+        <v>45733.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1608.435033752615</v>
+        <v>2015.586325688953</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45687.6875</v>
+        <v>45733.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1640.815880951535</v>
+        <v>2057.860647468527</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45687.69791666666</v>
+        <v>45733.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1673.196728150456</v>
+        <v>2100.134969248101</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45687.70833333334</v>
+        <v>45733.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1705.577575349377</v>
+        <v>2142.409291027674</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45687.71875</v>
+        <v>45733.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1727.250500002132</v>
+        <v>2163.237790105402</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45687.72916666666</v>
+        <v>45733.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1748.923424654886</v>
+        <v>2184.066289183131</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45687.73958333334</v>
+        <v>45733.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1770.596349307641</v>
+        <v>2204.894788260859</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45687.75</v>
+        <v>45733.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1792.269273960396</v>
+        <v>2225.723287338587</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45687.76041666666</v>
+        <v>45733.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1791.542744768841</v>
+        <v>2219.957484689258</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45687.77083333334</v>
+        <v>45733.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1790.816215577287</v>
+        <v>2214.191682039929</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45687.78125</v>
+        <v>45733.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1790.089686385732</v>
+        <v>2208.425879390601</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45687.79166666666</v>
+        <v>45733.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1789.363157194177</v>
+        <v>2202.660076741272</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45687.80208333334</v>
+        <v>45733.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1778.677589392164</v>
+        <v>2218.130206761729</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45687.8125</v>
+        <v>45733.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1767.992021590152</v>
+        <v>2233.600336782187</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45687.82291666666</v>
+        <v>45733.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1757.306453788139</v>
+        <v>2249.070466802645</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45687.83333333334</v>
+        <v>45733.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1746.620885986126</v>
+        <v>2264.540596823102</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45687.84375</v>
+        <v>45733.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1726.669276648948</v>
+        <v>2234.699172833257</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45687.85416666666</v>
+        <v>45733.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1706.71766731177</v>
+        <v>2204.857748843412</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45687.86458333334</v>
+        <v>45733.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1686.766057974592</v>
+        <v>2175.016324853566</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45687.875</v>
+        <v>45733.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1666.814448637414</v>
+        <v>2145.174900863721</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45687.88541666666</v>
+        <v>45733.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1606.568412599191</v>
+        <v>2042.81029751254</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45687.89583333334</v>
+        <v>45733.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1546.322376560968</v>
+        <v>1940.445694161358</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45687.90625</v>
+        <v>45733.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1486.076340522744</v>
+        <v>1838.081090810176</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45687.91666666666</v>
+        <v>45733.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1425.830304484521</v>
+        <v>1735.716487458995</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45687.92708333334</v>
+        <v>45733.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1414.373498002257</v>
+        <v>1716.665880418672</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45687.9375</v>
+        <v>45733.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1402.916691519993</v>
+        <v>1697.61527337835</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45687.94791666666</v>
+        <v>45733.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1391.459885037729</v>
+        <v>1678.564666338028</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45687.95833333334</v>
+        <v>45733.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1380.003078555465</v>
+        <v>1659.514059297705</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45687.96875</v>
+        <v>45733.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1348.82269874143</v>
+        <v>1589.462526914919</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45687.97916666666</v>
+        <v>45733.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1317.642318927396</v>
+        <v>1519.410994532133</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45687.98958333334</v>
+        <v>45733.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1286.461939113362</v>
+        <v>1449.359462149347</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45688</v>
+        <v>45734</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1255.281559299328</v>
+        <v>1379.307929766561</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,772 +415,772 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
       <c r="B2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>920</v>
       </c>
       <c r="D2">
-        <v>1540.703954600242</v>
+        <v>1441.756048026492</v>
       </c>
       <c r="E2">
-        <v>1112</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
       <c r="B3">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="C3">
-        <v>792</v>
+        <v>912</v>
       </c>
       <c r="D3">
-        <v>1532.863944573949</v>
+        <v>1436.113413593053</v>
       </c>
       <c r="E3">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
       <c r="B4">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="C4">
-        <v>792</v>
+        <v>912</v>
       </c>
       <c r="D4">
-        <v>1525.023934547655</v>
+        <v>1430.470779159614</v>
       </c>
       <c r="E4">
-        <v>1095</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
       <c r="B5">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="C5">
-        <v>792</v>
+        <v>912</v>
       </c>
       <c r="D5">
-        <v>1517.183924521361</v>
+        <v>1424.828144726174</v>
       </c>
       <c r="E5">
-        <v>1096</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
       <c r="B6">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="C6">
-        <v>791</v>
+        <v>936</v>
       </c>
       <c r="D6">
-        <v>1512.072484913668</v>
+        <v>1420.1354872866</v>
       </c>
       <c r="E6">
-        <v>1116</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
       <c r="B7">
-        <v>326</v>
+        <v>195</v>
       </c>
       <c r="C7">
-        <v>791</v>
+        <v>935</v>
       </c>
       <c r="D7">
-        <v>1506.961045305974</v>
+        <v>1415.442829847026</v>
       </c>
       <c r="E7">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
       <c r="B8">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="C8">
-        <v>791</v>
+        <v>952</v>
       </c>
       <c r="D8">
-        <v>1501.84960569828</v>
+        <v>1410.750172407451</v>
       </c>
       <c r="E8">
-        <v>1116</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
       <c r="B9">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="C9">
-        <v>791</v>
+        <v>954</v>
       </c>
       <c r="D9">
-        <v>1496.738166090586</v>
+        <v>1406.057514967877</v>
       </c>
       <c r="E9">
-        <v>1119</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
       <c r="B10">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="C10">
-        <v>793</v>
+        <v>959</v>
       </c>
       <c r="D10">
-        <v>1501.775526863386</v>
+        <v>1409.903204967042</v>
       </c>
       <c r="E10">
-        <v>1148</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
       <c r="B11">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="C11">
-        <v>790</v>
+        <v>956</v>
       </c>
       <c r="D11">
-        <v>1506.812887636186</v>
+        <v>1413.748894966207</v>
       </c>
       <c r="E11">
-        <v>1120</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
       <c r="B12">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="C12">
-        <v>790</v>
+        <v>954</v>
       </c>
       <c r="D12">
-        <v>1511.850248408986</v>
+        <v>1417.594584965371</v>
       </c>
       <c r="E12">
-        <v>1119</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
       <c r="B13">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="C13">
-        <v>790</v>
+        <v>954</v>
       </c>
       <c r="D13">
-        <v>1516.887609181785</v>
+        <v>1421.440274964536</v>
       </c>
       <c r="E13">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
       <c r="B14">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="C14">
-        <v>795</v>
+        <v>961</v>
       </c>
       <c r="D14">
-        <v>1523.307774872559</v>
+        <v>1426.533525112366</v>
       </c>
       <c r="E14">
-        <v>1124</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
       <c r="B15">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="C15">
-        <v>795</v>
+        <v>957</v>
       </c>
       <c r="D15">
-        <v>1529.727940563333</v>
+        <v>1431.626775260195</v>
       </c>
       <c r="E15">
-        <v>1123</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
       <c r="B16">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="C16">
-        <v>794</v>
+        <v>957</v>
       </c>
       <c r="D16">
-        <v>1536.148106254107</v>
+        <v>1436.720025408024</v>
       </c>
       <c r="E16">
-        <v>1123</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
       <c r="B17">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="C17">
-        <v>795</v>
+        <v>957</v>
       </c>
       <c r="D17">
-        <v>1542.568271944881</v>
+        <v>1441.813275555853</v>
       </c>
       <c r="E17">
-        <v>1126</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
       <c r="B18">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="C18">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="D18">
-        <v>1545.049912913883</v>
+        <v>1445.876430168216</v>
       </c>
       <c r="E18">
-        <v>1149</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
       <c r="B19">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="C19">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="D19">
-        <v>1547.531553882885</v>
+        <v>1449.939584780579</v>
       </c>
       <c r="E19">
-        <v>1149</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
       <c r="B20">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="C20">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="D20">
-        <v>1550.013194851887</v>
+        <v>1454.002739392941</v>
       </c>
       <c r="E20">
-        <v>1149</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
       <c r="B21">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="C21">
-        <v>814</v>
+        <v>892</v>
       </c>
       <c r="D21">
-        <v>1552.494835820889</v>
+        <v>1458.065894005304</v>
       </c>
       <c r="E21">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
       <c r="B22">
-        <v>385</v>
+        <v>232</v>
       </c>
       <c r="C22">
-        <v>807</v>
+        <v>930</v>
       </c>
       <c r="D22">
-        <v>1606.967472413026</v>
+        <v>1511.607970840245</v>
       </c>
       <c r="E22">
-        <v>1192</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
       <c r="B23">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>801</v>
+        <v>928</v>
       </c>
       <c r="D23">
-        <v>1661.440109005164</v>
+        <v>1565.150047675186</v>
       </c>
       <c r="E23">
-        <v>1202</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
       <c r="B24">
-        <v>408</v>
+        <v>247</v>
       </c>
       <c r="C24">
-        <v>800</v>
+        <v>926</v>
       </c>
       <c r="D24">
-        <v>1715.912745597302</v>
+        <v>1618.692124510127</v>
       </c>
       <c r="E24">
-        <v>1208</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
       <c r="B25">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="C25">
-        <v>809</v>
+        <v>936</v>
       </c>
       <c r="D25">
-        <v>1770.385382189439</v>
+        <v>1672.234201345068</v>
       </c>
       <c r="E25">
-        <v>1233</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
       <c r="B26">
-        <v>568</v>
+        <v>293</v>
       </c>
       <c r="C26">
-        <v>936</v>
+        <v>1094</v>
       </c>
       <c r="D26">
-        <v>1794.683240034649</v>
+        <v>1692.916230597043</v>
       </c>
       <c r="E26">
-        <v>1504</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
       <c r="B27">
-        <v>570</v>
+        <v>354</v>
       </c>
       <c r="C27">
-        <v>914</v>
+        <v>1098</v>
       </c>
       <c r="D27">
-        <v>1818.981097879859</v>
+        <v>1713.598259849018</v>
       </c>
       <c r="E27">
-        <v>1484</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
       <c r="B28">
-        <v>570</v>
+        <v>340</v>
       </c>
       <c r="C28">
-        <v>912</v>
+        <v>1097</v>
       </c>
       <c r="D28">
-        <v>1843.278955725068</v>
+        <v>1734.280289100992</v>
       </c>
       <c r="E28">
-        <v>1482</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
       <c r="B29">
-        <v>583</v>
+        <v>328</v>
       </c>
       <c r="C29">
-        <v>913</v>
+        <v>1098</v>
       </c>
       <c r="D29">
-        <v>1867.576813570278</v>
+        <v>1754.962318352967</v>
       </c>
       <c r="E29">
-        <v>1496</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
       <c r="B30">
-        <v>602</v>
+        <v>359</v>
       </c>
       <c r="C30">
-        <v>925</v>
+        <v>1073</v>
       </c>
       <c r="D30">
-        <v>1833.821557803586</v>
+        <v>1723.624523061375</v>
       </c>
       <c r="E30">
-        <v>1527</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
       <c r="B31">
-        <v>597</v>
+        <v>337</v>
       </c>
       <c r="C31">
-        <v>929</v>
+        <v>1076</v>
       </c>
       <c r="D31">
-        <v>1800.066302036895</v>
+        <v>1692.286727769783</v>
       </c>
       <c r="E31">
-        <v>1526</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
       <c r="B32">
-        <v>595</v>
+        <v>327</v>
       </c>
       <c r="C32">
-        <v>927</v>
+        <v>1074</v>
       </c>
       <c r="D32">
-        <v>1766.311046270204</v>
+        <v>1660.948932478191</v>
       </c>
       <c r="E32">
-        <v>1522</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
       <c r="B33">
-        <v>594</v>
+        <v>334</v>
       </c>
       <c r="C33">
-        <v>924</v>
+        <v>1075</v>
       </c>
       <c r="D33">
-        <v>1732.555790503512</v>
+        <v>1629.611137186598</v>
       </c>
       <c r="E33">
-        <v>1518</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
       <c r="B34">
-        <v>528</v>
+        <v>244</v>
       </c>
       <c r="C34">
-        <v>941</v>
+        <v>1127</v>
       </c>
       <c r="D34">
-        <v>1730.70381963116</v>
+        <v>1630.137630460307</v>
       </c>
       <c r="E34">
-        <v>1469</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
       <c r="B35">
-        <v>515</v>
+        <v>229</v>
       </c>
       <c r="C35">
-        <v>952</v>
+        <v>1127</v>
       </c>
       <c r="D35">
-        <v>1728.851848758807</v>
+        <v>1630.664123734015</v>
       </c>
       <c r="E35">
-        <v>1467</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
       <c r="B36">
-        <v>510</v>
+        <v>228</v>
       </c>
       <c r="C36">
-        <v>955</v>
+        <v>1126</v>
       </c>
       <c r="D36">
-        <v>1726.999877886454</v>
+        <v>1631.190617007723</v>
       </c>
       <c r="E36">
-        <v>1465</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
       <c r="B37">
-        <v>502</v>
+        <v>227</v>
       </c>
       <c r="C37">
-        <v>955</v>
+        <v>1124</v>
       </c>
       <c r="D37">
-        <v>1725.147907014101</v>
+        <v>1631.717110281431</v>
       </c>
       <c r="E37">
-        <v>1457</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
       <c r="B38">
-        <v>462</v>
+        <v>156</v>
       </c>
       <c r="C38">
-        <v>965</v>
+        <v>1174</v>
       </c>
       <c r="D38">
-        <v>1699.232661273592</v>
+        <v>1608.19659555376</v>
       </c>
       <c r="E38">
-        <v>1427</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
       <c r="B39">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="C39">
-        <v>960</v>
+        <v>1166</v>
       </c>
       <c r="D39">
-        <v>1673.317415533083</v>
+        <v>1584.676080826089</v>
       </c>
       <c r="E39">
-        <v>1415</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
       <c r="B40">
-        <v>458</v>
+        <v>137</v>
       </c>
       <c r="C40">
-        <v>958</v>
+        <v>1161</v>
       </c>
       <c r="D40">
-        <v>1647.402169792574</v>
+        <v>1561.155566098417</v>
       </c>
       <c r="E40">
-        <v>1416</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
       </c>
       <c r="B41">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="C41">
-        <v>964</v>
+        <v>1158</v>
       </c>
       <c r="D41">
-        <v>1621.486924052065</v>
+        <v>1537.635051370746</v>
       </c>
       <c r="E41">
-        <v>1419</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45733.42708333334</v>
+        <v>45734.42708333334</v>
       </c>
       <c r="B42">
-        <v>454</v>
+        <v>128</v>
       </c>
       <c r="C42">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="D42">
-        <v>1604.831532673424</v>
+        <v>1523.80888018288</v>
       </c>
       <c r="E42">
-        <v>1400</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45733.4375</v>
+        <v>45734.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="D43">
-        <v>1588.176141294783</v>
+        <v>1509.982708995015</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45733.44791666666</v>
+        <v>45734.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="D44">
-        <v>1571.520749916142</v>
+        <v>1496.156537807149</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45733.45833333334</v>
+        <v>45734.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="D45">
-        <v>1554.8653585375</v>
+        <v>1482.330366619284</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45733.46875</v>
+        <v>45734.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="D46">
-        <v>1580.089201818999</v>
+        <v>1508.014081971748</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45733.47916666666</v>
+        <v>45734.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1605.313045100497</v>
+        <v>1533.697797324213</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45733.48958333334</v>
+        <v>45734.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1630.536888381995</v>
+        <v>1559.381512676677</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45733.5</v>
+        <v>45734.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1655.760731663494</v>
+        <v>1585.065228029142</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45733.51041666666</v>
+        <v>45734.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1669.144307834256</v>
+        <v>1592.127105200187</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45733.52083333334</v>
+        <v>45734.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1682.527884005018</v>
+        <v>1599.188982371233</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45733.53125</v>
+        <v>45734.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1695.91146017578</v>
+        <v>1606.250859542279</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45733.54166666666</v>
+        <v>45734.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1709.295036346543</v>
+        <v>1613.312736713324</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45733.55208333334</v>
+        <v>45734.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1706.739316542805</v>
+        <v>1607.509865196638</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45733.5625</v>
+        <v>45734.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1704.183596739067</v>
+        <v>1601.706993679951</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45733.57291666666</v>
+        <v>45734.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1701.627876935328</v>
+        <v>1595.904122163264</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45733.58333333334</v>
+        <v>45734.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1699.072157131591</v>
+        <v>1590.101250646577</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45733.59375</v>
+        <v>45734.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1745.717130169742</v>
+        <v>1646.779396111806</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45733.60416666666</v>
+        <v>45734.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1792.362103207894</v>
+        <v>1703.457541577035</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45733.61458333334</v>
+        <v>45734.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1839.007076246046</v>
+        <v>1760.135687042264</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45733.625</v>
+        <v>45734.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1885.652049284198</v>
+        <v>1816.813832507493</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45733.63541666666</v>
+        <v>45734.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1907.567037940493</v>
+        <v>1838.033800539124</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45733.64583333334</v>
+        <v>45734.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1929.482026596788</v>
+        <v>1859.253768570754</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45733.65625</v>
+        <v>45734.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1951.397015253084</v>
+        <v>1880.473736602385</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45733.66666666666</v>
+        <v>45734.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1973.312003909379</v>
+        <v>1901.693704634015</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45733.67708333334</v>
+        <v>45734.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2015.586325688953</v>
+        <v>1937.838612424747</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45733.6875</v>
+        <v>45734.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2057.860647468527</v>
+        <v>1973.98352021548</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45733.69791666666</v>
+        <v>45734.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2100.134969248101</v>
+        <v>2010.128428006211</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45733.70833333334</v>
+        <v>45734.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2142.409291027674</v>
+        <v>2046.273335796943</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45733.71875</v>
+        <v>45734.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2163.237790105402</v>
+        <v>2061.919342430911</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45733.72916666666</v>
+        <v>45734.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2184.066289183131</v>
+        <v>2077.565349064877</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45733.73958333334</v>
+        <v>45734.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2204.894788260859</v>
+        <v>2093.211355698845</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45733.75</v>
+        <v>45734.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2225.723287338587</v>
+        <v>2108.857362332812</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45733.76041666666</v>
+        <v>45734.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2219.957484689258</v>
+        <v>2101.520793018605</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45733.77083333334</v>
+        <v>45734.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2214.191682039929</v>
+        <v>2094.184223704398</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45733.78125</v>
+        <v>45734.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2208.425879390601</v>
+        <v>2086.847654390191</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45733.79166666666</v>
+        <v>45734.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2202.660076741272</v>
+        <v>2079.511085075984</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45733.80208333334</v>
+        <v>45734.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2218.130206761729</v>
+        <v>2089.995168526419</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45733.8125</v>
+        <v>45734.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2233.600336782187</v>
+        <v>2100.479251976854</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45733.82291666666</v>
+        <v>45734.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2249.070466802645</v>
+        <v>2110.963335427289</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45733.83333333334</v>
+        <v>45734.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2264.540596823102</v>
+        <v>2121.447418877724</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45733.84375</v>
+        <v>45734.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2234.699172833257</v>
+        <v>2093.394483793766</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45733.85416666666</v>
+        <v>45734.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2204.857748843412</v>
+        <v>2065.341548709807</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45733.86458333334</v>
+        <v>45734.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2175.016324853566</v>
+        <v>2037.288613625848</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45733.875</v>
+        <v>45734.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2145.174900863721</v>
+        <v>2009.23567854189</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45733.88541666666</v>
+        <v>45734.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2042.81029751254</v>
+        <v>1918.209569720123</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45733.89583333334</v>
+        <v>45734.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1940.445694161358</v>
+        <v>1827.183460898355</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45733.90625</v>
+        <v>45734.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1838.081090810176</v>
+        <v>1736.157352076587</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45733.91666666666</v>
+        <v>45734.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1735.716487458995</v>
+        <v>1645.13124325482</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45733.92708333334</v>
+        <v>45734.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1716.665880418672</v>
+        <v>1618.47465989701</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45733.9375</v>
+        <v>45734.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1697.61527337835</v>
+        <v>1591.818076539201</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45733.94791666666</v>
+        <v>45734.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1678.564666338028</v>
+        <v>1565.161493181392</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45733.95833333334</v>
+        <v>45734.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1659.514059297705</v>
+        <v>1538.504909823583</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45733.96875</v>
+        <v>45734.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1589.462526914919</v>
+        <v>1534.177519431465</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45733.97916666666</v>
+        <v>45734.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1519.410994532133</v>
+        <v>1529.850129039346</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45733.98958333334</v>
+        <v>45734.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1449.359462149347</v>
+        <v>1525.522738647227</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1379.307929766561</v>
+        <v>1521.195348255109</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,857 +415,857 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C2">
-        <v>920</v>
+        <v>1324</v>
       </c>
       <c r="D2">
-        <v>1441.756048026492</v>
+        <v>1775.990530876589</v>
       </c>
       <c r="E2">
-        <v>1132</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
       <c r="B3">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C3">
-        <v>912</v>
+        <v>1313</v>
       </c>
       <c r="D3">
-        <v>1436.113413593053</v>
+        <v>1766.148335049343</v>
       </c>
       <c r="E3">
-        <v>1107</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="C4">
-        <v>912</v>
+        <v>1310</v>
       </c>
       <c r="D4">
-        <v>1430.470779159614</v>
+        <v>1756.306139222096</v>
       </c>
       <c r="E4">
-        <v>1107</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
       <c r="B5">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C5">
-        <v>912</v>
+        <v>1304</v>
       </c>
       <c r="D5">
-        <v>1424.828144726174</v>
+        <v>1746.463943394849</v>
       </c>
       <c r="E5">
-        <v>1106</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
       <c r="B6">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C6">
-        <v>936</v>
+        <v>1292</v>
       </c>
       <c r="D6">
-        <v>1420.1354872866</v>
+        <v>1742.594477364137</v>
       </c>
       <c r="E6">
-        <v>1127</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
       <c r="B7">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C7">
-        <v>935</v>
+        <v>1286</v>
       </c>
       <c r="D7">
-        <v>1415.442829847026</v>
+        <v>1738.725011333425</v>
       </c>
       <c r="E7">
-        <v>1130</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
       <c r="B8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C8">
-        <v>952</v>
+        <v>1267</v>
       </c>
       <c r="D8">
-        <v>1410.750172407451</v>
+        <v>1734.855545302713</v>
       </c>
       <c r="E8">
-        <v>1174</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
       <c r="B9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9">
-        <v>954</v>
+        <v>1265</v>
       </c>
       <c r="D9">
-        <v>1406.057514967877</v>
+        <v>1730.986079272001</v>
       </c>
       <c r="E9">
-        <v>1181</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
       <c r="B10">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="C10">
-        <v>959</v>
+        <v>1198</v>
       </c>
       <c r="D10">
-        <v>1409.903204967042</v>
+        <v>1732.496114796279</v>
       </c>
       <c r="E10">
-        <v>1188</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
       <c r="B11">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C11">
-        <v>956</v>
+        <v>1191</v>
       </c>
       <c r="D11">
-        <v>1413.748894966207</v>
+        <v>1734.006150320558</v>
       </c>
       <c r="E11">
-        <v>1149</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
       <c r="B12">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C12">
-        <v>954</v>
+        <v>1193</v>
       </c>
       <c r="D12">
-        <v>1417.594584965371</v>
+        <v>1735.516185844837</v>
       </c>
       <c r="E12">
-        <v>1144</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
       <c r="B13">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C13">
-        <v>954</v>
+        <v>1194</v>
       </c>
       <c r="D13">
-        <v>1421.440274964536</v>
+        <v>1737.026221369115</v>
       </c>
       <c r="E13">
-        <v>1132</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
       <c r="B14">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C14">
-        <v>961</v>
+        <v>1246</v>
       </c>
       <c r="D14">
-        <v>1426.533525112366</v>
+        <v>1739.614853696134</v>
       </c>
       <c r="E14">
-        <v>1134</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
       <c r="B15">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C15">
-        <v>957</v>
+        <v>1248</v>
       </c>
       <c r="D15">
-        <v>1431.626775260195</v>
+        <v>1742.203486023152</v>
       </c>
       <c r="E15">
-        <v>1142</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
       <c r="B16">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C16">
-        <v>957</v>
+        <v>1247</v>
       </c>
       <c r="D16">
-        <v>1436.720025408024</v>
+        <v>1744.792118350171</v>
       </c>
       <c r="E16">
-        <v>1154</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
       <c r="B17">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C17">
-        <v>957</v>
+        <v>1249</v>
       </c>
       <c r="D17">
-        <v>1441.813275555853</v>
+        <v>1747.380750677189</v>
       </c>
       <c r="E17">
-        <v>1136</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
       <c r="B18">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C18">
-        <v>910</v>
+        <v>1294</v>
       </c>
       <c r="D18">
-        <v>1445.876430168216</v>
+        <v>1757.613937845618</v>
       </c>
       <c r="E18">
-        <v>1121</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
       <c r="B19">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C19">
-        <v>892</v>
+        <v>1298</v>
       </c>
       <c r="D19">
-        <v>1449.939584780579</v>
+        <v>1767.847125014048</v>
       </c>
       <c r="E19">
-        <v>1114</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
       <c r="B20">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20">
-        <v>892</v>
+        <v>1298</v>
       </c>
       <c r="D20">
-        <v>1454.002739392941</v>
+        <v>1778.080312182477</v>
       </c>
       <c r="E20">
-        <v>1124</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
       <c r="B21">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C21">
-        <v>892</v>
+        <v>1299</v>
       </c>
       <c r="D21">
-        <v>1458.065894005304</v>
+        <v>1788.313499350906</v>
       </c>
       <c r="E21">
-        <v>1148</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
       <c r="B22">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C22">
-        <v>930</v>
+        <v>1288</v>
       </c>
       <c r="D22">
-        <v>1511.607970840245</v>
+        <v>1859.878397228973</v>
       </c>
       <c r="E22">
-        <v>1162</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
       <c r="B23">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C23">
-        <v>928</v>
+        <v>1285</v>
       </c>
       <c r="D23">
-        <v>1565.150047675186</v>
+        <v>1931.443295107041</v>
       </c>
       <c r="E23">
-        <v>1168</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
       <c r="B24">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C24">
-        <v>926</v>
+        <v>1288</v>
       </c>
       <c r="D24">
-        <v>1618.692124510127</v>
+        <v>2003.008192985108</v>
       </c>
       <c r="E24">
-        <v>1173</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
       <c r="B25">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C25">
-        <v>936</v>
+        <v>1289</v>
       </c>
       <c r="D25">
-        <v>1672.234201345068</v>
+        <v>2074.573090863175</v>
       </c>
       <c r="E25">
-        <v>1213</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
       <c r="B26">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="C26">
-        <v>1094</v>
+        <v>1433</v>
       </c>
       <c r="D26">
-        <v>1692.916230597043</v>
+        <v>2082.649084425413</v>
       </c>
       <c r="E26">
-        <v>1387</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
       <c r="B27">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C27">
-        <v>1098</v>
+        <v>1434</v>
       </c>
       <c r="D27">
-        <v>1713.598259849018</v>
+        <v>2090.725077987651</v>
       </c>
       <c r="E27">
-        <v>1452</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
       <c r="B28">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="C28">
-        <v>1097</v>
+        <v>1431</v>
       </c>
       <c r="D28">
-        <v>1734.280289100992</v>
+        <v>2098.801071549889</v>
       </c>
       <c r="E28">
-        <v>1437</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
       <c r="B29">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="C29">
-        <v>1098</v>
+        <v>1430</v>
       </c>
       <c r="D29">
-        <v>1754.962318352967</v>
+        <v>2106.877065112127</v>
       </c>
       <c r="E29">
-        <v>1426</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
       <c r="B30">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="C30">
-        <v>1073</v>
+        <v>1457</v>
       </c>
       <c r="D30">
-        <v>1723.624523061375</v>
+        <v>2059.176121500247</v>
       </c>
       <c r="E30">
-        <v>1432</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
       <c r="B31">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="C31">
-        <v>1076</v>
+        <v>1404</v>
       </c>
       <c r="D31">
-        <v>1692.286727769783</v>
+        <v>2011.475177888367</v>
       </c>
       <c r="E31">
-        <v>1413</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
       <c r="B32">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="C32">
-        <v>1074</v>
+        <v>1407</v>
       </c>
       <c r="D32">
-        <v>1660.948932478191</v>
+        <v>1963.774234276487</v>
       </c>
       <c r="E32">
-        <v>1401</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
       <c r="B33">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C33">
-        <v>1075</v>
+        <v>1384</v>
       </c>
       <c r="D33">
-        <v>1629.611137186598</v>
+        <v>1916.073290664606</v>
       </c>
       <c r="E33">
-        <v>1409</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
       <c r="B34">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="C34">
-        <v>1127</v>
+        <v>1325</v>
       </c>
       <c r="D34">
-        <v>1630.137630460307</v>
+        <v>1915.39916766274</v>
       </c>
       <c r="E34">
-        <v>1371</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
       <c r="B35">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C35">
-        <v>1127</v>
+        <v>1316</v>
       </c>
       <c r="D35">
-        <v>1630.664123734015</v>
+        <v>1914.725044660874</v>
       </c>
       <c r="E35">
-        <v>1356</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
       <c r="B36">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>1126</v>
+        <v>1320</v>
       </c>
       <c r="D36">
-        <v>1631.190617007723</v>
+        <v>1914.050921659008</v>
       </c>
       <c r="E36">
-        <v>1354</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
       <c r="B37">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="C37">
-        <v>1124</v>
+        <v>1311</v>
       </c>
       <c r="D37">
-        <v>1631.717110281431</v>
+        <v>1913.376798657141</v>
       </c>
       <c r="E37">
-        <v>1351</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
       <c r="B38">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>1174</v>
+        <v>1050</v>
       </c>
       <c r="D38">
-        <v>1608.19659555376</v>
+        <v>1877.378630357381</v>
       </c>
       <c r="E38">
-        <v>1330</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
       <c r="B39">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C39">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="D39">
-        <v>1584.676080826089</v>
+        <v>1841.380462057621</v>
       </c>
       <c r="E39">
-        <v>1309</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
       <c r="B40">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C40">
-        <v>1161</v>
+        <v>1132</v>
       </c>
       <c r="D40">
-        <v>1561.155566098417</v>
+        <v>1805.38229375786</v>
       </c>
       <c r="E40">
-        <v>1298</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
       <c r="B41">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C41">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D41">
-        <v>1537.635051370746</v>
+        <v>1769.3841254581</v>
       </c>
       <c r="E41">
-        <v>1293</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
       <c r="B42">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C42">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="D42">
-        <v>1523.80888018288</v>
+        <v>1743.888793527617</v>
       </c>
       <c r="E42">
-        <v>1137</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="D43">
-        <v>1509.982708995015</v>
+        <v>1718.393461597134</v>
       </c>
       <c r="E43">
-        <v>1112</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C44">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D44">
-        <v>1496.156537807149</v>
+        <v>1692.898129666651</v>
       </c>
       <c r="E44">
-        <v>1099</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
       </c>
       <c r="B45">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C45">
-        <v>997</v>
+        <v>1077</v>
       </c>
       <c r="D45">
-        <v>1482.330366619284</v>
+        <v>1667.402797736168</v>
       </c>
       <c r="E45">
-        <v>1094</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45734.46875</v>
+        <v>45736.46875</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C46">
-        <v>970</v>
+        <v>1136</v>
       </c>
       <c r="D46">
-        <v>1508.014081971748</v>
+        <v>1681.397591254863</v>
       </c>
       <c r="E46">
-        <v>1076</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45734.47916666666</v>
+        <v>45736.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="D47">
-        <v>1533.697797324213</v>
+        <v>1695.392384773559</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45734.48958333334</v>
+        <v>45736.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="D48">
-        <v>1559.381512676677</v>
+        <v>1709.387178292254</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45734.5</v>
+        <v>45736.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="D49">
-        <v>1585.065228029142</v>
+        <v>1723.38197181095</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45734.51041666666</v>
+        <v>45736.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="D50">
-        <v>1592.127105200187</v>
+        <v>1727.655911642782</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45734.52083333334</v>
+        <v>45736.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="D51">
-        <v>1599.188982371233</v>
+        <v>1731.929851474613</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45734.53125</v>
+        <v>45736.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1606.250859542279</v>
+        <v>1736.203791306445</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45734.54166666666</v>
+        <v>45736.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1613.312736713324</v>
+        <v>1740.477731138277</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45734.55208333334</v>
+        <v>45736.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1607.509865196638</v>
+        <v>1767.510063513113</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45734.5625</v>
+        <v>45736.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1601.706993679951</v>
+        <v>1794.542395887948</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45734.57291666666</v>
+        <v>45736.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1595.904122163264</v>
+        <v>1821.574728262783</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45734.58333333334</v>
+        <v>45736.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1590.101250646577</v>
+        <v>1848.607060637619</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45734.59375</v>
+        <v>45736.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1646.779396111806</v>
+        <v>1917.070992707152</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45734.60416666666</v>
+        <v>45736.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1703.457541577035</v>
+        <v>1985.534924776685</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45734.61458333334</v>
+        <v>45736.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1760.135687042264</v>
+        <v>2053.998856846218</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45734.625</v>
+        <v>45736.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1816.813832507493</v>
+        <v>2122.462788915751</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45734.63541666666</v>
+        <v>45736.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1838.033800539124</v>
+        <v>2159.728308459044</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45734.64583333334</v>
+        <v>45736.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1859.253768570754</v>
+        <v>2196.993828002337</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45734.65625</v>
+        <v>45736.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1880.473736602385</v>
+        <v>2234.25934754563</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45734.66666666666</v>
+        <v>45736.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1901.693704634015</v>
+        <v>2271.524867088923</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45734.67708333334</v>
+        <v>45736.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1937.838612424747</v>
+        <v>2325.926593339399</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45734.6875</v>
+        <v>45736.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1973.98352021548</v>
+        <v>2380.328319589874</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45734.69791666666</v>
+        <v>45736.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2010.128428006211</v>
+        <v>2434.730045840349</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45734.70833333334</v>
+        <v>45736.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2046.273335796943</v>
+        <v>2489.131772090824</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45734.71875</v>
+        <v>45736.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2061.919342430911</v>
+        <v>2505.553408416285</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45734.72916666666</v>
+        <v>45736.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2077.565349064877</v>
+        <v>2521.975044741746</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45734.73958333334</v>
+        <v>45736.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2093.211355698845</v>
+        <v>2538.396681067207</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45734.75</v>
+        <v>45736.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2108.857362332812</v>
+        <v>2554.818317392669</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45734.76041666666</v>
+        <v>45736.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2101.520793018605</v>
+        <v>2551.933070944609</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45734.77083333334</v>
+        <v>45736.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2094.184223704398</v>
+        <v>2549.04782449655</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45734.78125</v>
+        <v>45736.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2086.847654390191</v>
+        <v>2546.162578048491</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45734.79166666666</v>
+        <v>45736.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2079.511085075984</v>
+        <v>2543.277331600431</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45734.80208333334</v>
+        <v>45736.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2089.995168526419</v>
+        <v>2548.023157533714</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45734.8125</v>
+        <v>45736.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2100.479251976854</v>
+        <v>2552.768983466997</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45734.82291666666</v>
+        <v>45736.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2110.963335427289</v>
+        <v>2557.51480940028</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45734.83333333334</v>
+        <v>45736.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2121.447418877724</v>
+        <v>2562.260635333562</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45734.84375</v>
+        <v>45736.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2093.394483793766</v>
+        <v>2529.619599583128</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45734.85416666666</v>
+        <v>45736.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2065.341548709807</v>
+        <v>2496.978563832693</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45734.86458333334</v>
+        <v>45736.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2037.288613625848</v>
+        <v>2464.337528082257</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45734.875</v>
+        <v>45736.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2009.23567854189</v>
+        <v>2431.696492331823</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45734.88541666666</v>
+        <v>45736.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1918.209569720123</v>
+        <v>2332.128524956182</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45734.89583333334</v>
+        <v>45736.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1827.183460898355</v>
+        <v>2232.560557580542</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45734.90625</v>
+        <v>45736.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1736.157352076587</v>
+        <v>2132.992590204901</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45734.91666666666</v>
+        <v>45736.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1645.13124325482</v>
+        <v>2033.424622829261</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45734.92708333334</v>
+        <v>45736.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1618.47465989701</v>
+        <v>1999.017384814063</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45734.9375</v>
+        <v>45736.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1591.818076539201</v>
+        <v>1964.610146798865</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45734.94791666666</v>
+        <v>45736.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1565.161493181392</v>
+        <v>1930.202908783667</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45734.95833333334</v>
+        <v>45736.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1538.504909823583</v>
+        <v>1895.795670768468</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45734.96875</v>
+        <v>45736.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1534.177519431465</v>
+        <v>1865.049475295936</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45734.97916666666</v>
+        <v>45736.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1529.850129039346</v>
+        <v>1834.303279823403</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45734.98958333334</v>
+        <v>45736.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1525.522738647227</v>
+        <v>1803.557084350869</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45735</v>
+        <v>45737</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1521.195348255109</v>
+        <v>1772.810888878337</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,857 +415,857 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B2">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>1324</v>
+        <v>955</v>
       </c>
       <c r="D2">
-        <v>1775.990530876589</v>
+        <v>1824.48077346862</v>
       </c>
       <c r="E2">
-        <v>1544</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B3">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="C3">
-        <v>1313</v>
+        <v>920</v>
       </c>
       <c r="D3">
-        <v>1766.148335049343</v>
+        <v>1813.388844311347</v>
       </c>
       <c r="E3">
-        <v>1525</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B4">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C4">
-        <v>1310</v>
+        <v>922</v>
       </c>
       <c r="D4">
-        <v>1756.306139222096</v>
+        <v>1802.296915154075</v>
       </c>
       <c r="E4">
-        <v>1525</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B5">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="C5">
-        <v>1304</v>
+        <v>920</v>
       </c>
       <c r="D5">
-        <v>1746.463943394849</v>
+        <v>1791.204985996803</v>
       </c>
       <c r="E5">
-        <v>1520</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B6">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="C6">
-        <v>1292</v>
+        <v>933</v>
       </c>
       <c r="D6">
-        <v>1742.594477364137</v>
+        <v>1785.985254628675</v>
       </c>
       <c r="E6">
-        <v>1521</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B7">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="C7">
-        <v>1286</v>
+        <v>935</v>
       </c>
       <c r="D7">
-        <v>1738.725011333425</v>
+        <v>1780.765523260546</v>
       </c>
       <c r="E7">
-        <v>1510</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B8">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="C8">
-        <v>1267</v>
+        <v>935</v>
       </c>
       <c r="D8">
-        <v>1734.855545302713</v>
+        <v>1775.545791892418</v>
       </c>
       <c r="E8">
-        <v>1494</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B9">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="C9">
-        <v>1265</v>
+        <v>936</v>
       </c>
       <c r="D9">
-        <v>1730.986079272001</v>
+        <v>1770.32606052429</v>
       </c>
       <c r="E9">
-        <v>1490</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B10">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C10">
-        <v>1198</v>
+        <v>971</v>
       </c>
       <c r="D10">
-        <v>1732.496114796279</v>
+        <v>1772.135731541121</v>
       </c>
       <c r="E10">
-        <v>1362</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B11">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C11">
-        <v>1191</v>
+        <v>1008</v>
       </c>
       <c r="D11">
-        <v>1734.006150320558</v>
+        <v>1773.945402557952</v>
       </c>
       <c r="E11">
-        <v>1352</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B12">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C12">
-        <v>1193</v>
+        <v>996</v>
       </c>
       <c r="D12">
-        <v>1735.516185844837</v>
+        <v>1775.755073574783</v>
       </c>
       <c r="E12">
-        <v>1355</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B13">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13">
-        <v>1194</v>
+        <v>986</v>
       </c>
       <c r="D13">
-        <v>1737.026221369115</v>
+        <v>1777.564744591614</v>
       </c>
       <c r="E13">
-        <v>1356</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B14">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C14">
-        <v>1246</v>
+        <v>978</v>
       </c>
       <c r="D14">
-        <v>1739.614853696134</v>
+        <v>1790.023160026813</v>
       </c>
       <c r="E14">
-        <v>1409</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B15">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C15">
-        <v>1248</v>
+        <v>1008</v>
       </c>
       <c r="D15">
-        <v>1742.203486023152</v>
+        <v>1802.481575462011</v>
       </c>
       <c r="E15">
-        <v>1411</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B16">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C16">
-        <v>1247</v>
+        <v>1008</v>
       </c>
       <c r="D16">
-        <v>1744.792118350171</v>
+        <v>1814.93999089721</v>
       </c>
       <c r="E16">
-        <v>1414</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B17">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C17">
-        <v>1249</v>
+        <v>997</v>
       </c>
       <c r="D17">
-        <v>1747.380750677189</v>
+        <v>1827.398406332408</v>
       </c>
       <c r="E17">
-        <v>1420</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B18">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C18">
-        <v>1294</v>
+        <v>996</v>
       </c>
       <c r="D18">
-        <v>1757.613937845618</v>
+        <v>1841.678803471519</v>
       </c>
       <c r="E18">
-        <v>1516</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B19">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C19">
-        <v>1298</v>
+        <v>998</v>
       </c>
       <c r="D19">
-        <v>1767.847125014048</v>
+        <v>1855.95920061063</v>
       </c>
       <c r="E19">
-        <v>1528</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B20">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="C20">
-        <v>1298</v>
+        <v>998</v>
       </c>
       <c r="D20">
-        <v>1778.080312182477</v>
+        <v>1870.239597749741</v>
       </c>
       <c r="E20">
-        <v>1528</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B21">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C21">
-        <v>1299</v>
+        <v>1000</v>
       </c>
       <c r="D21">
-        <v>1788.313499350906</v>
+        <v>1884.519994888852</v>
       </c>
       <c r="E21">
-        <v>1532</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B22">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="C22">
-        <v>1288</v>
+        <v>1029</v>
       </c>
       <c r="D22">
-        <v>1859.878397228973</v>
+        <v>1951.403958386757</v>
       </c>
       <c r="E22">
-        <v>1550</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B23">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="C23">
-        <v>1285</v>
+        <v>1016</v>
       </c>
       <c r="D23">
-        <v>1931.443295107041</v>
+        <v>2018.287921884662</v>
       </c>
       <c r="E23">
-        <v>1551</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B24">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C24">
-        <v>1288</v>
+        <v>1028</v>
       </c>
       <c r="D24">
-        <v>2003.008192985108</v>
+        <v>2085.171885382568</v>
       </c>
       <c r="E24">
-        <v>1552</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B25">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="C25">
-        <v>1289</v>
+        <v>1048</v>
       </c>
       <c r="D25">
-        <v>2074.573090863175</v>
+        <v>2152.055848880473</v>
       </c>
       <c r="E25">
-        <v>1571</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B26">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="C26">
-        <v>1433</v>
+        <v>1229</v>
       </c>
       <c r="D26">
-        <v>2082.649084425413</v>
+        <v>2142.785901427108</v>
       </c>
       <c r="E26">
-        <v>1800</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B27">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="C27">
-        <v>1434</v>
+        <v>1237</v>
       </c>
       <c r="D27">
-        <v>2090.725077987651</v>
+        <v>2133.515953973744</v>
       </c>
       <c r="E27">
-        <v>1800</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B28">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="C28">
-        <v>1431</v>
+        <v>1243</v>
       </c>
       <c r="D28">
-        <v>2098.801071549889</v>
+        <v>2124.24600652038</v>
       </c>
       <c r="E28">
-        <v>1796</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B29">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="C29">
-        <v>1430</v>
+        <v>1274</v>
       </c>
       <c r="D29">
-        <v>2106.877065112127</v>
+        <v>2114.976059067015</v>
       </c>
       <c r="E29">
-        <v>1800</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B30">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="C30">
-        <v>1457</v>
+        <v>1205</v>
       </c>
       <c r="D30">
-        <v>2059.176121500247</v>
+        <v>2055.946313995796</v>
       </c>
       <c r="E30">
-        <v>1879</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B31">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="C31">
-        <v>1404</v>
+        <v>1219</v>
       </c>
       <c r="D31">
-        <v>2011.475177888367</v>
+        <v>1996.916568924576</v>
       </c>
       <c r="E31">
-        <v>1823</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45736.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B32">
-        <v>412</v>
+        <v>288</v>
       </c>
       <c r="C32">
-        <v>1407</v>
+        <v>1208</v>
       </c>
       <c r="D32">
-        <v>1963.774234276487</v>
+        <v>1937.886823853356</v>
       </c>
       <c r="E32">
-        <v>1819</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45736.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B33">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="C33">
-        <v>1384</v>
+        <v>1212</v>
       </c>
       <c r="D33">
-        <v>1916.073290664606</v>
+        <v>1878.857078782136</v>
       </c>
       <c r="E33">
-        <v>1688</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45736.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B34">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1915.39916766274</v>
+        <v>1841.161754609529</v>
       </c>
       <c r="E34">
-        <v>1474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45736.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B35">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1914.725044660874</v>
+        <v>1803.466430436921</v>
       </c>
       <c r="E35">
-        <v>1460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45736.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B36">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1914.050921659008</v>
+        <v>1765.771106264314</v>
       </c>
       <c r="E36">
-        <v>1464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45736.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B37">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1311</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1913.376798657141</v>
+        <v>1728.075782091706</v>
       </c>
       <c r="E37">
-        <v>1449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45736.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1877.378630357381</v>
+        <v>1688.903175456412</v>
       </c>
       <c r="E38">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45736.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B39">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1153</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1841.380462057621</v>
+        <v>1649.730568821117</v>
       </c>
       <c r="E39">
-        <v>1221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45736.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B40">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1132</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1805.38229375786</v>
+        <v>1610.557962185823</v>
       </c>
       <c r="E40">
-        <v>1198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45736.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B41">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1769.3841254581</v>
+        <v>1571.385355550529</v>
       </c>
       <c r="E41">
-        <v>1223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45736.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B42">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1019</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1743.888793527617</v>
+        <v>1575.767960189852</v>
       </c>
       <c r="E42">
-        <v>1104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45736.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B43">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1718.393461597134</v>
+        <v>1580.150564829175</v>
       </c>
       <c r="E43">
-        <v>1078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45736.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B44">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1692.898129666651</v>
+        <v>1584.533169468499</v>
       </c>
       <c r="E44">
-        <v>1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45736.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B45">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1077</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1667.402797736168</v>
+        <v>1588.915774107822</v>
       </c>
       <c r="E45">
-        <v>1156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45736.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B46">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1681.397591254863</v>
+        <v>1595.206535261209</v>
       </c>
       <c r="E46">
-        <v>1271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45736.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B47">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1695.392384773559</v>
+        <v>1601.497296414595</v>
       </c>
       <c r="E47">
-        <v>1275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45736.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B48">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1709.387178292254</v>
+        <v>1607.788057567982</v>
       </c>
       <c r="E48">
-        <v>1285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45736.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B49">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1723.38197181095</v>
+        <v>1614.078818721369</v>
       </c>
       <c r="E49">
-        <v>1284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B50">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1727.655911642782</v>
+        <v>1624.764495201497</v>
       </c>
       <c r="E50">
-        <v>1259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45736.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B51">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1731.929851474613</v>
+        <v>1635.450171681625</v>
       </c>
       <c r="E51">
-        <v>1264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45736.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1736.203791306445</v>
+        <v>1646.135848161753</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45736.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1740.477731138277</v>
+        <v>1656.821524641881</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45736.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1767.510063513113</v>
+        <v>1671.840563012438</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45736.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1794.542395887948</v>
+        <v>1686.859601382996</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45736.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1821.574728262783</v>
+        <v>1701.878639753553</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45736.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1848.607060637619</v>
+        <v>1716.897678124111</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45736.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1917.070992707152</v>
+        <v>1773.489907131748</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45736.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1985.534924776685</v>
+        <v>1830.082136139385</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45736.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2053.998856846218</v>
+        <v>1886.674365147021</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45736.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2122.462788915751</v>
+        <v>1943.266594154658</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45736.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2159.728308459044</v>
+        <v>2028.764316682376</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45736.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2196.993828002337</v>
+        <v>2114.262039210093</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45736.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2234.25934754563</v>
+        <v>2199.759761737811</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45736.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2271.524867088923</v>
+        <v>2285.257484265528</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45736.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2325.926593339399</v>
+        <v>2338.218060552396</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45736.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2380.328319589874</v>
+        <v>2391.178636839264</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45736.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2434.730045840349</v>
+        <v>2444.139213126132</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45736.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2489.131772090824</v>
+        <v>2497.099789413</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45736.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2505.553408416285</v>
+        <v>2523.456970684609</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2521.975044741746</v>
+        <v>2549.814151956219</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45736.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2538.396681067207</v>
+        <v>2576.171333227828</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45736.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2554.818317392669</v>
+        <v>2602.528514499437</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45736.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2551.933070944609</v>
+        <v>2604.018107649378</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45736.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2549.04782449655</v>
+        <v>2605.507700799319</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45736.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2546.162578048491</v>
+        <v>2606.99729394926</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45736.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2543.277331600431</v>
+        <v>2608.486887099201</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45736.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2548.023157533714</v>
+        <v>2587.435612005825</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45736.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2552.768983466997</v>
+        <v>2566.384336912448</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45736.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2557.51480940028</v>
+        <v>2545.333061819072</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45736.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2562.260635333562</v>
+        <v>2524.281786725695</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45736.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2529.619599583128</v>
+        <v>2500.017422276356</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45736.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2496.978563832693</v>
+        <v>2475.753057827018</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45736.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2464.337528082257</v>
+        <v>2451.48869337768</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45736.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2431.696492331823</v>
+        <v>2427.224328928341</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45736.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2332.128524956182</v>
+        <v>2346.3800461583</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45736.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2232.560557580542</v>
+        <v>2265.535763388259</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45736.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2132.992590204901</v>
+        <v>2184.691480618218</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45736.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2033.424622829261</v>
+        <v>2103.847197848176</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45736.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1999.017384814063</v>
+        <v>2059.848801834647</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45736.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1964.610146798865</v>
+        <v>2015.850405821117</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45736.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1930.202908783667</v>
+        <v>1971.852009807587</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45736.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1895.795670768468</v>
+        <v>1927.853613794057</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45736.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1865.049475295936</v>
+        <v>1909.803828029734</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45736.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1834.303279823403</v>
+        <v>1891.754042265411</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45736.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1803.557084350869</v>
+        <v>1873.704256501088</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1772.810888878337</v>
+        <v>1855.654470736765</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,203 +415,203 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C2">
-        <v>955</v>
+        <v>1016</v>
       </c>
       <c r="D2">
-        <v>1824.48077346862</v>
+        <v>1738.423716230014</v>
       </c>
       <c r="E2">
-        <v>1103</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="C3">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>1813.388844311347</v>
+        <v>1727.293488980254</v>
       </c>
       <c r="E3">
-        <v>1065</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B4">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C4">
-        <v>922</v>
+        <v>998</v>
       </c>
       <c r="D4">
-        <v>1802.296915154075</v>
+        <v>1716.163261730494</v>
       </c>
       <c r="E4">
-        <v>1068</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B5">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C5">
-        <v>920</v>
+        <v>997</v>
       </c>
       <c r="D5">
-        <v>1791.204985996803</v>
+        <v>1705.033034480733</v>
       </c>
       <c r="E5">
-        <v>1066</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C6">
-        <v>933</v>
+        <v>995</v>
       </c>
       <c r="D6">
-        <v>1785.985254628675</v>
+        <v>1703.69034039981</v>
       </c>
       <c r="E6">
-        <v>1072</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B7">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="D7">
-        <v>1780.765523260546</v>
+        <v>1702.347646318887</v>
       </c>
       <c r="E7">
-        <v>1073</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B8">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C8">
-        <v>935</v>
+        <v>988</v>
       </c>
       <c r="D8">
-        <v>1775.545791892418</v>
+        <v>1701.004952237963</v>
       </c>
       <c r="E8">
-        <v>1072</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B9">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C9">
-        <v>936</v>
+        <v>981</v>
       </c>
       <c r="D9">
-        <v>1770.32606052429</v>
+        <v>1699.66225815704</v>
       </c>
       <c r="E9">
-        <v>1076</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B10">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C10">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="D10">
-        <v>1772.135731541121</v>
+        <v>1701.110954402298</v>
       </c>
       <c r="E10">
-        <v>1124</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B11">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C11">
-        <v>1008</v>
+        <v>973</v>
       </c>
       <c r="D11">
-        <v>1773.945402557952</v>
+        <v>1702.559650647556</v>
       </c>
       <c r="E11">
-        <v>1161</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B12">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C12">
-        <v>996</v>
+        <v>963</v>
       </c>
       <c r="D12">
-        <v>1775.755073574783</v>
+        <v>1704.008346892814</v>
       </c>
       <c r="E12">
-        <v>1149</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B13">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C13">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="D13">
-        <v>1777.564744591614</v>
+        <v>1705.457043138072</v>
       </c>
       <c r="E13">
         <v>1138</v>
@@ -619,551 +619,551 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C14">
-        <v>978</v>
+        <v>911</v>
       </c>
       <c r="D14">
-        <v>1790.023160026813</v>
+        <v>1716.516602278206</v>
       </c>
       <c r="E14">
-        <v>1130</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B15">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C15">
-        <v>1008</v>
+        <v>897</v>
       </c>
       <c r="D15">
-        <v>1802.481575462011</v>
+        <v>1727.576161418341</v>
       </c>
       <c r="E15">
-        <v>1160</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B16">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C16">
-        <v>1008</v>
+        <v>897</v>
       </c>
       <c r="D16">
-        <v>1814.93999089721</v>
+        <v>1738.635720558475</v>
       </c>
       <c r="E16">
-        <v>1160</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B17">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C17">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="D17">
-        <v>1827.398406332408</v>
+        <v>1749.695279698609</v>
       </c>
       <c r="E17">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B18">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C18">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="D18">
-        <v>1841.678803471519</v>
+        <v>1762.910216179383</v>
       </c>
       <c r="E18">
-        <v>1151</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B19">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C19">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D19">
-        <v>1855.95920061063</v>
+        <v>1776.125152660158</v>
       </c>
       <c r="E19">
-        <v>1154</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B20">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C20">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="D20">
-        <v>1870.239597749741</v>
+        <v>1789.340089140932</v>
       </c>
       <c r="E20">
-        <v>1156</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B21">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C21">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="D21">
-        <v>1884.519994888852</v>
+        <v>1802.555025621707</v>
       </c>
       <c r="E21">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B22">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C22">
-        <v>1029</v>
+        <v>1077</v>
       </c>
       <c r="D22">
-        <v>1951.403958386757</v>
+        <v>1867.310569980575</v>
       </c>
       <c r="E22">
-        <v>1200</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B23">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C23">
-        <v>1016</v>
+        <v>1090</v>
       </c>
       <c r="D23">
-        <v>2018.287921884662</v>
+        <v>1932.066114339444</v>
       </c>
       <c r="E23">
-        <v>1188</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B24">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C24">
-        <v>1028</v>
+        <v>1091</v>
       </c>
       <c r="D24">
-        <v>2085.171885382568</v>
+        <v>1996.821658698312</v>
       </c>
       <c r="E24">
-        <v>1199</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B25">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C25">
-        <v>1048</v>
+        <v>1099</v>
       </c>
       <c r="D25">
-        <v>2152.055848880473</v>
+        <v>2061.577203057181</v>
       </c>
       <c r="E25">
-        <v>1226</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B26">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26">
-        <v>1229</v>
+        <v>1265</v>
       </c>
       <c r="D26">
-        <v>2142.785901427108</v>
+        <v>2050.564755989958</v>
       </c>
       <c r="E26">
-        <v>1489</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B27">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C27">
-        <v>1237</v>
+        <v>1267</v>
       </c>
       <c r="D27">
-        <v>2133.515953973744</v>
+        <v>2039.552308922734</v>
       </c>
       <c r="E27">
-        <v>1503</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B28">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C28">
-        <v>1243</v>
+        <v>1265</v>
       </c>
       <c r="D28">
-        <v>2124.24600652038</v>
+        <v>2028.539861855511</v>
       </c>
       <c r="E28">
-        <v>1512</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B29">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C29">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="D29">
-        <v>2114.976059067015</v>
+        <v>2017.527414788288</v>
       </c>
       <c r="E29">
-        <v>1545</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B30">
-        <v>291</v>
+        <v>403</v>
       </c>
       <c r="C30">
-        <v>1205</v>
+        <v>1251</v>
       </c>
       <c r="D30">
-        <v>2055.946313995796</v>
+        <v>1961.263821590294</v>
       </c>
       <c r="E30">
-        <v>1496</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B31">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="C31">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="D31">
-        <v>1996.916568924576</v>
+        <v>1905.0002283923</v>
       </c>
       <c r="E31">
-        <v>1509</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B32">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="C32">
-        <v>1208</v>
+        <v>1253</v>
       </c>
       <c r="D32">
-        <v>1937.886823853356</v>
+        <v>1848.736635194305</v>
       </c>
       <c r="E32">
-        <v>1496</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B33">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="C33">
-        <v>1212</v>
+        <v>1245</v>
       </c>
       <c r="D33">
-        <v>1878.857078782136</v>
+        <v>1792.473041996311</v>
       </c>
       <c r="E33">
-        <v>1481</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="D34">
-        <v>1841.161754609529</v>
+        <v>1757.362769581988</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="D35">
-        <v>1803.466430436921</v>
+        <v>1722.252497167664</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="D36">
-        <v>1765.771106264314</v>
+        <v>1687.142224753341</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1213</v>
       </c>
       <c r="D37">
-        <v>1728.075782091706</v>
+        <v>1652.031952339018</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1091</v>
       </c>
       <c r="D38">
-        <v>1688.903175456412</v>
+        <v>1609.666420680363</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="D39">
-        <v>1649.730568821117</v>
+        <v>1567.300889021707</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="D40">
-        <v>1610.557962185823</v>
+        <v>1524.935357363051</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="D41">
-        <v>1571.385355550529</v>
+        <v>1482.569825704395</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="D42">
-        <v>1575.767960189852</v>
+        <v>1485.290547921137</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="D43">
-        <v>1580.150564829175</v>
+        <v>1488.011270137879</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="D44">
-        <v>1584.533169468499</v>
+        <v>1490.731992354622</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1124</v>
       </c>
       <c r="D45">
-        <v>1588.915774107822</v>
+        <v>1493.452714571364</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1595.206535261209</v>
+        <v>1492.651809329932</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1601.497296414595</v>
+        <v>1491.850904088501</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1607.788057567982</v>
+        <v>1491.049998847069</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1614.078818721369</v>
+        <v>1490.249093605637</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1624.764495201497</v>
+        <v>1497.775247269942</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1635.450171681625</v>
+        <v>1505.301400934246</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1646.135848161753</v>
+        <v>1512.82755459855</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1656.821524641881</v>
+        <v>1520.353708262855</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1671.840563012438</v>
+        <v>1541.212578590043</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1686.859601382996</v>
+        <v>1562.071448917233</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1701.878639753553</v>
+        <v>1582.930319244422</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1716.897678124111</v>
+        <v>1603.789189571611</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1773.489907131748</v>
+        <v>1648.274764515992</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1830.082136139385</v>
+        <v>1692.760339460374</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1886.674365147021</v>
+        <v>1737.245914404755</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1943.266594154658</v>
+        <v>1781.731489349137</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2028.764316682376</v>
+        <v>1866.250548337739</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2114.262039210093</v>
+        <v>1950.769607326341</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2199.759761737811</v>
+        <v>2035.288666314943</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2285.257484265528</v>
+        <v>2119.807725303545</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2338.218060552396</v>
+        <v>2179.663614068781</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2391.178636839264</v>
+        <v>2239.519502834017</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2444.139213126132</v>
+        <v>2299.375391599253</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2497.099789413</v>
+        <v>2359.231280364489</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2523.456970684609</v>
+        <v>2399.830109285336</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2549.814151956219</v>
+        <v>2440.428938206182</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2576.171333227828</v>
+        <v>2481.02776712703</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2602.528514499437</v>
+        <v>2521.626596047877</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2604.018107649378</v>
+        <v>2522.604171562859</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2605.507700799319</v>
+        <v>2523.581747077842</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2606.99729394926</v>
+        <v>2524.559322592825</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2608.486887099201</v>
+        <v>2525.536898107807</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2587.435612005825</v>
+        <v>2500.496831300335</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2566.384336912448</v>
+        <v>2475.456764492862</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2545.333061819072</v>
+        <v>2450.416697685388</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2524.281786725695</v>
+        <v>2425.376630877916</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2500.017422276356</v>
+        <v>2399.794775230708</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2475.753057827018</v>
+        <v>2374.212919583501</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2451.48869337768</v>
+        <v>2348.631063936294</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2427.224328928341</v>
+        <v>2323.049208289086</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2346.3800461583</v>
+        <v>2245.066949431442</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2265.535763388259</v>
+        <v>2167.084690573798</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2184.691480618218</v>
+        <v>2089.102431716153</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2103.847197848176</v>
+        <v>2011.120172858509</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2059.848801834647</v>
+        <v>1975.338553403664</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2015.850405821117</v>
+        <v>1939.556933948819</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1971.852009807587</v>
+        <v>1903.775314493974</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1927.853613794057</v>
+        <v>1867.993695039128</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1909.803828029734</v>
+        <v>1855.078556869977</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1891.754042265411</v>
+        <v>1842.163418700826</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1873.704256501088</v>
+        <v>1829.248280531675</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1855.654470736765</v>
+        <v>1816.333142362524</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -424,7 +424,7 @@
         <v>1016</v>
       </c>
       <c r="D2">
-        <v>1738.423716230014</v>
+        <v>1738.388764554137</v>
       </c>
       <c r="E2">
         <v>1188</v>
@@ -441,7 +441,7 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>1727.293488980254</v>
+        <v>1727.258761081866</v>
       </c>
       <c r="E3">
         <v>1171</v>
@@ -458,7 +458,7 @@
         <v>998</v>
       </c>
       <c r="D4">
-        <v>1716.163261730494</v>
+        <v>1716.128757609596</v>
       </c>
       <c r="E4">
         <v>1169</v>
@@ -475,7 +475,7 @@
         <v>997</v>
       </c>
       <c r="D5">
-        <v>1705.033034480733</v>
+        <v>1704.998754137325</v>
       </c>
       <c r="E5">
         <v>1167</v>
@@ -492,7 +492,7 @@
         <v>995</v>
       </c>
       <c r="D6">
-        <v>1703.69034039981</v>
+        <v>1703.656087051781</v>
       </c>
       <c r="E6">
         <v>1165</v>
@@ -509,7 +509,7 @@
         <v>984</v>
       </c>
       <c r="D7">
-        <v>1702.347646318887</v>
+        <v>1702.313419966238</v>
       </c>
       <c r="E7">
         <v>1154</v>
@@ -526,7 +526,7 @@
         <v>988</v>
       </c>
       <c r="D8">
-        <v>1701.004952237963</v>
+        <v>1700.970752880694</v>
       </c>
       <c r="E8">
         <v>1158</v>
@@ -543,7 +543,7 @@
         <v>981</v>
       </c>
       <c r="D9">
-        <v>1699.66225815704</v>
+        <v>1699.62808579515</v>
       </c>
       <c r="E9">
         <v>1151</v>
@@ -560,7 +560,7 @@
         <v>988</v>
       </c>
       <c r="D10">
-        <v>1701.110954402298</v>
+        <v>1701.076752913815</v>
       </c>
       <c r="E10">
         <v>1159</v>
@@ -577,7 +577,7 @@
         <v>973</v>
       </c>
       <c r="D11">
-        <v>1702.559650647556</v>
+        <v>1702.525420032479</v>
       </c>
       <c r="E11">
         <v>1143</v>
@@ -594,7 +594,7 @@
         <v>963</v>
       </c>
       <c r="D12">
-        <v>1704.008346892814</v>
+        <v>1703.974087151143</v>
       </c>
       <c r="E12">
         <v>1131</v>
@@ -611,7 +611,7 @@
         <v>970</v>
       </c>
       <c r="D13">
-        <v>1705.457043138072</v>
+        <v>1705.422754269807</v>
       </c>
       <c r="E13">
         <v>1138</v>
@@ -628,7 +628,7 @@
         <v>911</v>
       </c>
       <c r="D14">
-        <v>1716.516602278206</v>
+        <v>1716.482091053419</v>
       </c>
       <c r="E14">
         <v>1071</v>
@@ -645,7 +645,7 @@
         <v>897</v>
       </c>
       <c r="D15">
-        <v>1727.576161418341</v>
+        <v>1727.54142783703</v>
       </c>
       <c r="E15">
         <v>1055</v>
@@ -662,7 +662,7 @@
         <v>897</v>
       </c>
       <c r="D16">
-        <v>1738.635720558475</v>
+        <v>1738.600764620641</v>
       </c>
       <c r="E16">
         <v>1055</v>
@@ -679,7 +679,7 @@
         <v>977</v>
       </c>
       <c r="D17">
-        <v>1749.695279698609</v>
+        <v>1749.660101404253</v>
       </c>
       <c r="E17">
         <v>1141</v>
@@ -696,7 +696,7 @@
         <v>1003</v>
       </c>
       <c r="D18">
-        <v>1762.910216179383</v>
+        <v>1762.874772193393</v>
       </c>
       <c r="E18">
         <v>1170</v>
@@ -713,7 +713,7 @@
         <v>1003</v>
       </c>
       <c r="D19">
-        <v>1776.125152660158</v>
+        <v>1776.089442982533</v>
       </c>
       <c r="E19">
         <v>1170</v>
@@ -730,7 +730,7 @@
         <v>1003</v>
       </c>
       <c r="D20">
-        <v>1789.340089140932</v>
+        <v>1789.304113771673</v>
       </c>
       <c r="E20">
         <v>1170</v>
@@ -747,7 +747,7 @@
         <v>1006</v>
       </c>
       <c r="D21">
-        <v>1802.555025621707</v>
+        <v>1802.518784560813</v>
       </c>
       <c r="E21">
         <v>1174</v>
@@ -764,7 +764,7 @@
         <v>1077</v>
       </c>
       <c r="D22">
-        <v>1867.310569980575</v>
+        <v>1867.273026984722</v>
       </c>
       <c r="E22">
         <v>1254</v>
@@ -781,7 +781,7 @@
         <v>1090</v>
       </c>
       <c r="D23">
-        <v>1932.066114339444</v>
+        <v>1932.027269408632</v>
       </c>
       <c r="E23">
         <v>1268</v>
@@ -798,7 +798,7 @@
         <v>1091</v>
       </c>
       <c r="D24">
-        <v>1996.821658698312</v>
+        <v>1996.781511832542</v>
       </c>
       <c r="E24">
         <v>1272</v>
@@ -815,7 +815,7 @@
         <v>1099</v>
       </c>
       <c r="D25">
-        <v>2061.577203057181</v>
+        <v>2061.535754256451</v>
       </c>
       <c r="E25">
         <v>1287</v>
@@ -832,7 +832,7 @@
         <v>1265</v>
       </c>
       <c r="D26">
-        <v>2050.564755989958</v>
+        <v>2050.523528598762</v>
       </c>
       <c r="E26">
         <v>1526</v>
@@ -849,7 +849,7 @@
         <v>1267</v>
       </c>
       <c r="D27">
-        <v>2039.552308922734</v>
+        <v>2039.511302941074</v>
       </c>
       <c r="E27">
         <v>1551</v>
@@ -866,7 +866,7 @@
         <v>1265</v>
       </c>
       <c r="D28">
-        <v>2028.539861855511</v>
+        <v>2028.499077283385</v>
       </c>
       <c r="E28">
         <v>1545</v>
@@ -883,7 +883,7 @@
         <v>1264</v>
       </c>
       <c r="D29">
-        <v>2017.527414788288</v>
+        <v>2017.486851625697</v>
       </c>
       <c r="E29">
         <v>1551</v>
@@ -900,7 +900,7 @@
         <v>1251</v>
       </c>
       <c r="D30">
-        <v>1961.263821590294</v>
+        <v>1961.224389628772</v>
       </c>
       <c r="E30">
         <v>1654</v>
@@ -917,7 +917,7 @@
         <v>1250</v>
       </c>
       <c r="D31">
-        <v>1905.0002283923</v>
+        <v>1904.961927631848</v>
       </c>
       <c r="E31">
         <v>1658</v>
@@ -934,7 +934,7 @@
         <v>1253</v>
       </c>
       <c r="D32">
-        <v>1848.736635194305</v>
+        <v>1848.699465634923</v>
       </c>
       <c r="E32">
         <v>1650</v>
@@ -951,7 +951,7 @@
         <v>1245</v>
       </c>
       <c r="D33">
-        <v>1792.473041996311</v>
+        <v>1792.437003637999</v>
       </c>
       <c r="E33">
         <v>1639</v>
@@ -968,7 +968,7 @@
         <v>1276</v>
       </c>
       <c r="D34">
-        <v>1757.362769581988</v>
+        <v>1757.327437129125</v>
       </c>
       <c r="E34">
         <v>1555</v>
@@ -985,7 +985,7 @@
         <v>1263</v>
       </c>
       <c r="D35">
-        <v>1722.252497167664</v>
+        <v>1722.217870620252</v>
       </c>
       <c r="E35">
         <v>1458</v>
@@ -1002,7 +1002,7 @@
         <v>1272</v>
       </c>
       <c r="D36">
-        <v>1687.142224753341</v>
+        <v>1687.108304111379</v>
       </c>
       <c r="E36">
         <v>1466</v>
@@ -1019,7 +1019,7 @@
         <v>1213</v>
       </c>
       <c r="D37">
-        <v>1652.031952339018</v>
+        <v>1651.998737602505</v>
       </c>
       <c r="E37">
         <v>1399</v>
@@ -1036,7 +1036,7 @@
         <v>1091</v>
       </c>
       <c r="D38">
-        <v>1609.666420680363</v>
+        <v>1609.634057719259</v>
       </c>
       <c r="E38">
         <v>1198</v>
@@ -1053,7 +1053,7 @@
         <v>1041</v>
       </c>
       <c r="D39">
-        <v>1567.300889021707</v>
+        <v>1567.269377836012</v>
       </c>
       <c r="E39">
         <v>1142</v>
@@ -1070,7 +1070,7 @@
         <v>1039</v>
       </c>
       <c r="D40">
-        <v>1524.935357363051</v>
+        <v>1524.904697952765</v>
       </c>
       <c r="E40">
         <v>1141</v>
@@ -1087,7 +1087,7 @@
         <v>1037</v>
       </c>
       <c r="D41">
-        <v>1482.569825704395</v>
+        <v>1482.540018069518</v>
       </c>
       <c r="E41">
         <v>1139</v>
@@ -1104,7 +1104,7 @@
         <v>963</v>
       </c>
       <c r="D42">
-        <v>1485.290547921137</v>
+        <v>1485.260685584962</v>
       </c>
       <c r="E42">
         <v>1050</v>
@@ -1121,7 +1121,7 @@
         <v>986</v>
       </c>
       <c r="D43">
-        <v>1488.011270137879</v>
+        <v>1487.981353100407</v>
       </c>
       <c r="E43">
         <v>1076</v>
@@ -1138,7 +1138,7 @@
         <v>1113</v>
       </c>
       <c r="D44">
-        <v>1490.731992354622</v>
+        <v>1490.702020615851</v>
       </c>
       <c r="E44">
         <v>1211</v>
@@ -1155,7 +1155,7 @@
         <v>1124</v>
       </c>
       <c r="D45">
-        <v>1493.452714571364</v>
+        <v>1493.422688131295</v>
       </c>
       <c r="E45">
         <v>1229</v>
@@ -1166,16 +1166,16 @@
         <v>45741.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="D46">
-        <v>1492.651809329932</v>
+        <v>1492.621798992549</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1183,16 +1183,16 @@
         <v>45741.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="D47">
-        <v>1491.850904088501</v>
+        <v>1491.820909853804</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1200,16 +1200,16 @@
         <v>45741.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1124</v>
       </c>
       <c r="D48">
-        <v>1491.049998847069</v>
+        <v>1491.020020715059</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1490.249093605637</v>
+        <v>1490.219131576313</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1497.775247269942</v>
+        <v>1497.745133924139</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1505.301400934246</v>
+        <v>1505.271136271965</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1512.82755459855</v>
+        <v>1512.797138619791</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1520.353708262855</v>
+        <v>1520.323140967617</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1541.212578590043</v>
+        <v>1541.181591919447</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1562.071448917233</v>
+        <v>1562.040042871278</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1582.930319244422</v>
+        <v>1582.898493823108</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1603.789189571611</v>
+        <v>1603.756944774938</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1648.274764515992</v>
+        <v>1648.241625319616</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1692.760339460374</v>
+        <v>1692.726305864293</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1737.245914404755</v>
+        <v>1737.210986408971</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1781.731489349137</v>
+        <v>1781.695666953649</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1866.250548337739</v>
+        <v>1866.213026654256</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1950.769607326341</v>
+        <v>1950.730386354863</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2035.288666314943</v>
+        <v>2035.24774605547</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2119.807725303545</v>
+        <v>2119.765105756077</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2179.663614068781</v>
+        <v>2179.619791095779</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2239.519502834017</v>
+        <v>2239.474476435481</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2299.375391599253</v>
+        <v>2299.329161775183</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2359.231280364489</v>
+        <v>2359.183847114886</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2399.830109285336</v>
+        <v>2399.781859780482</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2440.428938206182</v>
+        <v>2440.379872446078</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2481.02776712703</v>
+        <v>2480.977885111674</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2521.626596047877</v>
+        <v>2521.57589777727</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2522.604171562859</v>
+        <v>2522.553453637797</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2523.581747077842</v>
+        <v>2523.531009498325</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2524.559322592825</v>
+        <v>2524.508565358852</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2525.536898107807</v>
+        <v>2525.48612121938</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2500.496831300335</v>
+        <v>2500.446557852131</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2475.456764492862</v>
+        <v>2475.406994484882</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2450.416697685388</v>
+        <v>2450.367431117634</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2425.376630877916</v>
+        <v>2425.327867750385</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2399.794775230708</v>
+        <v>2399.746526436338</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2374.212919583501</v>
+        <v>2374.16518512229</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2348.631063936294</v>
+        <v>2348.583843808244</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2323.049208289086</v>
+        <v>2323.002502494197</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2245.066949431442</v>
+        <v>2245.0218114994</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2167.084690573798</v>
+        <v>2167.041120504603</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2089.102431716153</v>
+        <v>2089.060429509806</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2011.120172858509</v>
+        <v>2011.079738515009</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1975.338553403664</v>
+        <v>1975.298838463702</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1939.556933948819</v>
+        <v>1939.517938412395</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1903.775314493974</v>
+        <v>1903.737038361088</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1867.993695039128</v>
+        <v>1867.956138309781</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1855.078556869977</v>
+        <v>1858.776954463491</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1842.163418700826</v>
+        <v>1849.597770617201</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1829.248280531675</v>
+        <v>1840.418586770911</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1816.333142362524</v>
+        <v>1831.239402924621</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,942 +415,942 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>1016</v>
+        <v>1149</v>
       </c>
       <c r="D2">
-        <v>1738.388764554137</v>
+        <v>1454.169889819565</v>
       </c>
       <c r="E2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B3">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="D3">
-        <v>1727.258761081866</v>
+        <v>1446.246087580676</v>
       </c>
       <c r="E3">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>998</v>
+        <v>1116</v>
       </c>
       <c r="D4">
-        <v>1716.128757609596</v>
+        <v>1438.322285341786</v>
       </c>
       <c r="E4">
-        <v>1169</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>997</v>
+        <v>1114</v>
       </c>
       <c r="D5">
-        <v>1704.998754137325</v>
+        <v>1430.398483102897</v>
       </c>
       <c r="E5">
-        <v>1167</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>995</v>
+        <v>1111</v>
       </c>
       <c r="D6">
-        <v>1703.656087051781</v>
+        <v>1433.599489305362</v>
       </c>
       <c r="E6">
-        <v>1165</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>984</v>
+        <v>1107</v>
       </c>
       <c r="D7">
-        <v>1702.313419966238</v>
+        <v>1436.800495507827</v>
       </c>
       <c r="E7">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B8">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>988</v>
+        <v>1110</v>
       </c>
       <c r="D8">
-        <v>1700.970752880694</v>
+        <v>1440.001501710293</v>
       </c>
       <c r="E8">
-        <v>1158</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B9">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>981</v>
+        <v>1035</v>
       </c>
       <c r="D9">
-        <v>1699.62808579515</v>
+        <v>1443.202507912758</v>
       </c>
       <c r="E9">
-        <v>1151</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B10">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>988</v>
+        <v>1029</v>
       </c>
       <c r="D10">
-        <v>1701.076752913815</v>
+        <v>1442.32091931939</v>
       </c>
       <c r="E10">
-        <v>1159</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B11">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>973</v>
+        <v>1026</v>
       </c>
       <c r="D11">
-        <v>1702.525420032479</v>
+        <v>1441.439330726022</v>
       </c>
       <c r="E11">
-        <v>1143</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B12">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>963</v>
+        <v>1026</v>
       </c>
       <c r="D12">
-        <v>1703.974087151143</v>
+        <v>1440.557742132655</v>
       </c>
       <c r="E12">
-        <v>1131</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B13">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>970</v>
+        <v>1027</v>
       </c>
       <c r="D13">
-        <v>1705.422754269807</v>
+        <v>1439.676153539287</v>
       </c>
       <c r="E13">
-        <v>1138</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>911</v>
+        <v>1024</v>
       </c>
       <c r="D14">
-        <v>1716.482091053419</v>
+        <v>1450.685515855209</v>
       </c>
       <c r="E14">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B15">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>897</v>
+        <v>1023</v>
       </c>
       <c r="D15">
-        <v>1727.54142783703</v>
+        <v>1461.69487817113</v>
       </c>
       <c r="E15">
-        <v>1055</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>897</v>
+        <v>976</v>
       </c>
       <c r="D16">
-        <v>1738.600764620641</v>
+        <v>1472.704240487051</v>
       </c>
       <c r="E16">
-        <v>1055</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B17">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D17">
-        <v>1749.660101404253</v>
+        <v>1483.713602802973</v>
       </c>
       <c r="E17">
-        <v>1141</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B18">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="D18">
-        <v>1762.874772193393</v>
+        <v>1499.823584838383</v>
       </c>
       <c r="E18">
-        <v>1170</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B19">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="D19">
-        <v>1776.089442982533</v>
+        <v>1515.933566873794</v>
       </c>
       <c r="E19">
-        <v>1170</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B20">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>1003</v>
+        <v>1028</v>
       </c>
       <c r="D20">
-        <v>1789.304113771673</v>
+        <v>1532.043548909204</v>
       </c>
       <c r="E20">
-        <v>1170</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B21">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="D21">
-        <v>1802.518784560813</v>
+        <v>1548.153530944614</v>
       </c>
       <c r="E21">
-        <v>1174</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B22">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>1077</v>
+        <v>1137</v>
       </c>
       <c r="D22">
-        <v>1867.273026984722</v>
+        <v>1603.987475197517</v>
       </c>
       <c r="E22">
-        <v>1254</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B23">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C23">
-        <v>1090</v>
+        <v>1138</v>
       </c>
       <c r="D23">
-        <v>1932.027269408632</v>
+        <v>1659.821419450421</v>
       </c>
       <c r="E23">
-        <v>1268</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B24">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C24">
-        <v>1091</v>
+        <v>1140</v>
       </c>
       <c r="D24">
-        <v>1996.781511832542</v>
+        <v>1715.655363703324</v>
       </c>
       <c r="E24">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B25">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="C25">
-        <v>1099</v>
+        <v>1145</v>
       </c>
       <c r="D25">
-        <v>2061.535754256451</v>
+        <v>1771.489307956227</v>
       </c>
       <c r="E25">
-        <v>1287</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B26">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C26">
-        <v>1265</v>
+        <v>1420</v>
       </c>
       <c r="D26">
-        <v>2050.523528598762</v>
+        <v>1765.664526177909</v>
       </c>
       <c r="E26">
-        <v>1526</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B27">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C27">
-        <v>1267</v>
+        <v>1527</v>
       </c>
       <c r="D27">
-        <v>2039.511302941074</v>
+        <v>1759.839744399592</v>
       </c>
       <c r="E27">
-        <v>1551</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B28">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C28">
-        <v>1265</v>
+        <v>1556</v>
       </c>
       <c r="D28">
-        <v>2028.499077283385</v>
+        <v>1754.014962621274</v>
       </c>
       <c r="E28">
-        <v>1545</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B29">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C29">
-        <v>1264</v>
+        <v>1558</v>
       </c>
       <c r="D29">
-        <v>2017.486851625697</v>
+        <v>1748.190180842957</v>
       </c>
       <c r="E29">
-        <v>1551</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B30">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="C30">
-        <v>1251</v>
+        <v>1499</v>
       </c>
       <c r="D30">
-        <v>1961.224389628772</v>
+        <v>1709.883057436347</v>
       </c>
       <c r="E30">
-        <v>1654</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B31">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="C31">
-        <v>1250</v>
+        <v>1495</v>
       </c>
       <c r="D31">
-        <v>1904.961927631848</v>
+        <v>1671.575934029737</v>
       </c>
       <c r="E31">
-        <v>1658</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B32">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="C32">
-        <v>1253</v>
+        <v>1558</v>
       </c>
       <c r="D32">
-        <v>1848.699465634923</v>
+        <v>1633.268810623127</v>
       </c>
       <c r="E32">
-        <v>1650</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B33">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="C33">
-        <v>1245</v>
+        <v>1594</v>
       </c>
       <c r="D33">
-        <v>1792.437003637999</v>
+        <v>1594.961687216517</v>
       </c>
       <c r="E33">
-        <v>1639</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B34">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="C34">
-        <v>1276</v>
+        <v>1588</v>
       </c>
       <c r="D34">
-        <v>1757.327437129125</v>
+        <v>1562.03855129149</v>
       </c>
       <c r="E34">
-        <v>1555</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B35">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="C35">
-        <v>1263</v>
+        <v>1567</v>
       </c>
       <c r="D35">
-        <v>1722.217870620252</v>
+        <v>1529.115415366462</v>
       </c>
       <c r="E35">
-        <v>1458</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B36">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="C36">
-        <v>1272</v>
+        <v>1566</v>
       </c>
       <c r="D36">
-        <v>1687.108304111379</v>
+        <v>1496.192279441435</v>
       </c>
       <c r="E36">
-        <v>1466</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B37">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="C37">
-        <v>1213</v>
+        <v>1567</v>
       </c>
       <c r="D37">
-        <v>1651.998737602505</v>
+        <v>1463.269143516408</v>
       </c>
       <c r="E37">
-        <v>1399</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="C38">
-        <v>1091</v>
+        <v>1396</v>
       </c>
       <c r="D38">
-        <v>1609.634057719259</v>
+        <v>1434.376126875796</v>
       </c>
       <c r="E38">
-        <v>1198</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>411</v>
       </c>
       <c r="C39">
-        <v>1041</v>
+        <v>1379</v>
       </c>
       <c r="D39">
-        <v>1567.269377836012</v>
+        <v>1405.483110235185</v>
       </c>
       <c r="E39">
-        <v>1142</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="C40">
-        <v>1039</v>
+        <v>1385</v>
       </c>
       <c r="D40">
-        <v>1524.904697952765</v>
+        <v>1376.590093594573</v>
       </c>
       <c r="E40">
-        <v>1141</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="C41">
-        <v>1037</v>
+        <v>1359</v>
       </c>
       <c r="D41">
-        <v>1482.540018069518</v>
+        <v>1347.697076953961</v>
       </c>
       <c r="E41">
-        <v>1139</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B42">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="C42">
-        <v>963</v>
+        <v>1342</v>
       </c>
       <c r="D42">
-        <v>1485.260685584962</v>
+        <v>1357.593958425939</v>
       </c>
       <c r="E42">
-        <v>1050</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B43">
-        <v>90</v>
+        <v>328</v>
       </c>
       <c r="C43">
-        <v>986</v>
+        <v>1314</v>
       </c>
       <c r="D43">
-        <v>1487.981353100407</v>
+        <v>1367.490839897918</v>
       </c>
       <c r="E43">
-        <v>1076</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B44">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="C44">
-        <v>1113</v>
+        <v>1303</v>
       </c>
       <c r="D44">
-        <v>1490.702020615851</v>
+        <v>1377.387721369897</v>
       </c>
       <c r="E44">
-        <v>1211</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="C45">
-        <v>1124</v>
+        <v>1289</v>
       </c>
       <c r="D45">
-        <v>1493.422688131295</v>
+        <v>1387.284602841876</v>
       </c>
       <c r="E45">
-        <v>1229</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C46">
-        <v>1129</v>
+        <v>1363</v>
       </c>
       <c r="D46">
-        <v>1492.621798992549</v>
+        <v>1393.07789931308</v>
       </c>
       <c r="E46">
-        <v>1235</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B47">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C47">
-        <v>1115</v>
+        <v>1359</v>
       </c>
       <c r="D47">
-        <v>1491.820909853804</v>
+        <v>1398.871195784284</v>
       </c>
       <c r="E47">
-        <v>1221</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C48">
-        <v>1124</v>
+        <v>1358</v>
       </c>
       <c r="D48">
-        <v>1491.020020715059</v>
+        <v>1404.664492255488</v>
       </c>
       <c r="E48">
-        <v>1231</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1286</v>
       </c>
       <c r="D49">
-        <v>1490.219131576313</v>
+        <v>1410.457788726692</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="D50">
-        <v>1497.745133924139</v>
+        <v>1417.510497474614</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="D51">
-        <v>1505.271136271965</v>
+        <v>1424.563206222536</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="D52">
-        <v>1512.797138619791</v>
+        <v>1431.615914970458</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1093</v>
       </c>
       <c r="D53">
-        <v>1520.323140967617</v>
+        <v>1438.668623718379</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="D54">
-        <v>1541.181591919447</v>
+        <v>1449.63600562514</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="D55">
-        <v>1562.040042871278</v>
+        <v>1460.603387531901</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="D56">
-        <v>1582.898493823108</v>
+        <v>1471.570769438662</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1603.756944774938</v>
+        <v>1482.538151345423</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1648.241625319616</v>
+        <v>1516.269410147637</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1692.726305864293</v>
+        <v>1550.000668949852</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1737.210986408971</v>
+        <v>1583.731927752066</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1781.695666953649</v>
+        <v>1617.463186554281</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1866.213026654256</v>
+        <v>1668.070569860257</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1950.730386354863</v>
+        <v>1718.677953166233</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2035.24774605547</v>
+        <v>1769.28533647221</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2119.765105756077</v>
+        <v>1819.892719778186</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2179.619791095779</v>
+        <v>1874.855570539866</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2239.474476435481</v>
+        <v>1929.818421301547</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2299.329161775183</v>
+        <v>1984.781272063226</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2359.183847114886</v>
+        <v>2039.744122824907</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2399.781859780482</v>
+        <v>2100.951559457048</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2440.379872446078</v>
+        <v>2162.15899608919</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2480.977885111674</v>
+        <v>2223.366432721332</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2521.57589777727</v>
+        <v>2284.573869353474</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2522.553453637797</v>
+        <v>2281.362368048549</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2523.531009498325</v>
+        <v>2278.150866743625</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2524.508565358852</v>
+        <v>2274.939365438701</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2525.48612121938</v>
+        <v>2271.727864133777</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2500.446557852131</v>
+        <v>2252.248954259103</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2475.406994484882</v>
+        <v>2232.77004438443</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2450.367431117634</v>
+        <v>2213.291134509757</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2425.327867750385</v>
+        <v>2193.812224635084</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2399.746526436338</v>
+        <v>2148.357936560147</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2374.16518512229</v>
+        <v>2102.903648485209</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2348.583843808244</v>
+        <v>2057.449360410273</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2323.002502494197</v>
+        <v>2011.995072335336</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2245.0218114994</v>
+        <v>1943.472549397906</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2167.041120504603</v>
+        <v>1874.950026460476</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2089.060429509806</v>
+        <v>1806.427503523047</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2011.079738515009</v>
+        <v>1737.904980585617</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1975.298838463702</v>
+        <v>1698.055077140555</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1939.517938412395</v>
+        <v>1658.205173695494</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1903.737038361088</v>
+        <v>1618.355270250432</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1867.956138309781</v>
+        <v>1578.50536680537</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1858.776954463491</v>
+        <v>1575.977963224575</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1849.597770617201</v>
+        <v>1573.450559643781</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1840.418586770911</v>
+        <v>1570.923156062986</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1831.239402924621</v>
+        <v>1568.395752482191</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,942 +415,942 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.01041666666</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1454.169889819565</v>
+        <v>1586.854747465908</v>
       </c>
       <c r="E2">
-        <v>1187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.02083333334</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1446.246087580676</v>
+        <v>1582.103792298248</v>
       </c>
       <c r="E3">
-        <v>1168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45744.03125</v>
+        <v>45747.03125</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1438.322285341786</v>
+        <v>1577.352837130588</v>
       </c>
       <c r="E4">
-        <v>1154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.04166666666</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1430.398483102897</v>
+        <v>1572.601881962928</v>
       </c>
       <c r="E5">
-        <v>1152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.05208333334</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>1111</v>
+        <v>1206</v>
       </c>
       <c r="D6">
-        <v>1433.599489305362</v>
+        <v>1562.681236648336</v>
       </c>
       <c r="E6">
-        <v>1149</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45744.0625</v>
+        <v>45747.0625</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C7">
-        <v>1107</v>
+        <v>1194</v>
       </c>
       <c r="D7">
-        <v>1436.800495507827</v>
+        <v>1552.760591333744</v>
       </c>
       <c r="E7">
-        <v>1145</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.07291666666</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="C8">
-        <v>1110</v>
+        <v>1198</v>
       </c>
       <c r="D8">
-        <v>1440.001501710293</v>
+        <v>1542.839946019152</v>
       </c>
       <c r="E8">
-        <v>1148</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.08333333334</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C9">
-        <v>1035</v>
+        <v>1195</v>
       </c>
       <c r="D9">
-        <v>1443.202507912758</v>
+        <v>1532.91930070456</v>
       </c>
       <c r="E9">
-        <v>1073</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45744.09375</v>
+        <v>45747.09375</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C10">
-        <v>1029</v>
+        <v>1177</v>
       </c>
       <c r="D10">
-        <v>1442.32091931939</v>
+        <v>1531.897269830982</v>
       </c>
       <c r="E10">
-        <v>1067</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.10416666666</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C11">
-        <v>1026</v>
+        <v>1174</v>
       </c>
       <c r="D11">
-        <v>1441.439330726022</v>
+        <v>1530.875238957405</v>
       </c>
       <c r="E11">
-        <v>1064</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.11458333334</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C12">
-        <v>1026</v>
+        <v>1174</v>
       </c>
       <c r="D12">
-        <v>1440.557742132655</v>
+        <v>1529.853208083827</v>
       </c>
       <c r="E12">
-        <v>1063</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45744.125</v>
+        <v>45747.125</v>
       </c>
       <c r="B13">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C13">
-        <v>1027</v>
+        <v>1173</v>
       </c>
       <c r="D13">
-        <v>1439.676153539287</v>
+        <v>1528.83117721025</v>
       </c>
       <c r="E13">
-        <v>1065</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.13541666666</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C14">
-        <v>1024</v>
+        <v>1151</v>
       </c>
       <c r="D14">
-        <v>1450.685515855209</v>
+        <v>1536.308871058096</v>
       </c>
       <c r="E14">
-        <v>1065</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.14583333334</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C15">
-        <v>1023</v>
+        <v>1149</v>
       </c>
       <c r="D15">
-        <v>1461.69487817113</v>
+        <v>1543.786564905942</v>
       </c>
       <c r="E15">
-        <v>1064</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45744.15625</v>
+        <v>45747.15625</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C16">
-        <v>976</v>
+        <v>1139</v>
       </c>
       <c r="D16">
-        <v>1472.704240487051</v>
+        <v>1551.264258753788</v>
       </c>
       <c r="E16">
-        <v>1017</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.16666666666</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="C17">
-        <v>973</v>
+        <v>1139</v>
       </c>
       <c r="D17">
-        <v>1483.713602802973</v>
+        <v>1558.741952601634</v>
       </c>
       <c r="E17">
-        <v>1014</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.17708333334</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C18">
-        <v>982</v>
+        <v>1312</v>
       </c>
       <c r="D18">
-        <v>1499.823584838383</v>
+        <v>1595.880371568882</v>
       </c>
       <c r="E18">
-        <v>1023</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45744.1875</v>
+        <v>45747.1875</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="C19">
-        <v>982</v>
+        <v>1334</v>
       </c>
       <c r="D19">
-        <v>1515.933566873794</v>
+        <v>1633.018790536129</v>
       </c>
       <c r="E19">
-        <v>1023</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.19791666666</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C20">
-        <v>1028</v>
+        <v>1331</v>
       </c>
       <c r="D20">
-        <v>1532.043548909204</v>
+        <v>1670.157209503378</v>
       </c>
       <c r="E20">
-        <v>1070</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.20833333334</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="C21">
-        <v>1032</v>
+        <v>1337</v>
       </c>
       <c r="D21">
-        <v>1548.153530944614</v>
+        <v>1707.295628470625</v>
       </c>
       <c r="E21">
-        <v>1077</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45744.21875</v>
+        <v>45747.21875</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="C22">
-        <v>1137</v>
+        <v>1294</v>
       </c>
       <c r="D22">
-        <v>1603.987475197517</v>
+        <v>1796.587389880034</v>
       </c>
       <c r="E22">
-        <v>1223</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.22916666666</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="C23">
-        <v>1138</v>
+        <v>1300</v>
       </c>
       <c r="D23">
-        <v>1659.821419450421</v>
+        <v>1885.879151289442</v>
       </c>
       <c r="E23">
-        <v>1250</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.23958333334</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="C24">
-        <v>1140</v>
+        <v>1321</v>
       </c>
       <c r="D24">
-        <v>1715.655363703324</v>
+        <v>1975.170912698851</v>
       </c>
       <c r="E24">
-        <v>1259</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45744.25</v>
+        <v>45747.25</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="C25">
-        <v>1145</v>
+        <v>1378</v>
       </c>
       <c r="D25">
-        <v>1771.489307956227</v>
+        <v>2064.462674108259</v>
       </c>
       <c r="E25">
-        <v>1272</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.26041666666</v>
       </c>
       <c r="B26">
-        <v>235</v>
+        <v>458</v>
       </c>
       <c r="C26">
-        <v>1420</v>
+        <v>1699</v>
       </c>
       <c r="D26">
-        <v>1765.664526177909</v>
+        <v>2082.894951299907</v>
       </c>
       <c r="E26">
-        <v>1655</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.27083333334</v>
       </c>
       <c r="B27">
-        <v>248</v>
+        <v>470</v>
       </c>
       <c r="C27">
-        <v>1527</v>
+        <v>1701</v>
       </c>
       <c r="D27">
-        <v>1759.839744399592</v>
+        <v>2101.327228491554</v>
       </c>
       <c r="E27">
-        <v>1775</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45744.28125</v>
+        <v>45747.28125</v>
       </c>
       <c r="B28">
-        <v>256</v>
+        <v>469</v>
       </c>
       <c r="C28">
-        <v>1556</v>
+        <v>1701</v>
       </c>
       <c r="D28">
-        <v>1754.014962621274</v>
+        <v>2119.759505683201</v>
       </c>
       <c r="E28">
-        <v>1812</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.29166666666</v>
       </c>
       <c r="B29">
-        <v>260</v>
+        <v>471</v>
       </c>
       <c r="C29">
-        <v>1558</v>
+        <v>1705</v>
       </c>
       <c r="D29">
-        <v>1748.190180842957</v>
+        <v>2138.191782874848</v>
       </c>
       <c r="E29">
-        <v>1818</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.30208333334</v>
       </c>
       <c r="B30">
-        <v>306</v>
+        <v>460</v>
       </c>
       <c r="C30">
-        <v>1499</v>
+        <v>1723</v>
       </c>
       <c r="D30">
-        <v>1709.883057436347</v>
+        <v>2117.259002963202</v>
       </c>
       <c r="E30">
-        <v>1805</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45744.3125</v>
+        <v>45747.3125</v>
       </c>
       <c r="B31">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="C31">
-        <v>1495</v>
+        <v>1750</v>
       </c>
       <c r="D31">
-        <v>1671.575934029737</v>
+        <v>2096.326223051557</v>
       </c>
       <c r="E31">
-        <v>1792</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.32291666666</v>
       </c>
       <c r="B32">
-        <v>291</v>
+        <v>457</v>
       </c>
       <c r="C32">
-        <v>1558</v>
+        <v>1730</v>
       </c>
       <c r="D32">
-        <v>1633.268810623127</v>
+        <v>2075.393443139911</v>
       </c>
       <c r="E32">
-        <v>1849</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.33333333334</v>
       </c>
       <c r="B33">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="C33">
-        <v>1594</v>
+        <v>1741</v>
       </c>
       <c r="D33">
-        <v>1594.961687216517</v>
+        <v>2054.460663228266</v>
       </c>
       <c r="E33">
-        <v>1895</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45744.34375</v>
+        <v>45747.34375</v>
       </c>
       <c r="B34">
-        <v>185</v>
+        <v>383</v>
       </c>
       <c r="C34">
-        <v>1588</v>
+        <v>1829</v>
       </c>
       <c r="D34">
-        <v>1562.03855129149</v>
+        <v>2036.445136489688</v>
       </c>
       <c r="E34">
-        <v>1773</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.35416666666</v>
       </c>
       <c r="B35">
-        <v>281</v>
+        <v>429</v>
       </c>
       <c r="C35">
-        <v>1567</v>
+        <v>1821</v>
       </c>
       <c r="D35">
-        <v>1529.115415366462</v>
+        <v>2018.429609751111</v>
       </c>
       <c r="E35">
-        <v>1848</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.36458333334</v>
       </c>
       <c r="B36">
-        <v>286</v>
+        <v>435</v>
       </c>
       <c r="C36">
-        <v>1566</v>
+        <v>1746</v>
       </c>
       <c r="D36">
-        <v>1496.192279441435</v>
+        <v>2000.414083012534</v>
       </c>
       <c r="E36">
-        <v>1852</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45744.375</v>
+        <v>45747.375</v>
       </c>
       <c r="B37">
-        <v>292</v>
+        <v>428</v>
       </c>
       <c r="C37">
-        <v>1567</v>
+        <v>1792</v>
       </c>
       <c r="D37">
-        <v>1463.269143516408</v>
+        <v>1982.398556273956</v>
       </c>
       <c r="E37">
-        <v>1859</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45744.38541666666</v>
+        <v>45747.38541666666</v>
       </c>
       <c r="B38">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="C38">
-        <v>1396</v>
+        <v>1841</v>
       </c>
       <c r="D38">
-        <v>1434.376126875796</v>
+        <v>1955.131169472154</v>
       </c>
       <c r="E38">
-        <v>1786</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45744.39583333334</v>
+        <v>45747.39583333334</v>
       </c>
       <c r="B39">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C39">
-        <v>1379</v>
+        <v>1795</v>
       </c>
       <c r="D39">
-        <v>1405.483110235185</v>
+        <v>1927.863782670352</v>
       </c>
       <c r="E39">
-        <v>1790</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45744.40625</v>
+        <v>45747.40625</v>
       </c>
       <c r="B40">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C40">
-        <v>1385</v>
+        <v>1730</v>
       </c>
       <c r="D40">
-        <v>1376.590093594573</v>
+        <v>1900.59639586855</v>
       </c>
       <c r="E40">
-        <v>1736</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45744.41666666666</v>
+        <v>45747.41666666666</v>
       </c>
       <c r="B41">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="C41">
-        <v>1359</v>
+        <v>1721</v>
       </c>
       <c r="D41">
-        <v>1347.697076953961</v>
+        <v>1873.329009066748</v>
       </c>
       <c r="E41">
-        <v>1706</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45744.42708333334</v>
+        <v>45747.42708333334</v>
       </c>
       <c r="B42">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C42">
-        <v>1342</v>
+        <v>1787</v>
       </c>
       <c r="D42">
-        <v>1357.593958425939</v>
+        <v>1870.840413502842</v>
       </c>
       <c r="E42">
-        <v>1668</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45744.4375</v>
+        <v>45747.4375</v>
       </c>
       <c r="B43">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1367.490839897918</v>
+        <v>1868.351817938936</v>
       </c>
       <c r="E43">
-        <v>1642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45744.44791666666</v>
+        <v>45747.44791666666</v>
       </c>
       <c r="B44">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1377.387721369897</v>
+        <v>1865.86322237503</v>
       </c>
       <c r="E44">
-        <v>1574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45744.45833333334</v>
+        <v>45747.45833333334</v>
       </c>
       <c r="B45">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1289</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1387.284602841876</v>
+        <v>1863.374626811124</v>
       </c>
       <c r="E45">
-        <v>1534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45744.46875</v>
+        <v>45747.46875</v>
       </c>
       <c r="B46">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1393.07789931308</v>
+        <v>1847.442852339015</v>
       </c>
       <c r="E46">
-        <v>1568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45744.47916666666</v>
+        <v>45747.47916666666</v>
       </c>
       <c r="B47">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1398.871195784284</v>
+        <v>1831.511077866905</v>
       </c>
       <c r="E47">
-        <v>1555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45744.48958333334</v>
+        <v>45747.48958333334</v>
       </c>
       <c r="B48">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1358</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1404.664492255488</v>
+        <v>1815.579303394795</v>
       </c>
       <c r="E48">
-        <v>1553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45744.5</v>
+        <v>45747.5</v>
       </c>
       <c r="B49">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1286</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1410.457788726692</v>
+        <v>1799.647528922685</v>
       </c>
       <c r="E49">
-        <v>1423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45744.51041666666</v>
+        <v>45747.51041666666</v>
       </c>
       <c r="B50">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1251</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1417.510497474614</v>
+        <v>1808.887481830215</v>
       </c>
       <c r="E50">
-        <v>1377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45744.52083333334</v>
+        <v>45747.52083333334</v>
       </c>
       <c r="B51">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1424.563206222536</v>
+        <v>1818.127434737744</v>
       </c>
       <c r="E51">
-        <v>1197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45744.53125</v>
+        <v>45747.53125</v>
       </c>
       <c r="B52">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1431.615914970458</v>
+        <v>1827.367387645274</v>
       </c>
       <c r="E52">
-        <v>1185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45744.54166666666</v>
+        <v>45747.54166666666</v>
       </c>
       <c r="B53">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1093</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1438.668623718379</v>
+        <v>1836.607340552803</v>
       </c>
       <c r="E53">
-        <v>1195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45744.55208333334</v>
+        <v>45747.55208333334</v>
       </c>
       <c r="B54">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1127</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1449.63600562514</v>
+        <v>1851.741335585625</v>
       </c>
       <c r="E54">
-        <v>1237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45744.5625</v>
+        <v>45747.5625</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1135</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1460.603387531901</v>
+        <v>1866.875330618447</v>
       </c>
       <c r="E55">
-        <v>1245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45744.57291666666</v>
+        <v>45747.57291666666</v>
       </c>
       <c r="B56">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1471.570769438662</v>
+        <v>1882.00932565127</v>
       </c>
       <c r="E56">
-        <v>1313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45744.58333333334</v>
+        <v>45747.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1482.538151345423</v>
+        <v>1897.143320684092</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45744.59375</v>
+        <v>45747.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1516.269410147637</v>
+        <v>1911.455721966171</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45744.60416666666</v>
+        <v>45747.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1550.000668949852</v>
+        <v>1925.768123248251</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45744.61458333334</v>
+        <v>45747.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1583.731927752066</v>
+        <v>1940.080524530331</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45744.625</v>
+        <v>45747.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1617.463186554281</v>
+        <v>1954.39292581241</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45744.63541666666</v>
+        <v>45747.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1668.070569860257</v>
+        <v>1990.078671770944</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45744.64583333334</v>
+        <v>45747.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1718.677953166233</v>
+        <v>2025.764417729479</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45744.65625</v>
+        <v>45747.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1769.28533647221</v>
+        <v>2061.450163688013</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45744.66666666666</v>
+        <v>45747.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1819.892719778186</v>
+        <v>2097.135909646547</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45744.67708333334</v>
+        <v>45747.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1874.855570539866</v>
+        <v>2163.030109891738</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45744.6875</v>
+        <v>45747.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1929.818421301547</v>
+        <v>2228.924310136928</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45744.69791666666</v>
+        <v>45747.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1984.781272063226</v>
+        <v>2294.818510382119</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45744.70833333334</v>
+        <v>45747.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2039.744122824907</v>
+        <v>2360.71271062731</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45744.71875</v>
+        <v>45747.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2100.951559457048</v>
+        <v>2435.977842494001</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45744.72916666666</v>
+        <v>45747.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2162.15899608919</v>
+        <v>2511.242974360694</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45744.73958333334</v>
+        <v>45747.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2223.366432721332</v>
+        <v>2586.508106227385</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45744.75</v>
+        <v>45747.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2284.573869353474</v>
+        <v>2661.773238094077</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45744.76041666666</v>
+        <v>45747.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2281.362368048549</v>
+        <v>2663.595032932957</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45744.77083333334</v>
+        <v>45747.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2278.150866743625</v>
+        <v>2665.416827771836</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45744.78125</v>
+        <v>45747.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2274.939365438701</v>
+        <v>2667.238622610716</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45744.79166666666</v>
+        <v>45747.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2271.727864133777</v>
+        <v>2669.060417449596</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45744.80208333334</v>
+        <v>45747.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2252.248954259103</v>
+        <v>2650.735304659672</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45744.8125</v>
+        <v>45747.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2232.77004438443</v>
+        <v>2632.410191869749</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45744.82291666666</v>
+        <v>45747.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2213.291134509757</v>
+        <v>2614.085079079825</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45744.83333333334</v>
+        <v>45747.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2193.812224635084</v>
+        <v>2595.759966289901</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45744.84375</v>
+        <v>45747.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2148.357936560147</v>
+        <v>2538.64133987585</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45744.85416666666</v>
+        <v>45747.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2102.903648485209</v>
+        <v>2481.522713461799</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45744.86458333334</v>
+        <v>45747.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2057.449360410273</v>
+        <v>2424.404087047748</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45744.875</v>
+        <v>45747.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2011.995072335336</v>
+        <v>2367.285460633697</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45744.88541666666</v>
+        <v>45747.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1943.472549397906</v>
+        <v>2285.911957837174</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45744.89583333334</v>
+        <v>45747.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1874.950026460476</v>
+        <v>2204.538455040651</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45744.90625</v>
+        <v>45747.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1806.427503523047</v>
+        <v>2123.164952244128</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45744.91666666666</v>
+        <v>45747.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1737.904980585617</v>
+        <v>2041.791449447605</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45744.92708333334</v>
+        <v>45747.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1698.055077140555</v>
+        <v>1998.437495148449</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45744.9375</v>
+        <v>45747.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1658.205173695494</v>
+        <v>1955.083540849294</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45744.94791666666</v>
+        <v>45747.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1618.355270250432</v>
+        <v>1911.729586550138</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45744.95833333334</v>
+        <v>45747.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1578.50536680537</v>
+        <v>1868.375632250982</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45744.96875</v>
+        <v>45747.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1575.977963224575</v>
+        <v>1802.412821071079</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45744.97916666666</v>
+        <v>45747.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1573.450559643781</v>
+        <v>1736.450009891176</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45744.98958333334</v>
+        <v>45747.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1570.923156062986</v>
+        <v>1670.487198711272</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1568.395752482191</v>
+        <v>1604.524387531369</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1586.854747465908</v>
+        <v>1590.091708024305</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1582.103792298248</v>
+        <v>1585.331061576131</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1577.352837130588</v>
+        <v>1580.570415127957</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1572.601881962928</v>
+        <v>1575.809768679783</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>1206</v>
       </c>
       <c r="D6">
-        <v>1562.681236648336</v>
+        <v>1565.868886643684</v>
       </c>
       <c r="E6">
         <v>1337</v>
@@ -509,7 +509,7 @@
         <v>1194</v>
       </c>
       <c r="D7">
-        <v>1552.760591333744</v>
+        <v>1555.928004607585</v>
       </c>
       <c r="E7">
         <v>1320</v>
@@ -526,7 +526,7 @@
         <v>1198</v>
       </c>
       <c r="D8">
-        <v>1542.839946019152</v>
+        <v>1545.987122571486</v>
       </c>
       <c r="E8">
         <v>1327</v>
@@ -543,7 +543,7 @@
         <v>1195</v>
       </c>
       <c r="D9">
-        <v>1532.91930070456</v>
+        <v>1536.046240535386</v>
       </c>
       <c r="E9">
         <v>1326</v>
@@ -560,7 +560,7 @@
         <v>1177</v>
       </c>
       <c r="D10">
-        <v>1531.897269830982</v>
+        <v>1535.022124862358</v>
       </c>
       <c r="E10">
         <v>1327</v>
@@ -577,7 +577,7 @@
         <v>1174</v>
       </c>
       <c r="D11">
-        <v>1530.875238957405</v>
+        <v>1533.998009189331</v>
       </c>
       <c r="E11">
         <v>1324</v>
@@ -594,7 +594,7 @@
         <v>1174</v>
       </c>
       <c r="D12">
-        <v>1529.853208083827</v>
+        <v>1532.973893516303</v>
       </c>
       <c r="E12">
         <v>1324</v>
@@ -611,7 +611,7 @@
         <v>1173</v>
       </c>
       <c r="D13">
-        <v>1528.83117721025</v>
+        <v>1531.949777843275</v>
       </c>
       <c r="E13">
         <v>1329</v>
@@ -628,7 +628,7 @@
         <v>1151</v>
       </c>
       <c r="D14">
-        <v>1536.308871058096</v>
+        <v>1539.442725135224</v>
       </c>
       <c r="E14">
         <v>1343</v>
@@ -645,7 +645,7 @@
         <v>1149</v>
       </c>
       <c r="D15">
-        <v>1543.786564905942</v>
+        <v>1546.935672427172</v>
       </c>
       <c r="E15">
         <v>1341</v>
@@ -662,7 +662,7 @@
         <v>1139</v>
       </c>
       <c r="D16">
-        <v>1551.264258753788</v>
+        <v>1554.428619719121</v>
       </c>
       <c r="E16">
         <v>1331</v>
@@ -679,7 +679,7 @@
         <v>1139</v>
       </c>
       <c r="D17">
-        <v>1558.741952601634</v>
+        <v>1561.92156701107</v>
       </c>
       <c r="E17">
         <v>1331</v>
@@ -696,7 +696,7 @@
         <v>1312</v>
       </c>
       <c r="D18">
-        <v>1595.880371568882</v>
+        <v>1599.135743131193</v>
       </c>
       <c r="E18">
         <v>1518</v>
@@ -713,7 +713,7 @@
         <v>1334</v>
       </c>
       <c r="D19">
-        <v>1633.018790536129</v>
+        <v>1636.349919251316</v>
       </c>
       <c r="E19">
         <v>1545</v>
@@ -730,7 +730,7 @@
         <v>1331</v>
       </c>
       <c r="D20">
-        <v>1670.157209503378</v>
+        <v>1673.56409537144</v>
       </c>
       <c r="E20">
         <v>1543</v>
@@ -747,7 +747,7 @@
         <v>1337</v>
       </c>
       <c r="D21">
-        <v>1707.295628470625</v>
+        <v>1710.778271491563</v>
       </c>
       <c r="E21">
         <v>1559</v>
@@ -764,7 +764,7 @@
         <v>1294</v>
       </c>
       <c r="D22">
-        <v>1796.587389880034</v>
+        <v>1800.25217553843</v>
       </c>
       <c r="E22">
         <v>1566</v>
@@ -781,7 +781,7 @@
         <v>1300</v>
       </c>
       <c r="D23">
-        <v>1885.879151289442</v>
+        <v>1889.726079585296</v>
       </c>
       <c r="E23">
         <v>1574</v>
@@ -798,7 +798,7 @@
         <v>1321</v>
       </c>
       <c r="D24">
-        <v>1975.170912698851</v>
+        <v>1979.199983632163</v>
       </c>
       <c r="E24">
         <v>1580</v>
@@ -815,7 +815,7 @@
         <v>1378</v>
       </c>
       <c r="D25">
-        <v>2064.462674108259</v>
+        <v>2068.67388767903</v>
       </c>
       <c r="E25">
         <v>1647</v>
@@ -832,7 +832,7 @@
         <v>1699</v>
       </c>
       <c r="D26">
-        <v>2082.894951299907</v>
+        <v>2087.143764124873</v>
       </c>
       <c r="E26">
         <v>2157</v>
@@ -849,7 +849,7 @@
         <v>1701</v>
       </c>
       <c r="D27">
-        <v>2101.327228491554</v>
+        <v>2105.613640570715</v>
       </c>
       <c r="E27">
         <v>2171</v>
@@ -866,7 +866,7 @@
         <v>1701</v>
       </c>
       <c r="D28">
-        <v>2119.759505683201</v>
+        <v>2124.083517016557</v>
       </c>
       <c r="E28">
         <v>2170</v>
@@ -883,7 +883,7 @@
         <v>1705</v>
       </c>
       <c r="D29">
-        <v>2138.191782874848</v>
+        <v>2142.5533934624</v>
       </c>
       <c r="E29">
         <v>2176</v>
@@ -900,7 +900,7 @@
         <v>1723</v>
       </c>
       <c r="D30">
-        <v>2117.259002963202</v>
+        <v>2121.577913622901</v>
       </c>
       <c r="E30">
         <v>2183</v>
@@ -917,7 +917,7 @@
         <v>1750</v>
       </c>
       <c r="D31">
-        <v>2096.326223051557</v>
+        <v>2100.602433783401</v>
       </c>
       <c r="E31">
         <v>2209</v>
@@ -934,7 +934,7 @@
         <v>1730</v>
       </c>
       <c r="D32">
-        <v>2075.393443139911</v>
+        <v>2079.626953943902</v>
       </c>
       <c r="E32">
         <v>2187</v>
@@ -951,7 +951,7 @@
         <v>1741</v>
       </c>
       <c r="D33">
-        <v>2054.460663228266</v>
+        <v>2058.651474104402</v>
       </c>
       <c r="E33">
         <v>2200</v>
@@ -968,7 +968,7 @@
         <v>1829</v>
       </c>
       <c r="D34">
-        <v>2036.445136489688</v>
+        <v>2040.599198224548</v>
       </c>
       <c r="E34">
         <v>2212</v>
@@ -985,7 +985,7 @@
         <v>1821</v>
       </c>
       <c r="D35">
-        <v>2018.429609751111</v>
+        <v>2022.546922344693</v>
       </c>
       <c r="E35">
         <v>2250</v>
@@ -1002,7 +1002,7 @@
         <v>1746</v>
       </c>
       <c r="D36">
-        <v>2000.414083012534</v>
+        <v>2004.494646464838</v>
       </c>
       <c r="E36">
         <v>2181</v>
@@ -1019,7 +1019,7 @@
         <v>1792</v>
       </c>
       <c r="D37">
-        <v>1982.398556273956</v>
+        <v>1986.442370584983</v>
       </c>
       <c r="E37">
         <v>2220</v>
@@ -1036,7 +1036,7 @@
         <v>1841</v>
       </c>
       <c r="D38">
-        <v>1955.131169472154</v>
+        <v>1959.119362148208</v>
       </c>
       <c r="E38">
         <v>2206</v>
@@ -1053,7 +1053,7 @@
         <v>1795</v>
       </c>
       <c r="D39">
-        <v>1927.863782670352</v>
+        <v>1931.796353711433</v>
       </c>
       <c r="E39">
         <v>2158</v>
@@ -1070,7 +1070,7 @@
         <v>1730</v>
       </c>
       <c r="D40">
-        <v>1900.59639586855</v>
+        <v>1904.473345274658</v>
       </c>
       <c r="E40">
         <v>2094</v>
@@ -1087,7 +1087,7 @@
         <v>1721</v>
       </c>
       <c r="D41">
-        <v>1873.329009066748</v>
+        <v>1877.150336837884</v>
       </c>
       <c r="E41">
         <v>2084</v>
@@ -1104,7 +1104,7 @@
         <v>1787</v>
       </c>
       <c r="D42">
-        <v>1870.840413502842</v>
+        <v>1874.656664888733</v>
       </c>
       <c r="E42">
         <v>2104</v>
@@ -1115,16 +1115,16 @@
         <v>45747.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="D43">
-        <v>1868.351817938936</v>
+        <v>1872.162992939583</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1132,16 +1132,16 @@
         <v>45747.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1784</v>
       </c>
       <c r="D44">
-        <v>1865.86322237503</v>
+        <v>1869.669320990433</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1149,16 +1149,16 @@
         <v>45747.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="D45">
-        <v>1863.374626811124</v>
+        <v>1867.175649041283</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1166,16 +1166,16 @@
         <v>45747.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="D46">
-        <v>1847.442852339015</v>
+        <v>1851.211375989515</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1183,16 +1183,16 @@
         <v>45747.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="D47">
-        <v>1831.511077866905</v>
+        <v>1835.247102937748</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1200,16 +1200,16 @@
         <v>45747.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="D48">
-        <v>1815.579303394795</v>
+        <v>1819.28282988598</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1217,16 +1217,16 @@
         <v>45747.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="D49">
-        <v>1799.647528922685</v>
+        <v>1803.318556834212</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1234,16 +1234,16 @@
         <v>45747.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1649</v>
       </c>
       <c r="D50">
-        <v>1808.887481830215</v>
+        <v>1812.577357946448</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1818.127434737744</v>
+        <v>1821.836159058684</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1827.367387645274</v>
+        <v>1831.09496017092</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1836.607340552803</v>
+        <v>1840.353761283156</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1851.741335585625</v>
+        <v>1855.518627537862</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1866.875330618447</v>
+        <v>1870.683493792568</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1882.00932565127</v>
+        <v>1885.848360047275</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1897.143320684092</v>
+        <v>1901.013226301981</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1911.455721966171</v>
+        <v>1915.354822870217</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1925.768123248251</v>
+        <v>1929.696419438452</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1940.080524530331</v>
+        <v>1944.038016006688</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1954.39292581241</v>
+        <v>1958.379612574924</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1990.078671770944</v>
+        <v>1994.13815243752</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2025.764417729479</v>
+        <v>2029.896692300116</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2061.450163688013</v>
+        <v>2065.655232162712</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2097.135909646547</v>
+        <v>2101.413772025308</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2163.030109891738</v>
+        <v>2167.442387173591</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2228.924310136928</v>
+        <v>2233.471002321874</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2294.818510382119</v>
+        <v>2299.499617470156</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2360.71271062731</v>
+        <v>2365.528232618439</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2435.977842494001</v>
+        <v>2440.946894770997</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2511.242974360694</v>
+        <v>2516.365556923554</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2586.508106227385</v>
+        <v>2591.784219076112</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2661.773238094077</v>
+        <v>2667.202881228669</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2663.595032932957</v>
+        <v>2669.028392272934</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2665.416827771836</v>
+        <v>2670.853903317199</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2667.238622610716</v>
+        <v>2672.679414361464</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2669.060417449596</v>
+        <v>2674.504925405729</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2650.735304659672</v>
+        <v>2656.142431962624</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2632.410191869749</v>
+        <v>2637.779938519519</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2614.085079079825</v>
+        <v>2619.417445076414</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2595.759966289901</v>
+        <v>2601.054951633309</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2538.64133987585</v>
+        <v>2543.819811252643</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2481.522713461799</v>
+        <v>2486.584670871978</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2424.404087047748</v>
+        <v>2429.349530491313</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2367.285460633697</v>
+        <v>2372.114390110648</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2285.911957837174</v>
+        <v>2290.574896810305</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2204.538455040651</v>
+        <v>2209.035403509962</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2123.164952244128</v>
+        <v>2127.495910209619</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2041.791449447605</v>
+        <v>2045.956416909276</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1998.437495148449</v>
+        <v>2002.514026639272</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1955.083540849294</v>
+        <v>1959.071636369269</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1911.729586550138</v>
+        <v>1915.629246099265</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1868.375632250982</v>
+        <v>1872.186855829261</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1802.412821071079</v>
+        <v>1805.271238754834</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1736.450009891176</v>
+        <v>1738.355621680406</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1670.487198711272</v>
+        <v>1671.440004605979</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1604.524387531369</v>
+        <v>1604.524387531552</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,1112 +415,1112 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45747.01041666666</v>
+        <v>45751.01041666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="D2">
-        <v>1590.091708024305</v>
+        <v>1833.658723857011</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45747.02083333334</v>
+        <v>45751.02083333334</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="D3">
-        <v>1585.331061576131</v>
+        <v>1823.525305672869</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45747.03125</v>
+        <v>45751.03125</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="D4">
-        <v>1580.570415127957</v>
+        <v>1813.391887488727</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45747.04166666666</v>
+        <v>45751.04166666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="D5">
-        <v>1575.809768679783</v>
+        <v>1803.258469304586</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.05208333334</v>
       </c>
       <c r="B6">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="C6">
-        <v>1206</v>
+        <v>1272</v>
       </c>
       <c r="D6">
-        <v>1565.868886643684</v>
+        <v>1792.364116787935</v>
       </c>
       <c r="E6">
-        <v>1337</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45747.0625</v>
+        <v>45751.0625</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="C7">
-        <v>1194</v>
+        <v>1282</v>
       </c>
       <c r="D7">
-        <v>1555.928004607585</v>
+        <v>1781.469764271284</v>
       </c>
       <c r="E7">
-        <v>1320</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.07291666666</v>
       </c>
       <c r="B8">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8">
-        <v>1198</v>
+        <v>1260</v>
       </c>
       <c r="D8">
-        <v>1545.987122571486</v>
+        <v>1770.575411754634</v>
       </c>
       <c r="E8">
-        <v>1327</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.08333333334</v>
       </c>
       <c r="B9">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C9">
-        <v>1195</v>
+        <v>1265</v>
       </c>
       <c r="D9">
-        <v>1536.046240535386</v>
+        <v>1759.681059237983</v>
       </c>
       <c r="E9">
-        <v>1326</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45747.09375</v>
+        <v>45751.09375</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="C10">
-        <v>1177</v>
+        <v>1260</v>
       </c>
       <c r="D10">
-        <v>1535.022124862358</v>
+        <v>1750.542423498205</v>
       </c>
       <c r="E10">
-        <v>1327</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.10416666666</v>
       </c>
       <c r="B11">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C11">
-        <v>1174</v>
+        <v>1246</v>
       </c>
       <c r="D11">
-        <v>1533.998009189331</v>
+        <v>1741.403787758427</v>
       </c>
       <c r="E11">
-        <v>1324</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.11458333334</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C12">
-        <v>1174</v>
+        <v>1245</v>
       </c>
       <c r="D12">
-        <v>1532.973893516303</v>
+        <v>1732.265152018649</v>
       </c>
       <c r="E12">
-        <v>1324</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45747.125</v>
+        <v>45751.125</v>
       </c>
       <c r="B13">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="C13">
-        <v>1173</v>
+        <v>1243</v>
       </c>
       <c r="D13">
-        <v>1531.949777843275</v>
+        <v>1723.126516278871</v>
       </c>
       <c r="E13">
-        <v>1329</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.13541666666</v>
       </c>
       <c r="B14">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C14">
-        <v>1151</v>
+        <v>1248</v>
       </c>
       <c r="D14">
-        <v>1539.442725135224</v>
+        <v>1735.331160597441</v>
       </c>
       <c r="E14">
-        <v>1343</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.14583333334</v>
       </c>
       <c r="B15">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C15">
-        <v>1149</v>
+        <v>1250</v>
       </c>
       <c r="D15">
-        <v>1546.935672427172</v>
+        <v>1747.53580491601</v>
       </c>
       <c r="E15">
-        <v>1341</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45747.15625</v>
+        <v>45751.15625</v>
       </c>
       <c r="B16">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C16">
-        <v>1139</v>
+        <v>1248</v>
       </c>
       <c r="D16">
-        <v>1554.428619719121</v>
+        <v>1759.74044923458</v>
       </c>
       <c r="E16">
-        <v>1331</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.16666666666</v>
       </c>
       <c r="B17">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="C17">
-        <v>1139</v>
+        <v>1251</v>
       </c>
       <c r="D17">
-        <v>1561.92156701107</v>
+        <v>1771.94509355315</v>
       </c>
       <c r="E17">
-        <v>1331</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.17708333334</v>
       </c>
       <c r="B18">
-        <v>206</v>
+        <v>437</v>
       </c>
       <c r="C18">
-        <v>1312</v>
+        <v>1257</v>
       </c>
       <c r="D18">
-        <v>1599.135743131193</v>
+        <v>1799.461221391532</v>
       </c>
       <c r="E18">
-        <v>1518</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45747.1875</v>
+        <v>45751.1875</v>
       </c>
       <c r="B19">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="C19">
-        <v>1334</v>
+        <v>1256</v>
       </c>
       <c r="D19">
-        <v>1636.349919251316</v>
+        <v>1826.977349229914</v>
       </c>
       <c r="E19">
-        <v>1545</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.19791666666</v>
       </c>
       <c r="B20">
-        <v>212</v>
+        <v>455</v>
       </c>
       <c r="C20">
-        <v>1331</v>
+        <v>1254</v>
       </c>
       <c r="D20">
-        <v>1673.56409537144</v>
+        <v>1854.493477068296</v>
       </c>
       <c r="E20">
-        <v>1543</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.20833333334</v>
       </c>
       <c r="B21">
-        <v>222</v>
+        <v>457</v>
       </c>
       <c r="C21">
-        <v>1337</v>
+        <v>1254</v>
       </c>
       <c r="D21">
-        <v>1710.778271491563</v>
+        <v>1882.009604906678</v>
       </c>
       <c r="E21">
-        <v>1559</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45747.21875</v>
+        <v>45751.21875</v>
       </c>
       <c r="B22">
-        <v>272</v>
+        <v>449</v>
       </c>
       <c r="C22">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="D22">
-        <v>1800.25217553843</v>
+        <v>2028.06445425089</v>
       </c>
       <c r="E22">
-        <v>1566</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.22916666666</v>
       </c>
       <c r="B23">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="C23">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="D23">
-        <v>1889.726079585296</v>
+        <v>2174.119303595101</v>
       </c>
       <c r="E23">
-        <v>1574</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.23958333334</v>
       </c>
       <c r="B24">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="C24">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="D24">
-        <v>1979.199983632163</v>
+        <v>2320.174152939313</v>
       </c>
       <c r="E24">
-        <v>1580</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45747.25</v>
+        <v>45751.25</v>
       </c>
       <c r="B25">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="C25">
-        <v>1378</v>
+        <v>1289</v>
       </c>
       <c r="D25">
-        <v>2068.67388767903</v>
+        <v>2466.229002283524</v>
       </c>
       <c r="E25">
-        <v>1647</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.26041666666</v>
       </c>
       <c r="B26">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="C26">
-        <v>1699</v>
+        <v>1625</v>
       </c>
       <c r="D26">
-        <v>2087.143764124873</v>
+        <v>2491.239614636844</v>
       </c>
       <c r="E26">
-        <v>2157</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.27083333334</v>
       </c>
       <c r="B27">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="C27">
-        <v>1701</v>
+        <v>1669</v>
       </c>
       <c r="D27">
-        <v>2105.613640570715</v>
+        <v>2516.250226990164</v>
       </c>
       <c r="E27">
-        <v>2171</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45747.28125</v>
+        <v>45751.28125</v>
       </c>
       <c r="B28">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="C28">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="D28">
-        <v>2124.083517016557</v>
+        <v>2541.260839343484</v>
       </c>
       <c r="E28">
-        <v>2170</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.29166666666</v>
       </c>
       <c r="B29">
-        <v>471</v>
+        <v>579</v>
       </c>
       <c r="C29">
-        <v>1705</v>
+        <v>1670</v>
       </c>
       <c r="D29">
-        <v>2142.5533934624</v>
+        <v>2566.271451696804</v>
       </c>
       <c r="E29">
-        <v>2176</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.30208333334</v>
       </c>
       <c r="B30">
-        <v>460</v>
+        <v>602</v>
       </c>
       <c r="C30">
-        <v>1723</v>
+        <v>1664</v>
       </c>
       <c r="D30">
-        <v>2121.577913622901</v>
+        <v>2570.425039589994</v>
       </c>
       <c r="E30">
-        <v>2183</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45747.3125</v>
+        <v>45751.3125</v>
       </c>
       <c r="B31">
-        <v>459</v>
+        <v>599</v>
       </c>
       <c r="C31">
-        <v>1750</v>
+        <v>1659</v>
       </c>
       <c r="D31">
-        <v>2100.602433783401</v>
+        <v>2574.578627483183</v>
       </c>
       <c r="E31">
-        <v>2209</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.32291666666</v>
       </c>
       <c r="B32">
-        <v>457</v>
+        <v>600</v>
       </c>
       <c r="C32">
-        <v>1730</v>
+        <v>1652</v>
       </c>
       <c r="D32">
-        <v>2079.626953943902</v>
+        <v>2578.732215376373</v>
       </c>
       <c r="E32">
-        <v>2187</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.33333333334</v>
       </c>
       <c r="B33">
-        <v>459</v>
+        <v>600</v>
       </c>
       <c r="C33">
-        <v>1741</v>
+        <v>1657</v>
       </c>
       <c r="D33">
-        <v>2058.651474104402</v>
+        <v>2582.885803269563</v>
       </c>
       <c r="E33">
-        <v>2200</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45747.34375</v>
+        <v>45751.34375</v>
       </c>
       <c r="B34">
-        <v>383</v>
+        <v>606</v>
       </c>
       <c r="C34">
-        <v>1829</v>
+        <v>1668</v>
       </c>
       <c r="D34">
-        <v>2040.599198224548</v>
+        <v>2555.748286659819</v>
       </c>
       <c r="E34">
-        <v>2212</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.35416666666</v>
       </c>
       <c r="B35">
-        <v>429</v>
+        <v>620</v>
       </c>
       <c r="C35">
-        <v>1821</v>
+        <v>1650</v>
       </c>
       <c r="D35">
-        <v>2022.546922344693</v>
+        <v>2528.610770050075</v>
       </c>
       <c r="E35">
-        <v>2250</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.36458333334</v>
       </c>
       <c r="B36">
-        <v>435</v>
+        <v>614</v>
       </c>
       <c r="C36">
-        <v>1746</v>
+        <v>1643</v>
       </c>
       <c r="D36">
-        <v>2004.494646464838</v>
+        <v>2501.473253440331</v>
       </c>
       <c r="E36">
-        <v>2181</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45747.375</v>
+        <v>45751.375</v>
       </c>
       <c r="B37">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="C37">
-        <v>1792</v>
+        <v>1649</v>
       </c>
       <c r="D37">
-        <v>1986.442370584983</v>
+        <v>2474.335736830587</v>
       </c>
       <c r="E37">
-        <v>2220</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.38541666666</v>
       </c>
       <c r="B38">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C38">
-        <v>1841</v>
+        <v>1687</v>
       </c>
       <c r="D38">
-        <v>1959.119362148208</v>
+        <v>2437.699532626507</v>
       </c>
       <c r="E38">
-        <v>2206</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.39583333334</v>
       </c>
       <c r="B39">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39">
-        <v>1795</v>
+        <v>1670</v>
       </c>
       <c r="D39">
-        <v>1931.796353711433</v>
+        <v>2401.063328422428</v>
       </c>
       <c r="E39">
-        <v>2158</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45747.40625</v>
+        <v>45751.40625</v>
       </c>
       <c r="B40">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40">
-        <v>1730</v>
+        <v>1683</v>
       </c>
       <c r="D40">
-        <v>1904.473345274658</v>
+        <v>2364.427124218348</v>
       </c>
       <c r="E40">
-        <v>2094</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.41666666666</v>
       </c>
       <c r="B41">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C41">
-        <v>1721</v>
+        <v>1667</v>
       </c>
       <c r="D41">
-        <v>1877.150336837884</v>
+        <v>2327.790920014269</v>
       </c>
       <c r="E41">
-        <v>2084</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.42708333334</v>
       </c>
       <c r="B42">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="C42">
-        <v>1787</v>
+        <v>1765</v>
       </c>
       <c r="D42">
-        <v>1874.656664888733</v>
+        <v>2292.992093832353</v>
       </c>
       <c r="E42">
-        <v>2104</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45747.4375</v>
+        <v>45751.4375</v>
       </c>
       <c r="B43">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C43">
-        <v>1785</v>
+        <v>1755</v>
       </c>
       <c r="D43">
-        <v>1872.162992939583</v>
+        <v>2258.193267650437</v>
       </c>
       <c r="E43">
-        <v>2099</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.44791666666</v>
       </c>
       <c r="B44">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C44">
-        <v>1784</v>
+        <v>1708</v>
       </c>
       <c r="D44">
-        <v>1869.669320990433</v>
+        <v>2223.394441468521</v>
       </c>
       <c r="E44">
-        <v>2097</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.45833333334</v>
       </c>
       <c r="B45">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="C45">
-        <v>1750</v>
+        <v>1711</v>
       </c>
       <c r="D45">
-        <v>1867.175649041283</v>
+        <v>2188.595615286605</v>
       </c>
       <c r="E45">
-        <v>2063</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45747.46875</v>
+        <v>45751.46875</v>
       </c>
       <c r="B46">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="C46">
-        <v>1697</v>
+        <v>1585</v>
       </c>
       <c r="D46">
-        <v>1851.211375989515</v>
+        <v>2165.188532843786</v>
       </c>
       <c r="E46">
-        <v>1913</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.47916666666</v>
       </c>
       <c r="B47">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C47">
-        <v>1672</v>
+        <v>1527</v>
       </c>
       <c r="D47">
-        <v>1835.247102937748</v>
+        <v>2141.781450400967</v>
       </c>
       <c r="E47">
-        <v>1885</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.48958333334</v>
       </c>
       <c r="B48">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="C48">
-        <v>1664</v>
+        <v>1509</v>
       </c>
       <c r="D48">
-        <v>1819.28282988598</v>
+        <v>2118.374367958148</v>
       </c>
       <c r="E48">
-        <v>1876</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45747.5</v>
+        <v>45751.5</v>
       </c>
       <c r="B49">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="C49">
-        <v>1631</v>
+        <v>1493</v>
       </c>
       <c r="D49">
-        <v>1803.318556834212</v>
+        <v>2094.967285515329</v>
       </c>
       <c r="E49">
-        <v>1842</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45747.51041666666</v>
+        <v>45751.51041666666</v>
       </c>
       <c r="B50">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C50">
-        <v>1649</v>
+        <v>1437</v>
       </c>
       <c r="D50">
-        <v>1812.577357946448</v>
+        <v>2096.214475445473</v>
       </c>
       <c r="E50">
-        <v>1873</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45747.52083333334</v>
+        <v>45751.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="D51">
-        <v>1821.836159058684</v>
+        <v>2097.461665375617</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45747.53125</v>
+        <v>45751.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="D52">
-        <v>1831.09496017092</v>
+        <v>2098.70885530576</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45747.54166666666</v>
+        <v>45751.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="D53">
-        <v>1840.353761283156</v>
+        <v>2099.956045235904</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45747.55208333334</v>
+        <v>45751.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1337</v>
       </c>
       <c r="D54">
-        <v>1855.518627537862</v>
+        <v>2090.702341377955</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45747.5625</v>
+        <v>45751.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D55">
-        <v>1870.683493792568</v>
+        <v>2081.448637520005</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45747.57291666666</v>
+        <v>45751.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="D56">
-        <v>1885.848360047275</v>
+        <v>2072.194933662056</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45747.58333333334</v>
+        <v>45751.58333333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="D57">
-        <v>1901.013226301981</v>
+        <v>2062.941229804107</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45747.59375</v>
+        <v>45751.59375</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1459</v>
       </c>
       <c r="D58">
-        <v>1915.354822870217</v>
+        <v>2063.820944129774</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45747.60416666666</v>
+        <v>45751.60416666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="D59">
-        <v>1929.696419438452</v>
+        <v>2064.700658455441</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45747.61458333334</v>
+        <v>45751.61458333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="D60">
-        <v>1944.038016006688</v>
+        <v>2065.580372781109</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45747.625</v>
+        <v>45751.625</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="D61">
-        <v>1958.379612574924</v>
+        <v>2066.460087106776</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45747.63541666666</v>
+        <v>45751.63541666666</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="D62">
-        <v>1994.13815243752</v>
+        <v>2121.548020905668</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45747.64583333334</v>
+        <v>45751.64583333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="D63">
-        <v>2029.896692300116</v>
+        <v>2176.63595470456</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45747.65625</v>
+        <v>45751.65625</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1543</v>
       </c>
       <c r="D64">
-        <v>2065.655232162712</v>
+        <v>2231.723888503452</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45747.66666666666</v>
+        <v>45751.66666666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="D65">
-        <v>2101.413772025308</v>
+        <v>2286.811822302344</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45747.67708333334</v>
+        <v>45751.67708333334</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="D66">
-        <v>2167.442387173591</v>
+        <v>2350.607814364917</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45747.6875</v>
+        <v>45751.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2233.471002321874</v>
+        <v>2414.403806427491</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45747.69791666666</v>
+        <v>45751.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2299.499617470156</v>
+        <v>2478.199798490064</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45747.70833333334</v>
+        <v>45751.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2365.528232618439</v>
+        <v>2541.995790552638</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45747.71875</v>
+        <v>45751.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2440.946894770997</v>
+        <v>2594.734107607613</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45747.72916666666</v>
+        <v>45751.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2516.365556923554</v>
+        <v>2647.472424662587</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45747.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2591.784219076112</v>
+        <v>2700.210741717562</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45747.75</v>
+        <v>45751.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2667.202881228669</v>
+        <v>2752.949058772537</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45747.76041666666</v>
+        <v>45751.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2669.028392272934</v>
+        <v>2764.541243750289</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45747.77083333334</v>
+        <v>45751.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2670.853903317199</v>
+        <v>2776.13342872804</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45747.78125</v>
+        <v>45751.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2672.679414361464</v>
+        <v>2787.725613705791</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45747.79166666666</v>
+        <v>45751.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2674.504925405729</v>
+        <v>2799.317798683543</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45747.80208333334</v>
+        <v>45751.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2656.142431962624</v>
+        <v>2794.217682718127</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45747.8125</v>
+        <v>45751.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2637.779938519519</v>
+        <v>2789.117566752712</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45747.82291666666</v>
+        <v>45751.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2619.417445076414</v>
+        <v>2784.017450787296</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45747.83333333334</v>
+        <v>45751.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2601.054951633309</v>
+        <v>2778.917334821881</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45747.84375</v>
+        <v>45751.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2543.819811252643</v>
+        <v>2738.049593354382</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45747.85416666666</v>
+        <v>45751.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2486.584670871978</v>
+        <v>2697.181851886882</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45747.86458333334</v>
+        <v>45751.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2429.349530491313</v>
+        <v>2656.314110419382</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45747.875</v>
+        <v>45751.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2372.114390110648</v>
+        <v>2615.446368951883</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45747.88541666666</v>
+        <v>45751.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2290.574896810305</v>
+        <v>2550.993375050739</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45747.89583333334</v>
+        <v>45751.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2209.035403509962</v>
+        <v>2486.540381149596</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45747.90625</v>
+        <v>45751.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2127.495910209619</v>
+        <v>2422.087387248452</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45747.91666666666</v>
+        <v>45751.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2045.956416909276</v>
+        <v>2357.634393347309</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45747.92708333334</v>
+        <v>45751.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2002.514026639272</v>
+        <v>2295.408524322064</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45747.9375</v>
+        <v>45751.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1959.071636369269</v>
+        <v>2233.18265529682</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45747.94791666666</v>
+        <v>45751.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1915.629246099265</v>
+        <v>2170.956786271575</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45747.95833333334</v>
+        <v>45751.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1872.186855829261</v>
+        <v>2108.730917246331</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45747.96875</v>
+        <v>45751.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1805.271238754834</v>
+        <v>2021.249142343004</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45747.97916666666</v>
+        <v>45751.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1738.355621680406</v>
+        <v>1933.767367439676</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45747.98958333334</v>
+        <v>45751.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1671.440004605979</v>
+        <v>1846.285592536349</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45748</v>
+        <v>45752</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1604.524387531552</v>
+        <v>1758.803817633022</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,1112 +415,1112 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B2">
-        <v>381</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>1428</v>
+        <v>1214</v>
       </c>
       <c r="D2">
-        <v>1833.658723857011</v>
+        <v>1713.521530198372</v>
       </c>
       <c r="E2">
-        <v>1809</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B3">
-        <v>328</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>1407</v>
+        <v>1204</v>
       </c>
       <c r="D3">
-        <v>1823.525305672869</v>
+        <v>1713.244531818397</v>
       </c>
       <c r="E3">
-        <v>1735</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B4">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="C4">
-        <v>1383</v>
+        <v>1201</v>
       </c>
       <c r="D4">
-        <v>1813.391887488727</v>
+        <v>1712.967533438421</v>
       </c>
       <c r="E4">
-        <v>1709</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>1376</v>
+        <v>1201</v>
       </c>
       <c r="D5">
-        <v>1803.258469304586</v>
+        <v>1712.690535058445</v>
       </c>
       <c r="E5">
-        <v>1702</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="C6">
-        <v>1272</v>
+        <v>1202</v>
       </c>
       <c r="D6">
-        <v>1792.364116787935</v>
+        <v>1706.749397391379</v>
       </c>
       <c r="E6">
-        <v>1522</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B7">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>1282</v>
+        <v>1202</v>
       </c>
       <c r="D7">
-        <v>1781.469764271284</v>
+        <v>1700.808259724312</v>
       </c>
       <c r="E7">
-        <v>1531</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B8">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>1260</v>
+        <v>1202</v>
       </c>
       <c r="D8">
-        <v>1770.575411754634</v>
+        <v>1694.867122057246</v>
       </c>
       <c r="E8">
-        <v>1509</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B9">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="C9">
-        <v>1265</v>
+        <v>1202</v>
       </c>
       <c r="D9">
-        <v>1759.681059237983</v>
+        <v>1688.925984390179</v>
       </c>
       <c r="E9">
-        <v>1513</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B10">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="C10">
-        <v>1260</v>
+        <v>1205</v>
       </c>
       <c r="D10">
-        <v>1750.542423498205</v>
+        <v>1675.41037378097</v>
       </c>
       <c r="E10">
-        <v>1509</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B11">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="C11">
-        <v>1246</v>
+        <v>1202</v>
       </c>
       <c r="D11">
-        <v>1741.403787758427</v>
+        <v>1661.89476317176</v>
       </c>
       <c r="E11">
-        <v>1496</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B12">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="C12">
-        <v>1245</v>
+        <v>1202</v>
       </c>
       <c r="D12">
-        <v>1732.265152018649</v>
+        <v>1648.37915256255</v>
       </c>
       <c r="E12">
-        <v>1495</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B13">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C13">
-        <v>1243</v>
+        <v>1201</v>
       </c>
       <c r="D13">
-        <v>1723.126516278871</v>
+        <v>1634.86354195334</v>
       </c>
       <c r="E13">
-        <v>1492</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="C14">
-        <v>1248</v>
+        <v>1196</v>
       </c>
       <c r="D14">
-        <v>1735.331160597441</v>
+        <v>1645.532755416738</v>
       </c>
       <c r="E14">
-        <v>1498</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="C15">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="D15">
-        <v>1747.53580491601</v>
+        <v>1656.201968880135</v>
       </c>
       <c r="E15">
-        <v>1500</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B16">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="C16">
-        <v>1248</v>
+        <v>1195</v>
       </c>
       <c r="D16">
-        <v>1759.74044923458</v>
+        <v>1666.871182343533</v>
       </c>
       <c r="E16">
-        <v>1499</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B17">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="C17">
-        <v>1251</v>
+        <v>1195</v>
       </c>
       <c r="D17">
-        <v>1771.94509355315</v>
+        <v>1677.54039580693</v>
       </c>
       <c r="E17">
-        <v>1517</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B18">
-        <v>437</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>1257</v>
+        <v>1188</v>
       </c>
       <c r="D18">
-        <v>1799.461221391532</v>
+        <v>1703.263038471431</v>
       </c>
       <c r="E18">
-        <v>1694</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B19">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="C19">
-        <v>1256</v>
+        <v>1188</v>
       </c>
       <c r="D19">
-        <v>1826.977349229914</v>
+        <v>1728.985681135931</v>
       </c>
       <c r="E19">
-        <v>1709</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B20">
-        <v>455</v>
+        <v>163</v>
       </c>
       <c r="C20">
-        <v>1254</v>
+        <v>1188</v>
       </c>
       <c r="D20">
-        <v>1854.493477068296</v>
+        <v>1754.708323800432</v>
       </c>
       <c r="E20">
-        <v>1709</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B21">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="C21">
-        <v>1254</v>
+        <v>1188</v>
       </c>
       <c r="D21">
-        <v>1882.009604906678</v>
+        <v>1780.430966464933</v>
       </c>
       <c r="E21">
-        <v>1711</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B22">
-        <v>449</v>
+        <v>143</v>
       </c>
       <c r="C22">
-        <v>1285</v>
+        <v>1241</v>
       </c>
       <c r="D22">
-        <v>2028.06445425089</v>
+        <v>1901.221363470983</v>
       </c>
       <c r="E22">
-        <v>1734</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B23">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="C23">
-        <v>1290</v>
+        <v>1252</v>
       </c>
       <c r="D23">
-        <v>2174.119303595101</v>
+        <v>2022.011760477033</v>
       </c>
       <c r="E23">
-        <v>1740</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B24">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="C24">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="D24">
-        <v>2320.174152939313</v>
+        <v>2142.802157483083</v>
       </c>
       <c r="E24">
-        <v>1740</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B25">
-        <v>460</v>
+        <v>239</v>
       </c>
       <c r="C25">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="D25">
-        <v>2466.229002283524</v>
+        <v>2263.592554489133</v>
       </c>
       <c r="E25">
-        <v>1749</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B26">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C26">
-        <v>1625</v>
+        <v>1429</v>
       </c>
       <c r="D26">
-        <v>2491.239614636844</v>
+        <v>2276.382238309261</v>
       </c>
       <c r="E26">
-        <v>2175</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B27">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="C27">
-        <v>1669</v>
+        <v>1466</v>
       </c>
       <c r="D27">
-        <v>2516.250226990164</v>
+        <v>2289.171922129389</v>
       </c>
       <c r="E27">
-        <v>2239</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B28">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="C28">
-        <v>1670</v>
+        <v>1468</v>
       </c>
       <c r="D28">
-        <v>2541.260839343484</v>
+        <v>2301.961605949517</v>
       </c>
       <c r="E28">
-        <v>2240</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B29">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="C29">
-        <v>1670</v>
+        <v>1506</v>
       </c>
       <c r="D29">
-        <v>2566.271451696804</v>
+        <v>2314.751289769645</v>
       </c>
       <c r="E29">
-        <v>2249</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B30">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C30">
-        <v>1664</v>
+        <v>1446</v>
       </c>
       <c r="D30">
-        <v>2570.425039589994</v>
+        <v>2299.812480587571</v>
       </c>
       <c r="E30">
-        <v>2266</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B31">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="C31">
-        <v>1659</v>
+        <v>1531</v>
       </c>
       <c r="D31">
-        <v>2574.578627483183</v>
+        <v>2284.873671405497</v>
       </c>
       <c r="E31">
-        <v>2258</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B32">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="C32">
-        <v>1652</v>
+        <v>1587</v>
       </c>
       <c r="D32">
-        <v>2578.732215376373</v>
+        <v>2269.934862223422</v>
       </c>
       <c r="E32">
-        <v>2252</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B33">
-        <v>600</v>
+        <v>706</v>
       </c>
       <c r="C33">
-        <v>1657</v>
+        <v>1603</v>
       </c>
       <c r="D33">
-        <v>2582.885803269563</v>
+        <v>2254.996053041348</v>
       </c>
       <c r="E33">
-        <v>2257</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B34">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="C34">
-        <v>1668</v>
+        <v>1538</v>
       </c>
       <c r="D34">
-        <v>2555.748286659819</v>
+        <v>2183.979399416583</v>
       </c>
       <c r="E34">
-        <v>2274</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B35">
-        <v>620</v>
+        <v>561</v>
       </c>
       <c r="C35">
-        <v>1650</v>
+        <v>1486</v>
       </c>
       <c r="D35">
-        <v>2528.610770050075</v>
+        <v>2112.962745791819</v>
       </c>
       <c r="E35">
-        <v>2270</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B36">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="C36">
-        <v>1643</v>
+        <v>1482</v>
       </c>
       <c r="D36">
-        <v>2501.473253440331</v>
+        <v>2041.946092167054</v>
       </c>
       <c r="E36">
-        <v>2257</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B37">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="C37">
-        <v>1649</v>
+        <v>1467</v>
       </c>
       <c r="D37">
-        <v>2474.335736830587</v>
+        <v>1970.929438542289</v>
       </c>
       <c r="E37">
-        <v>2258</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B38">
-        <v>379</v>
+        <v>603</v>
       </c>
       <c r="C38">
-        <v>1687</v>
+        <v>1498</v>
       </c>
       <c r="D38">
-        <v>2437.699532626507</v>
+        <v>1940.087101682225</v>
       </c>
       <c r="E38">
-        <v>2066</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B39">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1670</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2401.063328422428</v>
+        <v>1909.244764822161</v>
       </c>
       <c r="E39">
-        <v>2034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B40">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2364.427124218348</v>
+        <v>1878.402427962097</v>
       </c>
       <c r="E40">
-        <v>2046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B41">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2327.790920014269</v>
+        <v>1847.560091102033</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B42">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1765</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2292.992093832353</v>
+        <v>1820.758109922305</v>
       </c>
       <c r="E42">
-        <v>2021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B43">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1755</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2258.193267650437</v>
+        <v>1793.956128742578</v>
       </c>
       <c r="E43">
-        <v>2005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B44">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2223.394441468521</v>
+        <v>1767.154147562851</v>
       </c>
       <c r="E44">
-        <v>1949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B45">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2188.595615286605</v>
+        <v>1740.352166383123</v>
       </c>
       <c r="E45">
-        <v>1950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B46">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2165.188532843786</v>
+        <v>1698.640031026032</v>
       </c>
       <c r="E46">
-        <v>1717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B47">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2141.781450400967</v>
+        <v>1656.927895668941</v>
       </c>
       <c r="E47">
-        <v>1653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2118.374367958148</v>
+        <v>1615.215760311851</v>
       </c>
       <c r="E48">
-        <v>1638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2094.967285515329</v>
+        <v>1573.50362495476</v>
       </c>
       <c r="E49">
-        <v>1623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B50">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1437</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>2096.214475445473</v>
+        <v>1586.216895428773</v>
       </c>
       <c r="E50">
-        <v>1570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B51">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2097.461665375617</v>
+        <v>1598.930165902786</v>
       </c>
       <c r="E51">
-        <v>1468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B52">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2098.70885530576</v>
+        <v>1611.643436376799</v>
       </c>
       <c r="E52">
-        <v>1438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B53">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1332</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2099.956045235904</v>
+        <v>1624.356706850812</v>
       </c>
       <c r="E53">
-        <v>1469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B54">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1337</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2090.702341377955</v>
+        <v>1627.279517343065</v>
       </c>
       <c r="E54">
-        <v>1473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B55">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>2081.448637520005</v>
+        <v>1630.202327835317</v>
       </c>
       <c r="E55">
-        <v>1536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B56">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2072.194933662056</v>
+        <v>1633.12513832757</v>
       </c>
       <c r="E56">
-        <v>1508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B57">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2062.941229804107</v>
+        <v>1636.047948819822</v>
       </c>
       <c r="E57">
-        <v>1511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B58">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2063.820944129774</v>
+        <v>1656.679552293882</v>
       </c>
       <c r="E58">
-        <v>1593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B59">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>2064.700658455441</v>
+        <v>1677.311155767941</v>
       </c>
       <c r="E59">
-        <v>1610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B60">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>1471</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>2065.580372781109</v>
+        <v>1697.942759242001</v>
       </c>
       <c r="E60">
-        <v>1607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B61">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>2066.460087106776</v>
+        <v>1718.57436271606</v>
       </c>
       <c r="E61">
-        <v>1618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B62">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>2121.548020905668</v>
+        <v>1744.039110337178</v>
       </c>
       <c r="E62">
-        <v>1639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B63">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>2176.63595470456</v>
+        <v>1769.503857958297</v>
       </c>
       <c r="E63">
-        <v>1642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B64">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>2231.723888503452</v>
+        <v>1794.968605579415</v>
       </c>
       <c r="E64">
-        <v>1663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B65">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>1556</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>2286.811822302344</v>
+        <v>1820.433353200533</v>
       </c>
       <c r="E65">
-        <v>1684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B66">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>2350.607814364917</v>
+        <v>1920.582595064238</v>
       </c>
       <c r="E66">
-        <v>1853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2414.403806427491</v>
+        <v>2020.731836927943</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2478.199798490064</v>
+        <v>2120.881078791648</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2541.995790552638</v>
+        <v>2221.030320655354</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2594.734107607613</v>
+        <v>2280.651834028069</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2647.472424662587</v>
+        <v>2340.273347400784</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2700.210741717562</v>
+        <v>2399.894860773499</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2752.949058772537</v>
+        <v>2459.516374146214</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2764.541243750289</v>
+        <v>2482.554998025726</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2776.13342872804</v>
+        <v>2505.593621905237</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2787.725613705791</v>
+        <v>2528.632245784749</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2799.317798683543</v>
+        <v>2551.67086966426</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2794.217682718127</v>
+        <v>2550.371842778635</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2789.117566752712</v>
+        <v>2549.072815893011</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2784.017450787296</v>
+        <v>2547.773789007385</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2778.917334821881</v>
+        <v>2546.47476212176</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2738.049593354382</v>
+        <v>2511.572966245027</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2697.181851886882</v>
+        <v>2476.671170368293</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2656.314110419382</v>
+        <v>2441.769374491559</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2615.446368951883</v>
+        <v>2406.867578614826</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2550.993375050739</v>
+        <v>2326.9105634845</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2486.540381149596</v>
+        <v>2246.953548354175</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2422.087387248452</v>
+        <v>2166.996533223849</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2357.634393347309</v>
+        <v>2087.039518093524</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2295.408524322064</v>
+        <v>2043.722702466163</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2233.18265529682</v>
+        <v>2000.405886838802</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2170.956786271575</v>
+        <v>1957.089071211441</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2108.730917246331</v>
+        <v>1913.772255584081</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2021.249142343004</v>
+        <v>1820.214757374371</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1933.767367439676</v>
+        <v>1726.657259164661</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1846.285592536349</v>
+        <v>1633.099760954951</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1758.803817633022</v>
+        <v>1539.542262745241</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,653 +415,653 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="C2">
-        <v>1214</v>
+        <v>953</v>
       </c>
       <c r="D2">
-        <v>1713.521530198372</v>
+        <v>1439.129230222499</v>
       </c>
       <c r="E2">
-        <v>1347</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B3">
-        <v>112</v>
+        <v>350</v>
       </c>
       <c r="C3">
-        <v>1204</v>
+        <v>938</v>
       </c>
       <c r="D3">
-        <v>1713.244531818397</v>
+        <v>1421.287233533591</v>
       </c>
       <c r="E3">
-        <v>1316</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="C4">
-        <v>1201</v>
+        <v>939</v>
       </c>
       <c r="D4">
-        <v>1712.967533438421</v>
+        <v>1403.445236844683</v>
       </c>
       <c r="E4">
-        <v>1302</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="C5">
-        <v>1201</v>
+        <v>939</v>
       </c>
       <c r="D5">
-        <v>1712.690535058445</v>
+        <v>1385.603240155776</v>
       </c>
       <c r="E5">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B6">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="C6">
-        <v>1202</v>
+        <v>948</v>
       </c>
       <c r="D6">
-        <v>1706.749397391379</v>
+        <v>1384.423072004375</v>
       </c>
       <c r="E6">
-        <v>1311</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="C7">
-        <v>1202</v>
+        <v>945</v>
       </c>
       <c r="D7">
-        <v>1700.808259724312</v>
+        <v>1383.242903852974</v>
       </c>
       <c r="E7">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B8">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="C8">
-        <v>1202</v>
+        <v>945</v>
       </c>
       <c r="D8">
-        <v>1694.867122057246</v>
+        <v>1382.062735701573</v>
       </c>
       <c r="E8">
-        <v>1323</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="C9">
-        <v>1202</v>
+        <v>945</v>
       </c>
       <c r="D9">
-        <v>1688.925984390179</v>
+        <v>1380.882567550172</v>
       </c>
       <c r="E9">
-        <v>1305</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="C10">
-        <v>1205</v>
+        <v>957</v>
       </c>
       <c r="D10">
-        <v>1675.41037378097</v>
+        <v>1387.373492383161</v>
       </c>
       <c r="E10">
-        <v>1311</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B11">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="C11">
-        <v>1202</v>
+        <v>956</v>
       </c>
       <c r="D11">
-        <v>1661.89476317176</v>
+        <v>1393.864417216151</v>
       </c>
       <c r="E11">
-        <v>1324</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B12">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="C12">
-        <v>1202</v>
+        <v>957</v>
       </c>
       <c r="D12">
-        <v>1648.37915256255</v>
+        <v>1400.355342049141</v>
       </c>
       <c r="E12">
-        <v>1319</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B13">
-        <v>135</v>
+        <v>336</v>
       </c>
       <c r="C13">
-        <v>1201</v>
+        <v>957</v>
       </c>
       <c r="D13">
-        <v>1634.86354195334</v>
+        <v>1406.846266882131</v>
       </c>
       <c r="E13">
-        <v>1336</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B14">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="C14">
-        <v>1196</v>
+        <v>960</v>
       </c>
       <c r="D14">
-        <v>1645.532755416738</v>
+        <v>1411.352363459923</v>
       </c>
       <c r="E14">
-        <v>1331</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B15">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="C15">
-        <v>1195</v>
+        <v>961</v>
       </c>
       <c r="D15">
-        <v>1656.201968880135</v>
+        <v>1415.858460037715</v>
       </c>
       <c r="E15">
-        <v>1318</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B16">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="C16">
-        <v>1195</v>
+        <v>961</v>
       </c>
       <c r="D16">
-        <v>1666.871182343533</v>
+        <v>1420.364556615507</v>
       </c>
       <c r="E16">
-        <v>1316</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B17">
-        <v>142</v>
+        <v>334</v>
       </c>
       <c r="C17">
-        <v>1195</v>
+        <v>962</v>
       </c>
       <c r="D17">
-        <v>1677.54039580693</v>
+        <v>1424.8706531933</v>
       </c>
       <c r="E17">
-        <v>1337</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>337</v>
       </c>
       <c r="C18">
-        <v>1188</v>
+        <v>970</v>
       </c>
       <c r="D18">
-        <v>1703.263038471431</v>
+        <v>1438.431858133035</v>
       </c>
       <c r="E18">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B19">
-        <v>150</v>
+        <v>338</v>
       </c>
       <c r="C19">
-        <v>1188</v>
+        <v>970</v>
       </c>
       <c r="D19">
-        <v>1728.985681135931</v>
+        <v>1451.99306307277</v>
       </c>
       <c r="E19">
-        <v>1338</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B20">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="C20">
-        <v>1188</v>
+        <v>971</v>
       </c>
       <c r="D20">
-        <v>1754.708323800432</v>
+        <v>1465.554268012505</v>
       </c>
       <c r="E20">
-        <v>1351</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B21">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="C21">
-        <v>1188</v>
+        <v>969</v>
       </c>
       <c r="D21">
-        <v>1780.430966464933</v>
+        <v>1479.11547295224</v>
       </c>
       <c r="E21">
-        <v>1353</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B22">
-        <v>143</v>
+        <v>388</v>
       </c>
       <c r="C22">
-        <v>1241</v>
+        <v>972</v>
       </c>
       <c r="D22">
-        <v>1901.221363470983</v>
+        <v>1540.301827201809</v>
       </c>
       <c r="E22">
-        <v>1384</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B23">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="C23">
-        <v>1252</v>
+        <v>970</v>
       </c>
       <c r="D23">
-        <v>2022.011760477033</v>
+        <v>1601.488181451379</v>
       </c>
       <c r="E23">
-        <v>1403</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B24">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="C24">
-        <v>1268</v>
+        <v>971</v>
       </c>
       <c r="D24">
-        <v>2142.802157483083</v>
+        <v>1662.674535700948</v>
       </c>
       <c r="E24">
-        <v>1456</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B25">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="C25">
-        <v>1273</v>
+        <v>980</v>
       </c>
       <c r="D25">
-        <v>2263.592554489133</v>
+        <v>1723.860889950518</v>
       </c>
       <c r="E25">
-        <v>1512</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B26">
-        <v>518</v>
+        <v>417</v>
       </c>
       <c r="C26">
-        <v>1429</v>
+        <v>1160</v>
       </c>
       <c r="D26">
-        <v>2276.382238309261</v>
+        <v>1739.868261604311</v>
       </c>
       <c r="E26">
-        <v>1947</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B27">
-        <v>588</v>
+        <v>425</v>
       </c>
       <c r="C27">
-        <v>1466</v>
+        <v>1170</v>
       </c>
       <c r="D27">
-        <v>2289.171922129389</v>
+        <v>1755.875633258104</v>
       </c>
       <c r="E27">
-        <v>2054</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B28">
-        <v>600</v>
+        <v>414</v>
       </c>
       <c r="C28">
-        <v>1468</v>
+        <v>1172</v>
       </c>
       <c r="D28">
-        <v>2301.961605949517</v>
+        <v>1771.883004911897</v>
       </c>
       <c r="E28">
-        <v>2068</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B29">
-        <v>538</v>
+        <v>427</v>
       </c>
       <c r="C29">
-        <v>1506</v>
+        <v>1171</v>
       </c>
       <c r="D29">
-        <v>2314.751289769645</v>
+        <v>1787.89037656569</v>
       </c>
       <c r="E29">
-        <v>2044</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B30">
-        <v>606</v>
+        <v>728</v>
       </c>
       <c r="C30">
-        <v>1446</v>
+        <v>1189</v>
       </c>
       <c r="D30">
-        <v>2299.812480587571</v>
+        <v>1764.362115146943</v>
       </c>
       <c r="E30">
-        <v>2052</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B31">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="C31">
-        <v>1531</v>
+        <v>1197</v>
       </c>
       <c r="D31">
-        <v>2284.873671405497</v>
+        <v>1740.833853728197</v>
       </c>
       <c r="E31">
-        <v>2178</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B32">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="C32">
-        <v>1587</v>
+        <v>1194</v>
       </c>
       <c r="D32">
-        <v>2269.934862223422</v>
+        <v>1717.30559230945</v>
       </c>
       <c r="E32">
-        <v>2263</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B33">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="C33">
-        <v>1603</v>
+        <v>1198</v>
       </c>
       <c r="D33">
-        <v>2254.996053041348</v>
+        <v>1693.777330890704</v>
       </c>
       <c r="E33">
-        <v>2309</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B34">
-        <v>579</v>
+        <v>450</v>
       </c>
       <c r="C34">
-        <v>1538</v>
+        <v>1129</v>
       </c>
       <c r="D34">
-        <v>2183.979399416583</v>
+        <v>1682.651563863516</v>
       </c>
       <c r="E34">
-        <v>2117</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B35">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="C35">
-        <v>1486</v>
+        <v>1120</v>
       </c>
       <c r="D35">
-        <v>2112.962745791819</v>
+        <v>1671.525796836329</v>
       </c>
       <c r="E35">
-        <v>2047</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B36">
-        <v>537</v>
+        <v>416</v>
       </c>
       <c r="C36">
-        <v>1482</v>
+        <v>1126</v>
       </c>
       <c r="D36">
-        <v>2041.946092167054</v>
+        <v>1660.400029809142</v>
       </c>
       <c r="E36">
-        <v>2019</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B37">
-        <v>532</v>
+        <v>329</v>
       </c>
       <c r="C37">
-        <v>1467</v>
+        <v>1146</v>
       </c>
       <c r="D37">
-        <v>1970.929438542289</v>
+        <v>1649.274262781954</v>
       </c>
       <c r="E37">
-        <v>1999</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B38">
-        <v>603</v>
+        <v>379</v>
       </c>
       <c r="C38">
-        <v>1498</v>
+        <v>1121</v>
       </c>
       <c r="D38">
-        <v>1940.087101682225</v>
+        <v>1617.742315536889</v>
       </c>
       <c r="E38">
-        <v>2101</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="D39">
-        <v>1909.244764822161</v>
+        <v>1586.210368291824</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1878.402427962097</v>
+        <v>1554.678421046759</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1847.560091102033</v>
+        <v>1523.146473801694</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1820.758109922305</v>
+        <v>1518.20049636688</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1793.956128742578</v>
+        <v>1513.254518932065</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1767.154147562851</v>
+        <v>1508.308541497251</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1740.352166383123</v>
+        <v>1503.362564062437</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1698.640031026032</v>
+        <v>1493.738829228129</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1656.927895668941</v>
+        <v>1484.115094393822</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1615.215760311851</v>
+        <v>1474.491359559514</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1573.50362495476</v>
+        <v>1464.867624725206</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1586.216895428773</v>
+        <v>1453.827688108722</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1598.930165902786</v>
+        <v>1442.787751492237</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1611.643436376799</v>
+        <v>1431.747814875752</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1624.356706850812</v>
+        <v>1420.707878259267</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1627.279517343065</v>
+        <v>1429.848817032035</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1630.202327835317</v>
+        <v>1438.989755804802</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1633.12513832757</v>
+        <v>1448.13069457757</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1636.047948819822</v>
+        <v>1457.271633350338</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1656.679552293882</v>
+        <v>1477.763643979215</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1677.311155767941</v>
+        <v>1498.255654608092</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1697.942759242001</v>
+        <v>1518.74766523697</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1718.57436271606</v>
+        <v>1539.239675865847</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1744.039110337178</v>
+        <v>1565.364307217321</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1769.503857958297</v>
+        <v>1591.488938568796</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1794.968605579415</v>
+        <v>1617.61356992027</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1820.433353200533</v>
+        <v>1643.738201271745</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1920.582595064238</v>
+        <v>1711.973378025364</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2020.731836927943</v>
+        <v>1780.208554778983</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2120.881078791648</v>
+        <v>1848.443731532603</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2221.030320655354</v>
+        <v>1916.678908286222</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2280.651834028069</v>
+        <v>1991.523026687947</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2340.273347400784</v>
+        <v>2066.367145089672</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2399.894860773499</v>
+        <v>2141.211263491397</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2459.516374146214</v>
+        <v>2216.055381893122</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2482.554998025726</v>
+        <v>2255.440811745797</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2505.593621905237</v>
+        <v>2294.826241598471</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2528.632245784749</v>
+        <v>2334.211671451146</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2551.67086966426</v>
+        <v>2373.597101303821</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2550.371842778635</v>
+        <v>2370.303359281114</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2549.072815893011</v>
+        <v>2367.009617258408</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2547.773789007385</v>
+        <v>2363.715875235702</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2546.47476212176</v>
+        <v>2360.422133212996</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2511.572966245027</v>
+        <v>2334.394061074219</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2476.671170368293</v>
+        <v>2308.365988935443</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2441.769374491559</v>
+        <v>2282.337916796667</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2406.867578614826</v>
+        <v>2256.309844657891</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2326.9105634845</v>
+        <v>2134.677423453769</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2246.953548354175</v>
+        <v>2013.045002249648</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2166.996533223849</v>
+        <v>1891.412581045526</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2087.039518093524</v>
+        <v>1769.780159841405</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2043.722702466163</v>
+        <v>1744.824967839955</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2000.405886838802</v>
+        <v>1719.869775838506</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1957.089071211441</v>
+        <v>1694.914583837056</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1913.772255584081</v>
+        <v>1669.959391835607</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1820.214757374371</v>
+        <v>1616.965820548667</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1726.657259164661</v>
+        <v>1563.972249261727</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1633.099760954951</v>
+        <v>1510.978677974787</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45759</v>
+        <v>45777</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1539.542262745241</v>
+        <v>1457.985106687848</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,135 +415,135 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B2">
-        <v>344</v>
+        <v>571</v>
       </c>
       <c r="C2">
-        <v>953</v>
+        <v>750</v>
       </c>
       <c r="D2">
-        <v>1439.129230222499</v>
+        <v>1424.083078233393</v>
       </c>
       <c r="E2">
-        <v>1297</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>581</v>
       </c>
       <c r="C3">
-        <v>938</v>
+        <v>748</v>
       </c>
       <c r="D3">
-        <v>1421.287233533591</v>
+        <v>1423.220003733747</v>
       </c>
       <c r="E3">
-        <v>1288</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B4">
-        <v>349</v>
+        <v>574</v>
       </c>
       <c r="C4">
-        <v>939</v>
+        <v>748</v>
       </c>
       <c r="D4">
-        <v>1403.445236844683</v>
+        <v>1422.356929234102</v>
       </c>
       <c r="E4">
-        <v>1288</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B5">
-        <v>349</v>
+        <v>556</v>
       </c>
       <c r="C5">
-        <v>939</v>
+        <v>748</v>
       </c>
       <c r="D5">
-        <v>1385.603240155776</v>
+        <v>1421.493854734456</v>
       </c>
       <c r="E5">
-        <v>1288</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B6">
-        <v>350</v>
+        <v>551</v>
       </c>
       <c r="C6">
-        <v>948</v>
+        <v>756</v>
       </c>
       <c r="D6">
-        <v>1384.423072004375</v>
+        <v>1415.574179048649</v>
       </c>
       <c r="E6">
-        <v>1298</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B7">
-        <v>346</v>
+        <v>546</v>
       </c>
       <c r="C7">
-        <v>945</v>
+        <v>755</v>
       </c>
       <c r="D7">
-        <v>1383.242903852974</v>
+        <v>1409.654503362842</v>
       </c>
       <c r="E7">
-        <v>1291</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B8">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="C8">
-        <v>945</v>
+        <v>755</v>
       </c>
       <c r="D8">
-        <v>1382.062735701573</v>
+        <v>1403.734827677036</v>
       </c>
       <c r="E8">
-        <v>1283</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B9">
-        <v>346</v>
+        <v>534</v>
       </c>
       <c r="C9">
-        <v>945</v>
+        <v>757</v>
       </c>
       <c r="D9">
-        <v>1380.882567550172</v>
+        <v>1397.815151991229</v>
       </c>
       <c r="E9">
         <v>1291</v>
@@ -551,517 +551,517 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B10">
-        <v>339</v>
+        <v>548</v>
       </c>
       <c r="C10">
-        <v>957</v>
+        <v>757</v>
       </c>
       <c r="D10">
-        <v>1387.373492383161</v>
+        <v>1399.246840278499</v>
       </c>
       <c r="E10">
-        <v>1296</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B11">
-        <v>337</v>
+        <v>548</v>
       </c>
       <c r="C11">
-        <v>956</v>
+        <v>756</v>
       </c>
       <c r="D11">
-        <v>1393.864417216151</v>
+        <v>1400.678528565769</v>
       </c>
       <c r="E11">
-        <v>1293</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B12">
-        <v>337</v>
+        <v>589</v>
       </c>
       <c r="C12">
-        <v>957</v>
+        <v>756</v>
       </c>
       <c r="D12">
-        <v>1400.355342049141</v>
+        <v>1402.110216853039</v>
       </c>
       <c r="E12">
-        <v>1294</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B13">
-        <v>336</v>
+        <v>574</v>
       </c>
       <c r="C13">
-        <v>957</v>
+        <v>756</v>
       </c>
       <c r="D13">
-        <v>1406.846266882131</v>
+        <v>1403.541905140309</v>
       </c>
       <c r="E13">
-        <v>1293</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B14">
-        <v>333</v>
+        <v>555</v>
       </c>
       <c r="C14">
-        <v>960</v>
+        <v>758</v>
       </c>
       <c r="D14">
-        <v>1411.352363459923</v>
+        <v>1406.943434051056</v>
       </c>
       <c r="E14">
-        <v>1293</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B15">
-        <v>334</v>
+        <v>556</v>
       </c>
       <c r="C15">
-        <v>961</v>
+        <v>760</v>
       </c>
       <c r="D15">
-        <v>1415.858460037715</v>
+        <v>1410.344962961803</v>
       </c>
       <c r="E15">
-        <v>1295</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B16">
-        <v>334</v>
+        <v>548</v>
       </c>
       <c r="C16">
-        <v>961</v>
+        <v>760</v>
       </c>
       <c r="D16">
-        <v>1420.364556615507</v>
+        <v>1413.74649187255</v>
       </c>
       <c r="E16">
-        <v>1295</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B17">
-        <v>334</v>
+        <v>553</v>
       </c>
       <c r="C17">
-        <v>962</v>
+        <v>760</v>
       </c>
       <c r="D17">
-        <v>1424.8706531933</v>
+        <v>1417.148020783297</v>
       </c>
       <c r="E17">
-        <v>1296</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B18">
-        <v>337</v>
+        <v>550</v>
       </c>
       <c r="C18">
-        <v>970</v>
+        <v>762</v>
       </c>
       <c r="D18">
-        <v>1438.431858133035</v>
+        <v>1425.839688685614</v>
       </c>
       <c r="E18">
-        <v>1307</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B19">
-        <v>338</v>
+        <v>501</v>
       </c>
       <c r="C19">
-        <v>970</v>
+        <v>763</v>
       </c>
       <c r="D19">
-        <v>1451.99306307277</v>
+        <v>1434.53135658793</v>
       </c>
       <c r="E19">
-        <v>1308</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B20">
-        <v>338</v>
+        <v>540</v>
       </c>
       <c r="C20">
-        <v>971</v>
+        <v>765</v>
       </c>
       <c r="D20">
-        <v>1465.554268012505</v>
+        <v>1443.223024490247</v>
       </c>
       <c r="E20">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B21">
-        <v>359</v>
+        <v>561</v>
       </c>
       <c r="C21">
-        <v>969</v>
+        <v>766</v>
       </c>
       <c r="D21">
-        <v>1479.11547295224</v>
+        <v>1451.914692392563</v>
       </c>
       <c r="E21">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B22">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="C22">
-        <v>972</v>
+        <v>798</v>
       </c>
       <c r="D22">
-        <v>1540.301827201809</v>
+        <v>1522.382186834008</v>
       </c>
       <c r="E22">
-        <v>1360</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B23">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C23">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="D23">
-        <v>1601.488181451379</v>
+        <v>1592.849681275452</v>
       </c>
       <c r="E23">
-        <v>1325</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B24">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="C24">
-        <v>971</v>
+        <v>771</v>
       </c>
       <c r="D24">
-        <v>1662.674535700948</v>
+        <v>1663.317175716897</v>
       </c>
       <c r="E24">
-        <v>1360</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B25">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C25">
-        <v>980</v>
+        <v>760</v>
       </c>
       <c r="D25">
-        <v>1723.860889950518</v>
+        <v>1733.784670158341</v>
       </c>
       <c r="E25">
-        <v>1378</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B26">
-        <v>417</v>
+        <v>536</v>
       </c>
       <c r="C26">
-        <v>1160</v>
+        <v>1050</v>
       </c>
       <c r="D26">
-        <v>1739.868261604311</v>
+        <v>1749.817548216582</v>
       </c>
       <c r="E26">
-        <v>1577</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B27">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1755.875633258104</v>
+        <v>1765.850426274822</v>
       </c>
       <c r="E27">
-        <v>1595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B28">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1172</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1771.883004911897</v>
+        <v>1781.883304333062</v>
       </c>
       <c r="E28">
-        <v>1586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B29">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1787.89037656569</v>
+        <v>1797.916182391303</v>
       </c>
       <c r="E29">
-        <v>1598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B30">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1764.362115146943</v>
+        <v>1790.402357335445</v>
       </c>
       <c r="E30">
-        <v>1917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B31">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1740.833853728197</v>
+        <v>1782.888532279587</v>
       </c>
       <c r="E31">
-        <v>1935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B32">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1717.30559230945</v>
+        <v>1775.374707223729</v>
       </c>
       <c r="E32">
-        <v>1917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B33">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1693.777330890704</v>
+        <v>1767.860882167872</v>
       </c>
       <c r="E33">
-        <v>1917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B34">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1129</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1682.651563863516</v>
+        <v>1740.547112708727</v>
       </c>
       <c r="E34">
-        <v>1579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B35">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1671.525796836329</v>
+        <v>1713.233343249583</v>
       </c>
       <c r="E35">
-        <v>1562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B36">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1660.400029809142</v>
+        <v>1685.919573790439</v>
       </c>
       <c r="E36">
-        <v>1542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B37">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1649.274262781954</v>
+        <v>1658.605804331294</v>
       </c>
       <c r="E37">
-        <v>1475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B38">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1617.742315536889</v>
+        <v>1634.175719082284</v>
       </c>
       <c r="E38">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B39">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1108</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1586.210368291824</v>
+        <v>1609.745633833273</v>
       </c>
       <c r="E39">
-        <v>1449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1554.678421046759</v>
+        <v>1585.315548584262</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1523.146473801694</v>
+        <v>1560.885463335251</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1518.20049636688</v>
+        <v>1542.730437389968</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1513.254518932065</v>
+        <v>1524.575411444685</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1508.308541497251</v>
+        <v>1506.420385499403</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1503.362564062437</v>
+        <v>1488.26535955412</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1493.738829228129</v>
+        <v>1475.644164223811</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1484.115094393822</v>
+        <v>1463.022968893501</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1474.491359559514</v>
+        <v>1450.401773563191</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1464.867624725206</v>
+        <v>1437.780578232882</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1453.827688108722</v>
+        <v>1435.699045616186</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1442.787751492237</v>
+        <v>1433.61751299949</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1431.747814875752</v>
+        <v>1431.535980382795</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1420.707878259267</v>
+        <v>1429.454447766099</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1429.848817032035</v>
+        <v>1440.603339537893</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1438.989755804802</v>
+        <v>1451.752231309688</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1448.13069457757</v>
+        <v>1462.901123081482</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1457.271633350338</v>
+        <v>1474.050014853276</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1477.763643979215</v>
+        <v>1470.638332125364</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1498.255654608092</v>
+        <v>1467.226649397453</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1518.74766523697</v>
+        <v>1463.814966669541</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1539.239675865847</v>
+        <v>1460.403283941629</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1565.364307217321</v>
+        <v>1502.328396989123</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1591.488938568796</v>
+        <v>1544.253510036617</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1617.61356992027</v>
+        <v>1586.178623084111</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1643.738201271745</v>
+        <v>1628.103736131605</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1711.973378025364</v>
+        <v>1714.644723901826</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1780.208554778983</v>
+        <v>1801.185711672048</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1848.443731532603</v>
+        <v>1887.726699442269</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1916.678908286222</v>
+        <v>1974.26768721249</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1991.523026687947</v>
+        <v>2033.383213529679</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2066.367145089672</v>
+        <v>2092.498739846868</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2141.211263491397</v>
+        <v>2151.614266164058</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2216.055381893122</v>
+        <v>2210.729792481247</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2255.440811745797</v>
+        <v>2235.606645706179</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2294.826241598471</v>
+        <v>2260.483498931112</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2334.211671451146</v>
+        <v>2285.360352156044</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2373.597101303821</v>
+        <v>2310.237205380977</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2370.303359281114</v>
+        <v>2345.816182401499</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2367.009617258408</v>
+        <v>2381.395159422022</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2363.715875235702</v>
+        <v>2416.974136442544</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2360.422133212996</v>
+        <v>2452.553113463067</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2334.394061074219</v>
+        <v>2386.868067131375</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2308.365988935443</v>
+        <v>2321.183020799682</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2282.337916796667</v>
+        <v>2255.49797446799</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2256.309844657891</v>
+        <v>2189.812928136298</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2134.677423453769</v>
+        <v>2108.237157193317</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2013.045002249648</v>
+        <v>2026.661386250336</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1891.412581045526</v>
+        <v>1945.085615307355</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1769.780159841405</v>
+        <v>1863.509844364374</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1744.824967839955</v>
+        <v>1793.123580463859</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1719.869775838506</v>
+        <v>1722.737316563343</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1694.914583837056</v>
+        <v>1652.351052662827</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1669.959391835607</v>
+        <v>1581.964788762312</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1616.965820548667</v>
+        <v>1522.425245311292</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1563.972249261727</v>
+        <v>1462.885701860272</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1510.978677974787</v>
+        <v>1403.346158409252</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1457.985106687848</v>
+        <v>1343.806614958232</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,670 +415,670 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B2">
-        <v>571</v>
+        <v>669</v>
       </c>
       <c r="C2">
-        <v>750</v>
+        <v>946</v>
       </c>
       <c r="D2">
-        <v>1424.083078233393</v>
+        <v>1640.337460316774</v>
       </c>
       <c r="E2">
-        <v>1321</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B3">
-        <v>581</v>
+        <v>665</v>
       </c>
       <c r="C3">
-        <v>748</v>
+        <v>910</v>
       </c>
       <c r="D3">
-        <v>1423.220003733747</v>
+        <v>1626.318260595397</v>
       </c>
       <c r="E3">
-        <v>1329</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B4">
-        <v>574</v>
+        <v>666</v>
       </c>
       <c r="C4">
-        <v>748</v>
+        <v>909</v>
       </c>
       <c r="D4">
-        <v>1422.356929234102</v>
+        <v>1612.29906087402</v>
       </c>
       <c r="E4">
-        <v>1322</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B5">
-        <v>556</v>
+        <v>665</v>
       </c>
       <c r="C5">
-        <v>748</v>
+        <v>909</v>
       </c>
       <c r="D5">
-        <v>1421.493854734456</v>
+        <v>1598.279861152643</v>
       </c>
       <c r="E5">
-        <v>1304</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B6">
-        <v>551</v>
+        <v>666</v>
       </c>
       <c r="C6">
-        <v>756</v>
+        <v>922</v>
       </c>
       <c r="D6">
-        <v>1415.574179048649</v>
+        <v>1586.938793151919</v>
       </c>
       <c r="E6">
-        <v>1307</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B7">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="C7">
-        <v>755</v>
+        <v>921</v>
       </c>
       <c r="D7">
-        <v>1409.654503362842</v>
+        <v>1575.597725151195</v>
       </c>
       <c r="E7">
-        <v>1301</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B8">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="C8">
-        <v>755</v>
+        <v>919</v>
       </c>
       <c r="D8">
-        <v>1403.734827677036</v>
+        <v>1564.256657150471</v>
       </c>
       <c r="E8">
-        <v>1292</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B9">
-        <v>534</v>
+        <v>664</v>
       </c>
       <c r="C9">
-        <v>757</v>
+        <v>896</v>
       </c>
       <c r="D9">
-        <v>1397.815151991229</v>
+        <v>1552.915589149747</v>
       </c>
       <c r="E9">
-        <v>1291</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B10">
-        <v>548</v>
+        <v>659</v>
       </c>
       <c r="C10">
-        <v>757</v>
+        <v>887</v>
       </c>
       <c r="D10">
-        <v>1399.246840278499</v>
+        <v>1549.526932686982</v>
       </c>
       <c r="E10">
-        <v>1305</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B11">
-        <v>548</v>
+        <v>659</v>
       </c>
       <c r="C11">
-        <v>756</v>
+        <v>885</v>
       </c>
       <c r="D11">
-        <v>1400.678528565769</v>
+        <v>1546.138276224216</v>
       </c>
       <c r="E11">
-        <v>1304</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B12">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="C12">
-        <v>756</v>
+        <v>885</v>
       </c>
       <c r="D12">
-        <v>1402.110216853039</v>
+        <v>1542.749619761451</v>
       </c>
       <c r="E12">
-        <v>1345</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B13">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="C13">
-        <v>756</v>
+        <v>909</v>
       </c>
       <c r="D13">
-        <v>1403.541905140309</v>
+        <v>1539.360963298686</v>
       </c>
       <c r="E13">
-        <v>1330</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B14">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="C14">
-        <v>758</v>
+        <v>874</v>
       </c>
       <c r="D14">
-        <v>1406.943434051056</v>
+        <v>1552.496561737977</v>
       </c>
       <c r="E14">
-        <v>1313</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B15">
-        <v>556</v>
+        <v>660</v>
       </c>
       <c r="C15">
-        <v>760</v>
+        <v>864</v>
       </c>
       <c r="D15">
-        <v>1410.344962961803</v>
+        <v>1565.632160177268</v>
       </c>
       <c r="E15">
-        <v>1316</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B16">
-        <v>548</v>
+        <v>676</v>
       </c>
       <c r="C16">
-        <v>760</v>
+        <v>864</v>
       </c>
       <c r="D16">
-        <v>1413.74649187255</v>
+        <v>1578.767758616559</v>
       </c>
       <c r="E16">
-        <v>1308</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B17">
-        <v>553</v>
+        <v>670</v>
       </c>
       <c r="C17">
-        <v>760</v>
+        <v>865</v>
       </c>
       <c r="D17">
-        <v>1417.148020783297</v>
+        <v>1591.90335705585</v>
       </c>
       <c r="E17">
-        <v>1313</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B18">
-        <v>550</v>
+        <v>672</v>
       </c>
       <c r="C18">
-        <v>762</v>
+        <v>887</v>
       </c>
       <c r="D18">
-        <v>1425.839688685614</v>
+        <v>1598.963058020264</v>
       </c>
       <c r="E18">
-        <v>1312</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B19">
-        <v>501</v>
+        <v>651</v>
       </c>
       <c r="C19">
-        <v>763</v>
+        <v>891</v>
       </c>
       <c r="D19">
-        <v>1434.53135658793</v>
+        <v>1606.022758984677</v>
       </c>
       <c r="E19">
-        <v>1264</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B20">
-        <v>540</v>
+        <v>646</v>
       </c>
       <c r="C20">
-        <v>765</v>
+        <v>911</v>
       </c>
       <c r="D20">
-        <v>1443.223024490247</v>
+        <v>1613.08245994909</v>
       </c>
       <c r="E20">
-        <v>1305</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B21">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="C21">
-        <v>766</v>
+        <v>918</v>
       </c>
       <c r="D21">
-        <v>1451.914692392563</v>
+        <v>1620.142160913503</v>
       </c>
       <c r="E21">
-        <v>1327</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B22">
-        <v>341</v>
+        <v>691</v>
       </c>
       <c r="C22">
-        <v>798</v>
+        <v>919</v>
       </c>
       <c r="D22">
-        <v>1522.382186834008</v>
+        <v>1663.138017108794</v>
       </c>
       <c r="E22">
-        <v>1139</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B23">
-        <v>341</v>
+        <v>702</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>924</v>
       </c>
       <c r="D23">
-        <v>1592.849681275452</v>
+        <v>1706.133873304084</v>
       </c>
       <c r="E23">
-        <v>1141</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B24">
-        <v>345</v>
+        <v>722</v>
       </c>
       <c r="C24">
-        <v>771</v>
+        <v>936</v>
       </c>
       <c r="D24">
-        <v>1663.317175716897</v>
+        <v>1749.129729499375</v>
       </c>
       <c r="E24">
-        <v>1116</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B25">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="C25">
-        <v>760</v>
+        <v>943</v>
       </c>
       <c r="D25">
-        <v>1733.784670158341</v>
+        <v>1792.125585694665</v>
       </c>
       <c r="E25">
-        <v>1143</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B26">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="C26">
-        <v>1050</v>
+        <v>1095</v>
       </c>
       <c r="D26">
-        <v>1749.817548216582</v>
+        <v>1794.357362128899</v>
       </c>
       <c r="E26">
-        <v>1586</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="D27">
-        <v>1765.850426274822</v>
+        <v>1796.589138563133</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="D28">
-        <v>1781.883304333062</v>
+        <v>1798.820914997367</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="D29">
-        <v>1797.916182391303</v>
+        <v>1801.052691431601</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1113</v>
       </c>
       <c r="D30">
-        <v>1790.402357335445</v>
+        <v>1796.434280606854</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="D31">
-        <v>1782.888532279587</v>
+        <v>1791.815869782107</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="D32">
-        <v>1775.374707223729</v>
+        <v>1787.19745895736</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="D33">
-        <v>1767.860882167872</v>
+        <v>1782.579048132613</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="D34">
-        <v>1740.547112708727</v>
+        <v>1730.984020698216</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="D35">
-        <v>1713.233343249583</v>
+        <v>1679.388993263818</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="D36">
-        <v>1685.919573790439</v>
+        <v>1627.793965829421</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="D37">
-        <v>1658.605804331294</v>
+        <v>1576.198938395023</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="D38">
-        <v>1634.175719082284</v>
+        <v>1536.728378035866</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="D39">
-        <v>1609.745633833273</v>
+        <v>1497.257817676709</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="D40">
-        <v>1585.315548584262</v>
+        <v>1457.787257317553</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1560.885463335251</v>
+        <v>1418.316696958396</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1542.730437389968</v>
+        <v>1413.889581256629</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1524.575411444685</v>
+        <v>1409.462465554863</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1506.420385499403</v>
+        <v>1405.035349853097</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1488.26535955412</v>
+        <v>1400.608234151331</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1475.644164223811</v>
+        <v>1391.744893457154</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1463.022968893501</v>
+        <v>1382.881552762978</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1450.401773563191</v>
+        <v>1374.018212068802</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1437.780578232882</v>
+        <v>1365.154871374626</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1435.699045616186</v>
+        <v>1359.716624308949</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1433.61751299949</v>
+        <v>1354.278377243272</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1431.535980382795</v>
+        <v>1348.840130177596</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1429.454447766099</v>
+        <v>1343.401883111919</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1440.603339537893</v>
+        <v>1343.483866736198</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1451.752231309688</v>
+        <v>1343.565850360477</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1462.901123081482</v>
+        <v>1343.647833984757</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1474.050014853276</v>
+        <v>1343.729817609036</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1470.638332125364</v>
+        <v>1363.123499354858</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1467.226649397453</v>
+        <v>1382.517181100679</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1463.814966669541</v>
+        <v>1401.910862846501</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1460.403283941629</v>
+        <v>1421.304544592322</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1502.328396989123</v>
+        <v>1469.638445645916</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1544.253510036617</v>
+        <v>1517.972346699511</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1586.178623084111</v>
+        <v>1566.306247753105</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1628.103736131605</v>
+        <v>1614.640148806699</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1714.644723901826</v>
+        <v>1704.904118942452</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1801.185711672048</v>
+        <v>1795.168089078205</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1887.726699442269</v>
+        <v>1885.432059213958</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1974.26768721249</v>
+        <v>1975.696029349711</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2033.383213529679</v>
+        <v>2036.291036852798</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2092.498739846868</v>
+        <v>2096.886044355886</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2151.614266164058</v>
+        <v>2157.481051858973</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2210.729792481247</v>
+        <v>2218.07605936206</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2235.606645706179</v>
+        <v>2252.973755354045</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2260.483498931112</v>
+        <v>2287.87145134603</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2285.360352156044</v>
+        <v>2322.769147338015</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2310.237205380977</v>
+        <v>2357.66684333</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2345.816182401499</v>
+        <v>2365.573708410808</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2381.395159422022</v>
+        <v>2373.480573491616</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2416.974136442544</v>
+        <v>2381.387438572424</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2452.553113463067</v>
+        <v>2389.294303653232</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2386.868067131375</v>
+        <v>2341.69825521613</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2321.183020799682</v>
+        <v>2294.102206779028</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2255.49797446799</v>
+        <v>2246.506158341926</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2189.812928136298</v>
+        <v>2198.910109904823</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2108.237157193317</v>
+        <v>2117.281748173794</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2026.661386250336</v>
+        <v>2035.653386442765</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1945.085615307355</v>
+        <v>1954.025024711736</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1863.509844364374</v>
+        <v>1872.396662980707</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1793.123580463859</v>
+        <v>1869.554564012591</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1722.737316563343</v>
+        <v>1866.712465044475</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1652.351052662827</v>
+        <v>1863.870366076359</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1581.964788762312</v>
+        <v>1861.028267108243</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1522.425245311292</v>
+        <v>1826.872926932355</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1462.885701860272</v>
+        <v>1792.717586756467</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1403.346158409252</v>
+        <v>1758.562246580579</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45787</v>
+        <v>45798</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1343.806614958232</v>
+        <v>1724.406906404691</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,738 +415,738 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
       <c r="B2">
-        <v>669</v>
+        <v>542</v>
       </c>
       <c r="C2">
-        <v>946</v>
+        <v>1058</v>
       </c>
       <c r="D2">
-        <v>1640.337460316774</v>
+        <v>1759.824842136068</v>
       </c>
       <c r="E2">
-        <v>1615</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
       <c r="B3">
-        <v>665</v>
+        <v>540</v>
       </c>
       <c r="C3">
-        <v>910</v>
+        <v>1052</v>
       </c>
       <c r="D3">
-        <v>1626.318260595397</v>
+        <v>1744.308866952163</v>
       </c>
       <c r="E3">
-        <v>1575</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
       <c r="B4">
-        <v>666</v>
+        <v>539</v>
       </c>
       <c r="C4">
-        <v>909</v>
+        <v>1050</v>
       </c>
       <c r="D4">
-        <v>1612.29906087402</v>
+        <v>1728.792891768259</v>
       </c>
       <c r="E4">
-        <v>1575</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
       <c r="B5">
-        <v>665</v>
+        <v>538</v>
       </c>
       <c r="C5">
-        <v>909</v>
+        <v>1044</v>
       </c>
       <c r="D5">
-        <v>1598.279861152643</v>
+        <v>1713.276916584355</v>
       </c>
       <c r="E5">
-        <v>1574</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
       <c r="B6">
-        <v>666</v>
+        <v>485</v>
       </c>
       <c r="C6">
-        <v>922</v>
+        <v>1069</v>
       </c>
       <c r="D6">
-        <v>1586.938793151919</v>
+        <v>1700.276780909765</v>
       </c>
       <c r="E6">
-        <v>1588</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
       <c r="B7">
-        <v>655</v>
+        <v>477</v>
       </c>
       <c r="C7">
-        <v>921</v>
+        <v>1068</v>
       </c>
       <c r="D7">
-        <v>1575.597725151195</v>
+        <v>1687.276645235175</v>
       </c>
       <c r="E7">
-        <v>1576</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
       <c r="B8">
-        <v>643</v>
+        <v>478</v>
       </c>
       <c r="C8">
-        <v>919</v>
+        <v>1069</v>
       </c>
       <c r="D8">
-        <v>1564.256657150471</v>
+        <v>1674.276509560585</v>
       </c>
       <c r="E8">
-        <v>1562</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
       <c r="B9">
-        <v>664</v>
+        <v>478</v>
       </c>
       <c r="C9">
-        <v>896</v>
+        <v>1070</v>
       </c>
       <c r="D9">
-        <v>1552.915589149747</v>
+        <v>1661.276373885996</v>
       </c>
       <c r="E9">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
       <c r="B10">
-        <v>659</v>
+        <v>466</v>
       </c>
       <c r="C10">
-        <v>887</v>
+        <v>1078</v>
       </c>
       <c r="D10">
-        <v>1549.526932686982</v>
+        <v>1657.350881110659</v>
       </c>
       <c r="E10">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
       <c r="B11">
-        <v>659</v>
+        <v>465</v>
       </c>
       <c r="C11">
-        <v>885</v>
+        <v>1077</v>
       </c>
       <c r="D11">
-        <v>1546.138276224216</v>
+        <v>1653.425388335323</v>
       </c>
       <c r="E11">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
       <c r="B12">
-        <v>660</v>
+        <v>463</v>
       </c>
       <c r="C12">
-        <v>885</v>
+        <v>1063</v>
       </c>
       <c r="D12">
-        <v>1542.749619761451</v>
+        <v>1649.499895559987</v>
       </c>
       <c r="E12">
-        <v>1545</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
       <c r="B13">
-        <v>661</v>
+        <v>498</v>
       </c>
       <c r="C13">
-        <v>909</v>
+        <v>1060</v>
       </c>
       <c r="D13">
-        <v>1539.360963298686</v>
+        <v>1645.574402784651</v>
       </c>
       <c r="E13">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
       <c r="B14">
-        <v>660</v>
+        <v>508</v>
       </c>
       <c r="C14">
-        <v>874</v>
+        <v>1053</v>
       </c>
       <c r="D14">
-        <v>1552.496561737977</v>
+        <v>1661.442791285137</v>
       </c>
       <c r="E14">
-        <v>1534</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
       <c r="B15">
-        <v>660</v>
+        <v>514</v>
       </c>
       <c r="C15">
-        <v>864</v>
+        <v>1058</v>
       </c>
       <c r="D15">
-        <v>1565.632160177268</v>
+        <v>1677.311179785624</v>
       </c>
       <c r="E15">
-        <v>1524</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
       <c r="B16">
-        <v>676</v>
+        <v>541</v>
       </c>
       <c r="C16">
-        <v>864</v>
+        <v>1057</v>
       </c>
       <c r="D16">
-        <v>1578.767758616559</v>
+        <v>1693.17956828611</v>
       </c>
       <c r="E16">
-        <v>1540</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
       <c r="B17">
-        <v>670</v>
+        <v>531</v>
       </c>
       <c r="C17">
-        <v>865</v>
+        <v>1056</v>
       </c>
       <c r="D17">
-        <v>1591.90335705585</v>
+        <v>1709.047956786597</v>
       </c>
       <c r="E17">
-        <v>1535</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
       <c r="B18">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="C18">
-        <v>887</v>
+        <v>1066</v>
       </c>
       <c r="D18">
-        <v>1598.963058020264</v>
+        <v>1715.303293154114</v>
       </c>
       <c r="E18">
-        <v>1559</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
       <c r="B19">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C19">
-        <v>891</v>
+        <v>1114</v>
       </c>
       <c r="D19">
-        <v>1606.022758984677</v>
+        <v>1721.558629521631</v>
       </c>
       <c r="E19">
-        <v>1542</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
       <c r="B20">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="C20">
-        <v>911</v>
+        <v>1121</v>
       </c>
       <c r="D20">
-        <v>1613.08245994909</v>
+        <v>1727.813965889149</v>
       </c>
       <c r="E20">
-        <v>1557</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
       <c r="B21">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="C21">
-        <v>918</v>
+        <v>1122</v>
       </c>
       <c r="D21">
-        <v>1620.142160913503</v>
+        <v>1734.069302256666</v>
       </c>
       <c r="E21">
-        <v>1566</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
       <c r="B22">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="C22">
-        <v>919</v>
+        <v>1094</v>
       </c>
       <c r="D22">
-        <v>1663.138017108794</v>
+        <v>1778.238437922021</v>
       </c>
       <c r="E22">
-        <v>1610</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
       <c r="B23">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="C23">
-        <v>924</v>
+        <v>1087</v>
       </c>
       <c r="D23">
-        <v>1706.133873304084</v>
+        <v>1822.407573587377</v>
       </c>
       <c r="E23">
-        <v>1626</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
       <c r="B24">
-        <v>722</v>
+        <v>791</v>
       </c>
       <c r="C24">
-        <v>936</v>
+        <v>1155</v>
       </c>
       <c r="D24">
-        <v>1749.129729499375</v>
+        <v>1866.576709252732</v>
       </c>
       <c r="E24">
-        <v>1658</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
       <c r="B25">
-        <v>706</v>
+        <v>865</v>
       </c>
       <c r="C25">
-        <v>943</v>
+        <v>1165</v>
       </c>
       <c r="D25">
-        <v>1792.125585694665</v>
+        <v>1910.745844918087</v>
       </c>
       <c r="E25">
-        <v>1649</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
       <c r="B26">
-        <v>762</v>
+        <v>938</v>
       </c>
       <c r="C26">
-        <v>1095</v>
+        <v>1313</v>
       </c>
       <c r="D26">
-        <v>1794.357362128899</v>
+        <v>1907.339182858901</v>
       </c>
       <c r="E26">
-        <v>1857</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
       <c r="B27">
-        <v>845</v>
+        <v>939</v>
       </c>
       <c r="C27">
-        <v>1158</v>
+        <v>1335</v>
       </c>
       <c r="D27">
-        <v>1796.589138563133</v>
+        <v>1903.932520799714</v>
       </c>
       <c r="E27">
-        <v>2003</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
       <c r="B28">
-        <v>825</v>
+        <v>977</v>
       </c>
       <c r="C28">
-        <v>1157</v>
+        <v>1338</v>
       </c>
       <c r="D28">
-        <v>1798.820914997367</v>
+        <v>1900.525858740528</v>
       </c>
       <c r="E28">
-        <v>1982</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
       <c r="B29">
-        <v>843</v>
+        <v>980</v>
       </c>
       <c r="C29">
-        <v>1155</v>
+        <v>1335</v>
       </c>
       <c r="D29">
-        <v>1801.052691431601</v>
+        <v>1897.119196681342</v>
       </c>
       <c r="E29">
-        <v>1998</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
       <c r="B30">
-        <v>914</v>
+        <v>1055</v>
       </c>
       <c r="C30">
-        <v>1113</v>
+        <v>1368</v>
       </c>
       <c r="D30">
-        <v>1796.434280606854</v>
+        <v>1892.537823567104</v>
       </c>
       <c r="E30">
-        <v>2027</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
       <c r="B31">
-        <v>873</v>
+        <v>1050</v>
       </c>
       <c r="C31">
-        <v>1082</v>
+        <v>1368</v>
       </c>
       <c r="D31">
-        <v>1791.815869782107</v>
+        <v>1887.956450452866</v>
       </c>
       <c r="E31">
-        <v>1955</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
       <c r="B32">
-        <v>894</v>
+        <v>1074</v>
       </c>
       <c r="C32">
-        <v>1090</v>
+        <v>1375</v>
       </c>
       <c r="D32">
-        <v>1787.19745895736</v>
+        <v>1883.375077338627</v>
       </c>
       <c r="E32">
-        <v>1984</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
       <c r="B33">
-        <v>901</v>
+        <v>1075</v>
       </c>
       <c r="C33">
-        <v>1092</v>
+        <v>1377</v>
       </c>
       <c r="D33">
-        <v>1782.579048132613</v>
+        <v>1878.793704224389</v>
       </c>
       <c r="E33">
-        <v>1993</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
       <c r="B34">
-        <v>871</v>
+        <v>1095</v>
       </c>
       <c r="C34">
-        <v>1084</v>
+        <v>1365</v>
       </c>
       <c r="D34">
-        <v>1730.984020698216</v>
+        <v>1810.562570450375</v>
       </c>
       <c r="E34">
-        <v>1955</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
       <c r="B35">
-        <v>856</v>
+        <v>1101</v>
       </c>
       <c r="C35">
-        <v>1077</v>
+        <v>1368</v>
       </c>
       <c r="D35">
-        <v>1679.388993263818</v>
+        <v>1742.33143667636</v>
       </c>
       <c r="E35">
-        <v>1933</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
       <c r="B36">
-        <v>745</v>
+        <v>1099</v>
       </c>
       <c r="C36">
-        <v>1058</v>
+        <v>1363</v>
       </c>
       <c r="D36">
-        <v>1627.793965829421</v>
+        <v>1674.100302902345</v>
       </c>
       <c r="E36">
-        <v>1803</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B37">
-        <v>732</v>
+        <v>1053</v>
       </c>
       <c r="C37">
-        <v>989</v>
+        <v>1363</v>
       </c>
       <c r="D37">
-        <v>1576.198938395023</v>
+        <v>1605.86916912833</v>
       </c>
       <c r="E37">
-        <v>1721</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
       <c r="B38">
-        <v>287</v>
+        <v>908</v>
       </c>
       <c r="C38">
-        <v>642</v>
+        <v>1325</v>
       </c>
       <c r="D38">
-        <v>1536.728378035866</v>
+        <v>1577.822942691809</v>
       </c>
       <c r="E38">
-        <v>929</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
       <c r="B39">
-        <v>255</v>
+        <v>665</v>
       </c>
       <c r="C39">
-        <v>576</v>
+        <v>1184</v>
       </c>
       <c r="D39">
-        <v>1497.257817676709</v>
+        <v>1549.776716255288</v>
       </c>
       <c r="E39">
-        <v>831</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
       <c r="B40">
-        <v>240</v>
+        <v>633</v>
       </c>
       <c r="C40">
-        <v>568</v>
+        <v>1115</v>
       </c>
       <c r="D40">
-        <v>1457.787257317553</v>
+        <v>1521.730489818767</v>
       </c>
       <c r="E40">
-        <v>808</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45797.41666666666</v>
+        <v>45799.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D41">
-        <v>1418.316696958396</v>
+        <v>1493.684263382246</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45797.42708333334</v>
+        <v>45799.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="D42">
-        <v>1413.889581256629</v>
+        <v>1477.541775635622</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45797.4375</v>
+        <v>45799.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="D43">
-        <v>1409.462465554863</v>
+        <v>1461.399287888998</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45797.44791666666</v>
+        <v>45799.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="D44">
-        <v>1405.035349853097</v>
+        <v>1445.256800142374</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45797.45833333334</v>
+        <v>45799.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1400.608234151331</v>
+        <v>1429.11431239575</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45797.46875</v>
+        <v>45799.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1391.744893457154</v>
+        <v>1427.410981366186</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45797.47916666666</v>
+        <v>45799.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1382.881552762978</v>
+        <v>1425.707650336623</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45797.48958333334</v>
+        <v>45799.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1374.018212068802</v>
+        <v>1424.004319307059</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45797.5</v>
+        <v>45799.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1365.154871374626</v>
+        <v>1422.300988277495</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45797.51041666666</v>
+        <v>45799.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1359.716624308949</v>
+        <v>1419.05095435876</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45797.52083333334</v>
+        <v>45799.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1354.278377243272</v>
+        <v>1415.800920440025</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45797.53125</v>
+        <v>45799.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1348.840130177596</v>
+        <v>1412.55088652129</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45797.54166666666</v>
+        <v>45799.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1343.401883111919</v>
+        <v>1409.300852602555</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45797.55208333334</v>
+        <v>45799.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1343.483866736198</v>
+        <v>1411.875427664703</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45797.5625</v>
+        <v>45799.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1343.565850360477</v>
+        <v>1414.450002726852</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45797.57291666666</v>
+        <v>45799.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1343.647833984757</v>
+        <v>1417.024577789001</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45797.58333333334</v>
+        <v>45799.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1343.729817609036</v>
+        <v>1419.599152851149</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45797.59375</v>
+        <v>45799.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1363.123499354858</v>
+        <v>1463.817234810678</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45797.60416666666</v>
+        <v>45799.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1382.517181100679</v>
+        <v>1508.035316770207</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45797.61458333334</v>
+        <v>45799.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1401.910862846501</v>
+        <v>1552.253398729736</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45797.625</v>
+        <v>45799.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1421.304544592322</v>
+        <v>1596.471480689265</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45797.63541666666</v>
+        <v>45799.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1469.638445645916</v>
+        <v>1653.376442041756</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45797.64583333334</v>
+        <v>45799.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1517.972346699511</v>
+        <v>1710.281403394248</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45797.65625</v>
+        <v>45799.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1566.306247753105</v>
+        <v>1767.186364746739</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45797.66666666666</v>
+        <v>45799.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1614.640148806699</v>
+        <v>1824.091326099231</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45797.67708333334</v>
+        <v>45799.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1704.904118942452</v>
+        <v>1897.892548125367</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45797.6875</v>
+        <v>45799.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1795.168089078205</v>
+        <v>1971.693770151503</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45797.69791666666</v>
+        <v>45799.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1885.432059213958</v>
+        <v>2045.494992177639</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45797.70833333334</v>
+        <v>45799.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1975.696029349711</v>
+        <v>2119.296214203775</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45797.71875</v>
+        <v>45799.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2036.291036852798</v>
+        <v>2180.635709788983</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45797.72916666666</v>
+        <v>45799.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2096.886044355886</v>
+        <v>2241.975205374189</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45797.73958333334</v>
+        <v>45799.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2157.481051858973</v>
+        <v>2303.314700959397</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45797.75</v>
+        <v>45799.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2218.07605936206</v>
+        <v>2364.654196544604</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45797.76041666666</v>
+        <v>45799.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2252.973755354045</v>
+        <v>2403.928702814525</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45797.77083333334</v>
+        <v>45799.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2287.87145134603</v>
+        <v>2443.203209084445</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45797.78125</v>
+        <v>45799.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2322.769147338015</v>
+        <v>2482.477715354366</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45797.79166666666</v>
+        <v>45799.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2357.66684333</v>
+        <v>2521.752221624286</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45797.80208333334</v>
+        <v>45799.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2365.573708410808</v>
+        <v>2521.037605732536</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45797.8125</v>
+        <v>45799.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2373.480573491616</v>
+        <v>2520.322989840785</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45797.82291666666</v>
+        <v>45799.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2381.387438572424</v>
+        <v>2519.608373949035</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45797.83333333334</v>
+        <v>45799.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2389.294303653232</v>
+        <v>2518.893758057284</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45797.84375</v>
+        <v>45799.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2341.69825521613</v>
+        <v>2475.311977919276</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45797.85416666666</v>
+        <v>45799.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2294.102206779028</v>
+        <v>2431.730197781269</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45797.86458333334</v>
+        <v>45799.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2246.506158341926</v>
+        <v>2388.14841764326</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45797.875</v>
+        <v>45799.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2198.910109904823</v>
+        <v>2344.566637505253</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45797.88541666666</v>
+        <v>45799.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2117.281748173794</v>
+        <v>2251.735096388941</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45797.89583333334</v>
+        <v>45799.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2035.653386442765</v>
+        <v>2158.90355527263</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45797.90625</v>
+        <v>45799.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1954.025024711736</v>
+        <v>2066.072014156319</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45797.91666666666</v>
+        <v>45799.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1872.396662980707</v>
+        <v>1973.240473040007</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45797.92708333334</v>
+        <v>45799.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1869.554564012591</v>
+        <v>1964.684660856945</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45797.9375</v>
+        <v>45799.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1866.712465044475</v>
+        <v>1956.128848673884</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45797.94791666666</v>
+        <v>45799.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1863.870366076359</v>
+        <v>1947.573036490822</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45797.95833333334</v>
+        <v>45799.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1861.028267108243</v>
+        <v>1939.01722430776</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45797.96875</v>
+        <v>45799.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1826.872926932355</v>
+        <v>1913.90165492302</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45797.97916666666</v>
+        <v>45799.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1792.717586756467</v>
+        <v>1888.786085538279</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45797.98958333334</v>
+        <v>45799.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1758.562246580579</v>
+        <v>1863.670516153538</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45798</v>
+        <v>45800</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1724.406906404691</v>
+        <v>1838.554946768798</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,738 +415,738 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B2">
-        <v>542</v>
+        <v>393</v>
       </c>
       <c r="C2">
-        <v>1058</v>
+        <v>1644</v>
       </c>
       <c r="D2">
-        <v>1759.824842136068</v>
+        <v>1994.985552586713</v>
       </c>
       <c r="E2">
-        <v>1600</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B3">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="C3">
-        <v>1052</v>
+        <v>1625</v>
       </c>
       <c r="D3">
-        <v>1744.308866952163</v>
+        <v>1982.70304787085</v>
       </c>
       <c r="E3">
-        <v>1592</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B4">
-        <v>539</v>
+        <v>361</v>
       </c>
       <c r="C4">
-        <v>1050</v>
+        <v>1625</v>
       </c>
       <c r="D4">
-        <v>1728.792891768259</v>
+        <v>1970.420543154987</v>
       </c>
       <c r="E4">
-        <v>1589</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B5">
-        <v>538</v>
+        <v>360</v>
       </c>
       <c r="C5">
-        <v>1044</v>
+        <v>1624</v>
       </c>
       <c r="D5">
-        <v>1713.276916584355</v>
+        <v>1958.138038439124</v>
       </c>
       <c r="E5">
-        <v>1582</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B6">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="C6">
-        <v>1069</v>
+        <v>1529</v>
       </c>
       <c r="D6">
-        <v>1700.276780909765</v>
+        <v>1964.615873361147</v>
       </c>
       <c r="E6">
-        <v>1554</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B7">
-        <v>477</v>
+        <v>366</v>
       </c>
       <c r="C7">
-        <v>1068</v>
+        <v>1504</v>
       </c>
       <c r="D7">
-        <v>1687.276645235175</v>
+        <v>1971.09370828317</v>
       </c>
       <c r="E7">
-        <v>1545</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B8">
-        <v>478</v>
+        <v>361</v>
       </c>
       <c r="C8">
-        <v>1069</v>
+        <v>1505</v>
       </c>
       <c r="D8">
-        <v>1674.276509560585</v>
+        <v>1977.571543205193</v>
       </c>
       <c r="E8">
-        <v>1547</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B9">
-        <v>478</v>
+        <v>343</v>
       </c>
       <c r="C9">
-        <v>1070</v>
+        <v>1479</v>
       </c>
       <c r="D9">
-        <v>1661.276373885996</v>
+        <v>1984.049378127216</v>
       </c>
       <c r="E9">
-        <v>1548</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B10">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="C10">
-        <v>1078</v>
+        <v>1487</v>
       </c>
       <c r="D10">
-        <v>1657.350881110659</v>
+        <v>1975.816899674164</v>
       </c>
       <c r="E10">
-        <v>1544</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B11">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="C11">
-        <v>1077</v>
+        <v>1471</v>
       </c>
       <c r="D11">
-        <v>1653.425388335323</v>
+        <v>1967.584421221112</v>
       </c>
       <c r="E11">
-        <v>1542</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B12">
-        <v>463</v>
+        <v>310</v>
       </c>
       <c r="C12">
-        <v>1063</v>
+        <v>1409</v>
       </c>
       <c r="D12">
-        <v>1649.499895559987</v>
+        <v>1959.351942768061</v>
       </c>
       <c r="E12">
-        <v>1526</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B13">
-        <v>498</v>
+        <v>289</v>
       </c>
       <c r="C13">
-        <v>1060</v>
+        <v>1401</v>
       </c>
       <c r="D13">
-        <v>1645.574402784651</v>
+        <v>1951.119464315009</v>
       </c>
       <c r="E13">
-        <v>1558</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B14">
-        <v>508</v>
+        <v>276</v>
       </c>
       <c r="C14">
-        <v>1053</v>
+        <v>1397</v>
       </c>
       <c r="D14">
-        <v>1661.442791285137</v>
+        <v>1934.224123147106</v>
       </c>
       <c r="E14">
-        <v>1561</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B15">
-        <v>514</v>
+        <v>289</v>
       </c>
       <c r="C15">
-        <v>1058</v>
+        <v>1409</v>
       </c>
       <c r="D15">
-        <v>1677.311179785624</v>
+        <v>1917.328781979202</v>
       </c>
       <c r="E15">
-        <v>1572</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B16">
-        <v>541</v>
+        <v>299</v>
       </c>
       <c r="C16">
-        <v>1057</v>
+        <v>1429</v>
       </c>
       <c r="D16">
-        <v>1693.17956828611</v>
+        <v>1900.433440811299</v>
       </c>
       <c r="E16">
-        <v>1598</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B17">
-        <v>531</v>
+        <v>295</v>
       </c>
       <c r="C17">
-        <v>1056</v>
+        <v>1419</v>
       </c>
       <c r="D17">
-        <v>1709.047956786597</v>
+        <v>1883.538099643396</v>
       </c>
       <c r="E17">
-        <v>1587</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B18">
-        <v>575</v>
+        <v>300</v>
       </c>
       <c r="C18">
-        <v>1066</v>
+        <v>1446</v>
       </c>
       <c r="D18">
-        <v>1715.303293154114</v>
+        <v>1917.913663156339</v>
       </c>
       <c r="E18">
-        <v>1641</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B19">
-        <v>661</v>
+        <v>295</v>
       </c>
       <c r="C19">
-        <v>1114</v>
+        <v>1419</v>
       </c>
       <c r="D19">
-        <v>1721.558629521631</v>
+        <v>1952.289226669282</v>
       </c>
       <c r="E19">
-        <v>1775</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B20">
-        <v>682</v>
+        <v>304</v>
       </c>
       <c r="C20">
-        <v>1121</v>
+        <v>1419</v>
       </c>
       <c r="D20">
-        <v>1727.813965889149</v>
+        <v>1986.664790182226</v>
       </c>
       <c r="E20">
-        <v>1803</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B21">
-        <v>691</v>
+        <v>326</v>
       </c>
       <c r="C21">
-        <v>1122</v>
+        <v>1425</v>
       </c>
       <c r="D21">
-        <v>1734.069302256666</v>
+        <v>2021.040353695169</v>
       </c>
       <c r="E21">
-        <v>1813</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B22">
-        <v>727</v>
+        <v>397</v>
       </c>
       <c r="C22">
-        <v>1094</v>
+        <v>1454</v>
       </c>
       <c r="D22">
-        <v>1778.238437922021</v>
+        <v>2126.021007209739</v>
       </c>
       <c r="E22">
-        <v>1821</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B23">
-        <v>722</v>
+        <v>399</v>
       </c>
       <c r="C23">
-        <v>1087</v>
+        <v>1482</v>
       </c>
       <c r="D23">
-        <v>1822.407573587377</v>
+        <v>2231.001660724309</v>
       </c>
       <c r="E23">
-        <v>1809</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B24">
-        <v>791</v>
+        <v>405</v>
       </c>
       <c r="C24">
-        <v>1155</v>
+        <v>1518</v>
       </c>
       <c r="D24">
-        <v>1866.576709252732</v>
+        <v>2335.98231423888</v>
       </c>
       <c r="E24">
-        <v>1946</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B25">
-        <v>865</v>
+        <v>411</v>
       </c>
       <c r="C25">
-        <v>1165</v>
+        <v>1536</v>
       </c>
       <c r="D25">
-        <v>1910.745844918087</v>
+        <v>2440.962967753449</v>
       </c>
       <c r="E25">
-        <v>2030</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B26">
-        <v>938</v>
+        <v>522</v>
       </c>
       <c r="C26">
-        <v>1313</v>
+        <v>1866</v>
       </c>
       <c r="D26">
-        <v>1907.339182858901</v>
+        <v>2432.112501642287</v>
       </c>
       <c r="E26">
-        <v>2251</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B27">
-        <v>939</v>
+        <v>547</v>
       </c>
       <c r="C27">
-        <v>1335</v>
+        <v>1904</v>
       </c>
       <c r="D27">
-        <v>1903.932520799714</v>
+        <v>2423.262035531126</v>
       </c>
       <c r="E27">
-        <v>2274</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45799.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B28">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1338</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1900.525858740528</v>
+        <v>2414.411569419965</v>
       </c>
       <c r="E28">
-        <v>2315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45799.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B29">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1897.119196681342</v>
+        <v>2405.561103308803</v>
       </c>
       <c r="E29">
-        <v>2315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45799.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B30">
-        <v>1055</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1892.537823567104</v>
+        <v>2393.477237482877</v>
       </c>
       <c r="E30">
-        <v>2423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45799.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B31">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1887.956450452866</v>
+        <v>2381.393371656951</v>
       </c>
       <c r="E31">
-        <v>2418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45799.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B32">
-        <v>1074</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1375</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1883.375077338627</v>
+        <v>2369.309505831025</v>
       </c>
       <c r="E32">
-        <v>2449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45799.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B33">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1878.793704224389</v>
+        <v>2357.225640005099</v>
       </c>
       <c r="E33">
-        <v>2452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45799.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B34">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1365</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1810.562570450375</v>
+        <v>2341.522132179144</v>
       </c>
       <c r="E34">
-        <v>2460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45799.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B35">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1742.33143667636</v>
+        <v>2325.818624353189</v>
       </c>
       <c r="E35">
-        <v>2469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45799.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B36">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1674.100302902345</v>
+        <v>2310.115116527234</v>
       </c>
       <c r="E36">
-        <v>2462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45799.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B37">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1605.86916912833</v>
+        <v>2294.41160870128</v>
       </c>
       <c r="E37">
-        <v>2416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45799.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B38">
-        <v>908</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1577.822942691809</v>
+        <v>2254.628653175057</v>
       </c>
       <c r="E38">
-        <v>2233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45799.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B39">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1549.776716255288</v>
+        <v>2214.845697648833</v>
       </c>
       <c r="E39">
-        <v>1849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45799.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B40">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1521.730489818767</v>
+        <v>2175.06274212261</v>
       </c>
       <c r="E40">
-        <v>1748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45799.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B41">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1493.684263382246</v>
+        <v>2135.279786596387</v>
       </c>
       <c r="E41">
-        <v>1707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45799.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B42">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1477.541775635622</v>
+        <v>2113.230869774718</v>
       </c>
       <c r="E42">
-        <v>1716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45799.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B43">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1132</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1461.399287888998</v>
+        <v>2091.181952953049</v>
       </c>
       <c r="E43">
-        <v>1710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45799.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B44">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1445.256800142374</v>
+        <v>2069.13303613138</v>
       </c>
       <c r="E44">
-        <v>1577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45799.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1429.11431239575</v>
+        <v>2047.084119309711</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45799.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1427.410981366186</v>
+        <v>2058.892097787772</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45799.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1425.707650336623</v>
+        <v>2070.700076265834</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45799.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1424.004319307059</v>
+        <v>2082.508054743896</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45799.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1422.300988277495</v>
+        <v>2094.316033221957</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45799.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1419.05095435876</v>
+        <v>2095.960321813748</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45799.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1415.800920440025</v>
+        <v>2097.604610405539</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45799.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1412.55088652129</v>
+        <v>2099.24889899733</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45799.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1409.300852602555</v>
+        <v>2100.893187589121</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45799.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1411.875427664703</v>
+        <v>2093.653903587679</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45799.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1414.450002726852</v>
+        <v>2086.414619586238</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45799.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1417.024577789001</v>
+        <v>2079.175335584796</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45799.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1419.599152851149</v>
+        <v>2071.936051583354</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45799.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1463.817234810678</v>
+        <v>2107.45930646238</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45799.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1508.035316770207</v>
+        <v>2142.982561341405</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45799.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1552.253398729736</v>
+        <v>2178.505816220431</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45799.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1596.471480689265</v>
+        <v>2214.029071099456</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45799.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1653.376442041756</v>
+        <v>2265.940034426867</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45799.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1710.281403394248</v>
+        <v>2317.850997754279</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45799.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1767.186364746739</v>
+        <v>2369.76196108169</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45799.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1824.091326099231</v>
+        <v>2421.672924409101</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45799.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1897.892548125367</v>
+        <v>2474.378443297517</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45799.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1971.693770151503</v>
+        <v>2527.083962185933</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45799.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2045.494992177639</v>
+        <v>2579.78948107435</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45799.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2119.296214203775</v>
+        <v>2632.494999962766</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45799.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2180.635709788983</v>
+        <v>2681.702267283531</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45799.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2241.975205374189</v>
+        <v>2730.909534604297</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45799.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2303.314700959397</v>
+        <v>2780.116801925062</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45799.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2364.654196544604</v>
+        <v>2829.324069245828</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45799.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2403.928702814525</v>
+        <v>2867.617233095055</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45799.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2443.203209084445</v>
+        <v>2905.910396944283</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45799.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2482.477715354366</v>
+        <v>2944.203560793511</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45799.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2521.752221624286</v>
+        <v>2982.496724642739</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45799.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2521.037605732536</v>
+        <v>2985.531485466514</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45799.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2520.322989840785</v>
+        <v>2988.566246290289</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45799.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2519.608373949035</v>
+        <v>2991.601007114064</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45799.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2518.893758057284</v>
+        <v>2994.63576793784</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45799.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2475.311977919276</v>
+        <v>2972.741348030756</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45799.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2431.730197781269</v>
+        <v>2950.846928123672</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45799.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2388.14841764326</v>
+        <v>2928.952508216587</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45799.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2344.566637505253</v>
+        <v>2907.058088309504</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45799.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2251.735096388941</v>
+        <v>2828.904720477405</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45799.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2158.90355527263</v>
+        <v>2750.751352645307</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45799.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2066.072014156319</v>
+        <v>2672.597984813208</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45799.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1973.240473040007</v>
+        <v>2594.44461698111</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45799.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1964.684660856945</v>
+        <v>2539.73063820155</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45799.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1956.128848673884</v>
+        <v>2485.016659421991</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45799.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1947.573036490822</v>
+        <v>2430.302680642432</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45799.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1939.01722430776</v>
+        <v>2375.588701862872</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45799.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1913.90165492302</v>
+        <v>2243.535416170299</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45799.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1888.786085538279</v>
+        <v>2111.482130477725</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45799.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1863.670516153538</v>
+        <v>1979.428844785151</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1838.554946768798</v>
+        <v>1847.375559092577</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,687 +415,687 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
       <c r="B2">
-        <v>393</v>
+        <v>271</v>
       </c>
       <c r="C2">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="D2">
-        <v>1994.985552586713</v>
+        <v>1999.011737944024</v>
       </c>
       <c r="E2">
-        <v>2037</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
       <c r="B3">
-        <v>378</v>
+        <v>269</v>
       </c>
       <c r="C3">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="D3">
-        <v>1982.70304787085</v>
+        <v>1976.451606433042</v>
       </c>
       <c r="E3">
-        <v>2003</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
       <c r="B4">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="C4">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="D4">
-        <v>1970.420543154987</v>
+        <v>1953.891474922059</v>
       </c>
       <c r="E4">
-        <v>1986</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
       <c r="B5">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="C5">
-        <v>1624</v>
+        <v>1592</v>
       </c>
       <c r="D5">
-        <v>1958.138038439124</v>
+        <v>1931.331343411077</v>
       </c>
       <c r="E5">
-        <v>1984</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
       <c r="B6">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="C6">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="D6">
-        <v>1964.615873361147</v>
+        <v>1932.376415376524</v>
       </c>
       <c r="E6">
-        <v>1916</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
       <c r="B7">
-        <v>366</v>
+        <v>269</v>
       </c>
       <c r="C7">
-        <v>1504</v>
+        <v>1581</v>
       </c>
       <c r="D7">
-        <v>1971.09370828317</v>
+        <v>1933.421487341971</v>
       </c>
       <c r="E7">
-        <v>1870</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
       <c r="B8">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="C8">
-        <v>1505</v>
+        <v>1582</v>
       </c>
       <c r="D8">
-        <v>1977.571543205193</v>
+        <v>1934.466559307418</v>
       </c>
       <c r="E8">
-        <v>1866</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
       <c r="B9">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="C9">
-        <v>1479</v>
+        <v>1545</v>
       </c>
       <c r="D9">
-        <v>1984.049378127216</v>
+        <v>1935.511631272865</v>
       </c>
       <c r="E9">
-        <v>1822</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
       <c r="B10">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="C10">
-        <v>1487</v>
+        <v>1603</v>
       </c>
       <c r="D10">
-        <v>1975.816899674164</v>
+        <v>1924.485642646488</v>
       </c>
       <c r="E10">
-        <v>1826</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
       <c r="B11">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C11">
-        <v>1471</v>
+        <v>1575</v>
       </c>
       <c r="D11">
-        <v>1967.584421221112</v>
+        <v>1913.459654020112</v>
       </c>
       <c r="E11">
-        <v>1792</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
       <c r="B12">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C12">
-        <v>1409</v>
+        <v>1584</v>
       </c>
       <c r="D12">
-        <v>1959.351942768061</v>
+        <v>1902.433665393736</v>
       </c>
       <c r="E12">
-        <v>1719</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
       <c r="B13">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C13">
-        <v>1401</v>
+        <v>1609</v>
       </c>
       <c r="D13">
-        <v>1951.119464315009</v>
+        <v>1891.407676767359</v>
       </c>
       <c r="E13">
-        <v>1690</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
       <c r="B14">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C14">
-        <v>1397</v>
+        <v>1625</v>
       </c>
       <c r="D14">
-        <v>1934.224123147106</v>
+        <v>1889.538052608892</v>
       </c>
       <c r="E14">
-        <v>1673</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
       <c r="B15">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C15">
-        <v>1409</v>
+        <v>1627</v>
       </c>
       <c r="D15">
-        <v>1917.328781979202</v>
+        <v>1887.668428450424</v>
       </c>
       <c r="E15">
-        <v>1698</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
       <c r="B16">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C16">
-        <v>1429</v>
+        <v>1627</v>
       </c>
       <c r="D16">
-        <v>1900.433440811299</v>
+        <v>1885.798804291957</v>
       </c>
       <c r="E16">
-        <v>1728</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
       <c r="B17">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C17">
-        <v>1419</v>
+        <v>1625</v>
       </c>
       <c r="D17">
-        <v>1883.538099643396</v>
+        <v>1883.929180133489</v>
       </c>
       <c r="E17">
-        <v>1714</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C18">
-        <v>1446</v>
+        <v>1618</v>
       </c>
       <c r="D18">
-        <v>1917.913663156339</v>
+        <v>1912.050245038792</v>
       </c>
       <c r="E18">
-        <v>1746</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
       <c r="B19">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C19">
-        <v>1419</v>
+        <v>1621</v>
       </c>
       <c r="D19">
-        <v>1952.289226669282</v>
+        <v>1940.171309944095</v>
       </c>
       <c r="E19">
-        <v>1714</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
       <c r="B20">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C20">
-        <v>1419</v>
+        <v>1606</v>
       </c>
       <c r="D20">
-        <v>1986.664790182226</v>
+        <v>1968.292374849398</v>
       </c>
       <c r="E20">
-        <v>1723</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
       <c r="B21">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="C21">
-        <v>1425</v>
+        <v>1620</v>
       </c>
       <c r="D21">
-        <v>2021.040353695169</v>
+        <v>1996.413439754701</v>
       </c>
       <c r="E21">
-        <v>1751</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
       <c r="B22">
-        <v>397</v>
+        <v>511</v>
       </c>
       <c r="C22">
-        <v>1454</v>
+        <v>1612</v>
       </c>
       <c r="D22">
-        <v>2126.021007209739</v>
+        <v>2089.683715716684</v>
       </c>
       <c r="E22">
-        <v>1851</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
       <c r="B23">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="C23">
-        <v>1482</v>
+        <v>1623</v>
       </c>
       <c r="D23">
-        <v>2231.001660724309</v>
+        <v>2182.953991678666</v>
       </c>
       <c r="E23">
-        <v>1881</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
       <c r="B24">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="C24">
-        <v>1518</v>
+        <v>1632</v>
       </c>
       <c r="D24">
-        <v>2335.98231423888</v>
+        <v>2276.224267640648</v>
       </c>
       <c r="E24">
-        <v>1923</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
       <c r="B25">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="C25">
-        <v>1536</v>
+        <v>1644</v>
       </c>
       <c r="D25">
-        <v>2440.962967753449</v>
+        <v>2369.49454360263</v>
       </c>
       <c r="E25">
-        <v>1947</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
       <c r="B26">
-        <v>522</v>
+        <v>660</v>
       </c>
       <c r="C26">
-        <v>1866</v>
+        <v>1694</v>
       </c>
       <c r="D26">
-        <v>2432.112501642287</v>
+        <v>2362.054398234067</v>
       </c>
       <c r="E26">
-        <v>2388</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
       <c r="B27">
-        <v>547</v>
+        <v>675</v>
       </c>
       <c r="C27">
-        <v>1904</v>
+        <v>1667</v>
       </c>
       <c r="D27">
-        <v>2423.262035531126</v>
+        <v>2354.614252865504</v>
       </c>
       <c r="E27">
-        <v>2451</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45807.28125</v>
+        <v>45810.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="D28">
-        <v>2414.411569419965</v>
+        <v>2347.17410749694</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45807.29166666666</v>
+        <v>45810.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1661</v>
       </c>
       <c r="D29">
-        <v>2405.561103308803</v>
+        <v>2339.733962128377</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45807.30208333334</v>
+        <v>45810.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1646</v>
       </c>
       <c r="D30">
-        <v>2393.477237482877</v>
+        <v>2313.089420917457</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45807.3125</v>
+        <v>45810.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1646</v>
       </c>
       <c r="D31">
-        <v>2381.393371656951</v>
+        <v>2286.444879706536</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45807.32291666666</v>
+        <v>45810.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="D32">
-        <v>2369.309505831025</v>
+        <v>2259.800338495615</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45807.33333333334</v>
+        <v>45810.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1646</v>
       </c>
       <c r="D33">
-        <v>2357.225640005099</v>
+        <v>2233.155797284694</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45807.34375</v>
+        <v>45810.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="D34">
-        <v>2341.522132179144</v>
+        <v>2203.778728457708</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45807.35416666666</v>
+        <v>45810.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="D35">
-        <v>2325.818624353189</v>
+        <v>2174.401659630723</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45807.36458333334</v>
+        <v>45810.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="D36">
-        <v>2310.115116527234</v>
+        <v>2145.024590803737</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45807.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="D37">
-        <v>2294.41160870128</v>
+        <v>2115.647521976751</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45807.38541666666</v>
+        <v>45810.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="D38">
-        <v>2254.628653175057</v>
+        <v>2067.267401448211</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45807.39583333334</v>
+        <v>45810.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="D39">
-        <v>2214.845697648833</v>
+        <v>2018.88728091967</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45807.40625</v>
+        <v>45810.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="D40">
-        <v>2175.06274212261</v>
+        <v>1970.50716039113</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45807.41666666666</v>
+        <v>45810.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="D41">
-        <v>2135.279786596387</v>
+        <v>1922.127039862589</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45807.42708333334</v>
+        <v>45810.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2113.230869774718</v>
+        <v>1906.048272100322</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45807.4375</v>
+        <v>45810.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2091.181952953049</v>
+        <v>1889.969504338054</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45807.44791666666</v>
+        <v>45810.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2069.13303613138</v>
+        <v>1873.890736575787</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45807.45833333334</v>
+        <v>45810.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2047.084119309711</v>
+        <v>1857.81196881352</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45807.46875</v>
+        <v>45810.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2058.892097787772</v>
+        <v>1859.317255956508</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45807.47916666666</v>
+        <v>45810.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2070.700076265834</v>
+        <v>1860.822543099498</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45807.48958333334</v>
+        <v>45810.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>2082.508054743896</v>
+        <v>1862.327830242486</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45807.5</v>
+        <v>45810.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>2094.316033221957</v>
+        <v>1863.833117385475</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45807.51041666666</v>
+        <v>45810.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2095.960321813748</v>
+        <v>1862.577113463895</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45807.52083333334</v>
+        <v>45810.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2097.604610405539</v>
+        <v>1861.321109542315</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45807.53125</v>
+        <v>45810.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2099.24889899733</v>
+        <v>1860.065105620735</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45807.54166666666</v>
+        <v>45810.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2100.893187589121</v>
+        <v>1858.809101699155</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45807.55208333334</v>
+        <v>45810.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2093.653903587679</v>
+        <v>1852.855067840675</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45807.5625</v>
+        <v>45810.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2086.414619586238</v>
+        <v>1846.901033982194</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45807.57291666666</v>
+        <v>45810.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2079.175335584796</v>
+        <v>1840.947000123714</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45807.58333333334</v>
+        <v>45810.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2071.936051583354</v>
+        <v>1834.992966265234</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45807.59375</v>
+        <v>45810.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2107.45930646238</v>
+        <v>1852.63454806747</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45807.60416666666</v>
+        <v>45810.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2142.982561341405</v>
+        <v>1870.276129869706</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45807.61458333334</v>
+        <v>45810.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2178.505816220431</v>
+        <v>1887.917711671942</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45807.625</v>
+        <v>45810.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2214.029071099456</v>
+        <v>1905.559293474179</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45807.63541666666</v>
+        <v>45810.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2265.940034426867</v>
+        <v>1939.682331318242</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45807.64583333334</v>
+        <v>45810.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2317.850997754279</v>
+        <v>1973.805369162305</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45807.65625</v>
+        <v>45810.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2369.76196108169</v>
+        <v>2007.928407006369</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45807.66666666666</v>
+        <v>45810.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2421.672924409101</v>
+        <v>2042.051444850432</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45807.67708333334</v>
+        <v>45810.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2474.378443297517</v>
+        <v>2131.850931349399</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45807.6875</v>
+        <v>45810.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2527.083962185933</v>
+        <v>2221.650417848366</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45807.69791666666</v>
+        <v>45810.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2579.78948107435</v>
+        <v>2311.449904347334</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45807.70833333334</v>
+        <v>45810.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2632.494999962766</v>
+        <v>2401.249390846301</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45807.71875</v>
+        <v>45810.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2681.702267283531</v>
+        <v>2456.024584778532</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45807.72916666666</v>
+        <v>45810.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2730.909534604297</v>
+        <v>2510.799778710763</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45807.73958333334</v>
+        <v>45810.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2780.116801925062</v>
+        <v>2565.574972642995</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45807.75</v>
+        <v>45810.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2829.324069245828</v>
+        <v>2620.350166575226</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45807.76041666666</v>
+        <v>45810.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2867.617233095055</v>
+        <v>2638.039687458112</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45807.77083333334</v>
+        <v>45810.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2905.910396944283</v>
+        <v>2655.729208340997</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45807.78125</v>
+        <v>45810.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2944.203560793511</v>
+        <v>2673.418729223883</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45807.79166666666</v>
+        <v>45810.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2982.496724642739</v>
+        <v>2691.108250106768</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45807.80208333334</v>
+        <v>45810.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2985.531485466514</v>
+        <v>2694.943376585472</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45807.8125</v>
+        <v>45810.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2988.566246290289</v>
+        <v>2698.778503064176</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45807.82291666666</v>
+        <v>45810.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2991.601007114064</v>
+        <v>2702.613629542881</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45807.83333333334</v>
+        <v>45810.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2994.63576793784</v>
+        <v>2706.448756021585</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45807.84375</v>
+        <v>45810.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2972.741348030756</v>
+        <v>2701.539794128985</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45807.85416666666</v>
+        <v>45810.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2950.846928123672</v>
+        <v>2696.630832236385</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45807.86458333334</v>
+        <v>45810.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2928.952508216587</v>
+        <v>2691.721870343785</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45807.875</v>
+        <v>45810.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2907.058088309504</v>
+        <v>2686.812908451185</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45807.88541666666</v>
+        <v>45810.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2828.904720477405</v>
+        <v>2631.241925774619</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45807.89583333334</v>
+        <v>45810.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2750.751352645307</v>
+        <v>2575.670943098053</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45807.90625</v>
+        <v>45810.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2672.597984813208</v>
+        <v>2520.099960421487</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45807.91666666666</v>
+        <v>45810.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2594.44461698111</v>
+        <v>2464.528977744921</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45807.92708333334</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2539.73063820155</v>
+        <v>2422.035776360999</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45807.9375</v>
+        <v>45810.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2485.016659421991</v>
+        <v>2379.542574977077</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45807.94791666666</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2430.302680642432</v>
+        <v>2337.049373593154</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45807.95833333334</v>
+        <v>45810.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2375.588701862872</v>
+        <v>2294.556172209232</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45807.96875</v>
+        <v>45810.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2243.535416170299</v>
+        <v>2228.984317335331</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45807.97916666666</v>
+        <v>45810.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2111.482130477725</v>
+        <v>2163.412462461429</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45807.98958333334</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1979.428844785151</v>
+        <v>2097.840607587528</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45808</v>
+        <v>45811</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1847.375559092577</v>
+        <v>2032.268752713626</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,687 +415,687 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
       <c r="B2">
-        <v>271</v>
+        <v>601</v>
       </c>
       <c r="C2">
-        <v>1648</v>
+        <v>1072</v>
       </c>
       <c r="D2">
-        <v>1999.011737944024</v>
+        <v>1625.251205314331</v>
       </c>
       <c r="E2">
-        <v>1919</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B3">
-        <v>269</v>
+        <v>599</v>
       </c>
       <c r="C3">
-        <v>1631</v>
+        <v>1023</v>
       </c>
       <c r="D3">
-        <v>1976.451606433042</v>
+        <v>1627.599906438144</v>
       </c>
       <c r="E3">
-        <v>1900</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
       <c r="B4">
-        <v>270</v>
+        <v>598</v>
       </c>
       <c r="C4">
-        <v>1629</v>
+        <v>1022</v>
       </c>
       <c r="D4">
-        <v>1953.891474922059</v>
+        <v>1629.948607561957</v>
       </c>
       <c r="E4">
-        <v>1899</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B5">
-        <v>269</v>
+        <v>605</v>
       </c>
       <c r="C5">
-        <v>1592</v>
+        <v>1021</v>
       </c>
       <c r="D5">
-        <v>1931.331343411077</v>
+        <v>1632.29730868577</v>
       </c>
       <c r="E5">
-        <v>1861</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
       <c r="B6">
-        <v>269</v>
+        <v>619</v>
       </c>
       <c r="C6">
-        <v>1553</v>
+        <v>998</v>
       </c>
       <c r="D6">
-        <v>1932.376415376524</v>
+        <v>1614.457174617658</v>
       </c>
       <c r="E6">
-        <v>1822</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
       <c r="B7">
-        <v>269</v>
+        <v>619</v>
       </c>
       <c r="C7">
-        <v>1581</v>
+        <v>995</v>
       </c>
       <c r="D7">
-        <v>1933.421487341971</v>
+        <v>1596.617040549546</v>
       </c>
       <c r="E7">
-        <v>1850</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
       <c r="B8">
-        <v>269</v>
+        <v>621</v>
       </c>
       <c r="C8">
-        <v>1582</v>
+        <v>996</v>
       </c>
       <c r="D8">
-        <v>1934.466559307418</v>
+        <v>1578.776906481433</v>
       </c>
       <c r="E8">
-        <v>1851</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B9">
-        <v>268</v>
+        <v>628</v>
       </c>
       <c r="C9">
-        <v>1545</v>
+        <v>995</v>
       </c>
       <c r="D9">
-        <v>1935.511631272865</v>
+        <v>1560.936772413321</v>
       </c>
       <c r="E9">
-        <v>1813</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
       <c r="B10">
-        <v>270</v>
+        <v>638</v>
       </c>
       <c r="C10">
-        <v>1603</v>
+        <v>974</v>
       </c>
       <c r="D10">
-        <v>1924.485642646488</v>
+        <v>1561.861261153337</v>
       </c>
       <c r="E10">
-        <v>1873</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B11">
-        <v>268</v>
+        <v>637</v>
       </c>
       <c r="C11">
-        <v>1575</v>
+        <v>973</v>
       </c>
       <c r="D11">
-        <v>1913.459654020112</v>
+        <v>1562.785749893353</v>
       </c>
       <c r="E11">
-        <v>1843</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
       <c r="B12">
-        <v>268</v>
+        <v>636</v>
       </c>
       <c r="C12">
-        <v>1584</v>
+        <v>973</v>
       </c>
       <c r="D12">
-        <v>1902.433665393736</v>
+        <v>1563.710238633369</v>
       </c>
       <c r="E12">
-        <v>1852</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
       <c r="B13">
-        <v>268</v>
+        <v>634</v>
       </c>
       <c r="C13">
-        <v>1609</v>
+        <v>972</v>
       </c>
       <c r="D13">
-        <v>1891.407676767359</v>
+        <v>1564.634727373385</v>
       </c>
       <c r="E13">
-        <v>1877</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
       <c r="B14">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="C14">
-        <v>1625</v>
+        <v>916</v>
       </c>
       <c r="D14">
-        <v>1889.538052608892</v>
+        <v>1572.888496216284</v>
       </c>
       <c r="E14">
-        <v>1893</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B15">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="C15">
-        <v>1627</v>
+        <v>911</v>
       </c>
       <c r="D15">
-        <v>1887.668428450424</v>
+        <v>1581.142265059183</v>
       </c>
       <c r="E15">
-        <v>1895</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
       <c r="B16">
-        <v>268</v>
+        <v>487</v>
       </c>
       <c r="C16">
-        <v>1627</v>
+        <v>926</v>
       </c>
       <c r="D16">
-        <v>1885.798804291957</v>
+        <v>1589.396033902082</v>
       </c>
       <c r="E16">
-        <v>1895</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B17">
-        <v>268</v>
+        <v>497</v>
       </c>
       <c r="C17">
-        <v>1625</v>
+        <v>927</v>
       </c>
       <c r="D17">
-        <v>1883.929180133489</v>
+        <v>1597.649802744981</v>
       </c>
       <c r="E17">
-        <v>1893</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
       <c r="B18">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="C18">
-        <v>1618</v>
+        <v>928</v>
       </c>
       <c r="D18">
-        <v>1912.050245038792</v>
+        <v>1613.299481509781</v>
       </c>
       <c r="E18">
-        <v>1886</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B19">
-        <v>268</v>
+        <v>536</v>
       </c>
       <c r="C19">
-        <v>1621</v>
+        <v>927</v>
       </c>
       <c r="D19">
-        <v>1940.171309944095</v>
+        <v>1628.949160274581</v>
       </c>
       <c r="E19">
-        <v>1889</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
       <c r="B20">
-        <v>268</v>
+        <v>536</v>
       </c>
       <c r="C20">
-        <v>1606</v>
+        <v>927</v>
       </c>
       <c r="D20">
-        <v>1968.292374849398</v>
+        <v>1644.598839039382</v>
       </c>
       <c r="E20">
-        <v>1874</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
       <c r="B21">
-        <v>277</v>
+        <v>545</v>
       </c>
       <c r="C21">
-        <v>1620</v>
+        <v>928</v>
       </c>
       <c r="D21">
-        <v>1996.413439754701</v>
+        <v>1660.248517804182</v>
       </c>
       <c r="E21">
-        <v>1897</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
       <c r="B22">
-        <v>511</v>
+        <v>673</v>
       </c>
       <c r="C22">
-        <v>1612</v>
+        <v>952</v>
       </c>
       <c r="D22">
-        <v>2089.683715716684</v>
+        <v>1707.247526462476</v>
       </c>
       <c r="E22">
-        <v>2123</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
       <c r="B23">
-        <v>517</v>
+        <v>669</v>
       </c>
       <c r="C23">
-        <v>1623</v>
+        <v>952</v>
       </c>
       <c r="D23">
-        <v>2182.953991678666</v>
+        <v>1754.246535120771</v>
       </c>
       <c r="E23">
-        <v>2140</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
       <c r="B24">
-        <v>526</v>
+        <v>668</v>
       </c>
       <c r="C24">
-        <v>1632</v>
+        <v>952</v>
       </c>
       <c r="D24">
-        <v>2276.224267640648</v>
+        <v>1801.245543779066</v>
       </c>
       <c r="E24">
-        <v>2158</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
       <c r="B25">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="C25">
-        <v>1644</v>
+        <v>958</v>
       </c>
       <c r="D25">
-        <v>2369.49454360263</v>
+        <v>1848.24455243736</v>
       </c>
       <c r="E25">
-        <v>2193</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
       <c r="B26">
-        <v>660</v>
+        <v>751</v>
       </c>
       <c r="C26">
-        <v>1694</v>
+        <v>1076</v>
       </c>
       <c r="D26">
-        <v>2362.054398234067</v>
+        <v>1818.002943286665</v>
       </c>
       <c r="E26">
-        <v>2354</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45810.27083333334</v>
+        <v>45821.27083333334</v>
       </c>
       <c r="B27">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2354.614252865504</v>
+        <v>1787.761334135971</v>
       </c>
       <c r="E27">
-        <v>2342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45810.28125</v>
+        <v>45821.28125</v>
       </c>
       <c r="B28">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1673</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2347.17410749694</v>
+        <v>1757.519724985276</v>
       </c>
       <c r="E28">
-        <v>2347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45810.29166666666</v>
+        <v>45821.29166666666</v>
       </c>
       <c r="B29">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2339.733962128377</v>
+        <v>1727.278115834581</v>
       </c>
       <c r="E29">
-        <v>2335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45810.30208333334</v>
+        <v>45821.30208333334</v>
       </c>
       <c r="B30">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2313.089420917457</v>
+        <v>1699.73501435727</v>
       </c>
       <c r="E30">
-        <v>2345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45810.3125</v>
+        <v>45821.3125</v>
       </c>
       <c r="B31">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2286.444879706536</v>
+        <v>1672.191912879958</v>
       </c>
       <c r="E31">
-        <v>2357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45810.32291666666</v>
+        <v>45821.32291666666</v>
       </c>
       <c r="B32">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2259.800338495615</v>
+        <v>1644.648811402647</v>
       </c>
       <c r="E32">
-        <v>2361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45810.33333333334</v>
+        <v>45821.33333333334</v>
       </c>
       <c r="B33">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1646</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2233.155797284694</v>
+        <v>1617.105709925336</v>
       </c>
       <c r="E33">
-        <v>2356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45810.34375</v>
+        <v>45821.34375</v>
       </c>
       <c r="B34">
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1628</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2203.778728457708</v>
+        <v>1588.87965280327</v>
       </c>
       <c r="E34">
-        <v>2367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45810.35416666666</v>
+        <v>45821.35416666666</v>
       </c>
       <c r="B35">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1619</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2174.401659630723</v>
+        <v>1560.653595681204</v>
       </c>
       <c r="E35">
-        <v>2338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45810.36458333334</v>
+        <v>45821.36458333334</v>
       </c>
       <c r="B36">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1615</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2145.024590803737</v>
+        <v>1532.427538559139</v>
       </c>
       <c r="E36">
-        <v>2325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45810.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B37">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2115.647521976751</v>
+        <v>1504.201481437073</v>
       </c>
       <c r="E37">
-        <v>2315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45810.38541666666</v>
+        <v>45821.38541666666</v>
       </c>
       <c r="B38">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>2067.267401448211</v>
+        <v>1487.660628841417</v>
       </c>
       <c r="E38">
-        <v>2090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45810.39583333334</v>
+        <v>45821.39583333334</v>
       </c>
       <c r="B39">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2018.88728091967</v>
+        <v>1471.11977624576</v>
       </c>
       <c r="E39">
-        <v>2043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45810.40625</v>
+        <v>45821.40625</v>
       </c>
       <c r="B40">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1970.50716039113</v>
+        <v>1454.578923650104</v>
       </c>
       <c r="E40">
-        <v>2037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45810.41666666666</v>
+        <v>45821.41666666666</v>
       </c>
       <c r="B41">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1514</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1922.127039862589</v>
+        <v>1438.038071054448</v>
       </c>
       <c r="E41">
-        <v>1993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45810.42708333334</v>
+        <v>45821.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1906.048272100322</v>
+        <v>1422.471679563836</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45810.4375</v>
+        <v>45821.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1889.969504338054</v>
+        <v>1406.905288073223</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45810.44791666666</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1873.890736575787</v>
+        <v>1391.338896582611</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45810.45833333334</v>
+        <v>45821.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1857.81196881352</v>
+        <v>1375.772505091999</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45810.46875</v>
+        <v>45821.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1859.317255956508</v>
+        <v>1375.331082540085</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45810.47916666666</v>
+        <v>45821.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1860.822543099498</v>
+        <v>1374.889659988172</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45810.48958333334</v>
+        <v>45821.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1862.327830242486</v>
+        <v>1374.448237436259</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45810.5</v>
+        <v>45821.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1863.833117385475</v>
+        <v>1374.006814884346</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45810.51041666666</v>
+        <v>45821.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1862.577113463895</v>
+        <v>1384.451039030844</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45810.52083333334</v>
+        <v>45821.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1861.321109542315</v>
+        <v>1394.895263177342</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45810.53125</v>
+        <v>45821.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1860.065105620735</v>
+        <v>1405.33948732384</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45810.54166666666</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1858.809101699155</v>
+        <v>1415.783711470338</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45810.55208333334</v>
+        <v>45821.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1852.855067840675</v>
+        <v>1410.295080120813</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45810.5625</v>
+        <v>45821.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1846.901033982194</v>
+        <v>1404.806448771287</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45810.57291666666</v>
+        <v>45821.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1840.947000123714</v>
+        <v>1399.317817421761</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45810.58333333334</v>
+        <v>45821.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1834.992966265234</v>
+        <v>1393.829186072236</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45810.59375</v>
+        <v>45821.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1852.63454806747</v>
+        <v>1417.782606043975</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45810.60416666666</v>
+        <v>45821.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1870.276129869706</v>
+        <v>1441.736026015715</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45810.61458333334</v>
+        <v>45821.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1887.917711671942</v>
+        <v>1465.689445987454</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45810.625</v>
+        <v>45821.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1905.559293474179</v>
+        <v>1489.642865959193</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45810.63541666666</v>
+        <v>45821.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1939.682331318242</v>
+        <v>1511.26424226219</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45810.64583333334</v>
+        <v>45821.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1973.805369162305</v>
+        <v>1532.885618565188</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45810.65625</v>
+        <v>45821.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2007.928407006369</v>
+        <v>1554.506994868185</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45810.66666666666</v>
+        <v>45821.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2042.051444850432</v>
+        <v>1576.128371171182</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45810.67708333334</v>
+        <v>45821.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2131.850931349399</v>
+        <v>1664.021431311454</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45810.6875</v>
+        <v>45821.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2221.650417848366</v>
+        <v>1751.914491451727</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45810.69791666666</v>
+        <v>45821.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2311.449904347334</v>
+        <v>1839.807551591999</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45810.70833333334</v>
+        <v>45821.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2401.249390846301</v>
+        <v>1927.700611732272</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45810.71875</v>
+        <v>45821.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2456.024584778532</v>
+        <v>1994.463690485586</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45810.72916666666</v>
+        <v>45821.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2510.799778710763</v>
+        <v>2061.2267692389</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45810.73958333334</v>
+        <v>45821.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2565.574972642995</v>
+        <v>2127.989847992214</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45810.75</v>
+        <v>45821.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2620.350166575226</v>
+        <v>2194.752926745528</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45810.76041666666</v>
+        <v>45821.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2638.039687458112</v>
+        <v>2207.096100737219</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45810.77083333334</v>
+        <v>45821.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2655.729208340997</v>
+        <v>2219.43927472891</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45810.78125</v>
+        <v>45821.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2673.418729223883</v>
+        <v>2231.782448720601</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45810.79166666666</v>
+        <v>45821.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2691.108250106768</v>
+        <v>2244.125622712292</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45810.80208333334</v>
+        <v>45821.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2694.943376585472</v>
+        <v>2242.951272149938</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45810.8125</v>
+        <v>45821.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2698.778503064176</v>
+        <v>2241.776921587583</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45810.82291666666</v>
+        <v>45821.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2702.613629542881</v>
+        <v>2240.602571025229</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45810.83333333334</v>
+        <v>45821.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2706.448756021585</v>
+        <v>2239.428220462875</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45810.84375</v>
+        <v>45821.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2701.539794128985</v>
+        <v>2225.077823171077</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45810.85416666666</v>
+        <v>45821.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2696.630832236385</v>
+        <v>2210.72742587928</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45810.86458333334</v>
+        <v>45821.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2691.721870343785</v>
+        <v>2196.377028587483</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45810.875</v>
+        <v>45821.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2686.812908451185</v>
+        <v>2182.026631295686</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45810.88541666666</v>
+        <v>45821.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2631.241925774619</v>
+        <v>2132.687250240713</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45810.89583333334</v>
+        <v>45821.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2575.670943098053</v>
+        <v>2083.34786918574</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45810.90625</v>
+        <v>45821.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2520.099960421487</v>
+        <v>2034.008488130767</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45810.91666666666</v>
+        <v>45821.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2464.528977744921</v>
+        <v>1984.669107075793</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45810.92708333334</v>
+        <v>45821.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2422.035776360999</v>
+        <v>1937.162046046754</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45810.9375</v>
+        <v>45821.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2379.542574977077</v>
+        <v>1889.654985017715</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45810.94791666666</v>
+        <v>45821.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2337.049373593154</v>
+        <v>1842.147923988676</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45810.95833333334</v>
+        <v>45821.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2294.556172209232</v>
+        <v>1794.640862959636</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45810.96875</v>
+        <v>45821.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2228.984317335331</v>
+        <v>1734.159458999854</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45810.97916666666</v>
+        <v>45821.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2163.412462461429</v>
+        <v>1673.678055040071</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45810.98958333334</v>
+        <v>45821.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>2097.840607587528</v>
+        <v>1613.196651080288</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45811</v>
+        <v>45822</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2032.268752713626</v>
+        <v>1552.715247120506</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,50 +415,50 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B2">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="C2">
-        <v>1072</v>
+        <v>985</v>
       </c>
       <c r="D2">
-        <v>1625.251205314331</v>
+        <v>1533.913814513122</v>
       </c>
       <c r="E2">
-        <v>1673</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B3">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="C3">
-        <v>1023</v>
+        <v>953</v>
       </c>
       <c r="D3">
-        <v>1627.599906438144</v>
+        <v>1529.41044001902</v>
       </c>
       <c r="E3">
-        <v>1622</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B4">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c r="C4">
-        <v>1022</v>
+        <v>977</v>
       </c>
       <c r="D4">
-        <v>1629.948607561957</v>
+        <v>1524.907065524917</v>
       </c>
       <c r="E4">
         <v>1620</v>
@@ -466,636 +466,636 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B5">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="C5">
-        <v>1021</v>
+        <v>975</v>
       </c>
       <c r="D5">
-        <v>1632.29730868577</v>
+        <v>1520.403691030815</v>
       </c>
       <c r="E5">
-        <v>1626</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B6">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="C6">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="D6">
-        <v>1614.457174617658</v>
+        <v>1494.780116871527</v>
       </c>
       <c r="E6">
-        <v>1617</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B7">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="C7">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="D7">
-        <v>1596.617040549546</v>
+        <v>1469.15654271224</v>
       </c>
       <c r="E7">
-        <v>1614</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B8">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C8">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="D8">
-        <v>1578.776906481433</v>
+        <v>1443.532968552952</v>
       </c>
       <c r="E8">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B9">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C9">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="D9">
-        <v>1560.936772413321</v>
+        <v>1417.909394393665</v>
       </c>
       <c r="E9">
-        <v>1623</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B10">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="C10">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D10">
-        <v>1561.861261153337</v>
+        <v>1409.788995454995</v>
       </c>
       <c r="E10">
-        <v>1612</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B11">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="C11">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D11">
-        <v>1562.785749893353</v>
+        <v>1401.668596516325</v>
       </c>
       <c r="E11">
-        <v>1610</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B12">
-        <v>636</v>
+        <v>683</v>
       </c>
       <c r="C12">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D12">
-        <v>1563.710238633369</v>
+        <v>1393.548197577655</v>
       </c>
       <c r="E12">
-        <v>1609</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B13">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C13">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D13">
-        <v>1564.634727373385</v>
+        <v>1385.427798638985</v>
       </c>
       <c r="E13">
-        <v>1606</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B14">
-        <v>504</v>
+        <v>646</v>
       </c>
       <c r="C14">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="D14">
-        <v>1572.888496216284</v>
+        <v>1400.298782803302</v>
       </c>
       <c r="E14">
-        <v>1420</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B15">
-        <v>483</v>
+        <v>643</v>
       </c>
       <c r="C15">
-        <v>911</v>
+        <v>964</v>
       </c>
       <c r="D15">
-        <v>1581.142265059183</v>
+        <v>1415.16976696762</v>
       </c>
       <c r="E15">
-        <v>1394</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B16">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="C16">
-        <v>926</v>
+        <v>965</v>
       </c>
       <c r="D16">
-        <v>1589.396033902082</v>
+        <v>1430.040751131938</v>
       </c>
       <c r="E16">
-        <v>1413</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B17">
-        <v>497</v>
+        <v>645</v>
       </c>
       <c r="C17">
-        <v>927</v>
+        <v>968</v>
       </c>
       <c r="D17">
-        <v>1597.649802744981</v>
+        <v>1444.911735296256</v>
       </c>
       <c r="E17">
-        <v>1424</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B18">
-        <v>538</v>
+        <v>626</v>
       </c>
       <c r="C18">
-        <v>928</v>
+        <v>985</v>
       </c>
       <c r="D18">
-        <v>1613.299481509781</v>
+        <v>1467.89416536865</v>
       </c>
       <c r="E18">
-        <v>1466</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B19">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="C19">
-        <v>927</v>
+        <v>987</v>
       </c>
       <c r="D19">
-        <v>1628.949160274581</v>
+        <v>1490.876595441043</v>
       </c>
       <c r="E19">
-        <v>1463</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B20">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="C20">
-        <v>927</v>
+        <v>987</v>
       </c>
       <c r="D20">
-        <v>1644.598839039382</v>
+        <v>1513.859025513436</v>
       </c>
       <c r="E20">
-        <v>1463</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B21">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="C21">
-        <v>928</v>
+        <v>985</v>
       </c>
       <c r="D21">
-        <v>1660.248517804182</v>
+        <v>1536.841455585829</v>
       </c>
       <c r="E21">
-        <v>1473</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B22">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C22">
-        <v>952</v>
+        <v>985</v>
       </c>
       <c r="D22">
-        <v>1707.247526462476</v>
+        <v>1581.194770185922</v>
       </c>
       <c r="E22">
-        <v>1625</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B23">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="C23">
-        <v>952</v>
+        <v>982</v>
       </c>
       <c r="D23">
-        <v>1754.246535120771</v>
+        <v>1625.548084786014</v>
       </c>
       <c r="E23">
-        <v>1621</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B24">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="C24">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="D24">
-        <v>1801.245543779066</v>
+        <v>1669.901399386106</v>
       </c>
       <c r="E24">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B25">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C25">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="D25">
-        <v>1848.24455243736</v>
+        <v>1714.254713986199</v>
       </c>
       <c r="E25">
-        <v>1634</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B26">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="C26">
-        <v>1076</v>
+        <v>969</v>
       </c>
       <c r="D26">
-        <v>1818.002943286665</v>
+        <v>1704.585440718177</v>
       </c>
       <c r="E26">
-        <v>1827</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="D27">
-        <v>1787.761334135971</v>
+        <v>1694.916167450156</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="D28">
-        <v>1757.519724985276</v>
+        <v>1685.246894182134</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="D29">
-        <v>1727.278115834581</v>
+        <v>1675.577620914112</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="D30">
-        <v>1699.73501435727</v>
+        <v>1646.802579912388</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="D31">
-        <v>1672.191912879958</v>
+        <v>1618.027538910664</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="D32">
-        <v>1644.648811402647</v>
+        <v>1589.25249790894</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="D33">
-        <v>1617.105709925336</v>
+        <v>1560.477456907216</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="D34">
-        <v>1588.87965280327</v>
+        <v>1526.375362576908</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="D35">
-        <v>1560.653595681204</v>
+        <v>1492.273268246599</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="D36">
-        <v>1532.427538559139</v>
+        <v>1458.171173916291</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="D37">
-        <v>1504.201481437073</v>
+        <v>1424.069079585982</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="D38">
-        <v>1487.660628841417</v>
+        <v>1386.717035074456</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="D39">
-        <v>1471.11977624576</v>
+        <v>1349.364990562929</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="D40">
-        <v>1454.578923650104</v>
+        <v>1312.012946051402</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="D41">
-        <v>1438.038071054448</v>
+        <v>1274.660901539876</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1422.471679563836</v>
+        <v>1267.784973882784</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1406.905288073223</v>
+        <v>1260.909046225692</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1391.338896582611</v>
+        <v>1254.033118568601</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1375.772505091999</v>
+        <v>1247.157190911509</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1375.331082540085</v>
+        <v>1241.051223903512</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1374.889659988172</v>
+        <v>1234.945256895516</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1374.448237436259</v>
+        <v>1228.839289887519</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1374.006814884346</v>
+        <v>1222.733322879522</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1384.451039030844</v>
+        <v>1233.888799260628</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1394.895263177342</v>
+        <v>1245.044275641734</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1405.33948732384</v>
+        <v>1256.19975202284</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1415.783711470338</v>
+        <v>1267.355228403945</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1410.295080120813</v>
+        <v>1265.770541951746</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1404.806448771287</v>
+        <v>1264.185855499547</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1399.317817421761</v>
+        <v>1262.601169047348</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1393.829186072236</v>
+        <v>1261.016482595149</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1417.782606043975</v>
+        <v>1291.88653280512</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1441.736026015715</v>
+        <v>1322.756583015091</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1465.689445987454</v>
+        <v>1353.626633225062</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1489.642865959193</v>
+        <v>1384.496683435033</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1511.26424226219</v>
+        <v>1409.305531791419</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1532.885618565188</v>
+        <v>1434.114380147806</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1554.506994868185</v>
+        <v>1458.923228504192</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1576.128371171182</v>
+        <v>1483.732076860579</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1664.021431311454</v>
+        <v>1570.67495899201</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1751.914491451727</v>
+        <v>1657.61784112344</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1839.807551591999</v>
+        <v>1744.560723254871</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1927.700611732272</v>
+        <v>1831.503605386302</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1994.463690485586</v>
+        <v>1871.505747016102</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2061.2267692389</v>
+        <v>1911.507888645902</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2127.989847992214</v>
+        <v>1951.510030275701</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2194.752926745528</v>
+        <v>1991.512171905501</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2207.096100737219</v>
+        <v>2017.914659744388</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2219.43927472891</v>
+        <v>2044.317147583274</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2231.782448720601</v>
+        <v>2070.719635422161</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2244.125622712292</v>
+        <v>2097.122123261047</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2242.951272149938</v>
+        <v>2096.09252471881</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2241.776921587583</v>
+        <v>2095.062926176572</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2240.602571025229</v>
+        <v>2094.033327634334</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2239.428220462875</v>
+        <v>2093.003729092096</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2225.077823171077</v>
+        <v>2068.946935323401</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2210.72742587928</v>
+        <v>2044.890141554706</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2196.377028587483</v>
+        <v>2020.833347786011</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2182.026631295686</v>
+        <v>1996.776554017316</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2132.687250240713</v>
+        <v>1931.598489768548</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2083.34786918574</v>
+        <v>1866.420425519781</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2034.008488130767</v>
+        <v>1801.242361271014</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1984.669107075793</v>
+        <v>1736.064297022247</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1937.162046046754</v>
+        <v>1718.802853633688</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1889.654985017715</v>
+        <v>1701.541410245128</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1842.147923988676</v>
+        <v>1684.279966856568</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1794.640862959636</v>
+        <v>1667.018523468009</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1734.159458999854</v>
+        <v>1633.879384000435</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1673.678055040071</v>
+        <v>1600.740244532861</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1613.196651080288</v>
+        <v>1567.601105065287</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45822</v>
+        <v>45826</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1552.715247120506</v>
+        <v>1534.461965597713</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,789 +415,789 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
       <c r="B2">
-        <v>642</v>
+        <v>864</v>
       </c>
       <c r="C2">
-        <v>985</v>
+        <v>785</v>
       </c>
       <c r="D2">
-        <v>1533.913814513122</v>
+        <v>1433.367293232678</v>
       </c>
       <c r="E2">
-        <v>1627</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B3">
-        <v>641</v>
+        <v>857</v>
       </c>
       <c r="C3">
-        <v>953</v>
+        <v>777</v>
       </c>
       <c r="D3">
-        <v>1529.41044001902</v>
+        <v>1397.908493158884</v>
       </c>
       <c r="E3">
-        <v>1594</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
       <c r="B4">
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="C4">
-        <v>977</v>
+        <v>777</v>
       </c>
       <c r="D4">
-        <v>1524.907065524917</v>
+        <v>1362.449693085089</v>
       </c>
       <c r="E4">
-        <v>1620</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B5">
-        <v>641</v>
+        <v>857</v>
       </c>
       <c r="C5">
-        <v>975</v>
+        <v>772</v>
       </c>
       <c r="D5">
-        <v>1520.403691030815</v>
+        <v>1326.990893011294</v>
       </c>
       <c r="E5">
-        <v>1616</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
       <c r="B6">
-        <v>653</v>
+        <v>716</v>
       </c>
       <c r="C6">
-        <v>971</v>
+        <v>730</v>
       </c>
       <c r="D6">
-        <v>1494.780116871527</v>
+        <v>1307.207120666777</v>
       </c>
       <c r="E6">
-        <v>1624</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
       <c r="B7">
-        <v>658</v>
+        <v>712</v>
       </c>
       <c r="C7">
-        <v>967</v>
+        <v>734</v>
       </c>
       <c r="D7">
-        <v>1469.15654271224</v>
+        <v>1287.42334832226</v>
       </c>
       <c r="E7">
-        <v>1625</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
       <c r="B8">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="C8">
-        <v>967</v>
+        <v>734</v>
       </c>
       <c r="D8">
-        <v>1443.532968552952</v>
+        <v>1267.639575977743</v>
       </c>
       <c r="E8">
-        <v>1609</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B9">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C9">
-        <v>966</v>
+        <v>734</v>
       </c>
       <c r="D9">
-        <v>1417.909394393665</v>
+        <v>1247.855803633226</v>
       </c>
       <c r="E9">
-        <v>1602</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
       <c r="B10">
-        <v>672</v>
+        <v>401</v>
       </c>
       <c r="C10">
-        <v>968</v>
+        <v>729</v>
       </c>
       <c r="D10">
-        <v>1409.788995454995</v>
+        <v>1241.50896235785</v>
       </c>
       <c r="E10">
-        <v>1640</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B11">
-        <v>711</v>
+        <v>374</v>
       </c>
       <c r="C11">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="D11">
-        <v>1401.668596516325</v>
+        <v>1235.162121082474</v>
       </c>
       <c r="E11">
-        <v>1679</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
       <c r="B12">
-        <v>683</v>
+        <v>381</v>
       </c>
       <c r="C12">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="D12">
-        <v>1393.548197577655</v>
+        <v>1228.815279807097</v>
       </c>
       <c r="E12">
-        <v>1651</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
       <c r="B13">
-        <v>641</v>
+        <v>360</v>
       </c>
       <c r="C13">
-        <v>968</v>
+        <v>724</v>
       </c>
       <c r="D13">
-        <v>1385.427798638985</v>
+        <v>1222.468438531721</v>
       </c>
       <c r="E13">
-        <v>1609</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
       <c r="B14">
-        <v>646</v>
+        <v>248</v>
       </c>
       <c r="C14">
-        <v>967</v>
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>1400.298782803302</v>
+        <v>1232.230882546087</v>
       </c>
       <c r="E14">
-        <v>1613</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B15">
-        <v>643</v>
+        <v>241</v>
       </c>
       <c r="C15">
-        <v>964</v>
+        <v>704</v>
       </c>
       <c r="D15">
-        <v>1415.16976696762</v>
+        <v>1241.993326560453</v>
       </c>
       <c r="E15">
-        <v>1607</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
       <c r="B16">
-        <v>645</v>
+        <v>231</v>
       </c>
       <c r="C16">
-        <v>965</v>
+        <v>706</v>
       </c>
       <c r="D16">
-        <v>1430.040751131938</v>
+        <v>1251.75577057482</v>
       </c>
       <c r="E16">
-        <v>1610</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B17">
-        <v>645</v>
+        <v>210</v>
       </c>
       <c r="C17">
-        <v>968</v>
+        <v>716</v>
       </c>
       <c r="D17">
-        <v>1444.911735296256</v>
+        <v>1261.518214589186</v>
       </c>
       <c r="E17">
-        <v>1613</v>
+        <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
       <c r="B18">
-        <v>626</v>
+        <v>208</v>
       </c>
       <c r="C18">
-        <v>985</v>
+        <v>704</v>
       </c>
       <c r="D18">
-        <v>1467.89416536865</v>
+        <v>1283.155932675152</v>
       </c>
       <c r="E18">
-        <v>1611</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
       <c r="B19">
-        <v>627</v>
+        <v>280</v>
       </c>
       <c r="C19">
-        <v>987</v>
+        <v>732</v>
       </c>
       <c r="D19">
-        <v>1490.876595441043</v>
+        <v>1304.793650761119</v>
       </c>
       <c r="E19">
-        <v>1614</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
       <c r="B20">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="C20">
-        <v>987</v>
+        <v>726</v>
       </c>
       <c r="D20">
-        <v>1513.859025513436</v>
+        <v>1326.431368847086</v>
       </c>
       <c r="E20">
-        <v>1611</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
       <c r="B21">
-        <v>625</v>
+        <v>321</v>
       </c>
       <c r="C21">
-        <v>985</v>
+        <v>698</v>
       </c>
       <c r="D21">
-        <v>1536.841455585829</v>
+        <v>1348.069086933053</v>
       </c>
       <c r="E21">
-        <v>1610</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
       <c r="B22">
-        <v>677</v>
+        <v>369</v>
       </c>
       <c r="C22">
-        <v>985</v>
+        <v>914</v>
       </c>
       <c r="D22">
-        <v>1581.194770185922</v>
+        <v>1394.451134885938</v>
       </c>
       <c r="E22">
-        <v>1662</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
       <c r="B23">
-        <v>649</v>
+        <v>372</v>
       </c>
       <c r="C23">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="D23">
-        <v>1625.548084786014</v>
+        <v>1440.833182838822</v>
       </c>
       <c r="E23">
-        <v>1631</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
       <c r="B24">
-        <v>636</v>
+        <v>377</v>
       </c>
       <c r="C24">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="D24">
-        <v>1669.901399386106</v>
+        <v>1487.215230791707</v>
       </c>
       <c r="E24">
-        <v>1616</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
       <c r="B25">
-        <v>665</v>
+        <v>392</v>
       </c>
       <c r="C25">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="D25">
-        <v>1714.254713986199</v>
+        <v>1533.597278744592</v>
       </c>
       <c r="E25">
-        <v>1643</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
       <c r="B26">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="C26">
-        <v>969</v>
+        <v>1009</v>
       </c>
       <c r="D26">
-        <v>1704.585440718177</v>
+        <v>1529.897738369856</v>
       </c>
       <c r="E26">
-        <v>1819</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
       <c r="B27">
-        <v>848</v>
+        <v>760</v>
       </c>
       <c r="C27">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="D27">
-        <v>1694.916167450156</v>
+        <v>1526.19819799512</v>
       </c>
       <c r="E27">
-        <v>1819</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
       <c r="B28">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="C28">
-        <v>970</v>
+        <v>1016</v>
       </c>
       <c r="D28">
-        <v>1685.246894182134</v>
+        <v>1522.498657620384</v>
       </c>
       <c r="E28">
-        <v>1817</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
       <c r="B29">
-        <v>848</v>
+        <v>774</v>
       </c>
       <c r="C29">
-        <v>984</v>
+        <v>1019</v>
       </c>
       <c r="D29">
-        <v>1675.577620914112</v>
+        <v>1518.799117245648</v>
       </c>
       <c r="E29">
-        <v>1832</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
       <c r="B30">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="C30">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="D30">
-        <v>1646.802579912388</v>
+        <v>1487.248635220252</v>
       </c>
       <c r="E30">
-        <v>1845</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
       <c r="B31">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="C31">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="D31">
-        <v>1618.027538910664</v>
+        <v>1455.698153194855</v>
       </c>
       <c r="E31">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
       <c r="B32">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="C32">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="D32">
-        <v>1589.25249790894</v>
+        <v>1424.147671169458</v>
       </c>
       <c r="E32">
-        <v>1799</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
       <c r="B33">
-        <v>843</v>
+        <v>788</v>
       </c>
       <c r="C33">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D33">
-        <v>1560.477456907216</v>
+        <v>1392.597189144062</v>
       </c>
       <c r="E33">
-        <v>1802</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
       <c r="B34">
-        <v>780</v>
+        <v>420</v>
       </c>
       <c r="C34">
-        <v>976</v>
+        <v>816</v>
       </c>
       <c r="D34">
-        <v>1526.375362576908</v>
+        <v>1360.595747344066</v>
       </c>
       <c r="E34">
-        <v>1756</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
       <c r="B35">
-        <v>777</v>
+        <v>392</v>
       </c>
       <c r="C35">
-        <v>965</v>
+        <v>805</v>
       </c>
       <c r="D35">
-        <v>1492.273268246599</v>
+        <v>1328.594305544071</v>
       </c>
       <c r="E35">
-        <v>1742</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
       <c r="B36">
-        <v>771</v>
+        <v>430</v>
       </c>
       <c r="C36">
-        <v>963</v>
+        <v>805</v>
       </c>
       <c r="D36">
-        <v>1458.171173916291</v>
+        <v>1296.592863744075</v>
       </c>
       <c r="E36">
-        <v>1734</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B37">
-        <v>737</v>
+        <v>359</v>
       </c>
       <c r="C37">
-        <v>964</v>
+        <v>804</v>
       </c>
       <c r="D37">
-        <v>1424.069079585982</v>
+        <v>1264.59142194408</v>
       </c>
       <c r="E37">
-        <v>1701</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
       <c r="B38">
-        <v>586</v>
+        <v>391</v>
       </c>
       <c r="C38">
-        <v>903</v>
+        <v>834</v>
       </c>
       <c r="D38">
-        <v>1386.717035074456</v>
+        <v>1211.795723859726</v>
       </c>
       <c r="E38">
-        <v>1489</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
       <c r="B39">
-        <v>580</v>
+        <v>391</v>
       </c>
       <c r="C39">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="D39">
-        <v>1349.364990562929</v>
+        <v>1159.000025775371</v>
       </c>
       <c r="E39">
-        <v>1446</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
       <c r="B40">
-        <v>576</v>
+        <v>343</v>
       </c>
       <c r="C40">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="D40">
-        <v>1312.012946051402</v>
+        <v>1106.204327691016</v>
       </c>
       <c r="E40">
-        <v>1395</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
       <c r="B41">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="C41">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D41">
-        <v>1274.660901539876</v>
+        <v>1053.408629606662</v>
       </c>
       <c r="E41">
-        <v>1398</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45825.42708333334</v>
+        <v>45828.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="D42">
-        <v>1267.784973882784</v>
+        <v>1050.051484616077</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>898</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45825.4375</v>
+        <v>45828.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="D43">
-        <v>1260.909046225692</v>
+        <v>1046.694339625491</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45825.44791666666</v>
+        <v>45828.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="D44">
-        <v>1254.033118568601</v>
+        <v>1043.337194634906</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45825.45833333334</v>
+        <v>45828.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="D45">
-        <v>1247.157190911509</v>
+        <v>1039.98004964432</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45825.46875</v>
+        <v>45828.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="D46">
-        <v>1241.051223903512</v>
+        <v>1034.585234560165</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>833</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45825.47916666666</v>
+        <v>45828.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="D47">
-        <v>1234.945256895516</v>
+        <v>1029.19041947601</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45825.48958333334</v>
+        <v>45828.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1228.839289887519</v>
+        <v>1023.795604391855</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45825.5</v>
+        <v>45828.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1222.733322879522</v>
+        <v>1018.4007893077</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45825.51041666666</v>
+        <v>45828.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1233.888799260628</v>
+        <v>1021.473996662272</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45825.52083333334</v>
+        <v>45828.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1245.044275641734</v>
+        <v>1024.547204016844</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45825.53125</v>
+        <v>45828.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1256.19975202284</v>
+        <v>1027.620411371416</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45825.54166666666</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1267.355228403945</v>
+        <v>1030.693618725988</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45825.55208333334</v>
+        <v>45828.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1265.770541951746</v>
+        <v>1041.157555723403</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45825.5625</v>
+        <v>45828.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1264.185855499547</v>
+        <v>1051.621492720819</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45825.57291666666</v>
+        <v>45828.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1262.601169047348</v>
+        <v>1062.085429718235</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45825.58333333334</v>
+        <v>45828.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1261.016482595149</v>
+        <v>1072.54936671565</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45825.59375</v>
+        <v>45828.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1291.88653280512</v>
+        <v>1105.193843750511</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45825.60416666666</v>
+        <v>45828.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1322.756583015091</v>
+        <v>1137.838320785372</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45825.61458333334</v>
+        <v>45828.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1353.626633225062</v>
+        <v>1170.482797820232</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45825.625</v>
+        <v>45828.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1384.496683435033</v>
+        <v>1203.127274855093</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45825.63541666666</v>
+        <v>45828.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1409.305531791419</v>
+        <v>1233.892752827653</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45825.64583333334</v>
+        <v>45828.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1434.114380147806</v>
+        <v>1264.658230800213</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45825.65625</v>
+        <v>45828.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1458.923228504192</v>
+        <v>1295.423708772773</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45825.66666666666</v>
+        <v>45828.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1483.732076860579</v>
+        <v>1326.189186745333</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45825.67708333334</v>
+        <v>45828.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1570.67495899201</v>
+        <v>1411.904948393365</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45825.6875</v>
+        <v>45828.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1657.61784112344</v>
+        <v>1497.620710041398</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45825.69791666666</v>
+        <v>45828.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1744.560723254871</v>
+        <v>1583.33647168943</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45825.70833333334</v>
+        <v>45828.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1831.503605386302</v>
+        <v>1669.052233337462</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45825.71875</v>
+        <v>45828.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1871.505747016102</v>
+        <v>1719.902123504387</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45825.72916666666</v>
+        <v>45828.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1911.507888645902</v>
+        <v>1770.752013671313</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45825.73958333334</v>
+        <v>45828.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1951.510030275701</v>
+        <v>1821.601903838238</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45825.75</v>
+        <v>45828.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1991.512171905501</v>
+        <v>1872.451794005163</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45825.76041666666</v>
+        <v>45828.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2017.914659744388</v>
+        <v>1895.75973347917</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45825.77083333334</v>
+        <v>45828.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2044.317147583274</v>
+        <v>1919.067672953176</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45825.78125</v>
+        <v>45828.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2070.719635422161</v>
+        <v>1942.375612427183</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45825.79166666666</v>
+        <v>45828.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2097.122123261047</v>
+        <v>1965.68355190119</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45825.80208333334</v>
+        <v>45828.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2096.09252471881</v>
+        <v>1960.505865597274</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45825.8125</v>
+        <v>45828.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2095.062926176572</v>
+        <v>1955.328179293359</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45825.82291666666</v>
+        <v>45828.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2094.033327634334</v>
+        <v>1950.150492989444</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45825.83333333334</v>
+        <v>45828.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2093.003729092096</v>
+        <v>1944.972806685529</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45825.84375</v>
+        <v>45828.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2068.946935323401</v>
+        <v>1932.521306235992</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45825.85416666666</v>
+        <v>45828.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2044.890141554706</v>
+        <v>1920.069805786456</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45825.86458333334</v>
+        <v>45828.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2020.833347786011</v>
+        <v>1907.618305336919</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45825.875</v>
+        <v>45828.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1996.776554017316</v>
+        <v>1895.166804887382</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45825.88541666666</v>
+        <v>45828.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1931.598489768548</v>
+        <v>1833.402017947287</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45825.89583333334</v>
+        <v>45828.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1866.420425519781</v>
+        <v>1771.637231007192</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45825.90625</v>
+        <v>45828.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1801.242361271014</v>
+        <v>1709.872444067098</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45825.91666666666</v>
+        <v>45828.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1736.064297022247</v>
+        <v>1648.107657127003</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45825.92708333334</v>
+        <v>45828.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1718.802853633688</v>
+        <v>1628.449151386741</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45825.9375</v>
+        <v>45828.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1701.541410245128</v>
+        <v>1608.79064564648</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45825.94791666666</v>
+        <v>45828.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1684.279966856568</v>
+        <v>1589.132139906219</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45825.95833333334</v>
+        <v>45828.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1667.018523468009</v>
+        <v>1569.473634165957</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45825.96875</v>
+        <v>45828.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1633.879384000435</v>
+        <v>1501.492469392872</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45825.97916666666</v>
+        <v>45828.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1600.740244532861</v>
+        <v>1433.511304619786</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45825.98958333334</v>
+        <v>45828.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1567.601105065287</v>
+        <v>1365.530139846701</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1534.461965597713</v>
+        <v>1297.548975073615</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,789 +415,789 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
       <c r="B2">
-        <v>864</v>
+        <v>276</v>
       </c>
       <c r="C2">
-        <v>785</v>
+        <v>833</v>
       </c>
       <c r="D2">
-        <v>1433.367293232678</v>
+        <v>1172.445314247681</v>
       </c>
       <c r="E2">
-        <v>1649</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
       <c r="B3">
-        <v>857</v>
+        <v>268</v>
       </c>
       <c r="C3">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="D3">
-        <v>1397.908493158884</v>
+        <v>1119.783968311756</v>
       </c>
       <c r="E3">
-        <v>1634</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
       <c r="B4">
-        <v>857</v>
+        <v>267</v>
       </c>
       <c r="C4">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="D4">
-        <v>1362.449693085089</v>
+        <v>1067.122622375832</v>
       </c>
       <c r="E4">
-        <v>1634</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
       <c r="B5">
-        <v>857</v>
+        <v>258</v>
       </c>
       <c r="C5">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="D5">
-        <v>1326.990893011294</v>
+        <v>1014.461276439908</v>
       </c>
       <c r="E5">
-        <v>1629</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
       <c r="B6">
-        <v>716</v>
+        <v>239</v>
       </c>
       <c r="C6">
-        <v>730</v>
+        <v>845</v>
       </c>
       <c r="D6">
-        <v>1307.207120666777</v>
+        <v>1004.320409148193</v>
       </c>
       <c r="E6">
-        <v>1446</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
       <c r="B7">
-        <v>712</v>
+        <v>225</v>
       </c>
       <c r="C7">
-        <v>734</v>
+        <v>843</v>
       </c>
       <c r="D7">
-        <v>1287.42334832226</v>
+        <v>994.1795418564775</v>
       </c>
       <c r="E7">
-        <v>1446</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
       <c r="B8">
-        <v>710</v>
+        <v>229</v>
       </c>
       <c r="C8">
-        <v>734</v>
+        <v>842</v>
       </c>
       <c r="D8">
-        <v>1267.639575977743</v>
+        <v>984.0386745647623</v>
       </c>
       <c r="E8">
-        <v>1444</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
       <c r="B9">
-        <v>644</v>
+        <v>228</v>
       </c>
       <c r="C9">
-        <v>734</v>
+        <v>842</v>
       </c>
       <c r="D9">
-        <v>1247.855803633226</v>
+        <v>973.8978072730472</v>
       </c>
       <c r="E9">
-        <v>1378</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
       <c r="B10">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="C10">
-        <v>729</v>
+        <v>839</v>
       </c>
       <c r="D10">
-        <v>1241.50896235785</v>
+        <v>957.6050010980794</v>
       </c>
       <c r="E10">
-        <v>1130</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
       <c r="B11">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="C11">
-        <v>728</v>
+        <v>837</v>
       </c>
       <c r="D11">
-        <v>1235.162121082474</v>
+        <v>941.3121949231115</v>
       </c>
       <c r="E11">
-        <v>1102</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
       <c r="B12">
-        <v>381</v>
+        <v>218</v>
       </c>
       <c r="C12">
-        <v>728</v>
+        <v>836</v>
       </c>
       <c r="D12">
-        <v>1228.815279807097</v>
+        <v>925.0193887481436</v>
       </c>
       <c r="E12">
-        <v>1109</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
       <c r="B13">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="C13">
-        <v>724</v>
+        <v>835</v>
       </c>
       <c r="D13">
-        <v>1222.468438531721</v>
+        <v>908.7265825731757</v>
       </c>
       <c r="E13">
-        <v>1084</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
       <c r="B14">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="D14">
-        <v>1232.230882546087</v>
+        <v>908.071124853316</v>
       </c>
       <c r="E14">
-        <v>948</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
       <c r="B15">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C15">
-        <v>704</v>
+        <v>852</v>
       </c>
       <c r="D15">
-        <v>1241.993326560453</v>
+        <v>907.4156671334562</v>
       </c>
       <c r="E15">
-        <v>945</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
       <c r="B16">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C16">
-        <v>706</v>
+        <v>850</v>
       </c>
       <c r="D16">
-        <v>1251.75577057482</v>
+        <v>906.7602094135964</v>
       </c>
       <c r="E16">
-        <v>937</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
       <c r="B17">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C17">
-        <v>716</v>
+        <v>850</v>
       </c>
       <c r="D17">
-        <v>1261.518214589186</v>
+        <v>906.1047516937366</v>
       </c>
       <c r="E17">
-        <v>926</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
       <c r="B18">
         <v>208</v>
       </c>
       <c r="C18">
-        <v>704</v>
+        <v>833</v>
       </c>
       <c r="D18">
-        <v>1283.155932675152</v>
+        <v>914.6725204584718</v>
       </c>
       <c r="E18">
-        <v>912</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
       <c r="B19">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="C19">
-        <v>732</v>
+        <v>832</v>
       </c>
       <c r="D19">
-        <v>1304.793650761119</v>
+        <v>923.2402892232069</v>
       </c>
       <c r="E19">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
       <c r="B20">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="C20">
-        <v>726</v>
+        <v>830</v>
       </c>
       <c r="D20">
-        <v>1326.431368847086</v>
+        <v>931.8080579879421</v>
       </c>
       <c r="E20">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
       <c r="B21">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="C21">
-        <v>698</v>
+        <v>829</v>
       </c>
       <c r="D21">
-        <v>1348.069086933053</v>
+        <v>940.3758267526773</v>
       </c>
       <c r="E21">
-        <v>1019</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
       <c r="B22">
-        <v>369</v>
+        <v>244</v>
       </c>
       <c r="C22">
-        <v>914</v>
+        <v>817</v>
       </c>
       <c r="D22">
-        <v>1394.451134885938</v>
+        <v>1038.694484705287</v>
       </c>
       <c r="E22">
-        <v>1283</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
       <c r="B23">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="C23">
-        <v>969</v>
+        <v>816</v>
       </c>
       <c r="D23">
-        <v>1440.833182838822</v>
+        <v>1137.013142657896</v>
       </c>
       <c r="E23">
-        <v>1341</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
       <c r="B24">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="C24">
-        <v>970</v>
+        <v>816</v>
       </c>
       <c r="D24">
-        <v>1487.215230791707</v>
+        <v>1235.331800610506</v>
       </c>
       <c r="E24">
-        <v>1347</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
       <c r="B25">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="C25">
-        <v>971</v>
+        <v>819</v>
       </c>
       <c r="D25">
-        <v>1533.597278744592</v>
+        <v>1333.650458563115</v>
       </c>
       <c r="E25">
-        <v>1363</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
       <c r="B26">
-        <v>742</v>
+        <v>573</v>
       </c>
       <c r="C26">
-        <v>1009</v>
+        <v>923</v>
       </c>
       <c r="D26">
-        <v>1529.897738369856</v>
+        <v>1355.299290676304</v>
       </c>
       <c r="E26">
-        <v>1751</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
       <c r="B27">
-        <v>760</v>
+        <v>621</v>
       </c>
       <c r="C27">
-        <v>1011</v>
+        <v>923</v>
       </c>
       <c r="D27">
-        <v>1526.19819799512</v>
+        <v>1376.948122789493</v>
       </c>
       <c r="E27">
-        <v>1771</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
       <c r="B28">
-        <v>749</v>
+        <v>621</v>
       </c>
       <c r="C28">
-        <v>1016</v>
+        <v>922</v>
       </c>
       <c r="D28">
-        <v>1522.498657620384</v>
+        <v>1398.596954902682</v>
       </c>
       <c r="E28">
-        <v>1765</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
       <c r="B29">
-        <v>774</v>
+        <v>631</v>
       </c>
       <c r="C29">
-        <v>1019</v>
+        <v>923</v>
       </c>
       <c r="D29">
-        <v>1518.799117245648</v>
+        <v>1420.245787015871</v>
       </c>
       <c r="E29">
-        <v>1793</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
       <c r="B30">
-        <v>841</v>
+        <v>618</v>
       </c>
       <c r="C30">
-        <v>973</v>
+        <v>911</v>
       </c>
       <c r="D30">
-        <v>1487.248635220252</v>
+        <v>1295.175090418227</v>
       </c>
       <c r="E30">
-        <v>1814</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
       <c r="B31">
-        <v>819</v>
+        <v>669</v>
       </c>
       <c r="C31">
-        <v>970</v>
+        <v>869</v>
       </c>
       <c r="D31">
-        <v>1455.698153194855</v>
+        <v>1170.104393820583</v>
       </c>
       <c r="E31">
-        <v>1789</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
       <c r="B32">
-        <v>810</v>
+        <v>678</v>
       </c>
       <c r="C32">
-        <v>969</v>
+        <v>867</v>
       </c>
       <c r="D32">
-        <v>1424.147671169458</v>
+        <v>1045.033697222938</v>
       </c>
       <c r="E32">
-        <v>1779</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
       <c r="B33">
-        <v>788</v>
+        <v>675</v>
       </c>
       <c r="C33">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="D33">
-        <v>1392.597189144062</v>
+        <v>919.9630006252941</v>
       </c>
       <c r="E33">
-        <v>1743</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
       <c r="B34">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="C34">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="D34">
-        <v>1360.595747344066</v>
+        <v>902.5652800083067</v>
       </c>
       <c r="E34">
-        <v>1236</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
       <c r="B35">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="C35">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="D35">
-        <v>1328.594305544071</v>
+        <v>885.1675593913192</v>
       </c>
       <c r="E35">
-        <v>1197</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
       <c r="B36">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="C36">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="D36">
-        <v>1296.592863744075</v>
+        <v>867.7698387743317</v>
       </c>
       <c r="E36">
-        <v>1235</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B37">
-        <v>359</v>
+        <v>502</v>
       </c>
       <c r="C37">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="D37">
-        <v>1264.59142194408</v>
+        <v>850.3721181573443</v>
       </c>
       <c r="E37">
-        <v>1163</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
       <c r="B38">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="C38">
-        <v>834</v>
+        <v>668</v>
       </c>
       <c r="D38">
-        <v>1211.795723859726</v>
+        <v>847.6098320529528</v>
       </c>
       <c r="E38">
-        <v>1225</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
       <c r="B39">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="C39">
-        <v>836</v>
+        <v>635</v>
       </c>
       <c r="D39">
-        <v>1159.000025775371</v>
+        <v>844.8475459485613</v>
       </c>
       <c r="E39">
-        <v>1227</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45828.40625</v>
+        <v>45859.40625</v>
       </c>
       <c r="B40">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1106.204327691016</v>
+        <v>842.0852598441699</v>
       </c>
       <c r="E40">
-        <v>1179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45828.41666666666</v>
+        <v>45859.41666666666</v>
       </c>
       <c r="B41">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1053.408629606662</v>
+        <v>839.3229737397784</v>
       </c>
       <c r="E41">
-        <v>1138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45828.42708333334</v>
+        <v>45859.42708333334</v>
       </c>
       <c r="B42">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1050.051484616077</v>
+        <v>818.3764177549522</v>
       </c>
       <c r="E42">
-        <v>898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45828.4375</v>
+        <v>45859.4375</v>
       </c>
       <c r="B43">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1046.694339625491</v>
+        <v>797.4298617701259</v>
       </c>
       <c r="E43">
-        <v>854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45828.44791666666</v>
+        <v>45859.44791666666</v>
       </c>
       <c r="B44">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1043.337194634906</v>
+        <v>776.4833057852996</v>
       </c>
       <c r="E44">
-        <v>861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45828.45833333334</v>
+        <v>45859.45833333334</v>
       </c>
       <c r="B45">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1039.98004964432</v>
+        <v>755.5367498004734</v>
       </c>
       <c r="E45">
-        <v>864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45828.46875</v>
+        <v>45859.46875</v>
       </c>
       <c r="B46">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1034.585234560165</v>
+        <v>753.7857413208121</v>
       </c>
       <c r="E46">
-        <v>833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45828.47916666666</v>
+        <v>45859.47916666666</v>
       </c>
       <c r="B47">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1029.19041947601</v>
+        <v>752.0347328411508</v>
       </c>
       <c r="E47">
-        <v>818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45828.48958333334</v>
+        <v>45859.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1023.795604391855</v>
+        <v>750.2837243614896</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45828.5</v>
+        <v>45859.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1018.4007893077</v>
+        <v>748.5327158818283</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45828.51041666666</v>
+        <v>45859.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1021.473996662272</v>
+        <v>758.1304896343033</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45828.52083333334</v>
+        <v>45859.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1024.547204016844</v>
+        <v>767.7282633867783</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45828.53125</v>
+        <v>45859.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1027.620411371416</v>
+        <v>777.3260371392533</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45828.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1030.693618725988</v>
+        <v>786.9238108917284</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45828.55208333334</v>
+        <v>45859.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1041.157555723403</v>
+        <v>784.3487984216074</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45828.5625</v>
+        <v>45859.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1051.621492720819</v>
+        <v>781.7737859514863</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45828.57291666666</v>
+        <v>45859.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1062.085429718235</v>
+        <v>779.1987734813652</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45828.58333333334</v>
+        <v>45859.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1072.54936671565</v>
+        <v>776.6237610112441</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45828.59375</v>
+        <v>45859.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1105.193843750511</v>
+        <v>786.05298849294</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45828.60416666666</v>
+        <v>45859.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1137.838320785372</v>
+        <v>795.4822159746359</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45828.61458333334</v>
+        <v>45859.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1170.482797820232</v>
+        <v>804.9114434563317</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45828.625</v>
+        <v>45859.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1203.127274855093</v>
+        <v>814.3406709380275</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45828.63541666666</v>
+        <v>45859.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1233.892752827653</v>
+        <v>820.7173381824025</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45828.64583333334</v>
+        <v>45859.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1264.658230800213</v>
+        <v>827.0940054267774</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45828.65625</v>
+        <v>45859.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1295.423708772773</v>
+        <v>833.4706726711522</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45828.66666666666</v>
+        <v>45859.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1326.189186745333</v>
+        <v>839.8473399155272</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45828.67708333334</v>
+        <v>45859.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1411.904948393365</v>
+        <v>1040.782585726475</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45828.6875</v>
+        <v>45859.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1497.620710041398</v>
+        <v>1241.717831537422</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45828.69791666666</v>
+        <v>45859.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1583.33647168943</v>
+        <v>1442.65307734837</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45828.70833333334</v>
+        <v>45859.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1669.052233337462</v>
+        <v>1643.588323159317</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45828.71875</v>
+        <v>45859.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1719.902123504387</v>
+        <v>1700.538235317837</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45828.72916666666</v>
+        <v>45859.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1770.752013671313</v>
+        <v>1757.488147476357</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45828.73958333334</v>
+        <v>45859.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1821.601903838238</v>
+        <v>1814.438059634877</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45828.75</v>
+        <v>45859.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1872.451794005163</v>
+        <v>1871.387971793397</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45828.76041666666</v>
+        <v>45859.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1895.75973347917</v>
+        <v>1878.214095760021</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45828.77083333334</v>
+        <v>45859.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1919.067672953176</v>
+        <v>1885.040219726646</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45828.78125</v>
+        <v>45859.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1942.375612427183</v>
+        <v>1891.86634369327</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45828.79166666666</v>
+        <v>45859.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1965.68355190119</v>
+        <v>1898.692467659895</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45828.80208333334</v>
+        <v>45859.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1960.505865597274</v>
+        <v>1908.196604595529</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45828.8125</v>
+        <v>45859.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1955.328179293359</v>
+        <v>1917.700741531163</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45828.82291666666</v>
+        <v>45859.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1950.150492989444</v>
+        <v>1927.204878466797</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45828.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1944.972806685529</v>
+        <v>1936.709015402431</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45828.84375</v>
+        <v>45859.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1932.521306235992</v>
+        <v>1923.000585379096</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45828.85416666666</v>
+        <v>45859.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1920.069805786456</v>
+        <v>1909.292155355761</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45828.86458333334</v>
+        <v>45859.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1907.618305336919</v>
+        <v>1895.583725332426</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45828.875</v>
+        <v>45859.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1895.166804887382</v>
+        <v>1881.875295309091</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45828.88541666666</v>
+        <v>45859.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1833.402017947287</v>
+        <v>1828.624037425769</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45828.89583333334</v>
+        <v>45859.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1771.637231007192</v>
+        <v>1775.372779542446</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45828.90625</v>
+        <v>45859.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1709.872444067098</v>
+        <v>1722.121521659124</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45828.91666666666</v>
+        <v>45859.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1648.107657127003</v>
+        <v>1668.870263775801</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45828.92708333334</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1628.449151386741</v>
+        <v>1641.275493776547</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45828.9375</v>
+        <v>45859.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1608.79064564648</v>
+        <v>1613.680723777294</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45828.94791666666</v>
+        <v>45859.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1589.132139906219</v>
+        <v>1586.08595377804</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45828.95833333334</v>
+        <v>45859.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1569.473634165957</v>
+        <v>1558.491183778786</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45828.96875</v>
+        <v>45859.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1501.492469392872</v>
+        <v>1480.243302171386</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45828.97916666666</v>
+        <v>45859.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1433.511304619786</v>
+        <v>1401.995420563986</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45828.98958333334</v>
+        <v>45859.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1365.530139846701</v>
+        <v>1323.747538956587</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45829</v>
+        <v>45860</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1297.548975073615</v>
+        <v>1245.499657349187</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,653 +415,653 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
       <c r="B2">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>833</v>
+        <v>879</v>
       </c>
       <c r="D2">
-        <v>1172.445314247681</v>
+        <v>1275.955991601622</v>
       </c>
       <c r="E2">
-        <v>1109</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
       <c r="B3">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c r="C3">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="D3">
-        <v>1119.783968311756</v>
+        <v>1257.673648405798</v>
       </c>
       <c r="E3">
-        <v>1085</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>501</v>
       </c>
       <c r="C4">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="D4">
-        <v>1067.122622375832</v>
+        <v>1239.391305209974</v>
       </c>
       <c r="E4">
-        <v>1084</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
       <c r="B5">
-        <v>258</v>
+        <v>494</v>
       </c>
       <c r="C5">
-        <v>818</v>
+        <v>873</v>
       </c>
       <c r="D5">
-        <v>1014.461276439908</v>
+        <v>1221.108962014149</v>
       </c>
       <c r="E5">
-        <v>1076</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
       <c r="B6">
-        <v>239</v>
+        <v>485</v>
       </c>
       <c r="C6">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D6">
-        <v>1004.320409148193</v>
+        <v>1196.508316791582</v>
       </c>
       <c r="E6">
-        <v>1084</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
       <c r="B7">
-        <v>225</v>
+        <v>479</v>
       </c>
       <c r="C7">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D7">
-        <v>994.1795418564775</v>
+        <v>1171.907671569014</v>
       </c>
       <c r="E7">
-        <v>1068</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
       <c r="B8">
-        <v>229</v>
+        <v>480</v>
       </c>
       <c r="C8">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="D8">
-        <v>984.0386745647623</v>
+        <v>1147.307026346447</v>
       </c>
       <c r="E8">
-        <v>1071</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
       <c r="B9">
-        <v>228</v>
+        <v>480</v>
       </c>
       <c r="C9">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="D9">
-        <v>973.8978072730472</v>
+        <v>1122.706381123879</v>
       </c>
       <c r="E9">
-        <v>1070</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
       <c r="B10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C10">
-        <v>839</v>
+        <v>576</v>
       </c>
       <c r="D10">
-        <v>957.6050010980794</v>
+        <v>1101.951658874299</v>
       </c>
       <c r="E10">
-        <v>1070</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
       <c r="B11">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C11">
-        <v>837</v>
+        <v>548</v>
       </c>
       <c r="D11">
-        <v>941.3121949231115</v>
+        <v>1081.196936624719</v>
       </c>
       <c r="E11">
-        <v>1061</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
       <c r="B12">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C12">
-        <v>836</v>
+        <v>548</v>
       </c>
       <c r="D12">
-        <v>925.0193887481436</v>
+        <v>1060.442214375139</v>
       </c>
       <c r="E12">
-        <v>1054</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
       <c r="B13">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C13">
-        <v>835</v>
+        <v>547</v>
       </c>
       <c r="D13">
-        <v>908.7265825731757</v>
+        <v>1039.687492125559</v>
       </c>
       <c r="E13">
-        <v>1058</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
       <c r="B14">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C14">
-        <v>853</v>
+        <v>548</v>
       </c>
       <c r="D14">
-        <v>908.071124853316</v>
+        <v>1039.564346808509</v>
       </c>
       <c r="E14">
-        <v>1071</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
       <c r="B15">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C15">
-        <v>852</v>
+        <v>547</v>
       </c>
       <c r="D15">
-        <v>907.4156671334562</v>
+        <v>1039.441201491459</v>
       </c>
       <c r="E15">
-        <v>1068</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
       <c r="B16">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C16">
-        <v>850</v>
+        <v>548</v>
       </c>
       <c r="D16">
-        <v>906.7602094135964</v>
+        <v>1039.318056174408</v>
       </c>
       <c r="E16">
-        <v>1064</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
       <c r="B17">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C17">
-        <v>850</v>
+        <v>548</v>
       </c>
       <c r="D17">
-        <v>906.1047516937366</v>
+        <v>1039.194910857358</v>
       </c>
       <c r="E17">
-        <v>1064</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
       <c r="B18">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18">
-        <v>833</v>
+        <v>558</v>
       </c>
       <c r="D18">
-        <v>914.6725204584718</v>
+        <v>1048.819191006429</v>
       </c>
       <c r="E18">
-        <v>1041</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
       <c r="B19">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19">
-        <v>832</v>
+        <v>559</v>
       </c>
       <c r="D19">
-        <v>923.2402892232069</v>
+        <v>1058.4434711555</v>
       </c>
       <c r="E19">
-        <v>1037</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
       <c r="B20">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20">
-        <v>830</v>
+        <v>559</v>
       </c>
       <c r="D20">
-        <v>931.8080579879421</v>
+        <v>1068.067751304571</v>
       </c>
       <c r="E20">
-        <v>1038</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
       <c r="B21">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C21">
-        <v>829</v>
+        <v>568</v>
       </c>
       <c r="D21">
-        <v>940.3758267526773</v>
+        <v>1077.692031453642</v>
       </c>
       <c r="E21">
-        <v>1044</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
       <c r="B22">
-        <v>244</v>
+        <v>655</v>
       </c>
       <c r="C22">
-        <v>817</v>
+        <v>729</v>
       </c>
       <c r="D22">
-        <v>1038.694484705287</v>
+        <v>1168.450129981462</v>
       </c>
       <c r="E22">
-        <v>1061</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
       <c r="B23">
-        <v>248</v>
+        <v>668</v>
       </c>
       <c r="C23">
-        <v>816</v>
+        <v>723</v>
       </c>
       <c r="D23">
-        <v>1137.013142657896</v>
+        <v>1259.208228509282</v>
       </c>
       <c r="E23">
-        <v>1064</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
       <c r="B24">
-        <v>248</v>
+        <v>667</v>
       </c>
       <c r="C24">
-        <v>816</v>
+        <v>709</v>
       </c>
       <c r="D24">
-        <v>1235.331800610506</v>
+        <v>1349.966327037102</v>
       </c>
       <c r="E24">
-        <v>1064</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
       <c r="B25">
-        <v>260</v>
+        <v>675</v>
       </c>
       <c r="C25">
-        <v>819</v>
+        <v>716</v>
       </c>
       <c r="D25">
-        <v>1333.650458563115</v>
+        <v>1440.724425564922</v>
       </c>
       <c r="E25">
-        <v>1079</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
       <c r="B26">
-        <v>573</v>
+        <v>804</v>
       </c>
       <c r="C26">
-        <v>923</v>
+        <v>749</v>
       </c>
       <c r="D26">
-        <v>1355.299290676304</v>
+        <v>1445.489202055856</v>
       </c>
       <c r="E26">
-        <v>1496</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
       <c r="B27">
-        <v>621</v>
+        <v>820</v>
       </c>
       <c r="C27">
-        <v>923</v>
+        <v>749</v>
       </c>
       <c r="D27">
-        <v>1376.948122789493</v>
+        <v>1450.25397854679</v>
       </c>
       <c r="E27">
-        <v>1544</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
       <c r="B28">
-        <v>621</v>
+        <v>802</v>
       </c>
       <c r="C28">
-        <v>922</v>
+        <v>749</v>
       </c>
       <c r="D28">
-        <v>1398.596954902682</v>
+        <v>1455.018755037725</v>
       </c>
       <c r="E28">
-        <v>1543</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
       <c r="B29">
-        <v>631</v>
+        <v>810</v>
       </c>
       <c r="C29">
-        <v>923</v>
+        <v>748</v>
       </c>
       <c r="D29">
-        <v>1420.245787015871</v>
+        <v>1459.783531528659</v>
       </c>
       <c r="E29">
-        <v>1554</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
       <c r="B30">
-        <v>618</v>
+        <v>856</v>
       </c>
       <c r="C30">
-        <v>911</v>
+        <v>740</v>
       </c>
       <c r="D30">
-        <v>1295.175090418227</v>
+        <v>1364.469056276515</v>
       </c>
       <c r="E30">
-        <v>1529</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
       <c r="B31">
-        <v>669</v>
+        <v>821</v>
       </c>
       <c r="C31">
-        <v>869</v>
+        <v>740</v>
       </c>
       <c r="D31">
-        <v>1170.104393820583</v>
+        <v>1269.154581024372</v>
       </c>
       <c r="E31">
-        <v>1538</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
       <c r="B32">
-        <v>678</v>
+        <v>816</v>
       </c>
       <c r="C32">
-        <v>867</v>
+        <v>740</v>
       </c>
       <c r="D32">
-        <v>1045.033697222938</v>
+        <v>1173.840105772228</v>
       </c>
       <c r="E32">
-        <v>1545</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
       <c r="B33">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="C33">
-        <v>866</v>
+        <v>742</v>
       </c>
       <c r="D33">
-        <v>919.9630006252941</v>
+        <v>1078.525630520084</v>
       </c>
       <c r="E33">
-        <v>1541</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
       <c r="B34">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="C34">
-        <v>857</v>
+        <v>743</v>
       </c>
       <c r="D34">
-        <v>902.5652800083067</v>
+        <v>1037.376149254704</v>
       </c>
       <c r="E34">
-        <v>1358</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
       <c r="B35">
-        <v>499</v>
+        <v>608</v>
       </c>
       <c r="C35">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="D35">
-        <v>885.1675593913192</v>
+        <v>996.2266679893241</v>
       </c>
       <c r="E35">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
       <c r="B36">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="C36">
-        <v>846</v>
+        <v>741</v>
       </c>
       <c r="D36">
-        <v>867.7698387743317</v>
+        <v>955.0771867239441</v>
       </c>
       <c r="E36">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B37">
-        <v>502</v>
+        <v>605</v>
       </c>
       <c r="C37">
-        <v>846</v>
+        <v>742</v>
       </c>
       <c r="D37">
-        <v>850.3721181573443</v>
+        <v>913.9277054585641</v>
       </c>
       <c r="E37">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
       <c r="B38">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C38">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="D38">
-        <v>847.6098320529528</v>
+        <v>899.074485701449</v>
       </c>
       <c r="E38">
-        <v>933</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
       <c r="B39">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="C39">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="D39">
-        <v>844.8475459485613</v>
+        <v>884.2212659443339</v>
       </c>
       <c r="E39">
-        <v>879</v>
+        <v>840</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45859.40625</v>
+        <v>45863.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>842.0852598441699</v>
+        <v>869.368046187219</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45859.41666666666</v>
+        <v>45863.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>839.3229737397784</v>
+        <v>854.5148264301039</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45859.42708333334</v>
+        <v>45863.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>818.3764177549522</v>
+        <v>840.9404234250395</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45859.4375</v>
+        <v>45863.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>797.4298617701259</v>
+        <v>827.3660204199751</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45859.44791666666</v>
+        <v>45863.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>776.4833057852996</v>
+        <v>813.7916174149108</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45859.45833333334</v>
+        <v>45863.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>755.5367498004734</v>
+        <v>800.2172144098464</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45859.46875</v>
+        <v>45863.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>753.7857413208121</v>
+        <v>793.2168767820127</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45859.47916666666</v>
+        <v>45863.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>752.0347328411508</v>
+        <v>786.2165391541791</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45859.48958333334</v>
+        <v>45863.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>750.2837243614896</v>
+        <v>779.2162015263455</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45859.5</v>
+        <v>45863.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>748.5327158818283</v>
+        <v>772.2158638985118</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45859.51041666666</v>
+        <v>45863.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>758.1304896343033</v>
+        <v>772.3769000821717</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45859.52083333334</v>
+        <v>45863.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>767.7282633867783</v>
+        <v>772.5379362658316</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45859.53125</v>
+        <v>45863.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>777.3260371392533</v>
+        <v>772.6989724494914</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45859.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>786.9238108917284</v>
+        <v>772.8600086331513</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45859.55208333334</v>
+        <v>45863.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>784.3487984216074</v>
+        <v>778.988856326048</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45859.5625</v>
+        <v>45863.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>781.7737859514863</v>
+        <v>785.1177040189448</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45859.57291666666</v>
+        <v>45863.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>779.1987734813652</v>
+        <v>791.2465517118414</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45859.58333333334</v>
+        <v>45863.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>776.6237610112441</v>
+        <v>797.3753994047381</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45859.59375</v>
+        <v>45863.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>786.05298849294</v>
+        <v>820.3656827917165</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45859.60416666666</v>
+        <v>45863.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>795.4822159746359</v>
+        <v>843.3559661786949</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45859.61458333334</v>
+        <v>45863.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>804.9114434563317</v>
+        <v>866.3462495656731</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45859.625</v>
+        <v>45863.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>814.3406709380275</v>
+        <v>889.3365329526515</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45859.63541666666</v>
+        <v>45863.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>820.7173381824025</v>
+        <v>935.3360451593001</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45859.64583333334</v>
+        <v>45863.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>827.0940054267774</v>
+        <v>981.3355573659487</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45859.65625</v>
+        <v>45863.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>833.4706726711522</v>
+        <v>1027.335069572597</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45859.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>839.8473399155272</v>
+        <v>1073.334581779246</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45859.67708333334</v>
+        <v>45863.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1040.782585726475</v>
+        <v>1214.080206236853</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45859.6875</v>
+        <v>45863.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1241.717831537422</v>
+        <v>1354.825830694461</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45859.69791666666</v>
+        <v>45863.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1442.65307734837</v>
+        <v>1495.571455152069</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45859.70833333334</v>
+        <v>45863.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1643.588323159317</v>
+        <v>1636.317079609677</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45859.71875</v>
+        <v>45863.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1700.538235317837</v>
+        <v>1704.501694285259</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45859.72916666666</v>
+        <v>45863.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1757.488147476357</v>
+        <v>1772.686308960842</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45859.73958333334</v>
+        <v>45863.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1814.438059634877</v>
+        <v>1840.870923636425</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45859.75</v>
+        <v>45863.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1871.387971793397</v>
+        <v>1909.055538312008</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45859.76041666666</v>
+        <v>45863.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1878.214095760021</v>
+        <v>1928.986134210647</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45859.77083333334</v>
+        <v>45863.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1885.040219726646</v>
+        <v>1948.916730109287</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45859.78125</v>
+        <v>45863.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1891.86634369327</v>
+        <v>1968.847326007926</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45859.79166666666</v>
+        <v>45863.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1898.692467659895</v>
+        <v>1988.777921906565</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45859.80208333334</v>
+        <v>45863.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1908.196604595529</v>
+        <v>1986.371851869214</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45859.8125</v>
+        <v>45863.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1917.700741531163</v>
+        <v>1983.965781831864</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45859.82291666666</v>
+        <v>45863.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1927.204878466797</v>
+        <v>1981.559711794513</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45859.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1936.709015402431</v>
+        <v>1979.153641757162</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45859.84375</v>
+        <v>45863.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1923.000585379096</v>
+        <v>1958.209465173923</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45859.85416666666</v>
+        <v>45863.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1909.292155355761</v>
+        <v>1937.265288590683</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45859.86458333334</v>
+        <v>45863.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1895.583725332426</v>
+        <v>1916.321112007444</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45859.875</v>
+        <v>45863.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1881.875295309091</v>
+        <v>1895.376935424204</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45859.88541666666</v>
+        <v>45863.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1828.624037425769</v>
+        <v>1835.670402178938</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45859.89583333334</v>
+        <v>45863.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1775.372779542446</v>
+        <v>1775.963868933672</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45859.90625</v>
+        <v>45863.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1722.121521659124</v>
+        <v>1716.257335688406</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45859.91666666666</v>
+        <v>45863.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1668.870263775801</v>
+        <v>1656.550802443141</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45859.92708333334</v>
+        <v>45863.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1641.275493776547</v>
+        <v>1632.063829820596</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45859.9375</v>
+        <v>45863.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1613.680723777294</v>
+        <v>1607.576857198052</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45859.94791666666</v>
+        <v>45863.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1586.08595377804</v>
+        <v>1583.089884575508</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45859.95833333334</v>
+        <v>45863.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1558.491183778786</v>
+        <v>1558.602911952963</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45859.96875</v>
+        <v>45863.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1480.243302171386</v>
+        <v>1437.692328571059</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45859.97916666666</v>
+        <v>45863.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1401.995420563986</v>
+        <v>1316.781745189155</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45859.98958333334</v>
+        <v>45863.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1323.747538956587</v>
+        <v>1195.871161807251</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1245.499657349187</v>
+        <v>1074.960578425347</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,424 +415,424 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="C2">
-        <v>879</v>
+        <v>931</v>
       </c>
       <c r="D2">
-        <v>1275.955991601622</v>
+        <v>1169.218156163522</v>
       </c>
       <c r="E2">
-        <v>1384</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
       <c r="B3">
-        <v>502</v>
+        <v>361</v>
       </c>
       <c r="C3">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="D3">
-        <v>1257.673648405798</v>
+        <v>1153.572835893038</v>
       </c>
       <c r="E3">
-        <v>1376</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
       <c r="B4">
-        <v>501</v>
+        <v>360</v>
       </c>
       <c r="C4">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="D4">
-        <v>1239.391305209974</v>
+        <v>1137.927515622554</v>
       </c>
       <c r="E4">
-        <v>1375</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
       <c r="B5">
-        <v>494</v>
+        <v>362</v>
       </c>
       <c r="C5">
-        <v>873</v>
+        <v>917</v>
       </c>
       <c r="D5">
-        <v>1221.108962014149</v>
+        <v>1122.282195352069</v>
       </c>
       <c r="E5">
-        <v>1367</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
       <c r="B6">
-        <v>485</v>
+        <v>365</v>
       </c>
       <c r="C6">
-        <v>850</v>
+        <v>903</v>
       </c>
       <c r="D6">
-        <v>1196.508316791582</v>
+        <v>1117.237176243281</v>
       </c>
       <c r="E6">
-        <v>1335</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
       <c r="B7">
-        <v>479</v>
+        <v>362</v>
       </c>
       <c r="C7">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="D7">
-        <v>1171.907671569014</v>
+        <v>1112.192157134493</v>
       </c>
       <c r="E7">
-        <v>1326</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
       <c r="B8">
-        <v>480</v>
+        <v>362</v>
       </c>
       <c r="C8">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="D8">
-        <v>1147.307026346447</v>
+        <v>1107.147138025704</v>
       </c>
       <c r="E8">
-        <v>1327</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
       <c r="B9">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="C9">
-        <v>846</v>
+        <v>902</v>
       </c>
       <c r="D9">
-        <v>1122.706381123879</v>
+        <v>1102.102118916916</v>
       </c>
       <c r="E9">
-        <v>1326</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
       <c r="B10">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="C10">
-        <v>576</v>
+        <v>887</v>
       </c>
       <c r="D10">
-        <v>1101.951658874299</v>
+        <v>1103.65759789183</v>
       </c>
       <c r="E10">
-        <v>809</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
       <c r="B11">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="C11">
-        <v>548</v>
+        <v>887</v>
       </c>
       <c r="D11">
-        <v>1081.196936624719</v>
+        <v>1105.213076866744</v>
       </c>
       <c r="E11">
-        <v>757</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
       <c r="B12">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="C12">
-        <v>548</v>
+        <v>887</v>
       </c>
       <c r="D12">
-        <v>1060.442214375139</v>
+        <v>1106.768555841658</v>
       </c>
       <c r="E12">
-        <v>757</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
       <c r="B13">
-        <v>207</v>
+        <v>359</v>
       </c>
       <c r="C13">
-        <v>547</v>
+        <v>887</v>
       </c>
       <c r="D13">
-        <v>1039.687492125559</v>
+        <v>1108.324034816572</v>
       </c>
       <c r="E13">
-        <v>754</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
       <c r="B14">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="C14">
-        <v>548</v>
+        <v>887</v>
       </c>
       <c r="D14">
-        <v>1039.564346808509</v>
+        <v>1117.673368760121</v>
       </c>
       <c r="E14">
-        <v>758</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
       <c r="B15">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="C15">
-        <v>547</v>
+        <v>887</v>
       </c>
       <c r="D15">
-        <v>1039.441201491459</v>
+        <v>1127.02270270367</v>
       </c>
       <c r="E15">
-        <v>756</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
       <c r="B16">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="C16">
-        <v>548</v>
+        <v>887</v>
       </c>
       <c r="D16">
-        <v>1039.318056174408</v>
+        <v>1136.372036647219</v>
       </c>
       <c r="E16">
-        <v>757</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
       <c r="B17">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="C17">
-        <v>548</v>
+        <v>889</v>
       </c>
       <c r="D17">
-        <v>1039.194910857358</v>
+        <v>1145.721370590769</v>
       </c>
       <c r="E17">
-        <v>757</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
       <c r="B18">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="C18">
-        <v>558</v>
+        <v>889</v>
       </c>
       <c r="D18">
-        <v>1048.819191006429</v>
+        <v>1152.519389814448</v>
       </c>
       <c r="E18">
-        <v>764</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
       <c r="B19">
-        <v>206</v>
+        <v>379</v>
       </c>
       <c r="C19">
-        <v>559</v>
+        <v>887</v>
       </c>
       <c r="D19">
-        <v>1058.4434711555</v>
+        <v>1159.317409038128</v>
       </c>
       <c r="E19">
-        <v>765</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="C20">
-        <v>559</v>
+        <v>887</v>
       </c>
       <c r="D20">
-        <v>1068.067751304571</v>
+        <v>1166.115428261807</v>
       </c>
       <c r="E20">
-        <v>766</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
       <c r="B21">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="C21">
-        <v>568</v>
+        <v>887</v>
       </c>
       <c r="D21">
-        <v>1077.692031453642</v>
+        <v>1172.913447485487</v>
       </c>
       <c r="E21">
-        <v>800</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
       <c r="B22">
-        <v>655</v>
+        <v>392</v>
       </c>
       <c r="C22">
-        <v>729</v>
+        <v>902</v>
       </c>
       <c r="D22">
-        <v>1168.450129981462</v>
+        <v>1215.923675646006</v>
       </c>
       <c r="E22">
-        <v>1384</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
       <c r="B23">
-        <v>668</v>
+        <v>390</v>
       </c>
       <c r="C23">
-        <v>723</v>
+        <v>904</v>
       </c>
       <c r="D23">
-        <v>1259.208228509282</v>
+        <v>1258.933903806526</v>
       </c>
       <c r="E23">
-        <v>1391</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
       <c r="B24">
-        <v>667</v>
+        <v>394</v>
       </c>
       <c r="C24">
-        <v>709</v>
+        <v>906</v>
       </c>
       <c r="D24">
-        <v>1349.966327037102</v>
+        <v>1301.944131967045</v>
       </c>
       <c r="E24">
-        <v>1376</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
       <c r="B25">
-        <v>675</v>
+        <v>398</v>
       </c>
       <c r="C25">
-        <v>716</v>
+        <v>916</v>
       </c>
       <c r="D25">
-        <v>1440.724425564922</v>
+        <v>1344.954360127565</v>
       </c>
       <c r="E25">
-        <v>1391</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
       <c r="B26">
-        <v>804</v>
+        <v>427</v>
       </c>
       <c r="C26">
-        <v>749</v>
+        <v>1126</v>
       </c>
       <c r="D26">
-        <v>1445.489202055856</v>
+        <v>1341.497740183293</v>
       </c>
       <c r="E26">
         <v>1553</v>
@@ -840,228 +840,228 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
       <c r="B27">
-        <v>820</v>
+        <v>426</v>
       </c>
       <c r="C27">
-        <v>749</v>
+        <v>1133</v>
       </c>
       <c r="D27">
-        <v>1450.25397854679</v>
+        <v>1338.041120239022</v>
       </c>
       <c r="E27">
-        <v>1569</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
       <c r="B28">
-        <v>802</v>
+        <v>428</v>
       </c>
       <c r="C28">
-        <v>749</v>
+        <v>1133</v>
       </c>
       <c r="D28">
-        <v>1455.018755037725</v>
+        <v>1334.584500294751</v>
       </c>
       <c r="E28">
-        <v>1551</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45863.29166666666</v>
+        <v>45875.29166666666</v>
       </c>
       <c r="B29">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1459.783531528659</v>
+        <v>1331.127880350479</v>
       </c>
       <c r="E29">
-        <v>1558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45863.30208333334</v>
+        <v>45875.30208333334</v>
       </c>
       <c r="B30">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1364.469056276515</v>
+        <v>1272.546402346877</v>
       </c>
       <c r="E30">
-        <v>1596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45863.3125</v>
+        <v>45875.3125</v>
       </c>
       <c r="B31">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1269.154581024372</v>
+        <v>1213.964924343274</v>
       </c>
       <c r="E31">
-        <v>1561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45863.32291666666</v>
+        <v>45875.32291666666</v>
       </c>
       <c r="B32">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1173.840105772228</v>
+        <v>1155.383446339671</v>
       </c>
       <c r="E32">
-        <v>1556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45863.33333333334</v>
+        <v>45875.33333333334</v>
       </c>
       <c r="B33">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1078.525630520084</v>
+        <v>1096.801968336068</v>
       </c>
       <c r="E33">
-        <v>1512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45863.34375</v>
+        <v>45875.34375</v>
       </c>
       <c r="B34">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1037.376149254704</v>
+        <v>1084.086544970525</v>
       </c>
       <c r="E34">
-        <v>1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45863.35416666666</v>
+        <v>45875.35416666666</v>
       </c>
       <c r="B35">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>996.2266679893241</v>
+        <v>1071.371121604982</v>
       </c>
       <c r="E35">
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45863.36458333334</v>
+        <v>45875.36458333334</v>
       </c>
       <c r="B36">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>955.0771867239441</v>
+        <v>1058.655698239438</v>
       </c>
       <c r="E36">
-        <v>1346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45863.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B37">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>913.9277054585641</v>
+        <v>1045.940274873895</v>
       </c>
       <c r="E37">
-        <v>1347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.38541666666</v>
       </c>
       <c r="B38">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>899.074485701449</v>
+        <v>1035.825546513952</v>
       </c>
       <c r="E38">
-        <v>869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45863.39583333334</v>
+        <v>45875.39583333334</v>
       </c>
       <c r="B39">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>884.2212659443339</v>
+        <v>1025.710818154008</v>
       </c>
       <c r="E39">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45863.40625</v>
+        <v>45875.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>869.368046187219</v>
+        <v>1015.596089794065</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45863.41666666666</v>
+        <v>45875.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>854.5148264301039</v>
+        <v>1005.481361434121</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45863.42708333334</v>
+        <v>45875.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>840.9404234250395</v>
+        <v>995.3995532639397</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45863.4375</v>
+        <v>45875.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>827.3660204199751</v>
+        <v>985.3177450937579</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45863.44791666666</v>
+        <v>45875.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>813.7916174149108</v>
+        <v>975.2359369235762</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45863.45833333334</v>
+        <v>45875.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>800.2172144098464</v>
+        <v>965.1541287533946</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45863.46875</v>
+        <v>45875.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>793.2168767820127</v>
+        <v>958.9322128541385</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45863.47916666666</v>
+        <v>45875.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>786.2165391541791</v>
+        <v>952.7102969548823</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45863.48958333334</v>
+        <v>45875.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>779.2162015263455</v>
+        <v>946.4883810556261</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45863.5</v>
+        <v>45875.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>772.2158638985118</v>
+        <v>940.2664651563699</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45863.51041666666</v>
+        <v>45875.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>772.3769000821717</v>
+        <v>944.5707799914373</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45863.52083333334</v>
+        <v>45875.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>772.5379362658316</v>
+        <v>948.8750948265049</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45863.53125</v>
+        <v>45875.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>772.6989724494914</v>
+        <v>953.1794096615723</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45863.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>772.8600086331513</v>
+        <v>957.4837244966398</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45863.55208333334</v>
+        <v>45875.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>778.988856326048</v>
+        <v>961.2037059602161</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45863.5625</v>
+        <v>45875.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>785.1177040189448</v>
+        <v>964.9236874237924</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45863.57291666666</v>
+        <v>45875.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>791.2465517118414</v>
+        <v>968.6436688873689</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45863.58333333334</v>
+        <v>45875.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>797.3753994047381</v>
+        <v>972.3636503509452</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45863.59375</v>
+        <v>45875.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>820.3656827917165</v>
+        <v>979.8941438004418</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45863.60416666666</v>
+        <v>45875.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>843.3559661786949</v>
+        <v>987.4246372499383</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45863.61458333334</v>
+        <v>45875.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>866.3462495656731</v>
+        <v>994.9551306994349</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45863.625</v>
+        <v>45875.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>889.3365329526515</v>
+        <v>1002.485624148931</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45863.63541666666</v>
+        <v>45875.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>935.3360451593001</v>
+        <v>1013.102385405599</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45863.64583333334</v>
+        <v>45875.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>981.3355573659487</v>
+        <v>1023.719146662266</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45863.65625</v>
+        <v>45875.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1027.335069572597</v>
+        <v>1034.335907918933</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45863.66666666666</v>
+        <v>45875.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1073.334581779246</v>
+        <v>1044.9526691756</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45863.67708333334</v>
+        <v>45875.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1214.080206236853</v>
+        <v>1162.165005468201</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45863.6875</v>
+        <v>45875.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1354.825830694461</v>
+        <v>1279.377341760801</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45863.69791666666</v>
+        <v>45875.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1495.571455152069</v>
+        <v>1396.589678053402</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45863.70833333334</v>
+        <v>45875.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1636.317079609677</v>
+        <v>1513.802014346002</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45863.71875</v>
+        <v>45875.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1704.501694285259</v>
+        <v>1583.97962925716</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45863.72916666666</v>
+        <v>45875.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1772.686308960842</v>
+        <v>1654.157244168317</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45863.73958333334</v>
+        <v>45875.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1840.870923636425</v>
+        <v>1724.334859079474</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45863.75</v>
+        <v>45875.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1909.055538312008</v>
+        <v>1794.512473990631</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45863.76041666666</v>
+        <v>45875.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1928.986134210647</v>
+        <v>1808.733996046402</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45863.77083333334</v>
+        <v>45875.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1948.916730109287</v>
+        <v>1822.955518102174</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45863.78125</v>
+        <v>45875.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1968.847326007926</v>
+        <v>1837.177040157945</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45863.79166666666</v>
+        <v>45875.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1988.777921906565</v>
+        <v>1851.398562213717</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45863.80208333334</v>
+        <v>45875.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1986.371851869214</v>
+        <v>1855.036243202268</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45863.8125</v>
+        <v>45875.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1983.965781831864</v>
+        <v>1858.67392419082</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45863.82291666666</v>
+        <v>45875.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1981.559711794513</v>
+        <v>1862.311605179371</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45863.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1979.153641757162</v>
+        <v>1865.949286167923</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45863.84375</v>
+        <v>45875.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1958.209465173923</v>
+        <v>1848.789637160054</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45863.85416666666</v>
+        <v>45875.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1937.265288590683</v>
+        <v>1831.629988152185</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45863.86458333334</v>
+        <v>45875.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1916.321112007444</v>
+        <v>1814.470339144315</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45863.875</v>
+        <v>45875.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1895.376935424204</v>
+        <v>1797.310690136446</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45863.88541666666</v>
+        <v>45875.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1835.670402178938</v>
+        <v>1736.778690878191</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45863.89583333334</v>
+        <v>45875.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1775.963868933672</v>
+        <v>1676.246691619936</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45863.90625</v>
+        <v>45875.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1716.257335688406</v>
+        <v>1615.71469236168</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45863.91666666666</v>
+        <v>45875.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1656.550802443141</v>
+        <v>1555.182693103425</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45863.92708333334</v>
+        <v>45875.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1632.063829820596</v>
+        <v>1499.210140152978</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45863.9375</v>
+        <v>45875.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1607.576857198052</v>
+        <v>1443.23758720253</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45863.94791666666</v>
+        <v>45875.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1583.089884575508</v>
+        <v>1387.265034252083</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45863.95833333334</v>
+        <v>45875.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1558.602911952963</v>
+        <v>1331.292481301636</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45863.96875</v>
+        <v>45875.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1437.692328571059</v>
+        <v>1257.58888222932</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45863.97916666666</v>
+        <v>45875.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1316.781745189155</v>
+        <v>1183.885283157004</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45863.98958333334</v>
+        <v>45875.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1195.871161807251</v>
+        <v>1110.181684084688</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45864</v>
+        <v>45876</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1074.960578425347</v>
+        <v>1036.478085012372</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,687 +415,687 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C2">
-        <v>931</v>
+        <v>479</v>
       </c>
       <c r="D2">
-        <v>1169.218156163522</v>
+        <v>1157.08396249907</v>
       </c>
       <c r="E2">
-        <v>1300</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
       <c r="B3">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C3">
-        <v>917</v>
+        <v>466</v>
       </c>
       <c r="D3">
-        <v>1153.572835893038</v>
+        <v>1149.310774622051</v>
       </c>
       <c r="E3">
-        <v>1278</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
       <c r="B4">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C4">
-        <v>917</v>
+        <v>466</v>
       </c>
       <c r="D4">
-        <v>1137.927515622554</v>
+        <v>1141.537586745031</v>
       </c>
       <c r="E4">
-        <v>1277</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
       <c r="B5">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C5">
-        <v>917</v>
+        <v>465</v>
       </c>
       <c r="D5">
-        <v>1122.282195352069</v>
+        <v>1133.764398868012</v>
       </c>
       <c r="E5">
-        <v>1279</v>
+        <v>804</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
       <c r="B6">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C6">
-        <v>903</v>
+        <v>452</v>
       </c>
       <c r="D6">
-        <v>1117.237176243281</v>
+        <v>1132.717398051924</v>
       </c>
       <c r="E6">
-        <v>1268</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
       <c r="B7">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C7">
-        <v>902</v>
+        <v>434</v>
       </c>
       <c r="D7">
-        <v>1112.192157134493</v>
+        <v>1131.670397235835</v>
       </c>
       <c r="E7">
-        <v>1264</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
       <c r="B8">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C8">
-        <v>902</v>
+        <v>431</v>
       </c>
       <c r="D8">
-        <v>1107.147138025704</v>
+        <v>1130.623396419747</v>
       </c>
       <c r="E8">
-        <v>1264</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
       <c r="B9">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C9">
-        <v>902</v>
+        <v>431</v>
       </c>
       <c r="D9">
-        <v>1102.102118916916</v>
+        <v>1129.576395603659</v>
       </c>
       <c r="E9">
-        <v>1262</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
       <c r="B10">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="C10">
-        <v>887</v>
+        <v>416</v>
       </c>
       <c r="D10">
-        <v>1103.65759789183</v>
+        <v>1127.683333521944</v>
       </c>
       <c r="E10">
-        <v>1247</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
       <c r="B11">
-        <v>360</v>
+        <v>278</v>
       </c>
       <c r="C11">
-        <v>887</v>
+        <v>416</v>
       </c>
       <c r="D11">
-        <v>1105.213076866744</v>
+        <v>1125.79027144023</v>
       </c>
       <c r="E11">
-        <v>1247</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
       <c r="B12">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="C12">
-        <v>887</v>
+        <v>416</v>
       </c>
       <c r="D12">
-        <v>1106.768555841658</v>
+        <v>1123.897209358516</v>
       </c>
       <c r="E12">
-        <v>1249</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
       <c r="B13">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>887</v>
+        <v>415</v>
       </c>
       <c r="D13">
-        <v>1108.324034816572</v>
+        <v>1122.004147276802</v>
       </c>
       <c r="E13">
-        <v>1246</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
       <c r="B14">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C14">
-        <v>887</v>
+        <v>347</v>
       </c>
       <c r="D14">
-        <v>1117.673368760121</v>
+        <v>1123.63281521314</v>
       </c>
       <c r="E14">
-        <v>1250</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
       <c r="B15">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C15">
-        <v>887</v>
+        <v>344</v>
       </c>
       <c r="D15">
-        <v>1127.02270270367</v>
+        <v>1125.261483149477</v>
       </c>
       <c r="E15">
-        <v>1253</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
       <c r="B16">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>887</v>
+        <v>344</v>
       </c>
       <c r="D16">
-        <v>1136.372036647219</v>
+        <v>1126.890151085815</v>
       </c>
       <c r="E16">
-        <v>1254</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
       <c r="B17">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="C17">
-        <v>889</v>
+        <v>374</v>
       </c>
       <c r="D17">
-        <v>1145.721370590769</v>
+        <v>1128.518819022153</v>
       </c>
       <c r="E17">
-        <v>1257</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
       <c r="B18">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="C18">
-        <v>889</v>
+        <v>410</v>
       </c>
       <c r="D18">
-        <v>1152.519389814448</v>
+        <v>1135.572854823272</v>
       </c>
       <c r="E18">
-        <v>1269</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
       <c r="B19">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C19">
-        <v>887</v>
+        <v>414</v>
       </c>
       <c r="D19">
-        <v>1159.317409038128</v>
+        <v>1142.626890624391</v>
       </c>
       <c r="E19">
-        <v>1266</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
       <c r="B20">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C20">
-        <v>887</v>
+        <v>414</v>
       </c>
       <c r="D20">
-        <v>1166.115428261807</v>
+        <v>1149.68092642551</v>
       </c>
       <c r="E20">
-        <v>1268</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
       <c r="B21">
         <v>385</v>
       </c>
       <c r="C21">
-        <v>887</v>
+        <v>414</v>
       </c>
       <c r="D21">
-        <v>1172.913447485487</v>
+        <v>1156.734962226629</v>
       </c>
       <c r="E21">
-        <v>1272</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
       <c r="B22">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C22">
-        <v>902</v>
+        <v>433</v>
       </c>
       <c r="D22">
-        <v>1215.923675646006</v>
+        <v>1209.053275733569</v>
       </c>
       <c r="E22">
-        <v>1294</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
       <c r="B23">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="C23">
-        <v>904</v>
+        <v>457</v>
       </c>
       <c r="D23">
-        <v>1258.933903806526</v>
+        <v>1261.37158924051</v>
       </c>
       <c r="E23">
-        <v>1294</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
       <c r="B24">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C24">
-        <v>906</v>
+        <v>465</v>
       </c>
       <c r="D24">
-        <v>1301.944131967045</v>
+        <v>1313.68990274745</v>
       </c>
       <c r="E24">
-        <v>1300</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
       <c r="B25">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C25">
-        <v>916</v>
+        <v>468</v>
       </c>
       <c r="D25">
-        <v>1344.954360127565</v>
+        <v>1366.008216254391</v>
       </c>
       <c r="E25">
-        <v>1314</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
       <c r="B26">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C26">
-        <v>1126</v>
+        <v>588</v>
       </c>
       <c r="D26">
-        <v>1341.497740183293</v>
+        <v>1343.820259566209</v>
       </c>
       <c r="E26">
-        <v>1553</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
       <c r="B27">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="C27">
-        <v>1133</v>
+        <v>607</v>
       </c>
       <c r="D27">
-        <v>1338.041120239022</v>
+        <v>1321.632302878027</v>
       </c>
       <c r="E27">
-        <v>1559</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
       <c r="B28">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C28">
-        <v>1133</v>
+        <v>606</v>
       </c>
       <c r="D28">
-        <v>1334.584500294751</v>
+        <v>1299.444346189845</v>
       </c>
       <c r="E28">
-        <v>1561</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45875.29166666666</v>
+        <v>45889.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="D29">
-        <v>1331.127880350479</v>
+        <v>1277.256389501664</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45875.30208333334</v>
+        <v>45889.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="D30">
-        <v>1272.546402346877</v>
+        <v>1225.678379601926</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>963</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45875.3125</v>
+        <v>45889.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="D31">
-        <v>1213.964924343274</v>
+        <v>1174.100369702188</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45875.32291666666</v>
+        <v>45889.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="D32">
-        <v>1155.383446339671</v>
+        <v>1122.52235980245</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45875.33333333334</v>
+        <v>45889.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="D33">
-        <v>1096.801968336068</v>
+        <v>1070.944349902712</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45875.34375</v>
+        <v>45889.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="D34">
-        <v>1084.086544970525</v>
+        <v>1043.849237874245</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45875.35416666666</v>
+        <v>45889.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="D35">
-        <v>1071.371121604982</v>
+        <v>1016.754125845777</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45875.36458333334</v>
+        <v>45889.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="D36">
-        <v>1058.655698239438</v>
+        <v>989.6590138173093</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>851</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45875.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="D37">
-        <v>1045.940274873895</v>
+        <v>962.5639017888417</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45875.38541666666</v>
+        <v>45889.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D38">
-        <v>1035.825546513952</v>
+        <v>936.8436393167771</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45875.39583333334</v>
+        <v>45889.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="D39">
-        <v>1025.710818154008</v>
+        <v>911.1233768447124</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>876</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45875.40625</v>
+        <v>45889.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="D40">
-        <v>1015.596089794065</v>
+        <v>885.4031143726478</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45875.41666666666</v>
+        <v>45889.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="D41">
-        <v>1005.481361434121</v>
+        <v>859.6828519005832</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45875.42708333334</v>
+        <v>45889.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>995.3995532639397</v>
+        <v>845.0918203255392</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45875.4375</v>
+        <v>45889.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>985.3177450937579</v>
+        <v>830.5007887504953</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45875.44791666666</v>
+        <v>45889.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>975.2359369235762</v>
+        <v>815.9097571754514</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45875.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>965.1541287533946</v>
+        <v>801.3187256004074</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45875.46875</v>
+        <v>45889.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>958.9322128541385</v>
+        <v>778.9580314037468</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45875.47916666666</v>
+        <v>45889.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>952.7102969548823</v>
+        <v>756.597337207086</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45875.48958333334</v>
+        <v>45889.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>946.4883810556261</v>
+        <v>734.2366430104253</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45875.5</v>
+        <v>45889.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>940.2664651563699</v>
+        <v>711.8759488137646</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45875.51041666666</v>
+        <v>45889.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>944.5707799914373</v>
+        <v>702.7596386777195</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45875.52083333334</v>
+        <v>45889.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>948.8750948265049</v>
+        <v>693.6433285416745</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45875.53125</v>
+        <v>45889.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>953.1794096615723</v>
+        <v>684.5270184056293</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45875.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>957.4837244966398</v>
+        <v>675.4107082695842</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45875.55208333334</v>
+        <v>45889.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>961.2037059602161</v>
+        <v>678.9218625213953</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45875.5625</v>
+        <v>45889.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>964.9236874237924</v>
+        <v>682.4330167732062</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45875.57291666666</v>
+        <v>45889.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>968.6436688873689</v>
+        <v>685.9441710250171</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45875.58333333334</v>
+        <v>45889.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>972.3636503509452</v>
+        <v>689.4553252768281</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45875.59375</v>
+        <v>45889.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>979.8941438004418</v>
+        <v>736.0838767731871</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45875.60416666666</v>
+        <v>45889.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>987.4246372499383</v>
+        <v>782.7124282695459</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45875.61458333334</v>
+        <v>45889.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>994.9551306994349</v>
+        <v>829.3409797659046</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45875.625</v>
+        <v>45889.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1002.485624148931</v>
+        <v>875.9695312622636</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45875.63541666666</v>
+        <v>45889.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1013.102385405599</v>
+        <v>905.0105842015292</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45875.64583333334</v>
+        <v>45889.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1023.719146662266</v>
+        <v>934.0516371407948</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45875.65625</v>
+        <v>45889.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1034.335907918933</v>
+        <v>963.0926900800605</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45875.66666666666</v>
+        <v>45889.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1044.9526691756</v>
+        <v>992.1337430193262</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45875.67708333334</v>
+        <v>45889.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1162.165005468201</v>
+        <v>1168.74903219732</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45875.6875</v>
+        <v>45889.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1279.377341760801</v>
+        <v>1345.364321375314</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45875.69791666666</v>
+        <v>45889.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1396.589678053402</v>
+        <v>1521.979610553308</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45875.70833333334</v>
+        <v>45889.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1513.802014346002</v>
+        <v>1698.594899731302</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45875.71875</v>
+        <v>45889.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1583.97962925716</v>
+        <v>1779.806205456605</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45875.72916666666</v>
+        <v>45889.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1654.157244168317</v>
+        <v>1861.017511181909</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45875.73958333334</v>
+        <v>45889.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1724.334859079474</v>
+        <v>1942.228816907213</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45875.75</v>
+        <v>45889.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1794.512473990631</v>
+        <v>2023.440122632517</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45875.76041666666</v>
+        <v>45889.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1808.733996046402</v>
+        <v>2089.316567919348</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45875.77083333334</v>
+        <v>45889.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1822.955518102174</v>
+        <v>2155.19301320618</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45875.78125</v>
+        <v>45889.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1837.177040157945</v>
+        <v>2221.069458493012</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45875.79166666666</v>
+        <v>45889.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1851.398562213717</v>
+        <v>2286.945903779844</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45875.80208333334</v>
+        <v>45889.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1855.036243202268</v>
+        <v>2287.083388735492</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45875.8125</v>
+        <v>45889.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1858.67392419082</v>
+        <v>2287.22087369114</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45875.82291666666</v>
+        <v>45889.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1862.311605179371</v>
+        <v>2287.358358646788</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45875.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1865.949286167923</v>
+        <v>2287.495843602436</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45875.84375</v>
+        <v>45889.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1848.789637160054</v>
+        <v>2235.071772437101</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45875.85416666666</v>
+        <v>45889.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1831.629988152185</v>
+        <v>2182.647701271766</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45875.86458333334</v>
+        <v>45889.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1814.470339144315</v>
+        <v>2130.22363010643</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45875.875</v>
+        <v>45889.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1797.310690136446</v>
+        <v>2077.799558941095</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45875.88541666666</v>
+        <v>45889.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1736.778690878191</v>
+        <v>1970.402657048584</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45875.89583333334</v>
+        <v>45889.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1676.246691619936</v>
+        <v>1863.005755156072</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45875.90625</v>
+        <v>45889.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1615.71469236168</v>
+        <v>1755.608853263561</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45875.91666666666</v>
+        <v>45889.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1555.182693103425</v>
+        <v>1648.211951371049</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45875.92708333334</v>
+        <v>45889.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1499.210140152978</v>
+        <v>1607.442374138651</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45875.9375</v>
+        <v>45889.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1443.23758720253</v>
+        <v>1566.672796906253</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45875.94791666666</v>
+        <v>45889.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1387.265034252083</v>
+        <v>1525.903219673855</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45875.95833333334</v>
+        <v>45889.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1331.292481301636</v>
+        <v>1485.133642441457</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45875.96875</v>
+        <v>45889.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1257.58888222932</v>
+        <v>1406.08006288988</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45875.97916666666</v>
+        <v>45889.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1183.885283157004</v>
+        <v>1327.026483338302</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45875.98958333334</v>
+        <v>45889.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1110.181684084688</v>
+        <v>1247.972903786725</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45876</v>
+        <v>45890</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1036.478085012372</v>
+        <v>1168.919324235148</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,687 +415,687 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
       <c r="B2">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="C2">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="D2">
-        <v>1157.08396249907</v>
+        <v>1113.491882285018</v>
       </c>
       <c r="E2">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="C3">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="D3">
-        <v>1149.310774622051</v>
+        <v>1100.929608838943</v>
       </c>
       <c r="E3">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
       <c r="B4">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="C4">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="D4">
-        <v>1141.537586745031</v>
+        <v>1088.367335392868</v>
       </c>
       <c r="E4">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
       <c r="B5">
-        <v>339</v>
+        <v>407</v>
       </c>
       <c r="C5">
-        <v>465</v>
+        <v>380</v>
       </c>
       <c r="D5">
-        <v>1133.764398868012</v>
+        <v>1075.805061946793</v>
       </c>
       <c r="E5">
-        <v>804</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
       <c r="B6">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="C6">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="D6">
-        <v>1132.717398051924</v>
+        <v>1071.470268877847</v>
       </c>
       <c r="E6">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
       <c r="B7">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="C7">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="D7">
-        <v>1131.670397235835</v>
+        <v>1067.135475808901</v>
       </c>
       <c r="E7">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
       <c r="B8">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="C8">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="D8">
-        <v>1130.623396419747</v>
+        <v>1062.800682739954</v>
       </c>
       <c r="E8">
-        <v>773</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
       <c r="B9">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="C9">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="D9">
-        <v>1129.576395603659</v>
+        <v>1058.465889671008</v>
       </c>
       <c r="E9">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
       <c r="B10">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="C10">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D10">
-        <v>1127.683333521944</v>
+        <v>1054.778080642204</v>
       </c>
       <c r="E10">
-        <v>698</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
       <c r="B11">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="C11">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D11">
-        <v>1125.79027144023</v>
+        <v>1051.090271613399</v>
       </c>
       <c r="E11">
-        <v>694</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="C12">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D12">
-        <v>1123.897209358516</v>
+        <v>1047.402462584594</v>
       </c>
       <c r="E12">
-        <v>695</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
       <c r="B13">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="C13">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D13">
-        <v>1122.004147276802</v>
+        <v>1043.714653555789</v>
       </c>
       <c r="E13">
-        <v>693</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
       <c r="B14">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="C14">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="D14">
-        <v>1123.63281521314</v>
+        <v>1049.753171263773</v>
       </c>
       <c r="E14">
-        <v>645</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="C15">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="D15">
-        <v>1125.261483149477</v>
+        <v>1055.791688971758</v>
       </c>
       <c r="E15">
-        <v>644</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="C16">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="D16">
-        <v>1126.890151085815</v>
+        <v>1061.830206679743</v>
       </c>
       <c r="E16">
-        <v>644</v>
+        <v>798</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="C17">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="D17">
-        <v>1128.518819022153</v>
+        <v>1067.868724387727</v>
       </c>
       <c r="E17">
-        <v>674</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
       <c r="B18">
-        <v>285</v>
+        <v>431</v>
       </c>
       <c r="C18">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="D18">
-        <v>1135.572854823272</v>
+        <v>1078.964500676149</v>
       </c>
       <c r="E18">
-        <v>695</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
       <c r="B19">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="C19">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="D19">
-        <v>1142.626890624391</v>
+        <v>1090.06027696457</v>
       </c>
       <c r="E19">
-        <v>774</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
       <c r="B20">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="C20">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="D20">
-        <v>1149.68092642551</v>
+        <v>1101.156053252992</v>
       </c>
       <c r="E20">
-        <v>801</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
       <c r="B21">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="C21">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="D21">
-        <v>1156.734962226629</v>
+        <v>1112.251829541414</v>
       </c>
       <c r="E21">
-        <v>799</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
       <c r="B22">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="C22">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="D22">
-        <v>1209.053275733569</v>
+        <v>1169.66088003661</v>
       </c>
       <c r="E22">
-        <v>826</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
       <c r="B23">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="C23">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D23">
-        <v>1261.37158924051</v>
+        <v>1227.069930531806</v>
       </c>
       <c r="E23">
-        <v>818</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
       <c r="B24">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="C24">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D24">
-        <v>1313.68990274745</v>
+        <v>1284.478981027002</v>
       </c>
       <c r="E24">
-        <v>838</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
       <c r="B25">
-        <v>374</v>
+        <v>512</v>
       </c>
       <c r="C25">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D25">
-        <v>1366.008216254391</v>
+        <v>1341.888031522198</v>
       </c>
       <c r="E25">
-        <v>842</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
       <c r="B26">
-        <v>409</v>
+        <v>814</v>
       </c>
       <c r="C26">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="D26">
-        <v>1343.820259566209</v>
+        <v>1323.028446751967</v>
       </c>
       <c r="E26">
-        <v>997</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
       <c r="B27">
-        <v>400</v>
+        <v>810</v>
       </c>
       <c r="C27">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="D27">
-        <v>1321.632302878027</v>
+        <v>1304.168861981736</v>
       </c>
       <c r="E27">
-        <v>1007</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
       <c r="B28">
-        <v>404</v>
+        <v>812</v>
       </c>
       <c r="C28">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D28">
-        <v>1299.444346189845</v>
+        <v>1285.309277211504</v>
       </c>
       <c r="E28">
-        <v>1010</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
       <c r="B29">
-        <v>406</v>
+        <v>817</v>
       </c>
       <c r="C29">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D29">
-        <v>1277.256389501664</v>
+        <v>1266.449692441273</v>
       </c>
       <c r="E29">
-        <v>1013</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
       <c r="B30">
-        <v>345</v>
+        <v>812</v>
       </c>
       <c r="C30">
         <v>618</v>
       </c>
       <c r="D30">
-        <v>1225.678379601926</v>
+        <v>1214.076334391765</v>
       </c>
       <c r="E30">
-        <v>963</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
       <c r="B31">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="C31">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D31">
-        <v>1174.100369702188</v>
+        <v>1161.702976342258</v>
       </c>
       <c r="E31">
-        <v>961</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
       <c r="B32">
-        <v>331</v>
+        <v>802</v>
       </c>
       <c r="C32">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D32">
-        <v>1122.52235980245</v>
+        <v>1109.32961829275</v>
       </c>
       <c r="E32">
-        <v>954</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
       <c r="B33">
-        <v>321</v>
+        <v>797</v>
       </c>
       <c r="C33">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D33">
-        <v>1070.944349902712</v>
+        <v>1056.956260243243</v>
       </c>
       <c r="E33">
-        <v>949</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
       <c r="B34">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="C34">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D34">
-        <v>1043.849237874245</v>
+        <v>1039.746484775769</v>
       </c>
       <c r="E34">
-        <v>862</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
       <c r="B35">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="C35">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D35">
-        <v>1016.754125845777</v>
+        <v>1022.536709308295</v>
       </c>
       <c r="E35">
-        <v>853</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
       <c r="B36">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C36">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="D36">
-        <v>989.6590138173093</v>
+        <v>1005.326933840822</v>
       </c>
       <c r="E36">
-        <v>851</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B37">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="C37">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="D37">
-        <v>962.5639017888417</v>
+        <v>988.1171583733479</v>
       </c>
       <c r="E37">
-        <v>846</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
       <c r="B38">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C38">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D38">
-        <v>936.8436393167771</v>
+        <v>956.1561467902826</v>
       </c>
       <c r="E38">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
       <c r="B39">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C39">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D39">
-        <v>911.1233768447124</v>
+        <v>924.1951352072173</v>
       </c>
       <c r="E39">
-        <v>876</v>
+        <v>843</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
       <c r="B40">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="C40">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D40">
-        <v>885.4031143726478</v>
+        <v>892.2341236241519</v>
       </c>
       <c r="E40">
-        <v>871</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45889.41666666666</v>
+        <v>45890.41666666666</v>
       </c>
       <c r="B41">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>859.6828519005832</v>
+        <v>860.2731120410866</v>
       </c>
       <c r="E41">
-        <v>856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45889.42708333334</v>
+        <v>45890.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>845.0918203255392</v>
+        <v>849.9105843314917</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45889.4375</v>
+        <v>45890.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>830.5007887504953</v>
+        <v>839.5480566218966</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45889.44791666666</v>
+        <v>45890.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>815.9097571754514</v>
+        <v>829.1855289123016</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45889.45833333334</v>
+        <v>45890.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>801.3187256004074</v>
+        <v>818.8230012027067</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45889.46875</v>
+        <v>45890.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>778.9580314037468</v>
+        <v>781.0822655278032</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45889.47916666666</v>
+        <v>45890.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>756.597337207086</v>
+        <v>743.3415298528996</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45889.48958333334</v>
+        <v>45890.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>734.2366430104253</v>
+        <v>705.6007941779961</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45889.5</v>
+        <v>45890.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>711.8759488137646</v>
+        <v>667.8600585030927</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45889.51041666666</v>
+        <v>45890.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>702.7596386777195</v>
+        <v>664.6898367063411</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45889.52083333334</v>
+        <v>45890.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>693.6433285416745</v>
+        <v>661.5196149095896</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45889.53125</v>
+        <v>45890.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>684.5270184056293</v>
+        <v>658.3493931128381</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45889.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>675.4107082695842</v>
+        <v>655.1791713160866</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45889.55208333334</v>
+        <v>45890.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>678.9218625213953</v>
+        <v>656.6456684738598</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45889.5625</v>
+        <v>45890.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>682.4330167732062</v>
+        <v>658.1121656316329</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45889.57291666666</v>
+        <v>45890.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>685.9441710250171</v>
+        <v>659.5786627894062</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45889.58333333334</v>
+        <v>45890.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>689.4553252768281</v>
+        <v>661.0451599471794</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45889.59375</v>
+        <v>45890.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>736.0838767731871</v>
+        <v>722.1312364037021</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45889.60416666666</v>
+        <v>45890.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>782.7124282695459</v>
+        <v>783.2173128602248</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45889.61458333334</v>
+        <v>45890.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>829.3409797659046</v>
+        <v>844.3033893167474</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45889.625</v>
+        <v>45890.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>875.9695312622636</v>
+        <v>905.3894657732701</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45889.63541666666</v>
+        <v>45890.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>905.0105842015292</v>
+        <v>922.6423735103625</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45889.64583333334</v>
+        <v>45890.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>934.0516371407948</v>
+        <v>939.8952812474549</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45889.65625</v>
+        <v>45890.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>963.0926900800605</v>
+        <v>957.1481889845475</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45889.66666666666</v>
+        <v>45890.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>992.1337430193262</v>
+        <v>974.4010967216399</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45889.67708333334</v>
+        <v>45890.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1168.74903219732</v>
+        <v>1137.23619655823</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45889.6875</v>
+        <v>45890.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1345.364321375314</v>
+        <v>1300.071296394819</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45889.69791666666</v>
+        <v>45890.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1521.979610553308</v>
+        <v>1462.906396231409</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45889.70833333334</v>
+        <v>45890.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1698.594899731302</v>
+        <v>1625.741496067999</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45889.71875</v>
+        <v>45890.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1779.806205456605</v>
+        <v>1716.383960091124</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45889.72916666666</v>
+        <v>45890.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1861.017511181909</v>
+        <v>1807.026424114249</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45889.73958333334</v>
+        <v>45890.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1942.228816907213</v>
+        <v>1897.668888137373</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45889.75</v>
+        <v>45890.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2023.440122632517</v>
+        <v>1988.311352160498</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45889.76041666666</v>
+        <v>45890.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2089.316567919348</v>
+        <v>2055.27420031568</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45889.77083333334</v>
+        <v>45890.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2155.19301320618</v>
+        <v>2122.237048470861</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45889.78125</v>
+        <v>45890.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2221.069458493012</v>
+        <v>2189.199896626043</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45889.79166666666</v>
+        <v>45890.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2286.945903779844</v>
+        <v>2256.162744781225</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45889.80208333334</v>
+        <v>45890.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2287.083388735492</v>
+        <v>2255.979432636313</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45889.8125</v>
+        <v>45890.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2287.22087369114</v>
+        <v>2255.796120491401</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45889.82291666666</v>
+        <v>45890.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2287.358358646788</v>
+        <v>2255.612808346489</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45889.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2287.495843602436</v>
+        <v>2255.429496201577</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45889.84375</v>
+        <v>45890.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2235.071772437101</v>
+        <v>2205.266666955962</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45889.85416666666</v>
+        <v>45890.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2182.647701271766</v>
+        <v>2155.103837710348</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45889.86458333334</v>
+        <v>45890.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2130.22363010643</v>
+        <v>2104.941008464733</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45889.875</v>
+        <v>45890.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2077.799558941095</v>
+        <v>2054.778179219119</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45889.88541666666</v>
+        <v>45890.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1970.402657048584</v>
+        <v>1952.597833146001</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45889.89583333334</v>
+        <v>45890.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1863.005755156072</v>
+        <v>1850.417487072884</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45889.90625</v>
+        <v>45890.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1755.608853263561</v>
+        <v>1748.237140999767</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45889.91666666666</v>
+        <v>45890.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1648.211951371049</v>
+        <v>1646.05679492665</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45889.92708333334</v>
+        <v>45890.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1607.442374138651</v>
+        <v>1601.533509897615</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45889.9375</v>
+        <v>45890.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1566.672796906253</v>
+        <v>1557.010224868581</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45889.94791666666</v>
+        <v>45890.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1525.903219673855</v>
+        <v>1512.486939839547</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45889.95833333334</v>
+        <v>45890.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1485.133642441457</v>
+        <v>1467.963654810512</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45889.96875</v>
+        <v>45890.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1406.08006288988</v>
+        <v>1372.520172759993</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45889.97916666666</v>
+        <v>45890.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1327.026483338302</v>
+        <v>1277.076690709474</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45889.98958333334</v>
+        <v>45890.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1247.972903786725</v>
+        <v>1181.633208658954</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1168.919324235148</v>
+        <v>1086.189726608435</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="C2">
-        <v>410</v>
+        <v>495</v>
       </c>
       <c r="D2">
-        <v>1113.491882285018</v>
+        <v>927.2767620244263</v>
       </c>
       <c r="E2">
-        <v>820</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B3">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="C3">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="D3">
-        <v>1100.929608838943</v>
+        <v>915.2590061159283</v>
       </c>
       <c r="E3">
-        <v>788</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B4">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C4">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="D4">
-        <v>1088.367335392868</v>
+        <v>903.2412502074304</v>
       </c>
       <c r="E4">
-        <v>788</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B5">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C5">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="D5">
-        <v>1075.805061946793</v>
+        <v>891.2234942989326</v>
       </c>
       <c r="E5">
-        <v>787</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B6">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="C6">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D6">
-        <v>1071.470268877847</v>
+        <v>891.1404700784939</v>
       </c>
       <c r="E6">
-        <v>789</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B7">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C7">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="D7">
-        <v>1067.135475808901</v>
+        <v>891.0574458580552</v>
       </c>
       <c r="E7">
-        <v>788</v>
+        <v>810</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B8">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C8">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="D8">
-        <v>1062.800682739954</v>
+        <v>890.9744216376165</v>
       </c>
       <c r="E8">
-        <v>787</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B9">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C9">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D9">
-        <v>1058.465889671008</v>
+        <v>890.8913974171778</v>
       </c>
       <c r="E9">
-        <v>782</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B10">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C10">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="D10">
-        <v>1054.778080642204</v>
+        <v>889.3658273667819</v>
       </c>
       <c r="E10">
-        <v>784</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B11">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="C11">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="D11">
-        <v>1051.090271613399</v>
+        <v>887.840257316386</v>
       </c>
       <c r="E11">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B12">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C12">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="D12">
-        <v>1047.402462584594</v>
+        <v>886.3146872659902</v>
       </c>
       <c r="E12">
-        <v>784</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B13">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C13">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="D13">
-        <v>1043.714653555789</v>
+        <v>884.7891172155943</v>
       </c>
       <c r="E13">
-        <v>784</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B14">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C14">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D14">
-        <v>1049.753171263773</v>
+        <v>885.7335177229195</v>
       </c>
       <c r="E14">
-        <v>788</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B15">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="C15">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="D15">
-        <v>1055.791688971758</v>
+        <v>886.6779182302446</v>
       </c>
       <c r="E15">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B16">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="C16">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="D16">
-        <v>1061.830206679743</v>
+        <v>887.6223187375697</v>
       </c>
       <c r="E16">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B17">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="D17">
-        <v>1067.868724387727</v>
+        <v>888.5667192448949</v>
       </c>
       <c r="E17">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B18">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="C18">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D18">
-        <v>1078.964500676149</v>
+        <v>959.1061725352113</v>
       </c>
       <c r="E18">
-        <v>886</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B19">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="C19">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D19">
-        <v>1090.06027696457</v>
+        <v>1029.645625825528</v>
       </c>
       <c r="E19">
-        <v>892</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B20">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="C20">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D20">
-        <v>1101.156053252992</v>
+        <v>1100.185079115844</v>
       </c>
       <c r="E20">
-        <v>891</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B21">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="C21">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D21">
-        <v>1112.251829541414</v>
+        <v>1170.72453240616</v>
       </c>
       <c r="E21">
-        <v>898</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B22">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C22">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D22">
-        <v>1169.66088003661</v>
+        <v>1259.010412815167</v>
       </c>
       <c r="E22">
-        <v>933</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B23">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C23">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D23">
-        <v>1227.069930531806</v>
+        <v>1347.296293224173</v>
       </c>
       <c r="E23">
-        <v>928</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B24">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C24">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D24">
-        <v>1284.478981027002</v>
+        <v>1435.58217363318</v>
       </c>
       <c r="E24">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B25">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="C25">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D25">
-        <v>1341.888031522198</v>
+        <v>1523.868054042186</v>
       </c>
       <c r="E25">
-        <v>966</v>
+        <v>936</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B26">
-        <v>814</v>
+        <v>505</v>
       </c>
       <c r="C26">
-        <v>616</v>
+        <v>860</v>
       </c>
       <c r="D26">
-        <v>1323.028446751967</v>
+        <v>1521.377327429025</v>
       </c>
       <c r="E26">
-        <v>1430</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B27">
-        <v>810</v>
+        <v>501</v>
       </c>
       <c r="C27">
-        <v>631</v>
+        <v>873</v>
       </c>
       <c r="D27">
-        <v>1304.168861981736</v>
+        <v>1518.886600815864</v>
       </c>
       <c r="E27">
-        <v>1441</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B28">
-        <v>812</v>
+        <v>502</v>
       </c>
       <c r="C28">
-        <v>630</v>
+        <v>871</v>
       </c>
       <c r="D28">
-        <v>1285.309277211504</v>
+        <v>1516.395874202703</v>
       </c>
       <c r="E28">
-        <v>1442</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B29">
-        <v>817</v>
+        <v>503</v>
       </c>
       <c r="C29">
-        <v>633</v>
+        <v>870</v>
       </c>
       <c r="D29">
-        <v>1266.449692441273</v>
+        <v>1513.905147589542</v>
       </c>
       <c r="E29">
-        <v>1450</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B30">
-        <v>812</v>
+        <v>411</v>
       </c>
       <c r="C30">
-        <v>618</v>
+        <v>889</v>
       </c>
       <c r="D30">
-        <v>1214.076334391765</v>
+        <v>1426.854252459453</v>
       </c>
       <c r="E30">
-        <v>1430</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B31">
-        <v>804</v>
+        <v>391</v>
       </c>
       <c r="C31">
-        <v>616</v>
+        <v>904</v>
       </c>
       <c r="D31">
-        <v>1161.702976342258</v>
+        <v>1339.803357329363</v>
       </c>
       <c r="E31">
-        <v>1420</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B32">
-        <v>802</v>
+        <v>390</v>
       </c>
       <c r="C32">
-        <v>614</v>
+        <v>914</v>
       </c>
       <c r="D32">
-        <v>1109.32961829275</v>
+        <v>1252.752462199274</v>
       </c>
       <c r="E32">
-        <v>1416</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B33">
-        <v>797</v>
+        <v>373</v>
       </c>
       <c r="C33">
-        <v>614</v>
+        <v>916</v>
       </c>
       <c r="D33">
-        <v>1056.956260243243</v>
+        <v>1165.701567069185</v>
       </c>
       <c r="E33">
-        <v>1411</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B34">
-        <v>236</v>
+        <v>399</v>
       </c>
       <c r="C34">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D34">
-        <v>1039.746484775769</v>
+        <v>1106.878906888558</v>
       </c>
       <c r="E34">
-        <v>811</v>
+        <v>962</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B35">
-        <v>203</v>
+        <v>373</v>
       </c>
       <c r="C35">
-        <v>572</v>
+        <v>524</v>
       </c>
       <c r="D35">
-        <v>1022.536709308295</v>
+        <v>1048.056246707932</v>
       </c>
       <c r="E35">
-        <v>775</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B36">
-        <v>196</v>
+        <v>371</v>
       </c>
       <c r="C36">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="D36">
-        <v>1005.326933840822</v>
+        <v>989.2335865273054</v>
       </c>
       <c r="E36">
-        <v>766</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B37">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="C37">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="D37">
-        <v>988.1171583733479</v>
+        <v>930.410926346679</v>
       </c>
       <c r="E37">
-        <v>753</v>
+        <v>888</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B38">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="C38">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="D38">
-        <v>956.1561467902826</v>
+        <v>883.6890462947119</v>
       </c>
       <c r="E38">
-        <v>846</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B39">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="D39">
-        <v>924.1951352072173</v>
+        <v>836.9671662427448</v>
       </c>
       <c r="E39">
-        <v>843</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B40">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="C40">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="D40">
-        <v>892.2341236241519</v>
+        <v>790.2452861907777</v>
       </c>
       <c r="E40">
-        <v>833</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="D41">
-        <v>860.2731120410866</v>
+        <v>743.5234061388106</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="D42">
-        <v>849.9105843314917</v>
+        <v>727.9771208616634</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>839.5480566218966</v>
+        <v>712.4308355845161</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>829.1855289123016</v>
+        <v>696.8845503073688</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>818.8230012027067</v>
+        <v>681.3382650302216</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>781.0822655278032</v>
+        <v>664.4739702535528</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>743.3415298528996</v>
+        <v>647.6096754768839</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>705.6007941779961</v>
+        <v>630.745380700215</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>667.8600585030927</v>
+        <v>613.8810859235463</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>664.6898367063411</v>
+        <v>616.8284457491774</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>661.5196149095896</v>
+        <v>619.7758055748086</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>658.3493931128381</v>
+        <v>622.7231654004397</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>655.1791713160866</v>
+        <v>625.6705252260708</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>656.6456684738598</v>
+        <v>652.9024695299656</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>658.1121656316329</v>
+        <v>680.1344138338604</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>659.5786627894062</v>
+        <v>707.3663581377552</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>661.0451599471794</v>
+        <v>734.59830244165</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>722.1312364037021</v>
+        <v>787.2149021445905</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>783.2173128602248</v>
+        <v>839.8315018475309</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>844.3033893167474</v>
+        <v>892.4481015504714</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>905.3894657732701</v>
+        <v>945.0647012534118</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>922.6423735103625</v>
+        <v>1033.319447579842</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>939.8952812474549</v>
+        <v>1121.574193906272</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>957.1481889845475</v>
+        <v>1209.828940232702</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>974.4010967216399</v>
+        <v>1298.083686559132</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1137.23619655823</v>
+        <v>1435.125540420767</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1300.071296394819</v>
+        <v>1572.167394282402</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1462.906396231409</v>
+        <v>1709.209248144037</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1625.741496067999</v>
+        <v>1846.251102005673</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1716.383960091124</v>
+        <v>1890.6898159953</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1807.026424114249</v>
+        <v>1935.128529984928</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1897.668888137373</v>
+        <v>1979.567243974556</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1988.311352160498</v>
+        <v>2024.005957964183</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2055.27420031568</v>
+        <v>2039.240902415068</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2122.237048470861</v>
+        <v>2054.475846865953</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2189.199896626043</v>
+        <v>2069.710791316837</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2256.162744781225</v>
+        <v>2084.945735767722</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2255.979432636313</v>
+        <v>2079.33122286036</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2255.796120491401</v>
+        <v>2073.716709952999</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2255.612808346489</v>
+        <v>2068.102197045638</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2255.429496201577</v>
+        <v>2062.487684138276</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2205.266666955962</v>
+        <v>2019.273577399931</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2155.103837710348</v>
+        <v>1976.059470661586</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2104.941008464733</v>
+        <v>1932.845363923241</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2054.778179219119</v>
+        <v>1889.631257184896</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1952.597833146001</v>
+        <v>1811.764916441093</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1850.417487072884</v>
+        <v>1733.898575697291</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1748.237140999767</v>
+        <v>1656.032234953489</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1646.05679492665</v>
+        <v>1578.165894209686</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1601.533509897615</v>
+        <v>1528.558922497285</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1557.010224868581</v>
+        <v>1478.951950784885</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1512.486939839547</v>
+        <v>1429.344979072484</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1467.963654810512</v>
+        <v>1379.738007360083</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1372.520172759993</v>
+        <v>1293.386511169477</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1277.076690709474</v>
+        <v>1207.035014978872</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1181.633208658954</v>
+        <v>1120.683518788267</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1086.189726608435</v>
+        <v>1034.332022597661</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C2">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="D2">
-        <v>927.2767620244263</v>
+        <v>1034.921369429746</v>
       </c>
       <c r="E2">
-        <v>860</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="D3">
-        <v>915.2590061159283</v>
+        <v>1021.165037730856</v>
       </c>
       <c r="E3">
-        <v>842</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B4">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C4">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="D4">
-        <v>903.2412502074304</v>
+        <v>1007.408706031966</v>
       </c>
       <c r="E4">
-        <v>821</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B5">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C5">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="D5">
-        <v>891.2234942989326</v>
+        <v>993.6523743330764</v>
       </c>
       <c r="E5">
-        <v>814</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B6">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C6">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="D6">
-        <v>891.1404700784939</v>
+        <v>993.7437026763056</v>
       </c>
       <c r="E6">
-        <v>813</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B7">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C7">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="D7">
-        <v>891.0574458580552</v>
+        <v>993.8350310195348</v>
       </c>
       <c r="E7">
-        <v>810</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B8">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C8">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="D8">
-        <v>890.9744216376165</v>
+        <v>993.9263593627639</v>
       </c>
       <c r="E8">
-        <v>811</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B9">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C9">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="D9">
-        <v>890.8913974171778</v>
+        <v>994.0176877059931</v>
       </c>
       <c r="E9">
-        <v>811</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B10">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C10">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="D10">
-        <v>889.3658273667819</v>
+        <v>992.5450181713375</v>
       </c>
       <c r="E10">
-        <v>808</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B11">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C11">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="D11">
-        <v>887.840257316386</v>
+        <v>991.0723486366818</v>
       </c>
       <c r="E11">
-        <v>804</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B12">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C12">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="D12">
-        <v>886.3146872659902</v>
+        <v>989.5996791020261</v>
       </c>
       <c r="E12">
-        <v>805</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B13">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C13">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="D13">
-        <v>884.7891172155943</v>
+        <v>988.1270095673705</v>
       </c>
       <c r="E13">
-        <v>803</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B14">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C14">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="D14">
-        <v>885.7335177229195</v>
+        <v>990.0449047752682</v>
       </c>
       <c r="E14">
-        <v>805</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B15">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C15">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="D15">
-        <v>886.6779182302446</v>
+        <v>991.9627999831658</v>
       </c>
       <c r="E15">
-        <v>804</v>
+        <v>863</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B16">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C16">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="D16">
-        <v>887.6223187375697</v>
+        <v>993.8806951910635</v>
       </c>
       <c r="E16">
-        <v>804</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B17">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C17">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="D17">
-        <v>888.5667192448949</v>
+        <v>995.7985903989612</v>
       </c>
       <c r="E17">
-        <v>803</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B18">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C18">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="D18">
-        <v>959.1061725352113</v>
+        <v>1052.467827372644</v>
       </c>
       <c r="E18">
-        <v>821</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B19">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="C19">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="D19">
-        <v>1029.645625825528</v>
+        <v>1109.137064346328</v>
       </c>
       <c r="E19">
-        <v>822</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B20">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C20">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="D20">
-        <v>1100.185079115844</v>
+        <v>1165.806301320011</v>
       </c>
       <c r="E20">
-        <v>821</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B21">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C21">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="D21">
-        <v>1170.72453240616</v>
+        <v>1222.475538293694</v>
       </c>
       <c r="E21">
-        <v>828</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B22">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C22">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="D22">
-        <v>1259.010412815167</v>
+        <v>1333.576467831802</v>
       </c>
       <c r="E22">
-        <v>917</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B23">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C23">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="D23">
-        <v>1347.296293224173</v>
+        <v>1444.67739736991</v>
       </c>
       <c r="E23">
-        <v>917</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B24">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C24">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="D24">
-        <v>1435.58217363318</v>
+        <v>1555.778326908018</v>
       </c>
       <c r="E24">
-        <v>917</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C25">
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="D25">
-        <v>1523.868054042186</v>
+        <v>1666.879256446126</v>
       </c>
       <c r="E25">
-        <v>936</v>
+        <v>993</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B26">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C26">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="D26">
-        <v>1521.377327429025</v>
+        <v>1660.977162265087</v>
       </c>
       <c r="E26">
-        <v>1365</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B27">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C27">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D27">
-        <v>1518.886600815864</v>
+        <v>1655.075068084048</v>
       </c>
       <c r="E27">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B28">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C28">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="D28">
-        <v>1516.395874202703</v>
+        <v>1649.17297390301</v>
       </c>
       <c r="E28">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C29">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D29">
-        <v>1513.905147589542</v>
+        <v>1643.270879721971</v>
       </c>
       <c r="E29">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B30">
-        <v>411</v>
+        <v>536</v>
       </c>
       <c r="C30">
-        <v>889</v>
+        <v>835</v>
       </c>
       <c r="D30">
-        <v>1426.854252459453</v>
+        <v>1543.186431585518</v>
       </c>
       <c r="E30">
-        <v>1300</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B31">
-        <v>391</v>
+        <v>523</v>
       </c>
       <c r="C31">
-        <v>904</v>
+        <v>821</v>
       </c>
       <c r="D31">
-        <v>1339.803357329363</v>
+        <v>1443.101983449065</v>
       </c>
       <c r="E31">
-        <v>1295</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B32">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="C32">
-        <v>914</v>
+        <v>842</v>
       </c>
       <c r="D32">
-        <v>1252.752462199274</v>
+        <v>1343.017535312613</v>
       </c>
       <c r="E32">
-        <v>1304</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B33">
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="C33">
-        <v>916</v>
+        <v>829</v>
       </c>
       <c r="D33">
-        <v>1165.701567069185</v>
+        <v>1242.93308717616</v>
       </c>
       <c r="E33">
-        <v>1289</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B34">
-        <v>399</v>
+        <v>503</v>
       </c>
       <c r="C34">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="D34">
-        <v>1106.878906888558</v>
+        <v>1176.320476833619</v>
       </c>
       <c r="E34">
-        <v>962</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B35">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="C35">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="D35">
-        <v>1048.056246707932</v>
+        <v>1109.707866491079</v>
       </c>
       <c r="E35">
-        <v>897</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B36">
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="C36">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="D36">
-        <v>989.2335865273054</v>
+        <v>1043.095256148538</v>
       </c>
       <c r="E36">
-        <v>893</v>
+        <v>943</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B37">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="C37">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="D37">
-        <v>930.410926346679</v>
+        <v>976.4826458059974</v>
       </c>
       <c r="E37">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B38">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="C38">
-        <v>543</v>
+        <v>468</v>
       </c>
       <c r="D38">
-        <v>883.6890462947119</v>
+        <v>922.3363543138875</v>
       </c>
       <c r="E38">
-        <v>693</v>
+        <v>834</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="C39">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="D39">
-        <v>836.9671662427448</v>
+        <v>868.1900628217775</v>
       </c>
       <c r="E39">
-        <v>607</v>
+        <v>832</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="C40">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D40">
-        <v>790.2452861907777</v>
+        <v>814.0437713296675</v>
       </c>
       <c r="E40">
-        <v>589</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B41">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="C41">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D41">
-        <v>743.5234061388106</v>
+        <v>759.8974798375575</v>
       </c>
       <c r="E41">
-        <v>576</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="C42">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="D42">
-        <v>727.9771208616634</v>
+        <v>744.0634283303971</v>
       </c>
       <c r="E42">
-        <v>468</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>712.4308355845161</v>
+        <v>728.2293768232366</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>696.8845503073688</v>
+        <v>712.3953253160762</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>681.3382650302216</v>
+        <v>696.5612738089158</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>664.4739702535528</v>
+        <v>679.3002169384384</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>647.6096754768839</v>
+        <v>662.0391600679611</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>630.745380700215</v>
+        <v>644.7781031974838</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>613.8810859235463</v>
+        <v>627.5170463270065</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>616.8284457491774</v>
+        <v>630.3253928814115</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>619.7758055748086</v>
+        <v>633.1337394358166</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>622.7231654004397</v>
+        <v>635.9420859902216</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>625.6705252260708</v>
+        <v>638.7504325446266</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>652.9024695299656</v>
+        <v>662.552881998722</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>680.1344138338604</v>
+        <v>686.3553314528174</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>707.3663581377552</v>
+        <v>710.1577809069128</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>734.59830244165</v>
+        <v>733.9602303610081</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>787.2149021445905</v>
+        <v>788.277762496541</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>839.8315018475309</v>
+        <v>842.5952946320738</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>892.4481015504714</v>
+        <v>896.9128267676066</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>945.0647012534118</v>
+        <v>951.2303589031394</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1033.319447579842</v>
+        <v>1052.627651973178</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1121.574193906272</v>
+        <v>1154.024945043216</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1209.828940232702</v>
+        <v>1255.422238113255</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1298.083686559132</v>
+        <v>1356.819531183293</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1435.125540420767</v>
+        <v>1513.972777794959</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1572.167394282402</v>
+        <v>1671.126024406624</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1709.209248144037</v>
+        <v>1828.27927101829</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1846.251102005673</v>
+        <v>1985.432517629956</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1890.6898159953</v>
+        <v>2042.946541778508</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1935.128529984928</v>
+        <v>2100.460565927061</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1979.567243974556</v>
+        <v>2157.974590075614</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2024.005957964183</v>
+        <v>2215.488614224167</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2039.240902415068</v>
+        <v>2233.845611213026</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2054.475846865953</v>
+        <v>2252.202608201885</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2069.710791316837</v>
+        <v>2270.559605190744</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2084.945735767722</v>
+        <v>2288.916602179604</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2079.33122286036</v>
+        <v>2282.409457724726</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2073.716709952999</v>
+        <v>2275.902313269848</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2068.102197045638</v>
+        <v>2269.39516881497</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2062.487684138276</v>
+        <v>2262.888024360092</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2019.273577399931</v>
+        <v>2210.00891363024</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1976.059470661586</v>
+        <v>2157.129802900388</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1932.845363923241</v>
+        <v>2104.250692170537</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1889.631257184896</v>
+        <v>2051.371581440685</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1811.764916441093</v>
+        <v>1953.479013541981</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1733.898575697291</v>
+        <v>1855.586445643278</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1656.032234953489</v>
+        <v>1757.693877744574</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1578.165894209686</v>
+        <v>1659.80130984587</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1528.558922497285</v>
+        <v>1608.417700736717</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1478.951950784885</v>
+        <v>1557.034091627565</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1429.344979072484</v>
+        <v>1505.650482518412</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1379.738007360083</v>
+        <v>1454.266873409259</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1293.386511169477</v>
+        <v>1332.924262481801</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1207.035014978872</v>
+        <v>1211.581651554343</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1120.683518788267</v>
+        <v>1090.239040626885</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1034.332022597661</v>
+        <v>968.8964296994272</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="C2">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D2">
-        <v>1034.921369429746</v>
+        <v>1222.713162999164</v>
       </c>
       <c r="E2">
-        <v>899</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="C3">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="D3">
-        <v>1021.165037730856</v>
+        <v>1206.591370643637</v>
       </c>
       <c r="E3">
-        <v>872</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B4">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="C4">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="D4">
-        <v>1007.408706031966</v>
+        <v>1190.46957828811</v>
       </c>
       <c r="E4">
-        <v>867</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B5">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="C5">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="D5">
-        <v>993.6523743330764</v>
+        <v>1174.347785932584</v>
       </c>
       <c r="E5">
-        <v>864</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B6">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="C6">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="D6">
-        <v>993.7437026763056</v>
+        <v>1170.752023000757</v>
       </c>
       <c r="E6">
-        <v>863</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>418</v>
       </c>
       <c r="C7">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D7">
-        <v>993.8350310195348</v>
+        <v>1167.15626006893</v>
       </c>
       <c r="E7">
-        <v>848</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B8">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="C8">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D8">
-        <v>993.9263593627639</v>
+        <v>1163.560497137103</v>
       </c>
       <c r="E8">
-        <v>849</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B9">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="C9">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D9">
-        <v>994.0176877059931</v>
+        <v>1159.964734205276</v>
       </c>
       <c r="E9">
-        <v>845</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B10">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C10">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D10">
-        <v>992.5450181713375</v>
+        <v>1155.919500907253</v>
       </c>
       <c r="E10">
-        <v>858</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B11">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C11">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D11">
-        <v>991.0723486366818</v>
+        <v>1151.87426760923</v>
       </c>
       <c r="E11">
-        <v>858</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B12">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="C12">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D12">
-        <v>989.5996791020261</v>
+        <v>1147.829034311207</v>
       </c>
       <c r="E12">
-        <v>859</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B13">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="C13">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D13">
-        <v>988.1270095673705</v>
+        <v>1143.783801013184</v>
       </c>
       <c r="E13">
-        <v>857</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B14">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="C14">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D14">
-        <v>990.0449047752682</v>
+        <v>1148.834428551918</v>
       </c>
       <c r="E14">
-        <v>863</v>
+        <v>904</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B15">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="C15">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D15">
-        <v>991.9627999831658</v>
+        <v>1153.885056090652</v>
       </c>
       <c r="E15">
-        <v>863</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B16">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="C16">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D16">
-        <v>993.8806951910635</v>
+        <v>1158.935683629386</v>
       </c>
       <c r="E16">
-        <v>861</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B17">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="C17">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D17">
-        <v>995.7985903989612</v>
+        <v>1163.98631116812</v>
       </c>
       <c r="E17">
-        <v>864</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B18">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="C18">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D18">
-        <v>1052.467827372644</v>
+        <v>1206.91073116701</v>
       </c>
       <c r="E18">
-        <v>883</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B19">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="C19">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D19">
-        <v>1109.137064346328</v>
+        <v>1249.8351511659</v>
       </c>
       <c r="E19">
-        <v>887</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B20">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="C20">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D20">
-        <v>1165.806301320011</v>
+        <v>1292.759571164789</v>
       </c>
       <c r="E20">
-        <v>888</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B21">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="C21">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D21">
-        <v>1222.475538293694</v>
+        <v>1335.683991163679</v>
       </c>
       <c r="E21">
-        <v>888</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B22">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="C22">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D22">
-        <v>1333.576467831802</v>
+        <v>1440.209507705156</v>
       </c>
       <c r="E22">
-        <v>968</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B23">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="C23">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D23">
-        <v>1444.67739736991</v>
+        <v>1544.735024246633</v>
       </c>
       <c r="E23">
-        <v>984</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B24">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="C24">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D24">
-        <v>1555.778326908018</v>
+        <v>1649.26054078811</v>
       </c>
       <c r="E24">
-        <v>987</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B25">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C25">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D25">
-        <v>1666.879256446126</v>
+        <v>1753.786057329587</v>
       </c>
       <c r="E25">
-        <v>993</v>
+        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B26">
-        <v>509</v>
+        <v>752</v>
       </c>
       <c r="C26">
-        <v>822</v>
+        <v>720</v>
       </c>
       <c r="D26">
-        <v>1660.977162265087</v>
+        <v>1743.542864240607</v>
       </c>
       <c r="E26">
-        <v>1331</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B27">
-        <v>510</v>
+        <v>756</v>
       </c>
       <c r="C27">
-        <v>860</v>
+        <v>722</v>
       </c>
       <c r="D27">
-        <v>1655.075068084048</v>
+        <v>1733.299671151627</v>
       </c>
       <c r="E27">
-        <v>1370</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B28">
-        <v>509</v>
+        <v>770</v>
       </c>
       <c r="C28">
-        <v>860</v>
+        <v>724</v>
       </c>
       <c r="D28">
-        <v>1649.17297390301</v>
+        <v>1723.056478062647</v>
       </c>
       <c r="E28">
-        <v>1369</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B29">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>859</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1643.270879721971</v>
+        <v>1712.813284973667</v>
       </c>
       <c r="E29">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B30">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1543.186431585518</v>
+        <v>1582.596988538065</v>
       </c>
       <c r="E30">
-        <v>1371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B31">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1443.101983449065</v>
+        <v>1452.380692102462</v>
       </c>
       <c r="E31">
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B32">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1343.017535312613</v>
+        <v>1322.16439566686</v>
       </c>
       <c r="E32">
-        <v>1352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B33">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1242.93308717616</v>
+        <v>1191.948099231258</v>
       </c>
       <c r="E33">
-        <v>1330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B34">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1176.320476833619</v>
+        <v>1135.977210437046</v>
       </c>
       <c r="E34">
-        <v>1003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B35">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1109.707866491079</v>
+        <v>1080.006321642834</v>
       </c>
       <c r="E35">
-        <v>936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B36">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1043.095256148538</v>
+        <v>1024.035432848622</v>
       </c>
       <c r="E36">
-        <v>943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B37">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>976.4826458059974</v>
+        <v>968.0645440544097</v>
       </c>
       <c r="E37">
-        <v>906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B38">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>922.3363543138875</v>
+        <v>925.2938902335861</v>
       </c>
       <c r="E38">
-        <v>834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B39">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>868.1900628217775</v>
+        <v>882.5232364127626</v>
       </c>
       <c r="E39">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B40">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>814.0437713296675</v>
+        <v>839.7525825919391</v>
       </c>
       <c r="E40">
-        <v>842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B41">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>759.8974798375575</v>
+        <v>796.9819287711156</v>
       </c>
       <c r="E41">
-        <v>834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B42">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>744.0634283303971</v>
+        <v>780.7891674104812</v>
       </c>
       <c r="E42">
-        <v>733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>728.2293768232366</v>
+        <v>764.596406049847</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>712.3953253160762</v>
+        <v>748.4036446892128</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>696.5612738089158</v>
+        <v>732.2108833285785</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>679.3002169384384</v>
+        <v>720.5719664703491</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>662.0391600679611</v>
+        <v>708.9330496121198</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>644.7781031974838</v>
+        <v>697.2941327538905</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>627.5170463270065</v>
+        <v>685.6552158956612</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>630.3253928814115</v>
+        <v>682.7573148485168</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>633.1337394358166</v>
+        <v>679.8594138013723</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>635.9420859902216</v>
+        <v>676.9615127542279</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>638.7504325446266</v>
+        <v>674.0636117070835</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>662.552881998722</v>
+        <v>697.684462282402</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>686.3553314528174</v>
+        <v>721.3053128577205</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>710.1577809069128</v>
+        <v>744.9261634330392</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>733.9602303610081</v>
+        <v>768.5470140083577</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>788.277762496541</v>
+        <v>820.7210610223385</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>842.5952946320738</v>
+        <v>872.8951080363192</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>896.9128267676066</v>
+        <v>925.0691550503001</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>951.2303589031394</v>
+        <v>977.2432020642809</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1052.627651973178</v>
+        <v>1065.173799548606</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1154.024945043216</v>
+        <v>1153.10439703293</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1255.422238113255</v>
+        <v>1241.034994517255</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1356.819531183293</v>
+        <v>1328.965592001579</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1513.972777794959</v>
+        <v>1504.613879954367</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1671.126024406624</v>
+        <v>1680.262167907155</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1828.27927101829</v>
+        <v>1855.910455859943</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1985.432517629956</v>
+        <v>2031.558743812731</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2042.946541778508</v>
+        <v>2094.354485276608</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2100.460565927061</v>
+        <v>2157.150226740484</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2157.974590075614</v>
+        <v>2219.94596820436</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2215.488614224167</v>
+        <v>2282.741709668237</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2233.845611213026</v>
+        <v>2311.448672285355</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2252.202608201885</v>
+        <v>2340.155634902473</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2270.559605190744</v>
+        <v>2368.862597519591</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2288.916602179604</v>
+        <v>2397.56956013671</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2282.409457724726</v>
+        <v>2385.540313749833</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2275.902313269848</v>
+        <v>2373.511067362957</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2269.39516881497</v>
+        <v>2361.48182097608</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2262.888024360092</v>
+        <v>2349.452574589204</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2210.00891363024</v>
+        <v>2292.358009878351</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2157.129802900388</v>
+        <v>2235.263445167499</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2104.250692170537</v>
+        <v>2178.168880456646</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2051.371581440685</v>
+        <v>2121.074315745793</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1953.479013541981</v>
+        <v>2009.641149362225</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1855.586445643278</v>
+        <v>1898.207982978657</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1757.693877744574</v>
+        <v>1786.774816595089</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1659.80130984587</v>
+        <v>1675.341650211521</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1608.417700736717</v>
+        <v>1628.667701102728</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1557.034091627565</v>
+        <v>1581.993751993936</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1505.650482518412</v>
+        <v>1535.319802885143</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1454.266873409259</v>
+        <v>1488.645853776351</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1332.924262481801</v>
+        <v>1434.665107298075</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1211.581651554343</v>
+        <v>1380.684360819798</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1090.239040626885</v>
+        <v>1326.703614341522</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>968.8964296994272</v>
+        <v>1272.722867863246</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,619 +415,619 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45923.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B2">
-        <v>415</v>
+        <v>792</v>
       </c>
       <c r="C2">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="D2">
-        <v>1222.713162999164</v>
+        <v>1065.480860919263</v>
       </c>
       <c r="E2">
-        <v>943</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45923.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B3">
-        <v>409</v>
+        <v>794</v>
       </c>
       <c r="C3">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="D3">
-        <v>1206.591370643637</v>
+        <v>1052.259720559618</v>
       </c>
       <c r="E3">
-        <v>905</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45923.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B4">
-        <v>410</v>
+        <v>795</v>
       </c>
       <c r="C4">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D4">
-        <v>1190.46957828811</v>
+        <v>1039.038580199973</v>
       </c>
       <c r="E4">
-        <v>906</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45923.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B5">
-        <v>409</v>
+        <v>791</v>
       </c>
       <c r="C5">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D5">
-        <v>1174.347785932584</v>
+        <v>1025.817439840328</v>
       </c>
       <c r="E5">
-        <v>905</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45923.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B6">
-        <v>419</v>
+        <v>803</v>
       </c>
       <c r="C6">
-        <v>496</v>
+        <v>364</v>
       </c>
       <c r="D6">
-        <v>1170.752023000757</v>
+        <v>1024.778077157786</v>
       </c>
       <c r="E6">
-        <v>915</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45923.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B7">
-        <v>418</v>
+        <v>807</v>
       </c>
       <c r="C7">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D7">
-        <v>1167.15626006893</v>
+        <v>1023.738714475244</v>
       </c>
       <c r="E7">
-        <v>914</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45923.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B8">
-        <v>416</v>
+        <v>807</v>
       </c>
       <c r="C8">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D8">
-        <v>1163.560497137103</v>
+        <v>1022.699351792702</v>
       </c>
       <c r="E8">
-        <v>912</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45923.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B9">
-        <v>414</v>
+        <v>811</v>
       </c>
       <c r="C9">
-        <v>495</v>
+        <v>361</v>
       </c>
       <c r="D9">
-        <v>1159.964734205276</v>
+        <v>1021.65998911016</v>
       </c>
       <c r="E9">
-        <v>909</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45923.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B10">
-        <v>404</v>
+        <v>772</v>
       </c>
       <c r="C10">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D10">
-        <v>1155.919500907253</v>
+        <v>1019.670671287661</v>
       </c>
       <c r="E10">
-        <v>900</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45923.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B11">
-        <v>404</v>
+        <v>771</v>
       </c>
       <c r="C11">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D11">
-        <v>1151.87426760923</v>
+        <v>1017.681353465162</v>
       </c>
       <c r="E11">
-        <v>900</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45923.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B12">
-        <v>404</v>
+        <v>772</v>
       </c>
       <c r="C12">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D12">
-        <v>1147.829034311207</v>
+        <v>1015.692035642662</v>
       </c>
       <c r="E12">
-        <v>900</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45923.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B13">
-        <v>405</v>
+        <v>772</v>
       </c>
       <c r="C13">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D13">
-        <v>1143.783801013184</v>
+        <v>1013.702717820163</v>
       </c>
       <c r="E13">
-        <v>901</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45923.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B14">
-        <v>408</v>
+        <v>775</v>
       </c>
       <c r="C14">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D14">
-        <v>1148.834428551918</v>
+        <v>1016.38494409769</v>
       </c>
       <c r="E14">
-        <v>904</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45923.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B15">
-        <v>408</v>
+        <v>774</v>
       </c>
       <c r="C15">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D15">
-        <v>1153.885056090652</v>
+        <v>1019.067170375218</v>
       </c>
       <c r="E15">
-        <v>904</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45923.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B16">
-        <v>408</v>
+        <v>774</v>
       </c>
       <c r="C16">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="D16">
-        <v>1158.935683629386</v>
+        <v>1021.749396652745</v>
       </c>
       <c r="E16">
-        <v>904</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45923.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B17">
-        <v>409</v>
+        <v>773</v>
       </c>
       <c r="C17">
-        <v>496</v>
+        <v>365</v>
       </c>
       <c r="D17">
-        <v>1163.98631116812</v>
+        <v>1024.431622930272</v>
       </c>
       <c r="E17">
-        <v>905</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45923.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B18">
-        <v>412</v>
+        <v>733</v>
       </c>
       <c r="C18">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="D18">
-        <v>1206.91073116701</v>
+        <v>1077.4838235113</v>
       </c>
       <c r="E18">
-        <v>909</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45923.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B19">
-        <v>413</v>
+        <v>732</v>
       </c>
       <c r="C19">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="D19">
-        <v>1249.8351511659</v>
+        <v>1130.536024092328</v>
       </c>
       <c r="E19">
-        <v>910</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45923.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B20">
-        <v>417</v>
+        <v>732</v>
       </c>
       <c r="C20">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="D20">
-        <v>1292.759571164789</v>
+        <v>1183.588224673356</v>
       </c>
       <c r="E20">
-        <v>914</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45923.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B21">
-        <v>423</v>
+        <v>734</v>
       </c>
       <c r="C21">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="D21">
-        <v>1335.683991163679</v>
+        <v>1236.640425254384</v>
       </c>
       <c r="E21">
-        <v>920</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45923.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B22">
-        <v>439</v>
+        <v>793</v>
       </c>
       <c r="C22">
-        <v>501</v>
+        <v>430</v>
       </c>
       <c r="D22">
-        <v>1440.209507705156</v>
+        <v>1333.245275016558</v>
       </c>
       <c r="E22">
-        <v>940</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45923.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B23">
-        <v>440</v>
+        <v>822</v>
       </c>
       <c r="C23">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="D23">
-        <v>1544.735024246633</v>
+        <v>1429.850124778732</v>
       </c>
       <c r="E23">
-        <v>940</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45923.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B24">
-        <v>442</v>
+        <v>823</v>
       </c>
       <c r="C24">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="D24">
-        <v>1649.26054078811</v>
+        <v>1526.454974540906</v>
       </c>
       <c r="E24">
-        <v>942</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45923.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B25">
-        <v>469</v>
+        <v>840</v>
       </c>
       <c r="C25">
-        <v>510</v>
+        <v>431</v>
       </c>
       <c r="D25">
-        <v>1753.786057329587</v>
+        <v>1623.05982430308</v>
       </c>
       <c r="E25">
-        <v>979</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45923.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B26">
-        <v>752</v>
+        <v>860</v>
       </c>
       <c r="C26">
-        <v>720</v>
+        <v>553</v>
       </c>
       <c r="D26">
-        <v>1743.542864240607</v>
+        <v>1631.866467247628</v>
       </c>
       <c r="E26">
-        <v>1472</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45923.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B27">
-        <v>756</v>
+        <v>825</v>
       </c>
       <c r="C27">
-        <v>722</v>
+        <v>563</v>
       </c>
       <c r="D27">
-        <v>1733.299671151627</v>
+        <v>1640.673110192177</v>
       </c>
       <c r="E27">
-        <v>1478</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45923.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B28">
-        <v>770</v>
+        <v>817</v>
       </c>
       <c r="C28">
-        <v>724</v>
+        <v>563</v>
       </c>
       <c r="D28">
-        <v>1723.056478062647</v>
+        <v>1649.479753136725</v>
       </c>
       <c r="E28">
-        <v>1494</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45923.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="D29">
-        <v>1712.813284973667</v>
+        <v>1658.286396081273</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45923.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="D30">
-        <v>1582.596988538065</v>
+        <v>1574.824455079099</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45923.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="D31">
-        <v>1452.380692102462</v>
+        <v>1491.362514076925</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45923.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="D32">
-        <v>1322.16439566686</v>
+        <v>1407.900573074751</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45923.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="D33">
-        <v>1191.948099231258</v>
+        <v>1324.438632072578</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45923.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="D34">
-        <v>1135.977210437046</v>
+        <v>1281.53418757465</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45923.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D35">
-        <v>1080.006321642834</v>
+        <v>1238.629743076722</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45923.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="D36">
-        <v>1024.035432848622</v>
+        <v>1195.725298578795</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45923.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="D37">
-        <v>968.0645440544097</v>
+        <v>1152.820854080867</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45923.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>925.2938902335861</v>
+        <v>1096.985843737178</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45923.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>882.5232364127626</v>
+        <v>1041.150833393489</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45923.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>839.7525825919391</v>
+        <v>985.3158230498</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45923.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>796.9819287711156</v>
+        <v>929.480812706111</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45923.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>780.7891674104812</v>
+        <v>905.8325176925018</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45923.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>764.596406049847</v>
+        <v>882.1842226788925</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45923.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>748.4036446892128</v>
+        <v>858.5359276652832</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45923.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>732.2108833285785</v>
+        <v>834.887632651674</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45923.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>720.5719664703491</v>
+        <v>837.1675249877114</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45923.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>708.9330496121198</v>
+        <v>839.4474173237488</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45923.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>697.2941327538905</v>
+        <v>841.7273096597862</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45923.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>685.6552158956612</v>
+        <v>844.0072019958236</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45923.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>682.7573148485168</v>
+        <v>856.7813046423346</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45923.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>679.8594138013723</v>
+        <v>869.5554072888456</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45923.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>676.9615127542279</v>
+        <v>882.3295099353566</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45923.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>674.0636117070835</v>
+        <v>895.1036125818675</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45923.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>697.684462282402</v>
+        <v>939.2150589045311</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45923.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>721.3053128577205</v>
+        <v>983.3265052271948</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45923.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>744.9261634330392</v>
+        <v>1027.437951549859</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45923.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>768.5470140083577</v>
+        <v>1071.549397872522</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45923.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>820.7210610223385</v>
+        <v>1097.935798877609</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45923.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>872.8951080363192</v>
+        <v>1124.322199882696</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45923.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>925.0691550503001</v>
+        <v>1150.708600887782</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45923.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>977.2432020642809</v>
+        <v>1177.095001892869</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45923.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1065.173799548606</v>
+        <v>1222.547561353911</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45923.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1153.10439703293</v>
+        <v>1268.000120814952</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45923.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1241.034994517255</v>
+        <v>1313.452680275993</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45923.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1328.965592001579</v>
+        <v>1358.905239737034</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45923.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1504.613879954367</v>
+        <v>1522.465162952808</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45923.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1680.262167907155</v>
+        <v>1686.025086168582</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45923.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1855.910455859943</v>
+        <v>1849.585009384356</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45923.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2031.558743812731</v>
+        <v>2013.14493260013</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45923.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2094.354485276608</v>
+        <v>2073.89735778544</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45923.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2157.150226740484</v>
+        <v>2134.64978297075</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45923.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2219.94596820436</v>
+        <v>2195.402208156061</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45923.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2282.741709668237</v>
+        <v>2256.154633341371</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45923.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2311.448672285355</v>
+        <v>2266.794130909082</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45923.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2340.155634902473</v>
+        <v>2277.433628476793</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45923.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2368.862597519591</v>
+        <v>2288.073126044505</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45923.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2397.56956013671</v>
+        <v>2298.712623612215</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45923.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2385.540313749833</v>
+        <v>2283.043951774326</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45923.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2373.511067362957</v>
+        <v>2267.375279936437</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45923.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2361.48182097608</v>
+        <v>2251.706608098549</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45923.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2349.452574589204</v>
+        <v>2236.03793626066</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45923.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2292.358009878351</v>
+        <v>2180.169398088662</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45923.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2235.263445167499</v>
+        <v>2124.300859916664</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45923.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2178.168880456646</v>
+        <v>2068.432321744666</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45923.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2121.074315745793</v>
+        <v>2012.563783572668</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45923.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2009.641149362225</v>
+        <v>1910.527425597935</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45923.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1898.207982978657</v>
+        <v>1808.491067623202</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45923.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1786.774816595089</v>
+        <v>1706.454709648469</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45923.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1675.341650211521</v>
+        <v>1604.418351673736</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45923.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1628.667701102728</v>
+        <v>1555.445370223349</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45923.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1581.993751993936</v>
+        <v>1506.472388772961</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45923.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1535.319802885143</v>
+        <v>1457.499407322573</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45923.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1488.645853776351</v>
+        <v>1408.526425872186</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45923.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1434.665107298075</v>
+        <v>1323.082787060965</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45923.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1380.684360819798</v>
+        <v>1237.639148249744</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45923.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1326.703614341522</v>
+        <v>1152.195509438523</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1272.722867863246</v>
+        <v>1066.751870627302</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,755 +415,755 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B2">
-        <v>792</v>
+        <v>429</v>
       </c>
       <c r="C2">
-        <v>455</v>
+        <v>844</v>
       </c>
       <c r="D2">
-        <v>1065.480860919263</v>
+        <v>1841.028790427542</v>
       </c>
       <c r="E2">
-        <v>1247</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B3">
-        <v>794</v>
+        <v>425</v>
       </c>
       <c r="C3">
-        <v>447</v>
+        <v>809</v>
       </c>
       <c r="D3">
-        <v>1052.259720559618</v>
+        <v>1837.486353714381</v>
       </c>
       <c r="E3">
-        <v>1241</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B4">
-        <v>795</v>
+        <v>427</v>
       </c>
       <c r="C4">
-        <v>446</v>
+        <v>811</v>
       </c>
       <c r="D4">
-        <v>1039.038580199973</v>
+        <v>1833.943917001221</v>
       </c>
       <c r="E4">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B5">
-        <v>791</v>
+        <v>419</v>
       </c>
       <c r="C5">
-        <v>446</v>
+        <v>808</v>
       </c>
       <c r="D5">
-        <v>1025.817439840328</v>
+        <v>1830.40148028806</v>
       </c>
       <c r="E5">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B6">
+        <v>395</v>
+      </c>
+      <c r="C6">
         <v>803</v>
       </c>
-      <c r="C6">
-        <v>364</v>
-      </c>
       <c r="D6">
-        <v>1024.778077157786</v>
+        <v>1828.508108941371</v>
       </c>
       <c r="E6">
-        <v>1167</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B7">
-        <v>807</v>
+        <v>376</v>
       </c>
       <c r="C7">
-        <v>361</v>
+        <v>833</v>
       </c>
       <c r="D7">
-        <v>1023.738714475244</v>
+        <v>1826.614737594682</v>
       </c>
       <c r="E7">
-        <v>1168</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B8">
-        <v>807</v>
+        <v>376</v>
       </c>
       <c r="C8">
-        <v>361</v>
+        <v>833</v>
       </c>
       <c r="D8">
-        <v>1022.699351792702</v>
+        <v>1824.721366247992</v>
       </c>
       <c r="E8">
-        <v>1168</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B9">
-        <v>811</v>
+        <v>379</v>
       </c>
       <c r="C9">
-        <v>361</v>
+        <v>834</v>
       </c>
       <c r="D9">
-        <v>1021.65998911016</v>
+        <v>1822.827994901303</v>
       </c>
       <c r="E9">
-        <v>1172</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B10">
-        <v>772</v>
+        <v>417</v>
       </c>
       <c r="C10">
-        <v>361</v>
+        <v>767</v>
       </c>
       <c r="D10">
-        <v>1019.670671287661</v>
+        <v>1816.308079054048</v>
       </c>
       <c r="E10">
-        <v>1133</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B11">
-        <v>771</v>
+        <v>431</v>
       </c>
       <c r="C11">
-        <v>361</v>
+        <v>760</v>
       </c>
       <c r="D11">
-        <v>1017.681353465162</v>
+        <v>1809.788163206792</v>
       </c>
       <c r="E11">
-        <v>1132</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B12">
-        <v>772</v>
+        <v>432</v>
       </c>
       <c r="C12">
-        <v>361</v>
+        <v>761</v>
       </c>
       <c r="D12">
-        <v>1015.692035642662</v>
+        <v>1803.268247359537</v>
       </c>
       <c r="E12">
-        <v>1133</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B13">
-        <v>772</v>
+        <v>432</v>
       </c>
       <c r="C13">
-        <v>361</v>
+        <v>760</v>
       </c>
       <c r="D13">
-        <v>1013.702717820163</v>
+        <v>1796.748331512282</v>
       </c>
       <c r="E13">
-        <v>1133</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B14">
-        <v>775</v>
+        <v>432</v>
       </c>
       <c r="C14">
-        <v>361</v>
+        <v>761</v>
       </c>
       <c r="D14">
-        <v>1016.38494409769</v>
+        <v>1795.77110759188</v>
       </c>
       <c r="E14">
-        <v>1136</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B15">
-        <v>774</v>
+        <v>430</v>
       </c>
       <c r="C15">
-        <v>361</v>
+        <v>760</v>
       </c>
       <c r="D15">
-        <v>1019.067170375218</v>
+        <v>1794.793883671479</v>
       </c>
       <c r="E15">
-        <v>1135</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B16">
-        <v>774</v>
+        <v>431</v>
       </c>
       <c r="C16">
-        <v>361</v>
+        <v>762</v>
       </c>
       <c r="D16">
-        <v>1021.749396652745</v>
+        <v>1793.816659751077</v>
       </c>
       <c r="E16">
-        <v>1135</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B17">
-        <v>773</v>
+        <v>436</v>
       </c>
       <c r="C17">
-        <v>365</v>
+        <v>766</v>
       </c>
       <c r="D17">
-        <v>1024.431622930272</v>
+        <v>1792.839435830675</v>
       </c>
       <c r="E17">
-        <v>1138</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B18">
-        <v>733</v>
+        <v>457</v>
       </c>
       <c r="C18">
-        <v>431</v>
+        <v>758</v>
       </c>
       <c r="D18">
-        <v>1077.4838235113</v>
+        <v>1825.774935788327</v>
       </c>
       <c r="E18">
-        <v>1164</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B19">
-        <v>732</v>
+        <v>460</v>
       </c>
       <c r="C19">
-        <v>433</v>
+        <v>758</v>
       </c>
       <c r="D19">
-        <v>1130.536024092328</v>
+        <v>1858.710435745978</v>
       </c>
       <c r="E19">
-        <v>1165</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B20">
-        <v>732</v>
+        <v>459</v>
       </c>
       <c r="C20">
-        <v>433</v>
+        <v>758</v>
       </c>
       <c r="D20">
-        <v>1183.588224673356</v>
+        <v>1891.645935703628</v>
       </c>
       <c r="E20">
-        <v>1165</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B21">
-        <v>734</v>
+        <v>460</v>
       </c>
       <c r="C21">
-        <v>433</v>
+        <v>756</v>
       </c>
       <c r="D21">
-        <v>1236.640425254384</v>
+        <v>1924.581435661279</v>
       </c>
       <c r="E21">
-        <v>1167</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B22">
-        <v>793</v>
+        <v>558</v>
       </c>
       <c r="C22">
-        <v>430</v>
+        <v>951</v>
       </c>
       <c r="D22">
-        <v>1333.245275016558</v>
+        <v>2066.584286663043</v>
       </c>
       <c r="E22">
-        <v>1223</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B23">
-        <v>822</v>
+        <v>560</v>
       </c>
       <c r="C23">
-        <v>429</v>
+        <v>974</v>
       </c>
       <c r="D23">
-        <v>1429.850124778732</v>
+        <v>2208.587137664807</v>
       </c>
       <c r="E23">
-        <v>1251</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B24">
-        <v>823</v>
+        <v>562</v>
       </c>
       <c r="C24">
-        <v>430</v>
+        <v>973</v>
       </c>
       <c r="D24">
-        <v>1526.454974540906</v>
+        <v>2350.589988666572</v>
       </c>
       <c r="E24">
-        <v>1253</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B25">
-        <v>840</v>
+        <v>584</v>
       </c>
       <c r="C25">
-        <v>431</v>
+        <v>979</v>
       </c>
       <c r="D25">
-        <v>1623.05982430308</v>
+        <v>2492.592839668336</v>
       </c>
       <c r="E25">
-        <v>1271</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B26">
-        <v>860</v>
+        <v>651</v>
       </c>
       <c r="C26">
-        <v>553</v>
+        <v>1026</v>
       </c>
       <c r="D26">
-        <v>1631.866467247628</v>
+        <v>2501.403124079945</v>
       </c>
       <c r="E26">
-        <v>1413</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B27">
-        <v>825</v>
+        <v>673</v>
       </c>
       <c r="C27">
-        <v>563</v>
+        <v>1020</v>
       </c>
       <c r="D27">
-        <v>1640.673110192177</v>
+        <v>2510.213408491553</v>
       </c>
       <c r="E27">
-        <v>1388</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B28">
-        <v>817</v>
+        <v>686</v>
       </c>
       <c r="C28">
-        <v>563</v>
+        <v>1023</v>
       </c>
       <c r="D28">
-        <v>1649.479753136725</v>
+        <v>2519.023692903162</v>
       </c>
       <c r="E28">
-        <v>1380</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B29">
-        <v>813</v>
+        <v>676</v>
       </c>
       <c r="C29">
-        <v>562</v>
+        <v>1057</v>
       </c>
       <c r="D29">
-        <v>1658.286396081273</v>
+        <v>2527.83397731477</v>
       </c>
       <c r="E29">
-        <v>1375</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B30">
-        <v>841</v>
+        <v>614</v>
       </c>
       <c r="C30">
-        <v>564</v>
+        <v>1079</v>
       </c>
       <c r="D30">
-        <v>1574.824455079099</v>
+        <v>2456.817282690646</v>
       </c>
       <c r="E30">
-        <v>1405</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B31">
-        <v>857</v>
+        <v>604</v>
       </c>
       <c r="C31">
-        <v>564</v>
+        <v>1084</v>
       </c>
       <c r="D31">
-        <v>1491.362514076925</v>
+        <v>2385.800588066521</v>
       </c>
       <c r="E31">
-        <v>1421</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B32">
-        <v>857</v>
+        <v>597</v>
       </c>
       <c r="C32">
-        <v>563</v>
+        <v>1081</v>
       </c>
       <c r="D32">
-        <v>1407.900573074751</v>
+        <v>2314.783893442395</v>
       </c>
       <c r="E32">
-        <v>1420</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B33">
-        <v>860</v>
+        <v>596</v>
       </c>
       <c r="C33">
-        <v>563</v>
+        <v>1081</v>
       </c>
       <c r="D33">
-        <v>1324.438632072578</v>
+        <v>2243.767198818271</v>
       </c>
       <c r="E33">
-        <v>1423</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B34">
-        <v>581</v>
+        <v>493</v>
       </c>
       <c r="C34">
-        <v>489</v>
+        <v>1076</v>
       </c>
       <c r="D34">
-        <v>1281.53418757465</v>
+        <v>2179.51472602028</v>
       </c>
       <c r="E34">
-        <v>1070</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B35">
-        <v>570</v>
+        <v>497</v>
       </c>
       <c r="C35">
-        <v>484</v>
+        <v>1067</v>
       </c>
       <c r="D35">
-        <v>1238.629743076722</v>
+        <v>2115.26225322229</v>
       </c>
       <c r="E35">
-        <v>1054</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B36">
-        <v>565</v>
+        <v>500</v>
       </c>
       <c r="C36">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="D36">
-        <v>1195.725298578795</v>
+        <v>2051.0097804243</v>
       </c>
       <c r="E36">
-        <v>1047</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B37">
-        <v>560</v>
+        <v>492</v>
       </c>
       <c r="C37">
-        <v>483</v>
+        <v>1068</v>
       </c>
       <c r="D37">
-        <v>1152.820854080867</v>
+        <v>1986.75730762631</v>
       </c>
       <c r="E37">
-        <v>1043</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="D38">
-        <v>1096.985843737178</v>
+        <v>1907.220441941997</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="D39">
-        <v>1041.150833393489</v>
+        <v>1827.683576257685</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="D40">
-        <v>985.3158230498</v>
+        <v>1748.146710573373</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="D41">
-        <v>929.480812706111</v>
+        <v>1668.609844889061</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="D42">
-        <v>905.8325176925018</v>
+        <v>1601.166125224978</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="D43">
-        <v>882.1842226788925</v>
+        <v>1533.722405560895</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="D44">
-        <v>858.5359276652832</v>
+        <v>1466.278685896812</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="D45">
-        <v>834.887632651674</v>
+        <v>1398.834966232729</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>837.1675249877114</v>
+        <v>1376.954311879462</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>839.4474173237488</v>
+        <v>1355.073657526195</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>841.7273096597862</v>
+        <v>1333.193003172928</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>844.0072019958236</v>
+        <v>1311.312348819661</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>856.7813046423346</v>
+        <v>1328.184730578533</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>869.5554072888456</v>
+        <v>1345.057112337405</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>882.3295099353566</v>
+        <v>1361.929494096277</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>895.1036125818675</v>
+        <v>1378.801875855149</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>939.2150589045311</v>
+        <v>1423.525139358882</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>983.3265052271948</v>
+        <v>1468.248402862615</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1027.437951549859</v>
+        <v>1512.971666366348</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1071.549397872522</v>
+        <v>1557.694929870082</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1097.935798877609</v>
+        <v>1594.921053605534</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1124.322199882696</v>
+        <v>1632.147177340986</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1150.708600887782</v>
+        <v>1669.373301076438</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1177.095001892869</v>
+        <v>1706.59942481189</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1222.547561353911</v>
+        <v>1834.157684733491</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1268.000120814952</v>
+        <v>1961.715944655092</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1313.452680275993</v>
+        <v>2089.274204576693</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1358.905239737034</v>
+        <v>2216.832464498294</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1522.465162952808</v>
+        <v>2409.024925310899</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1686.025086168582</v>
+        <v>2601.217386123504</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1849.585009384356</v>
+        <v>2793.40984693611</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2013.14493260013</v>
+        <v>2985.602307748715</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2073.89735778544</v>
+        <v>3067.536425864142</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2134.64978297075</v>
+        <v>3149.470543979569</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2195.402208156061</v>
+        <v>3231.404662094996</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2256.154633341371</v>
+        <v>3313.338780210423</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2266.794130909082</v>
+        <v>3309.658921383736</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2277.433628476793</v>
+        <v>3305.979062557049</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2288.073126044505</v>
+        <v>3302.299203730363</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2298.712623612215</v>
+        <v>3298.619344903676</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2283.043951774326</v>
+        <v>3287.01481084298</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2267.375279936437</v>
+        <v>3275.410276782283</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2251.706608098549</v>
+        <v>3263.805742721586</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2236.03793626066</v>
+        <v>3252.20120866089</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2180.169398088662</v>
+        <v>3179.947715011441</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2124.300859916664</v>
+        <v>3107.694221361993</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2068.432321744666</v>
+        <v>3035.440727712544</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2012.563783572668</v>
+        <v>2963.187234063096</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1910.527425597935</v>
+        <v>2853.051044356239</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1808.491067623202</v>
+        <v>2742.914854649383</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1706.454709648469</v>
+        <v>2632.778664942526</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1604.418351673736</v>
+        <v>2522.642475235669</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1555.445370223349</v>
+        <v>2448.54141761069</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1506.472388772961</v>
+        <v>2374.440359985711</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1457.499407322573</v>
+        <v>2300.339302360733</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1408.526425872186</v>
+        <v>2226.238244735754</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1323.082787060965</v>
+        <v>2124.438038586277</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1237.639148249744</v>
+        <v>2022.637832436801</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1152.195509438523</v>
+        <v>1920.837626287324</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1066.751870627302</v>
+        <v>1819.037420137848</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,254 +415,254 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45944.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
       <c r="B2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C2">
         <v>844</v>
       </c>
       <c r="D2">
-        <v>1841.028790427542</v>
+        <v>1677.284789725445</v>
       </c>
       <c r="E2">
-        <v>1273</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45944.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
       <c r="B3">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C3">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="D3">
-        <v>1837.486353714381</v>
+        <v>1662.338487183461</v>
       </c>
       <c r="E3">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45944.03125</v>
+        <v>45947.03125</v>
       </c>
       <c r="B4">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="C4">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="D4">
-        <v>1833.943917001221</v>
+        <v>1647.392184641476</v>
       </c>
       <c r="E4">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45944.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
       <c r="B5">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C5">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="D5">
-        <v>1830.40148028806</v>
+        <v>1632.445882099492</v>
       </c>
       <c r="E5">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45944.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
       <c r="B6">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="D6">
-        <v>1828.508108941371</v>
+        <v>1621.703599316329</v>
       </c>
       <c r="E6">
-        <v>1198</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45944.0625</v>
+        <v>45947.0625</v>
       </c>
       <c r="B7">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C7">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D7">
-        <v>1826.614737594682</v>
+        <v>1610.961316533166</v>
       </c>
       <c r="E7">
-        <v>1209</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45944.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
       <c r="B8">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C8">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D8">
-        <v>1824.721366247992</v>
+        <v>1600.219033750003</v>
       </c>
       <c r="E8">
-        <v>1209</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45944.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
       <c r="B9">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C9">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D9">
-        <v>1822.827994901303</v>
+        <v>1589.47675096684</v>
       </c>
       <c r="E9">
-        <v>1213</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45944.09375</v>
+        <v>45947.09375</v>
       </c>
       <c r="B10">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C10">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="D10">
-        <v>1816.308079054048</v>
+        <v>1588.988465385787</v>
       </c>
       <c r="E10">
-        <v>1184</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45944.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
       <c r="B11">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="C11">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="D11">
-        <v>1809.788163206792</v>
+        <v>1588.500179804734</v>
       </c>
       <c r="E11">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45944.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
       <c r="B12">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C12">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="D12">
-        <v>1803.268247359537</v>
+        <v>1588.011894223681</v>
       </c>
       <c r="E12">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45944.125</v>
+        <v>45947.125</v>
       </c>
       <c r="B13">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="C13">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="D13">
-        <v>1796.748331512282</v>
+        <v>1587.523608642628</v>
       </c>
       <c r="E13">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45944.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
       <c r="B14">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="C14">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="D14">
-        <v>1795.77110759188</v>
+        <v>1592.144457556104</v>
       </c>
       <c r="E14">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45944.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
       <c r="B15">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="C15">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D15">
-        <v>1794.793883671479</v>
+        <v>1596.76530646958</v>
       </c>
       <c r="E15">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45944.15625</v>
+        <v>45947.15625</v>
       </c>
       <c r="B16">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="C16">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="D16">
-        <v>1793.816659751077</v>
+        <v>1601.386155383056</v>
       </c>
       <c r="E16">
         <v>1193</v>
@@ -670,500 +670,500 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45944.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
       <c r="B17">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C17">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="D17">
-        <v>1792.839435830675</v>
+        <v>1606.007004296532</v>
       </c>
       <c r="E17">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45944.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
       <c r="B18">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="C18">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="D18">
-        <v>1825.774935788327</v>
+        <v>1646.034512538139</v>
       </c>
       <c r="E18">
-        <v>1215</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45944.1875</v>
+        <v>45947.1875</v>
       </c>
       <c r="B19">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="C19">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="D19">
-        <v>1858.710435745978</v>
+        <v>1686.062020779746</v>
       </c>
       <c r="E19">
-        <v>1218</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45944.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
       <c r="B20">
-        <v>459</v>
+        <v>416</v>
       </c>
       <c r="C20">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="D20">
-        <v>1891.645935703628</v>
+        <v>1726.089529021354</v>
       </c>
       <c r="E20">
-        <v>1217</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45944.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
       <c r="B21">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="C21">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="D21">
-        <v>1924.581435661279</v>
+        <v>1766.117037262961</v>
       </c>
       <c r="E21">
-        <v>1216</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45944.21875</v>
+        <v>45947.21875</v>
       </c>
       <c r="B22">
-        <v>558</v>
+        <v>426</v>
       </c>
       <c r="C22">
-        <v>951</v>
+        <v>850</v>
       </c>
       <c r="D22">
-        <v>2066.584286663043</v>
+        <v>1863.583603003357</v>
       </c>
       <c r="E22">
-        <v>1509</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45944.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
       <c r="B23">
-        <v>560</v>
+        <v>425</v>
       </c>
       <c r="C23">
-        <v>974</v>
+        <v>852</v>
       </c>
       <c r="D23">
-        <v>2208.587137664807</v>
+        <v>1961.050168743753</v>
       </c>
       <c r="E23">
-        <v>1534</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45944.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
       <c r="B24">
-        <v>562</v>
+        <v>427</v>
       </c>
       <c r="C24">
-        <v>973</v>
+        <v>855</v>
       </c>
       <c r="D24">
-        <v>2350.589988666572</v>
+        <v>2058.51673448415</v>
       </c>
       <c r="E24">
-        <v>1535</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45944.25</v>
+        <v>45947.25</v>
       </c>
       <c r="B25">
-        <v>584</v>
+        <v>461</v>
       </c>
       <c r="C25">
-        <v>979</v>
+        <v>857</v>
       </c>
       <c r="D25">
-        <v>2492.592839668336</v>
+        <v>2155.983300224546</v>
       </c>
       <c r="E25">
-        <v>1563</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45944.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
       <c r="B26">
-        <v>651</v>
+        <v>754</v>
       </c>
       <c r="C26">
-        <v>1026</v>
+        <v>1118</v>
       </c>
       <c r="D26">
-        <v>2501.403124079945</v>
+        <v>2162.342922182254</v>
       </c>
       <c r="E26">
-        <v>1677</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45944.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
       <c r="B27">
-        <v>673</v>
+        <v>816</v>
       </c>
       <c r="C27">
-        <v>1020</v>
+        <v>1150</v>
       </c>
       <c r="D27">
-        <v>2510.213408491553</v>
+        <v>2168.702544139963</v>
       </c>
       <c r="E27">
-        <v>1693</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45944.28125</v>
+        <v>45947.28125</v>
       </c>
       <c r="B28">
-        <v>686</v>
+        <v>934</v>
       </c>
       <c r="C28">
-        <v>1023</v>
+        <v>1150</v>
       </c>
       <c r="D28">
-        <v>2519.023692903162</v>
+        <v>2175.062166097671</v>
       </c>
       <c r="E28">
-        <v>1709</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45944.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
       <c r="B29">
-        <v>676</v>
+        <v>889</v>
       </c>
       <c r="C29">
-        <v>1057</v>
+        <v>1148</v>
       </c>
       <c r="D29">
-        <v>2527.83397731477</v>
+        <v>2181.42178805538</v>
       </c>
       <c r="E29">
-        <v>1733</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45944.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
       <c r="B30">
-        <v>614</v>
+        <v>923</v>
       </c>
       <c r="C30">
-        <v>1079</v>
+        <v>1147</v>
       </c>
       <c r="D30">
-        <v>2456.817282690646</v>
+        <v>2117.873206092027</v>
       </c>
       <c r="E30">
-        <v>1693</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45944.3125</v>
+        <v>45947.3125</v>
       </c>
       <c r="B31">
-        <v>604</v>
+        <v>946</v>
       </c>
       <c r="C31">
-        <v>1084</v>
+        <v>1150</v>
       </c>
       <c r="D31">
-        <v>2385.800588066521</v>
+        <v>2054.324624128673</v>
       </c>
       <c r="E31">
-        <v>1688</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45944.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
       <c r="B32">
-        <v>597</v>
+        <v>977</v>
       </c>
       <c r="C32">
-        <v>1081</v>
+        <v>1155</v>
       </c>
       <c r="D32">
-        <v>2314.783893442395</v>
+        <v>1990.77604216532</v>
       </c>
       <c r="E32">
-        <v>1678</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45944.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
       <c r="B33">
-        <v>596</v>
+        <v>1147</v>
       </c>
       <c r="C33">
-        <v>1081</v>
+        <v>1152</v>
       </c>
       <c r="D33">
-        <v>2243.767198818271</v>
+        <v>1927.227460201967</v>
       </c>
       <c r="E33">
-        <v>1677</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45944.34375</v>
+        <v>45947.34375</v>
       </c>
       <c r="B34">
-        <v>493</v>
+        <v>910</v>
       </c>
       <c r="C34">
-        <v>1076</v>
+        <v>1043</v>
       </c>
       <c r="D34">
-        <v>2179.51472602028</v>
+        <v>1859.272398605025</v>
       </c>
       <c r="E34">
-        <v>1569</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45944.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
       <c r="B35">
-        <v>497</v>
+        <v>847</v>
       </c>
       <c r="C35">
-        <v>1067</v>
+        <v>1027</v>
       </c>
       <c r="D35">
-        <v>2115.26225322229</v>
+        <v>1791.317337008082</v>
       </c>
       <c r="E35">
-        <v>1564</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45944.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
       <c r="B36">
-        <v>500</v>
+        <v>814</v>
       </c>
       <c r="C36">
-        <v>1068</v>
+        <v>1022</v>
       </c>
       <c r="D36">
-        <v>2051.0097804243</v>
+        <v>1723.36227541114</v>
       </c>
       <c r="E36">
-        <v>1568</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45944.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B37">
-        <v>492</v>
+        <v>745</v>
       </c>
       <c r="C37">
-        <v>1068</v>
+        <v>1025</v>
       </c>
       <c r="D37">
-        <v>1986.75730762631</v>
+        <v>1655.407213814198</v>
       </c>
       <c r="E37">
-        <v>1560</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45944.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
       <c r="B38">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C38">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="D38">
-        <v>1907.220441941997</v>
+        <v>1596.003104587283</v>
       </c>
       <c r="E38">
-        <v>1446</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45944.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
       <c r="B39">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C39">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="D39">
-        <v>1827.683576257685</v>
+        <v>1536.598995360368</v>
       </c>
       <c r="E39">
-        <v>1431</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45944.40625</v>
+        <v>45947.40625</v>
       </c>
       <c r="B40">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C40">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="D40">
-        <v>1748.146710573373</v>
+        <v>1477.194886133454</v>
       </c>
       <c r="E40">
-        <v>1430</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45944.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
       <c r="B41">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C41">
-        <v>1022</v>
+        <v>994</v>
       </c>
       <c r="D41">
-        <v>1668.609844889061</v>
+        <v>1417.790776906539</v>
       </c>
       <c r="E41">
-        <v>1431</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45944.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
       <c r="B42">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="C42">
-        <v>978</v>
+        <v>890</v>
       </c>
       <c r="D42">
-        <v>1601.166125224978</v>
+        <v>1364.901111895508</v>
       </c>
       <c r="E42">
-        <v>1366</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45944.4375</v>
+        <v>45947.4375</v>
       </c>
       <c r="B43">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1533.722405560895</v>
+        <v>1312.011446884477</v>
       </c>
       <c r="E43">
-        <v>1365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45944.44791666666</v>
+        <v>45947.44791666666</v>
       </c>
       <c r="B44">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1466.278685896812</v>
+        <v>1259.121781873446</v>
       </c>
       <c r="E44">
-        <v>1361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45944.45833333334</v>
+        <v>45947.45833333334</v>
       </c>
       <c r="B45">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1398.834966232729</v>
+        <v>1206.232116862415</v>
       </c>
       <c r="E45">
-        <v>1359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45944.46875</v>
+        <v>45947.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1376.954311879462</v>
+        <v>1190.333061967157</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45944.47916666666</v>
+        <v>45947.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1355.073657526195</v>
+        <v>1174.434007071899</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45944.48958333334</v>
+        <v>45947.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1333.193003172928</v>
+        <v>1158.534952176641</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45944.5</v>
+        <v>45947.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1311.312348819661</v>
+        <v>1142.635897281383</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45944.51041666666</v>
+        <v>45947.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1328.184730578533</v>
+        <v>1162.286414567657</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45944.52083333334</v>
+        <v>45947.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1345.057112337405</v>
+        <v>1181.936931853931</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45944.53125</v>
+        <v>45947.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1361.929494096277</v>
+        <v>1201.587449140205</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45944.54166666666</v>
+        <v>45947.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1378.801875855149</v>
+        <v>1221.237966426479</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45944.55208333334</v>
+        <v>45947.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1423.525139358882</v>
+        <v>1254.46520474707</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45944.5625</v>
+        <v>45947.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1468.248402862615</v>
+        <v>1287.692443067662</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45944.57291666666</v>
+        <v>45947.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1512.971666366348</v>
+        <v>1320.919681388254</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45944.58333333334</v>
+        <v>45947.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1557.694929870082</v>
+        <v>1354.146919708846</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45944.59375</v>
+        <v>45947.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1594.921053605534</v>
+        <v>1391.030345184523</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45944.60416666666</v>
+        <v>45947.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1632.147177340986</v>
+        <v>1427.9137706602</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45944.61458333334</v>
+        <v>45947.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1669.373301076438</v>
+        <v>1464.797196135877</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45944.625</v>
+        <v>45947.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1706.59942481189</v>
+        <v>1501.680621611555</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45944.63541666666</v>
+        <v>45947.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1834.157684733491</v>
+        <v>1621.620233484716</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45944.64583333334</v>
+        <v>45947.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1961.715944655092</v>
+        <v>1741.559845357878</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45944.65625</v>
+        <v>45947.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2089.274204576693</v>
+        <v>1861.49945723104</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45944.66666666666</v>
+        <v>45947.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2216.832464498294</v>
+        <v>1981.439069104202</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45944.67708333334</v>
+        <v>45947.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2409.024925310899</v>
+        <v>2115.169771290794</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45944.6875</v>
+        <v>45947.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2601.217386123504</v>
+        <v>2248.900473477387</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45944.69791666666</v>
+        <v>45947.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2793.40984693611</v>
+        <v>2382.63117566398</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45944.70833333334</v>
+        <v>45947.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2985.602307748715</v>
+        <v>2516.361877850572</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45944.71875</v>
+        <v>45947.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>3067.536425864142</v>
+        <v>2565.53580868345</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45944.72916666666</v>
+        <v>45947.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>3149.470543979569</v>
+        <v>2614.709739516328</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45944.73958333334</v>
+        <v>45947.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>3231.404662094996</v>
+        <v>2663.883670349207</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45944.75</v>
+        <v>45947.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>3313.338780210423</v>
+        <v>2713.057601182084</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45944.76041666666</v>
+        <v>45947.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>3309.658921383736</v>
+        <v>2711.914298358321</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45944.77083333334</v>
+        <v>45947.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3305.979062557049</v>
+        <v>2710.770995534557</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45944.78125</v>
+        <v>45947.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3302.299203730363</v>
+        <v>2709.627692710793</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45944.79166666666</v>
+        <v>45947.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3298.619344903676</v>
+        <v>2708.484389887029</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45944.80208333334</v>
+        <v>45947.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3287.01481084298</v>
+        <v>2700.064440964971</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45944.8125</v>
+        <v>45947.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>3275.410276782283</v>
+        <v>2691.644492042913</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45944.82291666666</v>
+        <v>45947.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>3263.805742721586</v>
+        <v>2683.224543120855</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45944.83333333334</v>
+        <v>45947.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3252.20120866089</v>
+        <v>2674.804594198797</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45944.84375</v>
+        <v>45947.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>3179.947715011441</v>
+        <v>2632.252292220702</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45944.85416666666</v>
+        <v>45947.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>3107.694221361993</v>
+        <v>2589.699990242607</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45944.86458333334</v>
+        <v>45947.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>3035.440727712544</v>
+        <v>2547.147688264512</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45944.875</v>
+        <v>45947.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2963.187234063096</v>
+        <v>2504.595386286416</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45944.88541666666</v>
+        <v>45947.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2853.051044356239</v>
+        <v>2434.496631894424</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45944.89583333334</v>
+        <v>45947.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2742.914854649383</v>
+        <v>2364.397877502432</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45944.90625</v>
+        <v>45947.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2632.778664942526</v>
+        <v>2294.299123110441</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45944.91666666666</v>
+        <v>45947.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2522.642475235669</v>
+        <v>2224.200368718449</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45944.92708333334</v>
+        <v>45947.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2448.54141761069</v>
+        <v>2149.302124346453</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45944.9375</v>
+        <v>45947.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2374.440359985711</v>
+        <v>2074.403879974457</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45944.94791666666</v>
+        <v>45947.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2300.339302360733</v>
+        <v>1999.50563560246</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45944.95833333334</v>
+        <v>45947.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2226.238244735754</v>
+        <v>1924.607391230464</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45944.96875</v>
+        <v>45947.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2124.438038586277</v>
+        <v>1852.721758849281</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45944.97916666666</v>
+        <v>45947.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2022.637832436801</v>
+        <v>1780.836126468098</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45944.98958333334</v>
+        <v>45947.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1920.837626287324</v>
+        <v>1708.950494086915</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45945</v>
+        <v>45948</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1819.037420137848</v>
+        <v>1637.064861705732</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C2">
-        <v>844</v>
+        <v>387</v>
       </c>
       <c r="D2">
-        <v>1677.284789725445</v>
+        <v>1245.676062261438</v>
       </c>
       <c r="E2">
-        <v>1245</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B3">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>350</v>
       </c>
       <c r="D3">
-        <v>1662.338487183461</v>
+        <v>1207.604973436823</v>
       </c>
       <c r="E3">
-        <v>1231</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B4">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C4">
-        <v>836</v>
+        <v>352</v>
       </c>
       <c r="D4">
-        <v>1647.392184641476</v>
+        <v>1169.533884612208</v>
       </c>
       <c r="E4">
-        <v>1232</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B5">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C5">
-        <v>835</v>
+        <v>351</v>
       </c>
       <c r="D5">
-        <v>1632.445882099492</v>
+        <v>1131.462795787594</v>
       </c>
       <c r="E5">
-        <v>1230</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C6">
-        <v>832</v>
+        <v>340</v>
       </c>
       <c r="D6">
-        <v>1621.703599316329</v>
+        <v>1125.505106315039</v>
       </c>
       <c r="E6">
-        <v>1232</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B7">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C7">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1610.961316533166</v>
+        <v>1119.547416842485</v>
       </c>
       <c r="E7">
-        <v>1228</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B8">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1600.219033750003</v>
+        <v>1113.589727369931</v>
       </c>
       <c r="E8">
-        <v>1227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B9">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C9">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1589.47675096684</v>
+        <v>1107.632037897377</v>
       </c>
       <c r="E9">
-        <v>1228</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B10">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C10">
-        <v>798</v>
+        <v>338</v>
       </c>
       <c r="D10">
-        <v>1588.988465385787</v>
+        <v>1107.66317564715</v>
       </c>
       <c r="E10">
-        <v>1198</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B11">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C11">
-        <v>788</v>
+        <v>337</v>
       </c>
       <c r="D11">
-        <v>1588.500179804734</v>
+        <v>1107.694313396922</v>
       </c>
       <c r="E11">
-        <v>1188</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>789</v>
+        <v>366</v>
       </c>
       <c r="D12">
-        <v>1588.011894223681</v>
+        <v>1107.725451146695</v>
       </c>
       <c r="E12">
-        <v>1189</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B13">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C13">
-        <v>788</v>
+        <v>376</v>
       </c>
       <c r="D13">
-        <v>1587.523608642628</v>
+        <v>1107.756588896468</v>
       </c>
       <c r="E13">
-        <v>1187</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B14">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C14">
-        <v>785</v>
+        <v>408</v>
       </c>
       <c r="D14">
-        <v>1592.144457556104</v>
+        <v>1112.00170212691</v>
       </c>
       <c r="E14">
-        <v>1186</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B15">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C15">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1596.76530646958</v>
+        <v>1116.246815357352</v>
       </c>
       <c r="E15">
-        <v>1189</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B16">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16">
-        <v>793</v>
+        <v>406</v>
       </c>
       <c r="D16">
-        <v>1601.386155383056</v>
+        <v>1120.491928587795</v>
       </c>
       <c r="E16">
-        <v>1193</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B17">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C17">
-        <v>794</v>
+        <v>370</v>
       </c>
       <c r="D17">
-        <v>1606.007004296532</v>
+        <v>1124.737041818237</v>
       </c>
       <c r="E17">
-        <v>1196</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B18">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C18">
-        <v>787</v>
+        <v>372</v>
       </c>
       <c r="D18">
-        <v>1646.034512538139</v>
+        <v>1208.964655180304</v>
       </c>
       <c r="E18">
-        <v>1202</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B19">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C19">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1686.062020779746</v>
+        <v>1293.19226854237</v>
       </c>
       <c r="E19">
-        <v>1201</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B20">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C20">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1726.089529021354</v>
+        <v>1377.419881904437</v>
       </c>
       <c r="E20">
-        <v>1203</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B21">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C21">
-        <v>785</v>
+        <v>374</v>
       </c>
       <c r="D21">
-        <v>1766.117037262961</v>
+        <v>1461.647495266503</v>
       </c>
       <c r="E21">
-        <v>1203</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B22">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C22">
-        <v>850</v>
+        <v>341</v>
       </c>
       <c r="D22">
-        <v>1863.583603003357</v>
+        <v>1586.406079691619</v>
       </c>
       <c r="E22">
-        <v>1276</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B23">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C23">
-        <v>852</v>
+        <v>327</v>
       </c>
       <c r="D23">
-        <v>1961.050168743753</v>
+        <v>1711.164664116735</v>
       </c>
       <c r="E23">
-        <v>1277</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B24">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C24">
-        <v>855</v>
+        <v>333</v>
       </c>
       <c r="D24">
-        <v>2058.51673448415</v>
+        <v>1835.92324854185</v>
       </c>
       <c r="E24">
-        <v>1282</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B25">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C25">
-        <v>857</v>
+        <v>340</v>
       </c>
       <c r="D25">
-        <v>2155.983300224546</v>
+        <v>1960.681832966966</v>
       </c>
       <c r="E25">
-        <v>1318</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B26">
-        <v>754</v>
+        <v>623</v>
       </c>
       <c r="C26">
-        <v>1118</v>
+        <v>906</v>
       </c>
       <c r="D26">
-        <v>2162.342922182254</v>
+        <v>1982.903807114587</v>
       </c>
       <c r="E26">
-        <v>1872</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B27">
-        <v>816</v>
+        <v>624</v>
       </c>
       <c r="C27">
-        <v>1150</v>
+        <v>943</v>
       </c>
       <c r="D27">
-        <v>2168.702544139963</v>
+        <v>2005.125781262209</v>
       </c>
       <c r="E27">
-        <v>1966</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B28">
-        <v>934</v>
+        <v>629</v>
       </c>
       <c r="C28">
-        <v>1150</v>
+        <v>941</v>
       </c>
       <c r="D28">
-        <v>2175.062166097671</v>
+        <v>2027.34775540983</v>
       </c>
       <c r="E28">
-        <v>2084</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B29">
-        <v>889</v>
+        <v>634</v>
       </c>
       <c r="C29">
-        <v>1148</v>
+        <v>937</v>
       </c>
       <c r="D29">
-        <v>2181.42178805538</v>
+        <v>2049.569729557451</v>
       </c>
       <c r="E29">
-        <v>2037</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B30">
-        <v>923</v>
+        <v>587</v>
       </c>
       <c r="C30">
-        <v>1147</v>
+        <v>952</v>
       </c>
       <c r="D30">
-        <v>2117.873206092027</v>
+        <v>1946.275434033461</v>
       </c>
       <c r="E30">
-        <v>2070</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B31">
-        <v>946</v>
+        <v>572</v>
       </c>
       <c r="C31">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="D31">
-        <v>2054.324624128673</v>
+        <v>1842.981138509471</v>
       </c>
       <c r="E31">
-        <v>2096</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45947.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
       <c r="B32">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1990.77604216532</v>
+        <v>1739.686842985481</v>
       </c>
       <c r="E32">
-        <v>2132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45947.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
       <c r="B33">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1927.227460201967</v>
+        <v>1636.39254746149</v>
       </c>
       <c r="E33">
-        <v>2299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45947.34375</v>
+        <v>45954.34375</v>
       </c>
       <c r="B34">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1859.272398605025</v>
+        <v>1557.676315824119</v>
       </c>
       <c r="E34">
-        <v>1953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45947.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
       <c r="B35">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1791.317337008082</v>
+        <v>1478.960084186748</v>
       </c>
       <c r="E35">
-        <v>1874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45947.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
       <c r="B36">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1723.36227541114</v>
+        <v>1400.243852549377</v>
       </c>
       <c r="E36">
-        <v>1836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45947.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B37">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1655.407213814198</v>
+        <v>1321.527620912006</v>
       </c>
       <c r="E37">
-        <v>1770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45947.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
       <c r="B38">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1596.003104587283</v>
+        <v>1238.99182529223</v>
       </c>
       <c r="E38">
-        <v>1481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45947.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
       <c r="B39">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1536.598995360368</v>
+        <v>1156.456029672455</v>
       </c>
       <c r="E39">
-        <v>1470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45947.40625</v>
+        <v>45954.40625</v>
       </c>
       <c r="B40">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1477.194886133454</v>
+        <v>1073.92023405268</v>
       </c>
       <c r="E40">
-        <v>1375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
       <c r="B41">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1417.790776906539</v>
+        <v>991.3844384329045</v>
       </c>
       <c r="E41">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45947.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
       <c r="B42">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1364.901111895508</v>
+        <v>969.9720457814783</v>
       </c>
       <c r="E42">
-        <v>1178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45947.4375</v>
+        <v>45954.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1312.011446884477</v>
+        <v>948.559653130052</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45947.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1259.121781873446</v>
+        <v>927.1472604786256</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45947.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1206.232116862415</v>
+        <v>905.7348678271994</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45947.46875</v>
+        <v>45954.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1190.333061967157</v>
+        <v>882.7759669330347</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45947.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1174.434007071899</v>
+        <v>859.8170660388701</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45947.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1158.534952176641</v>
+        <v>836.8581651447053</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45947.5</v>
+        <v>45954.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1142.635897281383</v>
+        <v>813.8992642505406</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45947.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1162.286414567657</v>
+        <v>812.020620009073</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45947.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1181.936931853931</v>
+        <v>810.1419757676053</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45947.53125</v>
+        <v>45954.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1201.587449140205</v>
+        <v>808.2633315261378</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45947.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1221.237966426479</v>
+        <v>806.3846872846702</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45947.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1254.46520474707</v>
+        <v>831.4298174194835</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45947.5625</v>
+        <v>45954.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1287.692443067662</v>
+        <v>856.4749475542967</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45947.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1320.919681388254</v>
+        <v>881.5200776891099</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45947.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1354.146919708846</v>
+        <v>906.5652078239232</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45947.59375</v>
+        <v>45954.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1391.030345184523</v>
+        <v>975.08901600818</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45947.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1427.9137706602</v>
+        <v>1043.612824192437</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45947.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1464.797196135877</v>
+        <v>1112.136632376694</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45947.625</v>
+        <v>45954.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1501.680621611555</v>
+        <v>1180.660440560951</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45947.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1621.620233484716</v>
+        <v>1304.640581239674</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45947.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1741.559845357878</v>
+        <v>1428.620721918397</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45947.65625</v>
+        <v>45954.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1861.49945723104</v>
+        <v>1552.60086259712</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45947.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1981.439069104202</v>
+        <v>1676.581003275843</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45947.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2115.169771290794</v>
+        <v>1802.917233693801</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45947.6875</v>
+        <v>45954.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2248.900473477387</v>
+        <v>1929.253464111759</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45947.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2382.63117566398</v>
+        <v>2055.589694529717</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45947.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2516.361877850572</v>
+        <v>2181.925924947675</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45947.71875</v>
+        <v>45954.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2565.53580868345</v>
+        <v>2218.02495628154</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45947.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2614.709739516328</v>
+        <v>2254.123987615404</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45947.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2663.883670349207</v>
+        <v>2290.223018949268</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45947.75</v>
+        <v>45954.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2713.057601182084</v>
+        <v>2326.322050283133</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45947.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2711.914298358321</v>
+        <v>2325.46057253675</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45947.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2710.770995534557</v>
+        <v>2324.599094790367</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45947.78125</v>
+        <v>45954.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2709.627692710793</v>
+        <v>2323.737617043984</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45947.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2708.484389887029</v>
+        <v>2322.876139297601</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45947.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2700.064440964971</v>
+        <v>2308.916048112435</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45947.8125</v>
+        <v>45954.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2691.644492042913</v>
+        <v>2294.95595692727</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45947.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2683.224543120855</v>
+        <v>2280.995865742104</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45947.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2674.804594198797</v>
+        <v>2267.035774556939</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45947.84375</v>
+        <v>45954.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2632.252292220702</v>
+        <v>2242.042540671741</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45947.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2589.699990242607</v>
+        <v>2217.049306786545</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45947.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2547.147688264512</v>
+        <v>2192.056072901347</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45947.875</v>
+        <v>45954.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2504.595386286416</v>
+        <v>2167.06283901615</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45947.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2434.496631894424</v>
+        <v>2072.092701953686</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45947.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2364.397877502432</v>
+        <v>1977.122564891222</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45947.90625</v>
+        <v>45954.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2294.299123110441</v>
+        <v>1882.152427828757</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45947.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2224.200368718449</v>
+        <v>1787.182290766293</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45947.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2149.302124346453</v>
+        <v>1722.083635066324</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45947.9375</v>
+        <v>45954.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2074.403879974457</v>
+        <v>1656.984979366355</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45947.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1999.50563560246</v>
+        <v>1591.886323666386</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45947.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1924.607391230464</v>
+        <v>1526.787667966416</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45947.96875</v>
+        <v>45954.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1852.721758849281</v>
+        <v>1458.973823689961</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45947.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1780.836126468098</v>
+        <v>1391.159979413506</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45947.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1708.950494086915</v>
+        <v>1323.346135137051</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45948</v>
+        <v>45955</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1637.064861705732</v>
+        <v>1255.532290860595</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,517 +415,517 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B2">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="C2">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="D2">
-        <v>1245.676062261438</v>
+        <v>1320.867530735552</v>
       </c>
       <c r="E2">
-        <v>796</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B3">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="C3">
-        <v>350</v>
+        <v>554</v>
       </c>
       <c r="D3">
-        <v>1207.604973436823</v>
+        <v>1298.723940803965</v>
       </c>
       <c r="E3">
-        <v>753</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B4">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="C4">
-        <v>352</v>
+        <v>573</v>
       </c>
       <c r="D4">
-        <v>1169.533884612208</v>
+        <v>1276.580350872378</v>
       </c>
       <c r="E4">
-        <v>756</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B5">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="C5">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1131.462795787594</v>
+        <v>1254.436760940792</v>
       </c>
       <c r="E5">
-        <v>754</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B6">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>588</v>
       </c>
       <c r="D6">
-        <v>1125.505106315039</v>
+        <v>1255.393287503711</v>
       </c>
       <c r="E6">
-        <v>744</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B7">
-        <v>403</v>
+        <v>329</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="D7">
-        <v>1119.547416842485</v>
+        <v>1256.349814066631</v>
       </c>
       <c r="E7">
-        <v>403</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D8">
-        <v>1113.589727369931</v>
+        <v>1257.306340629551</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B9">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="D9">
-        <v>1107.632037897377</v>
+        <v>1258.26286719247</v>
       </c>
       <c r="E9">
-        <v>401</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B10">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>338</v>
+        <v>594</v>
       </c>
       <c r="D10">
-        <v>1107.66317564715</v>
+        <v>1264.085722644411</v>
       </c>
       <c r="E10">
-        <v>741</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B11">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="C11">
-        <v>337</v>
+        <v>592</v>
       </c>
       <c r="D11">
-        <v>1107.694313396922</v>
+        <v>1269.908578096352</v>
       </c>
       <c r="E11">
-        <v>739</v>
+        <v>919</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="C12">
-        <v>366</v>
+        <v>593</v>
       </c>
       <c r="D12">
-        <v>1107.725451146695</v>
+        <v>1275.731433548294</v>
       </c>
       <c r="E12">
-        <v>366</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B13">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="C13">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1107.756588896468</v>
+        <v>1281.554289000235</v>
       </c>
       <c r="E13">
-        <v>776</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B14">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="C14">
-        <v>408</v>
+        <v>589</v>
       </c>
       <c r="D14">
-        <v>1112.00170212691</v>
+        <v>1294.897834552793</v>
       </c>
       <c r="E14">
-        <v>810</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B15">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1116.246815357352</v>
+        <v>1308.241380105352</v>
       </c>
       <c r="E15">
-        <v>401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B16">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="C16">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1120.491928587795</v>
+        <v>1321.58492565791</v>
       </c>
       <c r="E16">
-        <v>805</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B17">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="C17">
-        <v>370</v>
+        <v>590</v>
       </c>
       <c r="D17">
-        <v>1124.737041818237</v>
+        <v>1334.928471210469</v>
       </c>
       <c r="E17">
-        <v>771</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B18">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="C18">
-        <v>372</v>
+        <v>598</v>
       </c>
       <c r="D18">
-        <v>1208.964655180304</v>
+        <v>1377.792817811299</v>
       </c>
       <c r="E18">
-        <v>777</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B19">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1293.19226854237</v>
+        <v>1420.65716441213</v>
       </c>
       <c r="E19">
-        <v>404</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B20">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1377.419881904437</v>
+        <v>1463.52151101296</v>
       </c>
       <c r="E20">
-        <v>405</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B21">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="C21">
-        <v>374</v>
+        <v>599</v>
       </c>
       <c r="D21">
-        <v>1461.647495266503</v>
+        <v>1506.385857613791</v>
       </c>
       <c r="E21">
-        <v>782</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B22">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="C22">
-        <v>341</v>
+        <v>670</v>
       </c>
       <c r="D22">
-        <v>1586.406079691619</v>
+        <v>1568.189430160774</v>
       </c>
       <c r="E22">
-        <v>777</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B23">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="C23">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="D23">
-        <v>1711.164664116735</v>
+        <v>1629.993002707757</v>
       </c>
       <c r="E23">
-        <v>768</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B24">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1835.92324854185</v>
+        <v>1691.79657525474</v>
       </c>
       <c r="E24">
-        <v>778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B25">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>340</v>
+        <v>679</v>
       </c>
       <c r="D25">
-        <v>1960.681832966966</v>
+        <v>1753.600147801724</v>
       </c>
       <c r="E25">
-        <v>808</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B26">
-        <v>623</v>
+        <v>483</v>
       </c>
       <c r="C26">
-        <v>906</v>
+        <v>714</v>
       </c>
       <c r="D26">
-        <v>1982.903807114587</v>
+        <v>1750.718611530582</v>
       </c>
       <c r="E26">
-        <v>1529</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B27">
-        <v>624</v>
+        <v>433</v>
       </c>
       <c r="C27">
-        <v>943</v>
+        <v>711</v>
       </c>
       <c r="D27">
-        <v>2005.125781262209</v>
+        <v>1747.837075259441</v>
       </c>
       <c r="E27">
-        <v>1567</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B28">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>941</v>
+        <v>650</v>
       </c>
       <c r="D28">
-        <v>2027.34775540983</v>
+        <v>1744.955538988299</v>
       </c>
       <c r="E28">
-        <v>1570</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B29">
-        <v>634</v>
+        <v>436</v>
       </c>
       <c r="C29">
-        <v>937</v>
+        <v>648</v>
       </c>
       <c r="D29">
-        <v>2049.569729557451</v>
+        <v>1742.074002717158</v>
       </c>
       <c r="E29">
-        <v>1571</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B30">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C30">
-        <v>952</v>
+        <v>807</v>
       </c>
       <c r="D30">
-        <v>1946.275434033461</v>
+        <v>1689.871565545927</v>
       </c>
       <c r="E30">
-        <v>1539</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B31">
-        <v>572</v>
+        <v>518</v>
       </c>
       <c r="C31">
-        <v>950</v>
+        <v>772</v>
       </c>
       <c r="D31">
-        <v>1842.981138509471</v>
+        <v>1637.669128374695</v>
       </c>
       <c r="E31">
-        <v>1522</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1739.686842985481</v>
+        <v>1585.466691203464</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1636.39254746149</v>
+        <v>1533.264254032233</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1557.676315824119</v>
+        <v>1478.03680160574</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1478.960084186748</v>
+        <v>1422.809349179246</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1400.243852549377</v>
+        <v>1367.581896752753</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1321.527620912006</v>
+        <v>1312.354444326259</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1238.99182529223</v>
+        <v>1270.04010049886</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1156.456029672455</v>
+        <v>1227.72575667146</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1073.92023405268</v>
+        <v>1185.41141284406</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>991.3844384329045</v>
+        <v>1143.09706901666</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>969.9720457814783</v>
+        <v>1136.401383076299</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>948.559653130052</v>
+        <v>1129.705697135937</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>927.1472604786256</v>
+        <v>1123.010011195576</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>905.7348678271994</v>
+        <v>1116.314325255214</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>882.7759669330347</v>
+        <v>1118.825207482878</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>859.8170660388701</v>
+        <v>1121.336089710542</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>836.8581651447053</v>
+        <v>1123.846971938206</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>813.8992642505406</v>
+        <v>1126.357854165869</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>812.020620009073</v>
+        <v>1162.406949006066</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>810.1419757676053</v>
+        <v>1198.456043846262</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>808.2633315261378</v>
+        <v>1234.505138686458</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>806.3846872846702</v>
+        <v>1270.554233526655</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>831.4298174194835</v>
+        <v>1346.394833383968</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>856.4749475542967</v>
+        <v>1422.235433241281</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>881.5200776891099</v>
+        <v>1498.076033098595</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>906.5652078239232</v>
+        <v>1573.916632955908</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>975.08901600818</v>
+        <v>1674.782359016031</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1043.612824192437</v>
+        <v>1775.648085076154</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1112.136632376694</v>
+        <v>1876.513811136276</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1180.660440560951</v>
+        <v>1977.379537196399</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1304.640581239674</v>
+        <v>2067.938689540852</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1428.620721918397</v>
+        <v>2158.497841885304</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1552.60086259712</v>
+        <v>2249.056994229757</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1676.581003275843</v>
+        <v>2339.616146574209</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1802.917233693801</v>
+        <v>2418.876328893818</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1929.253464111759</v>
+        <v>2498.136511213428</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2055.589694529717</v>
+        <v>2577.396693533038</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2181.925924947675</v>
+        <v>2656.656875852648</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2218.02495628154</v>
+        <v>2663.017777496063</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2254.123987615404</v>
+        <v>2669.378679139477</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2290.223018949268</v>
+        <v>2675.739580782892</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2326.322050283133</v>
+        <v>2682.100482426307</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2325.46057253675</v>
+        <v>2676.731977092096</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2324.599094790367</v>
+        <v>2671.363471757886</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2323.737617043984</v>
+        <v>2665.994966423675</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2322.876139297601</v>
+        <v>2660.626461089465</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2308.916048112435</v>
+        <v>2644.66442407057</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2294.95595692727</v>
+        <v>2628.702387051675</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2280.995865742104</v>
+        <v>2612.740350032781</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2267.035774556939</v>
+        <v>2596.778313013886</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2242.042540671741</v>
+        <v>2542.614996388726</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2217.049306786545</v>
+        <v>2488.451679763565</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2192.056072901347</v>
+        <v>2434.288363138405</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2167.06283901615</v>
+        <v>2380.125046513244</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2072.092701953686</v>
+        <v>2274.572340295049</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1977.122564891222</v>
+        <v>2169.019634076853</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1882.152427828757</v>
+        <v>2063.466927858657</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1787.182290766293</v>
+        <v>1957.914221640462</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1722.083635066324</v>
+        <v>1877.936644398441</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1656.984979366355</v>
+        <v>1797.95906715642</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1591.886323666386</v>
+        <v>1717.981489914399</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1526.787667966416</v>
+        <v>1638.003912672378</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1458.973823689961</v>
+        <v>1547.997913566391</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1391.159979413506</v>
+        <v>1457.991914460403</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1323.346135137051</v>
+        <v>1367.985915354416</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1255.532290860595</v>
+        <v>1277.979916248429</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,517 +415,517 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="C2">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="D2">
-        <v>1320.867530735552</v>
+        <v>1193.719710499777</v>
       </c>
       <c r="E2">
-        <v>900</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B3">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="C3">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="D3">
-        <v>1298.723940803965</v>
+        <v>1182.227931197204</v>
       </c>
       <c r="E3">
-        <v>883</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1276.580350872378</v>
+        <v>1170.736151894632</v>
       </c>
       <c r="E4">
-        <v>901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D5">
-        <v>1254.436760940792</v>
+        <v>1159.244372592059</v>
       </c>
       <c r="E5">
-        <v>326</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B6">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C6">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="D6">
-        <v>1255.393287503711</v>
+        <v>1160.447000658608</v>
       </c>
       <c r="E6">
-        <v>916</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B7">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="C7">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="D7">
-        <v>1256.349814066631</v>
+        <v>1161.649628725156</v>
       </c>
       <c r="E7">
-        <v>918</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B8">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1257.306340629551</v>
+        <v>1162.852256791704</v>
       </c>
       <c r="E8">
-        <v>920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B9">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C9">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1258.26286719247</v>
+        <v>1164.054884858253</v>
       </c>
       <c r="E9">
-        <v>916</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="C10">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="D10">
-        <v>1264.085722644411</v>
+        <v>1168.163864085708</v>
       </c>
       <c r="E10">
-        <v>594</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B11">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="C11">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D11">
-        <v>1269.908578096352</v>
+        <v>1172.272843313164</v>
       </c>
       <c r="E11">
-        <v>919</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B12">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C12">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D12">
-        <v>1275.731433548294</v>
+        <v>1176.381822540619</v>
       </c>
       <c r="E12">
-        <v>921</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B13">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D13">
-        <v>1281.554289000235</v>
+        <v>1180.490801768075</v>
       </c>
       <c r="E13">
-        <v>326</v>
+        <v>949</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B14">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="D14">
-        <v>1294.897834552793</v>
+        <v>1193.196344582174</v>
       </c>
       <c r="E14">
-        <v>916</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="D15">
-        <v>1308.241380105352</v>
+        <v>1205.901887396273</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B16">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1321.58492565791</v>
+        <v>1218.607430210372</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B17">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C17">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1334.928471210469</v>
+        <v>1231.312973024471</v>
       </c>
       <c r="E17">
-        <v>917</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B18">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C18">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="D18">
-        <v>1377.792817811299</v>
+        <v>1276.611963531222</v>
       </c>
       <c r="E18">
-        <v>924</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B19">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1420.65716441213</v>
+        <v>1321.910954037972</v>
       </c>
       <c r="E19">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B20">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1463.52151101296</v>
+        <v>1367.209944544723</v>
       </c>
       <c r="E20">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B21">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C21">
-        <v>599</v>
+        <v>651</v>
       </c>
       <c r="D21">
-        <v>1506.385857613791</v>
+        <v>1412.508935051473</v>
       </c>
       <c r="E21">
-        <v>910</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B22">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C22">
-        <v>670</v>
+        <v>729</v>
       </c>
       <c r="D22">
-        <v>1568.189430160774</v>
+        <v>1476.047784567342</v>
       </c>
       <c r="E22">
-        <v>1006</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B23">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C23">
-        <v>674</v>
+        <v>740</v>
       </c>
       <c r="D23">
-        <v>1629.993002707757</v>
+        <v>1539.586634083211</v>
       </c>
       <c r="E23">
-        <v>1014</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="D24">
-        <v>1691.79657525474</v>
+        <v>1603.12548359908</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="C25">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="D25">
-        <v>1753.600147801724</v>
+        <v>1666.664333114949</v>
       </c>
       <c r="E25">
-        <v>679</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B26">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="C26">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="D26">
-        <v>1750.718611530582</v>
+        <v>1673.724205283509</v>
       </c>
       <c r="E26">
-        <v>1197</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B27">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C27">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D27">
-        <v>1747.837075259441</v>
+        <v>1680.784077452068</v>
       </c>
       <c r="E27">
-        <v>1144</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="C28">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1744.955538988299</v>
+        <v>1687.843949620627</v>
       </c>
       <c r="E28">
-        <v>650</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B29">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="C29">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1742.074002717158</v>
+        <v>1694.903821789186</v>
       </c>
       <c r="E29">
-        <v>1084</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B30">
-        <v>580</v>
+        <v>407</v>
       </c>
       <c r="C30">
-        <v>807</v>
+        <v>674</v>
       </c>
       <c r="D30">
-        <v>1689.871565545927</v>
+        <v>1648.591505781793</v>
       </c>
       <c r="E30">
-        <v>1387</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B31">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="C31">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="D31">
-        <v>1637.669128374695</v>
+        <v>1602.2791897744</v>
       </c>
       <c r="E31">
-        <v>1290</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1585.466691203464</v>
+        <v>1555.966873767007</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1533.264254032233</v>
+        <v>1509.654557759614</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1478.03680160574</v>
+        <v>1452.874923395734</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1422.809349179246</v>
+        <v>1396.095289031854</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1367.581896752753</v>
+        <v>1339.315654667975</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1312.354444326259</v>
+        <v>1282.536020304095</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1270.04010049886</v>
+        <v>1245.755645268648</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1227.72575667146</v>
+        <v>1208.9752702332</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1185.41141284406</v>
+        <v>1172.194895197753</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1143.09706901666</v>
+        <v>1135.414520162306</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1136.401383076299</v>
+        <v>1121.294775825424</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1129.705697135937</v>
+        <v>1107.175031488543</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1123.010011195576</v>
+        <v>1093.055287151661</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1116.314325255214</v>
+        <v>1078.93554281478</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1118.825207482878</v>
+        <v>1076.151681549696</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1121.336089710542</v>
+        <v>1073.367820284612</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1123.846971938206</v>
+        <v>1070.583959019529</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1126.357854165869</v>
+        <v>1067.800097754445</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1162.406949006066</v>
+        <v>1101.106213930638</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1198.456043846262</v>
+        <v>1134.412330106831</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1234.505138686458</v>
+        <v>1167.718446283024</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1270.554233526655</v>
+        <v>1201.024562459217</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1346.394833383968</v>
+        <v>1282.168550616234</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1422.235433241281</v>
+        <v>1363.312538773251</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1498.076033098595</v>
+        <v>1444.456526930268</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1573.916632955908</v>
+        <v>1525.600515087285</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1674.782359016031</v>
+        <v>1627.378482941627</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1775.648085076154</v>
+        <v>1729.156450795969</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1876.513811136276</v>
+        <v>1830.934418650311</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1977.379537196399</v>
+        <v>1932.712386504653</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2067.938689540852</v>
+        <v>2005.159592068857</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2158.497841885304</v>
+        <v>2077.606797633061</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2249.056994229757</v>
+        <v>2150.054003197265</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2339.616146574209</v>
+        <v>2222.501208761469</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2418.876328893818</v>
+        <v>2291.663458032881</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2498.136511213428</v>
+        <v>2360.825707304294</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2577.396693533038</v>
+        <v>2429.987956575707</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2656.656875852648</v>
+        <v>2499.15020584712</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2663.017777496063</v>
+        <v>2503.593248426661</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2669.378679139477</v>
+        <v>2508.036291006203</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2675.739580782892</v>
+        <v>2512.479333585745</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2682.100482426307</v>
+        <v>2516.922376165287</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2676.731977092096</v>
+        <v>2511.699852431849</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2671.363471757886</v>
+        <v>2506.477328698411</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2665.994966423675</v>
+        <v>2501.254804964973</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2660.626461089465</v>
+        <v>2496.032281231535</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2644.66442407057</v>
+        <v>2480.464929036597</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2628.702387051675</v>
+        <v>2464.897576841659</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2612.740350032781</v>
+        <v>2449.330224646721</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2596.778313013886</v>
+        <v>2433.762872451784</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2542.614996388726</v>
+        <v>2381.626718678059</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2488.451679763565</v>
+        <v>2329.490564904333</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2434.288363138405</v>
+        <v>2277.354411130608</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2380.125046513244</v>
+        <v>2225.218257356883</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2274.572340295049</v>
+        <v>2108.496522231181</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2169.019634076853</v>
+        <v>1991.774787105479</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2063.466927858657</v>
+        <v>1875.053051979776</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1957.914221640462</v>
+        <v>1758.331316854074</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1877.936644398441</v>
+        <v>1704.469169095796</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1797.95906715642</v>
+        <v>1650.607021337518</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1717.981489914399</v>
+        <v>1596.74487357924</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1638.003912672378</v>
+        <v>1542.882725820961</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1547.997913566391</v>
+        <v>1489.183976573107</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1457.991914460403</v>
+        <v>1435.485227325253</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1367.985915354416</v>
+        <v>1381.786478077399</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1277.979916248429</v>
+        <v>1328.087728829545</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,993 +415,993 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45970.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C2">
-        <v>627</v>
+        <v>738</v>
       </c>
       <c r="D2">
-        <v>1193.719710499777</v>
+        <v>1292.777311250907</v>
       </c>
       <c r="E2">
-        <v>1005</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45970.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B3">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C3">
-        <v>614</v>
+        <v>768</v>
       </c>
       <c r="D3">
-        <v>1182.227931197204</v>
+        <v>1281.130236111928</v>
       </c>
       <c r="E3">
-        <v>991</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45970.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="D4">
-        <v>1170.736151894632</v>
+        <v>1269.483160972948</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45970.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B5">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C5">
-        <v>613</v>
+        <v>736</v>
       </c>
       <c r="D5">
-        <v>1159.244372592059</v>
+        <v>1257.836085833968</v>
       </c>
       <c r="E5">
-        <v>981</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45970.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B6">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C6">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="D6">
-        <v>1160.447000658608</v>
+        <v>1259.000793347866</v>
       </c>
       <c r="E6">
-        <v>989</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45970.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B7">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C7">
-        <v>632</v>
+        <v>699</v>
       </c>
       <c r="D7">
-        <v>1161.649628725156</v>
+        <v>1260.165500861764</v>
       </c>
       <c r="E7">
-        <v>989</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45970.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1162.852256791704</v>
+        <v>1261.330208375662</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45970.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B9">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1164.054884858253</v>
+        <v>1262.49491588956</v>
       </c>
       <c r="E9">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45970.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B10">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="D10">
-        <v>1168.163864085708</v>
+        <v>1266.985643829744</v>
       </c>
       <c r="E10">
-        <v>997</v>
+        <v>713</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45970.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B11">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C11">
-        <v>591</v>
+        <v>714</v>
       </c>
       <c r="D11">
-        <v>1172.272843313164</v>
+        <v>1271.476371769928</v>
       </c>
       <c r="E11">
-        <v>950</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45970.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B12">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C12">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="D12">
-        <v>1176.381822540619</v>
+        <v>1275.967099710112</v>
       </c>
       <c r="E12">
-        <v>949</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45970.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B13">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1180.490801768075</v>
+        <v>1280.457827650296</v>
       </c>
       <c r="E13">
-        <v>949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45970.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="C14">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1193.196344582174</v>
+        <v>1294.506361580735</v>
       </c>
       <c r="E14">
-        <v>630</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45970.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B15">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C15">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1205.901887396273</v>
+        <v>1308.554895511174</v>
       </c>
       <c r="E15">
-        <v>993</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45970.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1218.607430210372</v>
+        <v>1322.603429441612</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45970.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B17">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1231.312973024471</v>
+        <v>1336.651963372051</v>
       </c>
       <c r="E17">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45970.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B18">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C18">
-        <v>650</v>
+        <v>694</v>
       </c>
       <c r="D18">
-        <v>1276.611963531222</v>
+        <v>1390.780844533495</v>
       </c>
       <c r="E18">
-        <v>1013</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45970.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B19">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1321.910954037972</v>
+        <v>1444.909725694939</v>
       </c>
       <c r="E19">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45970.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B20">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1367.209944544723</v>
+        <v>1499.038606856383</v>
       </c>
       <c r="E20">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45970.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B21">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C21">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="D21">
-        <v>1412.508935051473</v>
+        <v>1553.167488017827</v>
       </c>
       <c r="E21">
-        <v>1011</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45970.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B22">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="C22">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D22">
-        <v>1476.047784567342</v>
+        <v>1633.748437767909</v>
       </c>
       <c r="E22">
-        <v>1090</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45970.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B23">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="C23">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D23">
-        <v>1539.586634083211</v>
+        <v>1714.32938751799</v>
       </c>
       <c r="E23">
-        <v>1100</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45970.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B24">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="C24">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D24">
-        <v>1603.12548359908</v>
+        <v>1794.910337268072</v>
       </c>
       <c r="E24">
-        <v>1115</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45970.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B25">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="C25">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="D25">
-        <v>1666.664333114949</v>
+        <v>1875.491287018154</v>
       </c>
       <c r="E25">
-        <v>1122</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45970.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B26">
-        <v>396</v>
+        <v>841</v>
       </c>
       <c r="C26">
-        <v>693</v>
+        <v>1019</v>
       </c>
       <c r="D26">
-        <v>1673.724205283509</v>
+        <v>1889.491791772721</v>
       </c>
       <c r="E26">
-        <v>1089</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45970.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B27">
-        <v>395</v>
+        <v>837</v>
       </c>
       <c r="C27">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="D27">
-        <v>1680.784077452068</v>
+        <v>1903.492296527289</v>
       </c>
       <c r="E27">
-        <v>1095</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45970.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B28">
-        <v>396</v>
+        <v>830</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="D28">
-        <v>1687.843949620627</v>
+        <v>1917.492801281856</v>
       </c>
       <c r="E28">
-        <v>396</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45970.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B29">
-        <v>397</v>
+        <v>839</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="D29">
-        <v>1694.903821789186</v>
+        <v>1931.493306036424</v>
       </c>
       <c r="E29">
-        <v>397</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45970.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B30">
-        <v>407</v>
+        <v>846</v>
       </c>
       <c r="C30">
-        <v>674</v>
+        <v>1070</v>
       </c>
       <c r="D30">
-        <v>1648.591505781793</v>
+        <v>1893.874454067266</v>
       </c>
       <c r="E30">
-        <v>1081</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45970.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B31">
-        <v>412</v>
+        <v>842</v>
       </c>
       <c r="C31">
-        <v>673</v>
+        <v>1060</v>
       </c>
       <c r="D31">
-        <v>1602.2791897744</v>
+        <v>1856.255602098108</v>
       </c>
       <c r="E31">
-        <v>1085</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45970.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D32">
-        <v>1555.966873767007</v>
+        <v>1818.636750128951</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45970.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>839</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="D33">
-        <v>1509.654557759614</v>
+        <v>1781.017898159793</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45970.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="D34">
-        <v>1452.874923395734</v>
+        <v>1716.286576433663</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45970.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="D35">
-        <v>1396.095289031854</v>
+        <v>1651.555254707532</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45970.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="D36">
-        <v>1339.315654667975</v>
+        <v>1586.823932981401</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45970.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D37">
-        <v>1282.536020304095</v>
+        <v>1522.092611255271</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45970.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="D38">
-        <v>1245.755645268648</v>
+        <v>1488.232042294526</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45970.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="D39">
-        <v>1208.9752702332</v>
+        <v>1454.371473333781</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45970.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="D40">
-        <v>1172.194895197753</v>
+        <v>1420.510904373036</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45970.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>899</v>
       </c>
       <c r="D41">
-        <v>1135.414520162306</v>
+        <v>1386.650335412291</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45970.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="D42">
-        <v>1121.294775825424</v>
+        <v>1373.946618405033</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45970.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="D43">
-        <v>1107.175031488543</v>
+        <v>1361.242901397775</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45970.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="D44">
-        <v>1093.055287151661</v>
+        <v>1348.539184390517</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45970.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="D45">
-        <v>1078.93554281478</v>
+        <v>1335.835467383259</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45970.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="D46">
-        <v>1076.151681549696</v>
+        <v>1326.013500925771</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45970.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="D47">
-        <v>1073.367820284612</v>
+        <v>1316.191534468282</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45970.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D48">
-        <v>1070.583959019529</v>
+        <v>1306.369568010794</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45970.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1067.800097754445</v>
+        <v>1296.547601553306</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45970.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="D50">
-        <v>1101.106213930638</v>
+        <v>1324.5966402386</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45970.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="D51">
-        <v>1134.412330106831</v>
+        <v>1352.645678923893</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45970.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="D52">
-        <v>1167.718446283024</v>
+        <v>1380.694717609186</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45970.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="D53">
-        <v>1201.024562459217</v>
+        <v>1408.74375629448</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45970.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="D54">
-        <v>1282.168550616234</v>
+        <v>1485.362299038527</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45970.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="D55">
-        <v>1363.312538773251</v>
+        <v>1561.980841782574</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45970.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="D56">
-        <v>1444.456526930268</v>
+        <v>1638.599384526621</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45970.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="D57">
-        <v>1525.600515087285</v>
+        <v>1715.217927270668</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45970.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="D58">
-        <v>1627.378482941627</v>
+        <v>1844.800643662113</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45970.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="D59">
-        <v>1729.156450795969</v>
+        <v>1974.383360053559</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45970.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1830.934418650311</v>
+        <v>2103.966076445005</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45970.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1932.712386504653</v>
+        <v>2233.548792836451</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45970.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2005.159592068857</v>
+        <v>2284.147529574673</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45970.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2077.606797633061</v>
+        <v>2334.746266312896</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45970.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2150.054003197265</v>
+        <v>2385.345003051119</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45970.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2222.501208761469</v>
+        <v>2435.943739789342</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45970.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2291.663458032881</v>
+        <v>2500.67506151521</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45970.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2360.825707304294</v>
+        <v>2565.406383241078</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45970.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2429.987956575707</v>
+        <v>2630.137704966947</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45970.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2499.15020584712</v>
+        <v>2694.869026692815</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45970.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2503.593248426661</v>
+        <v>2702.193476007019</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45970.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2508.036291006203</v>
+        <v>2709.517925321222</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45970.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2512.479333585745</v>
+        <v>2716.842374635426</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45970.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2516.922376165287</v>
+        <v>2724.166823949629</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45970.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2511.699852431849</v>
+        <v>2722.077554800819</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45970.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2506.477328698411</v>
+        <v>2719.988285652009</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45970.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2501.254804964973</v>
+        <v>2717.899016503199</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45970.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2496.032281231535</v>
+        <v>2715.809747354388</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45970.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2480.464929036597</v>
+        <v>2701.400994605304</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45970.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2464.897576841659</v>
+        <v>2686.992241856219</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45970.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2449.330224646721</v>
+        <v>2672.583489107135</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45970.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2433.762872451784</v>
+        <v>2658.17473635805</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45970.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2381.626718678059</v>
+        <v>2624.326174691263</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45970.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2329.490564904333</v>
+        <v>2590.477613024476</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45970.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2277.354411130608</v>
+        <v>2556.629051357689</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45970.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2225.218257356883</v>
+        <v>2522.780489690902</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45970.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2108.496522231181</v>
+        <v>2386.065440688282</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45970.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1991.774787105479</v>
+        <v>2249.350391685662</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45970.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1875.053051979776</v>
+        <v>2112.635342683042</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45970.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1758.331316854074</v>
+        <v>1975.920293680423</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45970.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1704.469169095796</v>
+        <v>1908.77550586892</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45970.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1650.607021337518</v>
+        <v>1841.630718057417</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45970.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1596.74487357924</v>
+        <v>1774.485930245914</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45970.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1542.882725820961</v>
+        <v>1707.341142434411</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45970.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1489.183976573107</v>
+        <v>1608.397381150182</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45970.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1435.485227325253</v>
+        <v>1509.453619865952</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45970.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1381.786478077399</v>
+        <v>1410.509858581722</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45971</v>
+        <v>45973</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1328.087728829545</v>
+        <v>1311.566097297492</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,993 +415,993 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45972.01041666666</v>
+        <v>45982.01041666666</v>
       </c>
       <c r="B2">
-        <v>367</v>
+        <v>611</v>
       </c>
       <c r="C2">
-        <v>738</v>
+        <v>570</v>
       </c>
       <c r="D2">
-        <v>1292.777311250907</v>
+        <v>1355.396652819872</v>
       </c>
       <c r="E2">
-        <v>1105</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45972.02083333334</v>
+        <v>45982.02083333334</v>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>609</v>
       </c>
       <c r="C3">
-        <v>768</v>
+        <v>568</v>
       </c>
       <c r="D3">
-        <v>1281.130236111928</v>
+        <v>1343.759800644219</v>
       </c>
       <c r="E3">
-        <v>1125</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45972.03125</v>
+        <v>45982.03125</v>
       </c>
       <c r="B4">
-        <v>356</v>
+        <v>607</v>
       </c>
       <c r="C4">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1269.483160972948</v>
+        <v>1332.122948468566</v>
       </c>
       <c r="E4">
-        <v>1127</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45972.04166666666</v>
+        <v>45982.04166666666</v>
       </c>
       <c r="B5">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="C5">
-        <v>736</v>
+        <v>569</v>
       </c>
       <c r="D5">
-        <v>1257.836085833968</v>
+        <v>1320.486096292913</v>
       </c>
       <c r="E5">
-        <v>1088</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45972.05208333334</v>
+        <v>45982.05208333334</v>
       </c>
       <c r="B6">
-        <v>356</v>
+        <v>616</v>
       </c>
       <c r="C6">
-        <v>714</v>
+        <v>596</v>
       </c>
       <c r="D6">
-        <v>1259.000793347866</v>
+        <v>1314.405270597204</v>
       </c>
       <c r="E6">
-        <v>1070</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45972.0625</v>
+        <v>45982.0625</v>
       </c>
       <c r="B7">
-        <v>354</v>
+        <v>609</v>
       </c>
       <c r="C7">
-        <v>699</v>
+        <v>645</v>
       </c>
       <c r="D7">
-        <v>1260.165500861764</v>
+        <v>1308.324444901495</v>
       </c>
       <c r="E7">
-        <v>1053</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45972.07291666666</v>
+        <v>45982.07291666666</v>
       </c>
       <c r="B8">
-        <v>353</v>
+        <v>608</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="D8">
-        <v>1261.330208375662</v>
+        <v>1302.243619205786</v>
       </c>
       <c r="E8">
-        <v>353</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45972.08333333334</v>
+        <v>45982.08333333334</v>
       </c>
       <c r="B9">
-        <v>354</v>
+        <v>609</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1262.49491588956</v>
+        <v>1296.162793510078</v>
       </c>
       <c r="E9">
-        <v>354</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45972.09375</v>
+        <v>45982.09375</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="C10">
-        <v>713</v>
+        <v>609</v>
       </c>
       <c r="D10">
-        <v>1266.985643829744</v>
+        <v>1297.01844440527</v>
       </c>
       <c r="E10">
-        <v>713</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45972.10416666666</v>
+        <v>45982.10416666666</v>
       </c>
       <c r="B11">
-        <v>352</v>
+        <v>605</v>
       </c>
       <c r="C11">
-        <v>714</v>
+        <v>607</v>
       </c>
       <c r="D11">
-        <v>1271.476371769928</v>
+        <v>1297.874095300461</v>
       </c>
       <c r="E11">
-        <v>1066</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45972.11458333334</v>
+        <v>45982.11458333334</v>
       </c>
       <c r="B12">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>713</v>
+        <v>606</v>
       </c>
       <c r="D12">
-        <v>1275.967099710112</v>
+        <v>1298.729746195653</v>
       </c>
       <c r="E12">
-        <v>1063</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45972.125</v>
+        <v>45982.125</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="D13">
-        <v>1280.457827650296</v>
+        <v>1299.585397090845</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45972.13541666666</v>
+        <v>45982.13541666666</v>
       </c>
       <c r="B14">
-        <v>352</v>
+        <v>605</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="D14">
-        <v>1294.506361580735</v>
+        <v>1310.651815336317</v>
       </c>
       <c r="E14">
-        <v>352</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45972.14583333334</v>
+        <v>45982.14583333334</v>
       </c>
       <c r="B15">
-        <v>351</v>
+        <v>607</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D15">
-        <v>1308.554895511174</v>
+        <v>1321.718233581788</v>
       </c>
       <c r="E15">
-        <v>351</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45972.15625</v>
+        <v>45982.15625</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>608</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1322.603429441612</v>
+        <v>1332.784651827259</v>
       </c>
       <c r="E16">
-        <v>350</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45972.16666666666</v>
+        <v>45982.16666666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1336.651963372051</v>
+        <v>1343.85107007273</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45972.17708333334</v>
+        <v>45982.17708333334</v>
       </c>
       <c r="B18">
-        <v>351</v>
+        <v>685</v>
       </c>
       <c r="C18">
-        <v>694</v>
+        <v>630</v>
       </c>
       <c r="D18">
-        <v>1390.780844533495</v>
+        <v>1389.269019593577</v>
       </c>
       <c r="E18">
-        <v>1045</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45972.1875</v>
+        <v>45982.1875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="D19">
-        <v>1444.909725694939</v>
+        <v>1434.686969114423</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45972.19791666666</v>
+        <v>45982.19791666666</v>
       </c>
       <c r="B20">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="D20">
-        <v>1499.038606856383</v>
+        <v>1480.104918635269</v>
       </c>
       <c r="E20">
-        <v>353</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45972.20833333334</v>
+        <v>45982.20833333334</v>
       </c>
       <c r="B21">
-        <v>358</v>
+        <v>670</v>
       </c>
       <c r="C21">
-        <v>695</v>
+        <v>527</v>
       </c>
       <c r="D21">
-        <v>1553.167488017827</v>
+        <v>1525.522868156116</v>
       </c>
       <c r="E21">
-        <v>1053</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45972.21875</v>
+        <v>45982.21875</v>
       </c>
       <c r="B22">
-        <v>407</v>
+        <v>708</v>
       </c>
       <c r="C22">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="D22">
-        <v>1633.748437767909</v>
+        <v>1655.752934415965</v>
       </c>
       <c r="E22">
-        <v>1134</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45972.22916666666</v>
+        <v>45982.22916666666</v>
       </c>
       <c r="B23">
-        <v>409</v>
+        <v>709</v>
       </c>
       <c r="C23">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="D23">
-        <v>1714.32938751799</v>
+        <v>1785.983000675815</v>
       </c>
       <c r="E23">
-        <v>1143</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45972.23958333334</v>
+        <v>45982.23958333334</v>
       </c>
       <c r="B24">
-        <v>415</v>
+        <v>710</v>
       </c>
       <c r="C24">
-        <v>733</v>
+        <v>618</v>
       </c>
       <c r="D24">
-        <v>1794.910337268072</v>
+        <v>1916.213066935665</v>
       </c>
       <c r="E24">
-        <v>1148</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45972.25</v>
+        <v>45982.25</v>
       </c>
       <c r="B25">
-        <v>450</v>
+        <v>728</v>
       </c>
       <c r="C25">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="D25">
-        <v>1875.491287018154</v>
+        <v>2046.443133195515</v>
       </c>
       <c r="E25">
-        <v>1185</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45972.26041666666</v>
+        <v>45982.26041666666</v>
       </c>
       <c r="B26">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C26">
-        <v>1019</v>
+        <v>964</v>
       </c>
       <c r="D26">
-        <v>1889.491791772721</v>
+        <v>2063.944046173529</v>
       </c>
       <c r="E26">
-        <v>1860</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45972.27083333334</v>
+        <v>45982.27083333334</v>
       </c>
       <c r="B27">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C27">
-        <v>1040</v>
+        <v>996</v>
       </c>
       <c r="D27">
-        <v>1903.492296527289</v>
+        <v>2081.444959151544</v>
       </c>
       <c r="E27">
-        <v>1877</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45972.28125</v>
+        <v>45982.28125</v>
       </c>
       <c r="B28">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="C28">
-        <v>1043</v>
+        <v>998</v>
       </c>
       <c r="D28">
-        <v>1917.492801281856</v>
+        <v>2098.945872129558</v>
       </c>
       <c r="E28">
-        <v>1873</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45972.29166666666</v>
+        <v>45982.29166666666</v>
       </c>
       <c r="B29">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="C29">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1931.493306036424</v>
+        <v>2116.446785107572</v>
       </c>
       <c r="E29">
-        <v>1883</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45972.30208333334</v>
+        <v>45982.30208333334</v>
       </c>
       <c r="B30">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C30">
-        <v>1070</v>
+        <v>976</v>
       </c>
       <c r="D30">
-        <v>1893.874454067266</v>
+        <v>2093.481115078563</v>
       </c>
       <c r="E30">
-        <v>1916</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45972.3125</v>
+        <v>45982.3125</v>
       </c>
       <c r="B31">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="C31">
-        <v>1060</v>
+        <v>974</v>
       </c>
       <c r="D31">
-        <v>1856.255602098108</v>
+        <v>2070.515445049554</v>
       </c>
       <c r="E31">
-        <v>1902</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45972.32291666666</v>
+        <v>45982.32291666666</v>
       </c>
       <c r="B32">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="C32">
-        <v>1051</v>
+        <v>978</v>
       </c>
       <c r="D32">
-        <v>1818.636750128951</v>
+        <v>2047.549775020545</v>
       </c>
       <c r="E32">
-        <v>1896</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45972.33333333334</v>
+        <v>45982.33333333334</v>
       </c>
       <c r="B33">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="C33">
-        <v>1050</v>
+        <v>975</v>
       </c>
       <c r="D33">
-        <v>1781.017898159793</v>
+        <v>2024.584104991536</v>
       </c>
       <c r="E33">
-        <v>1889</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45972.34375</v>
+        <v>45982.34375</v>
       </c>
       <c r="B34">
-        <v>844</v>
+        <v>796</v>
       </c>
       <c r="C34">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="D34">
-        <v>1716.286576433663</v>
+        <v>1986.433483741049</v>
       </c>
       <c r="E34">
-        <v>1839</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45972.35416666666</v>
+        <v>45982.35416666666</v>
       </c>
       <c r="B35">
-        <v>842</v>
+        <v>797</v>
       </c>
       <c r="C35">
-        <v>1001</v>
+        <v>964</v>
       </c>
       <c r="D35">
-        <v>1651.555254707532</v>
+        <v>1948.282862490563</v>
       </c>
       <c r="E35">
-        <v>1843</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45972.36458333334</v>
+        <v>45982.36458333334</v>
       </c>
       <c r="B36">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="C36">
-        <v>996</v>
+        <v>962</v>
       </c>
       <c r="D36">
-        <v>1586.823932981401</v>
+        <v>1910.132241240077</v>
       </c>
       <c r="E36">
-        <v>1837</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45972.375</v>
+        <v>45982.375</v>
       </c>
       <c r="B37">
-        <v>842</v>
+        <v>795</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="D37">
-        <v>1522.092611255271</v>
+        <v>1871.981619989591</v>
       </c>
       <c r="E37">
-        <v>1842</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45972.38541666666</v>
+        <v>45982.38541666666</v>
       </c>
       <c r="B38">
-        <v>683</v>
+        <v>821</v>
       </c>
       <c r="C38">
-        <v>926</v>
+        <v>830</v>
       </c>
       <c r="D38">
-        <v>1488.232042294526</v>
+        <v>1839.466885969392</v>
       </c>
       <c r="E38">
-        <v>1609</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45972.39583333334</v>
+        <v>45982.39583333334</v>
       </c>
       <c r="B39">
-        <v>677</v>
+        <v>833</v>
       </c>
       <c r="C39">
-        <v>912</v>
+        <v>836</v>
       </c>
       <c r="D39">
-        <v>1454.371473333781</v>
+        <v>1806.952151949193</v>
       </c>
       <c r="E39">
-        <v>1589</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45972.40625</v>
+        <v>45982.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="C40">
-        <v>905</v>
+        <v>874</v>
       </c>
       <c r="D40">
-        <v>1420.510904373036</v>
+        <v>1774.437417928994</v>
       </c>
       <c r="E40">
-        <v>905</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45972.41666666666</v>
+        <v>45982.41666666666</v>
       </c>
       <c r="B41">
-        <v>676</v>
+        <v>835</v>
       </c>
       <c r="C41">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="D41">
-        <v>1386.650335412291</v>
+        <v>1741.922683908795</v>
       </c>
       <c r="E41">
-        <v>1575</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45972.42708333334</v>
+        <v>45982.42708333334</v>
       </c>
       <c r="B42">
-        <v>470</v>
+        <v>604</v>
       </c>
       <c r="C42">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="D42">
-        <v>1373.946618405033</v>
+        <v>1726.692097973017</v>
       </c>
       <c r="E42">
-        <v>1363</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45972.4375</v>
+        <v>45982.4375</v>
       </c>
       <c r="B43">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="C43">
-        <v>844</v>
+        <v>900</v>
       </c>
       <c r="D43">
-        <v>1361.242901397775</v>
+        <v>1711.46151203724</v>
       </c>
       <c r="E43">
-        <v>1308</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45972.44791666666</v>
+        <v>45982.44791666666</v>
       </c>
       <c r="B44">
-        <v>463</v>
+        <v>601</v>
       </c>
       <c r="C44">
-        <v>842</v>
+        <v>901</v>
       </c>
       <c r="D44">
-        <v>1348.539184390517</v>
+        <v>1696.230926101463</v>
       </c>
       <c r="E44">
-        <v>1305</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45972.45833333334</v>
+        <v>45982.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="C45">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1335.835467383259</v>
+        <v>1681.000340165685</v>
       </c>
       <c r="E45">
-        <v>856</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45972.46875</v>
+        <v>45982.46875</v>
       </c>
       <c r="B46">
-        <v>464</v>
+        <v>583</v>
       </c>
       <c r="C46">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="D46">
-        <v>1326.013500925771</v>
+        <v>1687.4234262195</v>
       </c>
       <c r="E46">
-        <v>1149</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45972.47916666666</v>
+        <v>45982.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="C47">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="D47">
-        <v>1316.191534468282</v>
+        <v>1693.846512273314</v>
       </c>
       <c r="E47">
-        <v>677</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45972.48958333334</v>
+        <v>45982.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="C48">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="D48">
-        <v>1306.369568010794</v>
+        <v>1700.269598327129</v>
       </c>
       <c r="E48">
-        <v>667</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45972.5</v>
+        <v>45982.5</v>
       </c>
       <c r="B49">
-        <v>465</v>
+        <v>588</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="D49">
-        <v>1296.547601553306</v>
+        <v>1706.692684380944</v>
       </c>
       <c r="E49">
-        <v>465</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45972.51041666666</v>
+        <v>45982.51041666666</v>
       </c>
       <c r="B50">
-        <v>453</v>
+        <v>699</v>
       </c>
       <c r="C50">
-        <v>659</v>
+        <v>724</v>
       </c>
       <c r="D50">
-        <v>1324.5966402386</v>
+        <v>1714.051282080354</v>
       </c>
       <c r="E50">
-        <v>1112</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45972.52083333334</v>
+        <v>45982.52083333334</v>
       </c>
       <c r="B51">
-        <v>454</v>
+        <v>698</v>
       </c>
       <c r="C51">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="D51">
-        <v>1352.645678923893</v>
+        <v>1721.409879779765</v>
       </c>
       <c r="E51">
-        <v>1098</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45972.53125</v>
+        <v>45982.53125</v>
       </c>
       <c r="B52">
-        <v>461</v>
+        <v>700</v>
       </c>
       <c r="C52">
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="D52">
-        <v>1380.694717609186</v>
+        <v>1728.768477479176</v>
       </c>
       <c r="E52">
-        <v>1103</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45972.54166666666</v>
+        <v>45982.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="C53">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1408.74375629448</v>
+        <v>1736.127075178587</v>
       </c>
       <c r="E53">
-        <v>646</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45972.55208333334</v>
+        <v>45982.55208333334</v>
       </c>
       <c r="B54">
-        <v>458</v>
+        <v>827</v>
       </c>
       <c r="C54">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D54">
-        <v>1485.362299038527</v>
+        <v>1802.137689578908</v>
       </c>
       <c r="E54">
-        <v>1198</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45972.5625</v>
+        <v>45982.5625</v>
       </c>
       <c r="B55">
-        <v>462</v>
+        <v>832</v>
       </c>
       <c r="C55">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1561.980841782574</v>
+        <v>1868.148303979229</v>
       </c>
       <c r="E55">
-        <v>1211</v>
+        <v>832</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45972.57291666666</v>
+        <v>45982.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="C56">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="D56">
-        <v>1638.599384526621</v>
+        <v>1934.15891837955</v>
       </c>
       <c r="E56">
-        <v>705</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45972.58333333334</v>
+        <v>45982.58333333334</v>
       </c>
       <c r="B57">
-        <v>443</v>
+        <v>831</v>
       </c>
       <c r="C57">
-        <v>681</v>
+        <v>773</v>
       </c>
       <c r="D57">
-        <v>1715.217927270668</v>
+        <v>2000.169532779872</v>
       </c>
       <c r="E57">
-        <v>1124</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45972.59375</v>
+        <v>45982.59375</v>
       </c>
       <c r="B58">
-        <v>597</v>
+        <v>836</v>
       </c>
       <c r="C58">
-        <v>679</v>
+        <v>849</v>
       </c>
       <c r="D58">
-        <v>1844.800643662113</v>
+        <v>2045.644525693618</v>
       </c>
       <c r="E58">
-        <v>1276</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45972.60416666666</v>
+        <v>45982.60416666666</v>
       </c>
       <c r="B59">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1974.383360053559</v>
+        <v>2091.119518607364</v>
       </c>
       <c r="E59">
-        <v>1486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45972.61458333334</v>
+        <v>45982.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2103.966076445005</v>
+        <v>2136.594511521111</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45972.625</v>
+        <v>45982.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2233.548792836451</v>
+        <v>2182.069504434857</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45972.63541666666</v>
+        <v>45982.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2284.147529574673</v>
+        <v>2245.786974435843</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45972.64583333334</v>
+        <v>45982.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2334.746266312896</v>
+        <v>2309.50444443683</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45972.65625</v>
+        <v>45982.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2385.345003051119</v>
+        <v>2373.221914437816</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45972.66666666666</v>
+        <v>45982.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2435.943739789342</v>
+        <v>2436.939384438803</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45972.67708333334</v>
+        <v>45982.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2500.67506151521</v>
+        <v>2480.885614419479</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45972.6875</v>
+        <v>45982.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2565.406383241078</v>
+        <v>2524.831844400156</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45972.69791666666</v>
+        <v>45982.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2630.137704966947</v>
+        <v>2568.778074380833</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45972.70833333334</v>
+        <v>45982.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2694.869026692815</v>
+        <v>2612.724304361509</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45972.71875</v>
+        <v>45982.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2702.193476007019</v>
+        <v>2640.550071476267</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45972.72916666666</v>
+        <v>45982.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2709.517925321222</v>
+        <v>2668.375838591024</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45972.73958333334</v>
+        <v>45982.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2716.842374635426</v>
+        <v>2696.201605705782</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45972.75</v>
+        <v>45982.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2724.166823949629</v>
+        <v>2724.02737282054</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45972.76041666666</v>
+        <v>45982.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2722.077554800819</v>
+        <v>2733.006002881398</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45972.77083333334</v>
+        <v>45982.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2719.988285652009</v>
+        <v>2741.984632942255</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45972.78125</v>
+        <v>45982.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2717.899016503199</v>
+        <v>2750.963263003113</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45972.79166666666</v>
+        <v>45982.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2715.809747354388</v>
+        <v>2759.941893063971</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45972.80208333334</v>
+        <v>45982.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2701.400994605304</v>
+        <v>2713.56561454011</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45972.8125</v>
+        <v>45982.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2686.992241856219</v>
+        <v>2667.189336016248</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45972.82291666666</v>
+        <v>45982.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2672.583489107135</v>
+        <v>2620.813057492386</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45972.83333333334</v>
+        <v>45982.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2658.17473635805</v>
+        <v>2574.436778968525</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45972.84375</v>
+        <v>45982.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2624.326174691263</v>
+        <v>2509.852249393955</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45972.85416666666</v>
+        <v>45982.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2590.477613024476</v>
+        <v>2445.267719819385</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45972.86458333334</v>
+        <v>45982.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2556.629051357689</v>
+        <v>2380.683190244815</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45972.875</v>
+        <v>45982.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2522.780489690902</v>
+        <v>2316.098660670245</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45972.88541666666</v>
+        <v>45982.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2386.065440688282</v>
+        <v>2216.569348532489</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45972.89583333334</v>
+        <v>45982.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2249.350391685662</v>
+        <v>2117.040036394732</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45972.90625</v>
+        <v>45982.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2112.635342683042</v>
+        <v>2017.510724256976</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45972.91666666666</v>
+        <v>45982.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1975.920293680423</v>
+        <v>1917.98141211922</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45972.92708333334</v>
+        <v>45982.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1908.77550586892</v>
+        <v>1850.316539321395</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45972.9375</v>
+        <v>45982.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1841.630718057417</v>
+        <v>1782.65166652357</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45972.94791666666</v>
+        <v>45982.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1774.485930245914</v>
+        <v>1714.986793725746</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45972.95833333334</v>
+        <v>45982.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1707.341142434411</v>
+        <v>1647.321920927921</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45972.96875</v>
+        <v>45982.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1608.397381150182</v>
+        <v>1556.925138183107</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45972.97916666666</v>
+        <v>45982.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1509.453619865952</v>
+        <v>1466.528355438292</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45972.98958333334</v>
+        <v>45982.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1410.509858581722</v>
+        <v>1376.131572693478</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45973</v>
+        <v>45983</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1311.566097297492</v>
+        <v>1285.734789948664</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,976 +415,976 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45982.01041666666</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B2">
-        <v>611</v>
+        <v>454</v>
       </c>
       <c r="C2">
-        <v>570</v>
+        <v>775</v>
       </c>
       <c r="D2">
-        <v>1355.396652819872</v>
+        <v>1266.279562960843</v>
       </c>
       <c r="E2">
-        <v>1181</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B3">
-        <v>609</v>
+        <v>449</v>
       </c>
       <c r="C3">
-        <v>568</v>
+        <v>769</v>
       </c>
       <c r="D3">
-        <v>1343.759800644219</v>
+        <v>1262.978560085085</v>
       </c>
       <c r="E3">
-        <v>1177</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45982.03125</v>
+        <v>45984.03125</v>
       </c>
       <c r="B4">
-        <v>607</v>
+        <v>455</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="D4">
-        <v>1332.122948468566</v>
+        <v>1259.677557209327</v>
       </c>
       <c r="E4">
-        <v>607</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B5">
-        <v>610</v>
+        <v>451</v>
       </c>
       <c r="C5">
-        <v>569</v>
+        <v>769</v>
       </c>
       <c r="D5">
-        <v>1320.486096292913</v>
+        <v>1256.376554333568</v>
       </c>
       <c r="E5">
-        <v>1179</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B6">
-        <v>616</v>
+        <v>447</v>
       </c>
       <c r="C6">
-        <v>596</v>
+        <v>754</v>
       </c>
       <c r="D6">
-        <v>1314.405270597204</v>
+        <v>1251.281758898315</v>
       </c>
       <c r="E6">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45982.0625</v>
+        <v>45984.0625</v>
       </c>
       <c r="B7">
-        <v>609</v>
+        <v>445</v>
       </c>
       <c r="C7">
-        <v>645</v>
+        <v>753</v>
       </c>
       <c r="D7">
-        <v>1308.324444901495</v>
+        <v>1246.186963463061</v>
       </c>
       <c r="E7">
-        <v>1254</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B8">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1302.243619205786</v>
+        <v>1241.092168027807</v>
       </c>
       <c r="E8">
-        <v>1254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B9">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="D9">
-        <v>1296.162793510078</v>
+        <v>1235.997372592553</v>
       </c>
       <c r="E9">
-        <v>609</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45982.09375</v>
+        <v>45984.09375</v>
       </c>
       <c r="B10">
-        <v>611</v>
+        <v>450</v>
       </c>
       <c r="C10">
-        <v>609</v>
+        <v>718</v>
       </c>
       <c r="D10">
-        <v>1297.01844440527</v>
+        <v>1234.596303847781</v>
       </c>
       <c r="E10">
-        <v>1220</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B11">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1297.874095300461</v>
+        <v>1233.195235103009</v>
       </c>
       <c r="E11">
-        <v>1212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>606</v>
+        <v>719</v>
       </c>
       <c r="D12">
-        <v>1298.729746195653</v>
+        <v>1231.794166358236</v>
       </c>
       <c r="E12">
-        <v>606</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45982.125</v>
+        <v>45984.125</v>
       </c>
       <c r="B13">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>608</v>
+        <v>720</v>
       </c>
       <c r="D13">
-        <v>1299.585397090845</v>
+        <v>1230.393097613464</v>
       </c>
       <c r="E13">
-        <v>1215</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B14">
-        <v>605</v>
+        <v>465</v>
       </c>
       <c r="C14">
-        <v>609</v>
+        <v>709</v>
       </c>
       <c r="D14">
-        <v>1310.651815336317</v>
+        <v>1242.779819015583</v>
       </c>
       <c r="E14">
-        <v>1214</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B15">
-        <v>607</v>
+        <v>464</v>
       </c>
       <c r="C15">
-        <v>610</v>
+        <v>708</v>
       </c>
       <c r="D15">
-        <v>1321.718233581788</v>
+        <v>1255.166540417702</v>
       </c>
       <c r="E15">
-        <v>1217</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45982.15625</v>
+        <v>45984.15625</v>
       </c>
       <c r="B16">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1332.784651827259</v>
+        <v>1267.553261819821</v>
       </c>
       <c r="E16">
-        <v>608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B17">
-        <v>609</v>
+        <v>466</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1343.85107007273</v>
+        <v>1279.93998322194</v>
       </c>
       <c r="E17">
-        <v>609</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B18">
-        <v>685</v>
+        <v>473</v>
       </c>
       <c r="C18">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="D18">
-        <v>1389.269019593577</v>
+        <v>1309.319970231822</v>
       </c>
       <c r="E18">
-        <v>1315</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45982.1875</v>
+        <v>45984.1875</v>
       </c>
       <c r="B19">
-        <v>682</v>
+        <v>472</v>
       </c>
       <c r="C19">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1434.686969114423</v>
+        <v>1338.699957241704</v>
       </c>
       <c r="E19">
-        <v>1313</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C20">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1480.104918635269</v>
+        <v>1368.079944251587</v>
       </c>
       <c r="E20">
-        <v>630</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B21">
-        <v>670</v>
+        <v>475</v>
       </c>
       <c r="C21">
-        <v>527</v>
+        <v>702</v>
       </c>
       <c r="D21">
-        <v>1525.522868156116</v>
+        <v>1397.459931261469</v>
       </c>
       <c r="E21">
-        <v>1197</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45982.21875</v>
+        <v>45984.21875</v>
       </c>
       <c r="B22">
-        <v>708</v>
+        <v>507</v>
       </c>
       <c r="C22">
-        <v>624</v>
+        <v>733</v>
       </c>
       <c r="D22">
-        <v>1655.752934415965</v>
+        <v>1514.098904257309</v>
       </c>
       <c r="E22">
-        <v>1332</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B23">
-        <v>709</v>
+        <v>508</v>
       </c>
       <c r="C23">
-        <v>636</v>
+        <v>738</v>
       </c>
       <c r="D23">
-        <v>1785.983000675815</v>
+        <v>1630.737877253149</v>
       </c>
       <c r="E23">
-        <v>1345</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B24">
-        <v>710</v>
+        <v>509</v>
       </c>
       <c r="C24">
-        <v>618</v>
+        <v>739</v>
       </c>
       <c r="D24">
-        <v>1916.213066935665</v>
+        <v>1747.376850248989</v>
       </c>
       <c r="E24">
-        <v>1328</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45982.25</v>
+        <v>45984.25</v>
       </c>
       <c r="B25">
-        <v>728</v>
+        <v>535</v>
       </c>
       <c r="C25">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2046.443133195515</v>
+        <v>1864.015823244829</v>
       </c>
       <c r="E25">
-        <v>1364</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B26">
-        <v>849</v>
+        <v>591</v>
       </c>
       <c r="C26">
-        <v>964</v>
+        <v>735</v>
       </c>
       <c r="D26">
-        <v>2063.944046173529</v>
+        <v>1908.467913417289</v>
       </c>
       <c r="E26">
-        <v>1813</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B27">
-        <v>842</v>
+        <v>573</v>
       </c>
       <c r="C27">
-        <v>996</v>
+        <v>742</v>
       </c>
       <c r="D27">
-        <v>2081.444959151544</v>
+        <v>1952.920003589749</v>
       </c>
       <c r="E27">
-        <v>1838</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45982.28125</v>
+        <v>45984.28125</v>
       </c>
       <c r="B28">
-        <v>840</v>
+        <v>562</v>
       </c>
       <c r="C28">
-        <v>998</v>
+        <v>751</v>
       </c>
       <c r="D28">
-        <v>2098.945872129558</v>
+        <v>1997.372093762209</v>
       </c>
       <c r="E28">
-        <v>1838</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B29">
-        <v>847</v>
+        <v>560</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="D29">
-        <v>2116.446785107572</v>
+        <v>2041.824183934669</v>
       </c>
       <c r="E29">
-        <v>847</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B30">
-        <v>865</v>
+        <v>603</v>
       </c>
       <c r="C30">
-        <v>976</v>
+        <v>748</v>
       </c>
       <c r="D30">
-        <v>2093.481115078563</v>
+        <v>2015.150806999814</v>
       </c>
       <c r="E30">
-        <v>1841</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45982.3125</v>
+        <v>45984.3125</v>
       </c>
       <c r="B31">
-        <v>868</v>
+        <v>610</v>
       </c>
       <c r="C31">
-        <v>974</v>
+        <v>738</v>
       </c>
       <c r="D31">
-        <v>2070.515445049554</v>
+        <v>1988.477430064958</v>
       </c>
       <c r="E31">
-        <v>1842</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45982.32291666666</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B32">
-        <v>870</v>
+        <v>626</v>
       </c>
       <c r="C32">
-        <v>978</v>
+        <v>731</v>
       </c>
       <c r="D32">
-        <v>2047.549775020545</v>
+        <v>1961.804053130102</v>
       </c>
       <c r="E32">
-        <v>1848</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45982.33333333334</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B33">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2024.584104991536</v>
+        <v>1935.130676195246</v>
       </c>
       <c r="E33">
-        <v>1843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45982.34375</v>
+        <v>45984.34375</v>
       </c>
       <c r="B34">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>963</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1986.433483741049</v>
+        <v>1898.511834004247</v>
       </c>
       <c r="E34">
-        <v>1759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45982.35416666666</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B35">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1948.282862490563</v>
+        <v>1861.892991813248</v>
       </c>
       <c r="E35">
-        <v>1761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45982.36458333334</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B36">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1910.132241240077</v>
+        <v>1825.274149622249</v>
       </c>
       <c r="E36">
-        <v>1758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45982.375</v>
+        <v>45984.375</v>
       </c>
       <c r="B37">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1871.981619989591</v>
+        <v>1788.65530743125</v>
       </c>
       <c r="E37">
-        <v>1766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45982.38541666666</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B38">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1839.466885969392</v>
+        <v>1775.578665814321</v>
       </c>
       <c r="E38">
-        <v>1651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45982.39583333334</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B39">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1806.952151949193</v>
+        <v>1762.502024197392</v>
       </c>
       <c r="E39">
-        <v>1669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45982.40625</v>
+        <v>45984.40625</v>
       </c>
       <c r="B40">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1774.437417928994</v>
+        <v>1749.425382580463</v>
       </c>
       <c r="E40">
-        <v>1689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45982.41666666666</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B41">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1741.922683908795</v>
+        <v>1736.348740963534</v>
       </c>
       <c r="E41">
-        <v>1714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45982.42708333334</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B42">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>904</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>1726.692097973017</v>
+        <v>1691.440242033095</v>
       </c>
       <c r="E42">
-        <v>1508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45982.4375</v>
+        <v>45984.4375</v>
       </c>
       <c r="B43">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1711.46151203724</v>
+        <v>1646.531743102655</v>
       </c>
       <c r="E43">
-        <v>1497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45982.44791666666</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B44">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1696.230926101463</v>
+        <v>1601.623244172215</v>
       </c>
       <c r="E44">
-        <v>1502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45982.45833333334</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B45">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1681.000340165685</v>
+        <v>1556.714745241776</v>
       </c>
       <c r="E45">
-        <v>597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45982.46875</v>
+        <v>45984.46875</v>
       </c>
       <c r="B46">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1687.4234262195</v>
+        <v>1572.094658961948</v>
       </c>
       <c r="E46">
-        <v>1249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45982.47916666666</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B47">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1693.846512273314</v>
+        <v>1587.47457268212</v>
       </c>
       <c r="E47">
-        <v>1241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45982.48958333334</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B48">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1700.269598327129</v>
+        <v>1602.854486402292</v>
       </c>
       <c r="E48">
-        <v>1236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45982.5</v>
+        <v>45984.5</v>
       </c>
       <c r="B49">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1706.692684380944</v>
+        <v>1618.234400122464</v>
       </c>
       <c r="E49">
-        <v>1198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45982.51041666666</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B50">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1714.051282080354</v>
+        <v>1633.051763513221</v>
       </c>
       <c r="E50">
-        <v>1423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45982.52083333334</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B51">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1721.409879779765</v>
+        <v>1647.869126903979</v>
       </c>
       <c r="E51">
-        <v>1424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45982.53125</v>
+        <v>45984.53125</v>
       </c>
       <c r="B52">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1728.768477479176</v>
+        <v>1662.686490294736</v>
       </c>
       <c r="E52">
-        <v>1432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45982.54166666666</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B53">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1736.127075178587</v>
+        <v>1677.503853685493</v>
       </c>
       <c r="E53">
-        <v>710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45982.55208333334</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B54">
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1802.137689578908</v>
+        <v>1733.960555602504</v>
       </c>
       <c r="E54">
-        <v>1579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45982.5625</v>
+        <v>45984.5625</v>
       </c>
       <c r="B55">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1868.148303979229</v>
+        <v>1790.417257519515</v>
       </c>
       <c r="E55">
-        <v>832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45982.57291666666</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B56">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1934.15891837955</v>
+        <v>1846.873959436526</v>
       </c>
       <c r="E56">
-        <v>1605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45982.58333333334</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B57">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>2000.169532779872</v>
+        <v>1903.330661353537</v>
       </c>
       <c r="E57">
-        <v>1604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45982.59375</v>
+        <v>45984.59375</v>
       </c>
       <c r="B58">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2045.644525693618</v>
+        <v>1937.12613774072</v>
       </c>
       <c r="E58">
-        <v>1685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45982.60416666666</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2091.119518607364</v>
+        <v>1970.921614127903</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45982.61458333334</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2136.594511521111</v>
+        <v>2004.717090515086</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45982.625</v>
+        <v>45984.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2182.069504434857</v>
+        <v>2038.512566902269</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45982.63541666666</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2245.786974435843</v>
+        <v>2092.262658744196</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45982.64583333334</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2309.50444443683</v>
+        <v>2146.012750586123</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45982.65625</v>
+        <v>45984.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2373.221914437816</v>
+        <v>2199.762842428049</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45982.66666666666</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2436.939384438803</v>
+        <v>2253.512934269976</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45982.67708333334</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2480.885614419479</v>
+        <v>2297.529843999137</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45982.6875</v>
+        <v>45984.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2524.831844400156</v>
+        <v>2341.546753728298</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45982.69791666666</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2568.778074380833</v>
+        <v>2385.563663457459</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45982.70833333334</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2612.724304361509</v>
+        <v>2429.58057318662</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45982.71875</v>
+        <v>45984.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2640.550071476267</v>
+        <v>2448.898339211957</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45982.72916666666</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2668.375838591024</v>
+        <v>2468.216105237294</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45982.73958333334</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2696.201605705782</v>
+        <v>2487.533871262631</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45982.75</v>
+        <v>45984.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2724.02737282054</v>
+        <v>2506.851637287968</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45982.76041666666</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2733.006002881398</v>
+        <v>2519.705381604665</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45982.77083333334</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2741.984632942255</v>
+        <v>2532.559125921362</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45982.78125</v>
+        <v>45984.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2750.963263003113</v>
+        <v>2545.41287023806</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45982.79166666666</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2759.941893063971</v>
+        <v>2558.266614554758</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45982.80208333334</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2713.56561454011</v>
+        <v>2510.959316107157</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45982.8125</v>
+        <v>45984.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2667.189336016248</v>
+        <v>2463.652017659556</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45982.82291666666</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2620.813057492386</v>
+        <v>2416.344719211956</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45982.83333333334</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2574.436778968525</v>
+        <v>2369.037420764355</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45982.84375</v>
+        <v>45984.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2509.852249393955</v>
+        <v>2308.918834628361</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45982.85416666666</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2445.267719819385</v>
+        <v>2248.800248492367</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45982.86458333334</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2380.683190244815</v>
+        <v>2188.681662356373</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45982.875</v>
+        <v>45984.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2316.098660670245</v>
+        <v>2128.563076220379</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45982.88541666666</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2216.569348532489</v>
+        <v>2015.310019357657</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45982.89583333334</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2117.040036394732</v>
+        <v>1902.056962494935</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45982.90625</v>
+        <v>45984.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2017.510724256976</v>
+        <v>1788.803905632213</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45982.91666666666</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1917.98141211922</v>
+        <v>1675.550848769491</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45982.92708333334</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1850.316539321395</v>
+        <v>1636.596892003912</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45982.9375</v>
+        <v>45984.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1782.65166652357</v>
+        <v>1597.642935238333</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45982.94791666666</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1714.986793725746</v>
+        <v>1558.688978472754</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45982.95833333334</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1647.321920927921</v>
+        <v>1519.735021707175</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45982.96875</v>
+        <v>45984.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1556.925138183107</v>
+        <v>1492.952904255268</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45982.97916666666</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1466.528355438292</v>
+        <v>1466.17078680336</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45982.98958333334</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1376.131572693478</v>
+        <v>1439.388669351453</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45983</v>
+        <v>45985</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1285.734789948664</v>
+        <v>1412.606551899545</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45984.01041666666</v>
+        <v>45993.01041666666</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>991</v>
       </c>
       <c r="C2">
-        <v>775</v>
+        <v>1774</v>
       </c>
       <c r="D2">
-        <v>1266.279562960843</v>
+        <v>2012.29778160754</v>
       </c>
       <c r="E2">
-        <v>1229</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45984.02083333334</v>
+        <v>45993.02083333334</v>
       </c>
       <c r="B3">
-        <v>449</v>
+        <v>987</v>
       </c>
       <c r="C3">
-        <v>769</v>
+        <v>1766</v>
       </c>
       <c r="D3">
-        <v>1262.978560085085</v>
+        <v>2014.948824872212</v>
       </c>
       <c r="E3">
-        <v>1218</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45984.03125</v>
+        <v>45993.03125</v>
       </c>
       <c r="B4">
-        <v>455</v>
+        <v>995</v>
       </c>
       <c r="C4">
-        <v>771</v>
+        <v>1767</v>
       </c>
       <c r="D4">
-        <v>1259.677557209327</v>
+        <v>2017.599868136884</v>
       </c>
       <c r="E4">
-        <v>1226</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45984.04166666666</v>
+        <v>45993.04166666666</v>
       </c>
       <c r="B5">
-        <v>451</v>
+        <v>983</v>
       </c>
       <c r="C5">
-        <v>769</v>
+        <v>1765</v>
       </c>
       <c r="D5">
-        <v>1256.376554333568</v>
+        <v>2020.250911401556</v>
       </c>
       <c r="E5">
-        <v>1220</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45984.05208333334</v>
+        <v>45993.05208333334</v>
       </c>
       <c r="B6">
-        <v>447</v>
+        <v>985</v>
       </c>
       <c r="C6">
-        <v>754</v>
+        <v>1766</v>
       </c>
       <c r="D6">
-        <v>1251.281758898315</v>
+        <v>2022.092996611199</v>
       </c>
       <c r="E6">
-        <v>1201</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45984.0625</v>
+        <v>45993.0625</v>
       </c>
       <c r="B7">
-        <v>445</v>
+        <v>1004</v>
       </c>
       <c r="C7">
-        <v>753</v>
+        <v>1769</v>
       </c>
       <c r="D7">
-        <v>1246.186963463061</v>
+        <v>2023.935081820843</v>
       </c>
       <c r="E7">
-        <v>1198</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45984.07291666666</v>
+        <v>45993.07291666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1764</v>
       </c>
       <c r="D8">
-        <v>1241.092168027807</v>
+        <v>2025.777167030486</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45984.08333333334</v>
+        <v>45993.08333333334</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="C9">
-        <v>754</v>
+        <v>1766</v>
       </c>
       <c r="D9">
-        <v>1235.997372592553</v>
+        <v>2027.61925224013</v>
       </c>
       <c r="E9">
-        <v>754</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45984.09375</v>
+        <v>45993.09375</v>
       </c>
       <c r="B10">
-        <v>450</v>
+        <v>981</v>
       </c>
       <c r="C10">
-        <v>718</v>
+        <v>1764</v>
       </c>
       <c r="D10">
-        <v>1234.596303847781</v>
+        <v>2030.933056321242</v>
       </c>
       <c r="E10">
-        <v>1168</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45984.10416666666</v>
+        <v>45993.10416666666</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1765</v>
       </c>
       <c r="D11">
-        <v>1233.195235103009</v>
+        <v>2034.246860402353</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45984.11458333334</v>
+        <v>45993.11458333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="C12">
-        <v>719</v>
+        <v>1763</v>
       </c>
       <c r="D12">
-        <v>1231.794166358236</v>
+        <v>2037.560664483465</v>
       </c>
       <c r="E12">
-        <v>719</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45984.125</v>
+        <v>45993.125</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="C13">
-        <v>720</v>
+        <v>1762</v>
       </c>
       <c r="D13">
-        <v>1230.393097613464</v>
+        <v>2040.874468564577</v>
       </c>
       <c r="E13">
-        <v>720</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45984.13541666666</v>
+        <v>45993.13541666666</v>
       </c>
       <c r="B14">
-        <v>465</v>
+        <v>799</v>
       </c>
       <c r="C14">
-        <v>709</v>
+        <v>1717</v>
       </c>
       <c r="D14">
-        <v>1242.779819015583</v>
+        <v>2038.408608468857</v>
       </c>
       <c r="E14">
-        <v>1174</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45984.14583333334</v>
+        <v>45993.14583333334</v>
       </c>
       <c r="B15">
-        <v>464</v>
+        <v>803</v>
       </c>
       <c r="C15">
-        <v>708</v>
+        <v>1715</v>
       </c>
       <c r="D15">
-        <v>1255.166540417702</v>
+        <v>2035.942748373137</v>
       </c>
       <c r="E15">
-        <v>1172</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45984.15625</v>
+        <v>45993.15625</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="D16">
-        <v>1267.553261819821</v>
+        <v>2033.476888277416</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45984.16666666666</v>
+        <v>45993.16666666666</v>
       </c>
       <c r="B17">
-        <v>466</v>
+        <v>810</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1279.93998322194</v>
+        <v>2031.011028181696</v>
       </c>
       <c r="E17">
-        <v>466</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45984.17708333334</v>
+        <v>45993.17708333334</v>
       </c>
       <c r="B18">
-        <v>473</v>
+        <v>824</v>
       </c>
       <c r="C18">
-        <v>700</v>
+        <v>1699</v>
       </c>
       <c r="D18">
-        <v>1309.319970231822</v>
+        <v>2071.897522649805</v>
       </c>
       <c r="E18">
-        <v>1173</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45984.1875</v>
+        <v>45993.1875</v>
       </c>
       <c r="B19">
-        <v>472</v>
+        <v>829</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="D19">
-        <v>1338.699957241704</v>
+        <v>2112.784017117915</v>
       </c>
       <c r="E19">
-        <v>472</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45984.19791666666</v>
+        <v>45993.19791666666</v>
       </c>
       <c r="B20">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="D20">
-        <v>1368.079944251587</v>
+        <v>2153.670511586024</v>
       </c>
       <c r="E20">
-        <v>473</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45984.20833333334</v>
+        <v>45993.20833333334</v>
       </c>
       <c r="B21">
-        <v>475</v>
+        <v>838</v>
       </c>
       <c r="C21">
-        <v>702</v>
+        <v>1701</v>
       </c>
       <c r="D21">
-        <v>1397.459931261469</v>
+        <v>2194.557006054133</v>
       </c>
       <c r="E21">
-        <v>1177</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45984.21875</v>
+        <v>45993.21875</v>
       </c>
       <c r="B22">
-        <v>507</v>
+        <v>1055</v>
       </c>
       <c r="C22">
-        <v>733</v>
+        <v>1784</v>
       </c>
       <c r="D22">
-        <v>1514.098904257309</v>
+        <v>2321.514688280813</v>
       </c>
       <c r="E22">
-        <v>1240</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45984.22916666666</v>
+        <v>45993.22916666666</v>
       </c>
       <c r="B23">
-        <v>508</v>
+        <v>1052</v>
       </c>
       <c r="C23">
-        <v>738</v>
+        <v>1783</v>
       </c>
       <c r="D23">
-        <v>1630.737877253149</v>
+        <v>2448.472370507493</v>
       </c>
       <c r="E23">
-        <v>1246</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45984.23958333334</v>
+        <v>45993.23958333334</v>
       </c>
       <c r="B24">
-        <v>509</v>
+        <v>1057</v>
       </c>
       <c r="C24">
-        <v>739</v>
+        <v>1813</v>
       </c>
       <c r="D24">
-        <v>1747.376850248989</v>
+        <v>2575.430052734172</v>
       </c>
       <c r="E24">
-        <v>1248</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45984.25</v>
+        <v>45993.25</v>
       </c>
       <c r="B25">
-        <v>535</v>
+        <v>1055</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="D25">
-        <v>1864.015823244829</v>
+        <v>2702.387734960852</v>
       </c>
       <c r="E25">
-        <v>535</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45984.26041666666</v>
+        <v>45993.26041666666</v>
       </c>
       <c r="B26">
-        <v>591</v>
+        <v>1181</v>
       </c>
       <c r="C26">
-        <v>735</v>
+        <v>1813</v>
       </c>
       <c r="D26">
-        <v>1908.467913417289</v>
+        <v>2716.071796518209</v>
       </c>
       <c r="E26">
-        <v>1326</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45984.27083333334</v>
+        <v>45993.27083333334</v>
       </c>
       <c r="B27">
-        <v>573</v>
+        <v>1183</v>
       </c>
       <c r="C27">
-        <v>742</v>
+        <v>1808</v>
       </c>
       <c r="D27">
-        <v>1952.920003589749</v>
+        <v>2729.755858075565</v>
       </c>
       <c r="E27">
-        <v>1315</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45984.28125</v>
+        <v>45993.28125</v>
       </c>
       <c r="B28">
-        <v>562</v>
+        <v>1186</v>
       </c>
       <c r="C28">
-        <v>751</v>
+        <v>1817</v>
       </c>
       <c r="D28">
-        <v>1997.372093762209</v>
+        <v>2743.439919632921</v>
       </c>
       <c r="E28">
-        <v>1313</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45984.29166666666</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="B29">
-        <v>560</v>
+        <v>1228</v>
       </c>
       <c r="C29">
-        <v>758</v>
+        <v>1811</v>
       </c>
       <c r="D29">
-        <v>2041.824183934669</v>
+        <v>2757.123981190278</v>
       </c>
       <c r="E29">
-        <v>1318</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45984.30208333334</v>
+        <v>45993.30208333334</v>
       </c>
       <c r="B30">
-        <v>603</v>
+        <v>1273</v>
       </c>
       <c r="C30">
-        <v>748</v>
+        <v>1787</v>
       </c>
       <c r="D30">
-        <v>2015.150806999814</v>
+        <v>2749.492485321631</v>
       </c>
       <c r="E30">
-        <v>1351</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45984.3125</v>
+        <v>45993.3125</v>
       </c>
       <c r="B31">
-        <v>610</v>
+        <v>1269</v>
       </c>
       <c r="C31">
-        <v>738</v>
+        <v>1789</v>
       </c>
       <c r="D31">
-        <v>1988.477430064958</v>
+        <v>2741.860989452985</v>
       </c>
       <c r="E31">
-        <v>1348</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45984.32291666666</v>
+        <v>45993.32291666666</v>
       </c>
       <c r="B32">
-        <v>626</v>
+        <v>1268</v>
       </c>
       <c r="C32">
-        <v>731</v>
+        <v>1781</v>
       </c>
       <c r="D32">
-        <v>1961.804053130102</v>
+        <v>2734.229493584338</v>
       </c>
       <c r="E32">
-        <v>1357</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45984.33333333334</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1935.130676195246</v>
+        <v>2726.597997715691</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45984.34375</v>
+        <v>45993.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="D34">
-        <v>1898.511834004247</v>
+        <v>2695.867338107305</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45984.35416666666</v>
+        <v>45993.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="D35">
-        <v>1861.892991813248</v>
+        <v>2665.136678498919</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45984.36458333334</v>
+        <v>45993.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1183</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="D36">
-        <v>1825.274149622249</v>
+        <v>2634.406018890533</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45984.375</v>
+        <v>45993.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1754</v>
       </c>
       <c r="D37">
-        <v>1788.65530743125</v>
+        <v>2603.675359282147</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45984.38541666666</v>
+        <v>45993.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="D38">
-        <v>1775.578665814321</v>
+        <v>2594.90352495028</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45984.39583333334</v>
+        <v>45993.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="D39">
-        <v>1762.502024197392</v>
+        <v>2586.131690618413</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45984.40625</v>
+        <v>45993.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="D40">
-        <v>1749.425382580463</v>
+        <v>2577.359856286546</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45984.41666666666</v>
+        <v>45993.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="D41">
-        <v>1736.348740963534</v>
+        <v>2568.58802195468</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45984.42708333334</v>
+        <v>45993.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1765</v>
       </c>
       <c r="D42">
-        <v>1691.440242033095</v>
+        <v>2577.379349251728</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45984.4375</v>
+        <v>45993.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1646.531743102655</v>
+        <v>2586.170676548776</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45984.44791666666</v>
+        <v>45993.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1601.623244172215</v>
+        <v>2594.962003845824</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45984.45833333334</v>
+        <v>45993.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1556.714745241776</v>
+        <v>2603.753331142872</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45984.46875</v>
+        <v>45993.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1572.094658961948</v>
+        <v>2593.821665382825</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45984.47916666666</v>
+        <v>45993.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1587.47457268212</v>
+        <v>2583.889999622778</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45984.48958333334</v>
+        <v>45993.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1602.854486402292</v>
+        <v>2573.958333862732</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45984.5</v>
+        <v>45993.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1618.234400122464</v>
+        <v>2564.026668102685</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45984.51041666666</v>
+        <v>45993.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1633.051763513221</v>
+        <v>2557.204130289189</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45984.52083333334</v>
+        <v>45993.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1647.869126903979</v>
+        <v>2550.381592475694</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45984.53125</v>
+        <v>45993.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1662.686490294736</v>
+        <v>2543.559054662198</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45984.54166666666</v>
+        <v>45993.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1677.503853685493</v>
+        <v>2536.736516848703</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45984.55208333334</v>
+        <v>45993.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1733.960555602504</v>
+        <v>2569.825825244156</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45984.5625</v>
+        <v>45993.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1790.417257519515</v>
+        <v>2602.915133639609</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45984.57291666666</v>
+        <v>45993.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1846.873959436526</v>
+        <v>2636.004442035062</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45984.58333333334</v>
+        <v>45993.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1903.330661353537</v>
+        <v>2669.093750430515</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45984.59375</v>
+        <v>45993.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1937.12613774072</v>
+        <v>2707.99196245028</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45984.60416666666</v>
+        <v>45993.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1970.921614127903</v>
+        <v>2746.890174470046</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45984.61458333334</v>
+        <v>45993.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2004.717090515086</v>
+        <v>2785.788386489812</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45984.625</v>
+        <v>45993.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2038.512566902269</v>
+        <v>2824.686598509578</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45984.63541666666</v>
+        <v>45993.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2092.262658744196</v>
+        <v>2838.555843235777</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45984.64583333334</v>
+        <v>45993.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2146.012750586123</v>
+        <v>2852.425087961975</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45984.65625</v>
+        <v>45993.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2199.762842428049</v>
+        <v>2866.294332688173</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45984.66666666666</v>
+        <v>45993.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2253.512934269976</v>
+        <v>2880.163577414372</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45984.67708333334</v>
+        <v>45993.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2297.529843999137</v>
+        <v>2905.075586916481</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45984.6875</v>
+        <v>45993.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2341.546753728298</v>
+        <v>2929.98759641859</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45984.69791666666</v>
+        <v>45993.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2385.563663457459</v>
+        <v>2954.899605920699</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45984.70833333334</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2429.58057318662</v>
+        <v>2979.811615422809</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45984.71875</v>
+        <v>45993.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2448.898339211957</v>
+        <v>2986.46846303213</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45984.72916666666</v>
+        <v>45993.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2468.216105237294</v>
+        <v>2993.125310641452</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45984.73958333334</v>
+        <v>45993.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2487.533871262631</v>
+        <v>2999.782158250773</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45984.75</v>
+        <v>45993.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2506.851637287968</v>
+        <v>3006.439005860094</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45984.76041666666</v>
+        <v>45993.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2519.705381604665</v>
+        <v>3004.752864371902</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45984.77083333334</v>
+        <v>45993.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2532.559125921362</v>
+        <v>3003.066722883709</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45984.78125</v>
+        <v>45993.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2545.41287023806</v>
+        <v>3001.380581395516</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45984.79166666666</v>
+        <v>45993.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2558.266614554758</v>
+        <v>2999.694439907324</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45984.80208333334</v>
+        <v>45993.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2510.959316107157</v>
+        <v>2988.944069609642</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45984.8125</v>
+        <v>45993.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2463.652017659556</v>
+        <v>2978.19369931196</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45984.82291666666</v>
+        <v>45993.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2416.344719211956</v>
+        <v>2967.443329014278</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45984.83333333334</v>
+        <v>45993.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2369.037420764355</v>
+        <v>2956.692958716596</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45984.84375</v>
+        <v>45993.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2308.918834628361</v>
+        <v>2934.675654544319</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45984.85416666666</v>
+        <v>45993.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2248.800248492367</v>
+        <v>2912.658350372041</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45984.86458333334</v>
+        <v>45993.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2188.681662356373</v>
+        <v>2890.641046199763</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45984.875</v>
+        <v>45993.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2128.563076220379</v>
+        <v>2868.623742027486</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45984.88541666666</v>
+        <v>45993.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2015.310019357657</v>
+        <v>2815.213017430525</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45984.89583333334</v>
+        <v>45993.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1902.056962494935</v>
+        <v>2761.802292833564</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45984.90625</v>
+        <v>45993.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1788.803905632213</v>
+        <v>2708.391568236602</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45984.91666666666</v>
+        <v>45993.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1675.550848769491</v>
+        <v>2654.980843639642</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45984.92708333334</v>
+        <v>45993.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1636.596892003912</v>
+        <v>2549.280239943496</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45984.9375</v>
+        <v>45993.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1597.642935238333</v>
+        <v>2443.57963624735</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45984.94791666666</v>
+        <v>45993.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1558.688978472754</v>
+        <v>2337.879032551204</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45984.95833333334</v>
+        <v>45993.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1519.735021707175</v>
+        <v>2232.178428855058</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45984.96875</v>
+        <v>45993.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1492.952904255268</v>
+        <v>2178.356835672334</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45984.97916666666</v>
+        <v>45993.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1466.17078680336</v>
+        <v>2124.535242489609</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45984.98958333334</v>
+        <v>45993.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1439.388669351453</v>
+        <v>2070.713649306885</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45985</v>
+        <v>45994</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1412.606551899545</v>
+        <v>2016.89205612416</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
       <c r="B2">
-        <v>991</v>
+        <v>1021</v>
       </c>
       <c r="C2">
-        <v>1774</v>
+        <v>1727</v>
       </c>
       <c r="D2">
-        <v>2012.29778160754</v>
+        <v>1764.248775767699</v>
       </c>
       <c r="E2">
-        <v>2765</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
       <c r="B3">
-        <v>987</v>
+        <v>1030</v>
       </c>
       <c r="C3">
-        <v>1766</v>
+        <v>1724</v>
       </c>
       <c r="D3">
-        <v>2014.948824872212</v>
+        <v>1768.837265095558</v>
       </c>
       <c r="E3">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
       <c r="B4">
-        <v>995</v>
+        <v>1027</v>
       </c>
       <c r="C4">
-        <v>1767</v>
+        <v>1723</v>
       </c>
       <c r="D4">
-        <v>2017.599868136884</v>
+        <v>1773.425754423417</v>
       </c>
       <c r="E4">
-        <v>2762</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
       <c r="B5">
-        <v>983</v>
+        <v>1026</v>
       </c>
       <c r="C5">
-        <v>1765</v>
+        <v>1721</v>
       </c>
       <c r="D5">
-        <v>2020.250911401556</v>
+        <v>1778.014243751276</v>
       </c>
       <c r="E5">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
       <c r="B6">
-        <v>985</v>
+        <v>912</v>
       </c>
       <c r="C6">
-        <v>1766</v>
+        <v>1705</v>
       </c>
       <c r="D6">
-        <v>2022.092996611199</v>
+        <v>1777.079148769769</v>
       </c>
       <c r="E6">
-        <v>2751</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
       <c r="B7">
-        <v>1004</v>
+        <v>906</v>
       </c>
       <c r="C7">
-        <v>1769</v>
+        <v>1706</v>
       </c>
       <c r="D7">
-        <v>2023.935081820843</v>
+        <v>1776.144053788262</v>
       </c>
       <c r="E7">
-        <v>2773</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
       <c r="B8">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1764</v>
+        <v>1704</v>
       </c>
       <c r="D8">
-        <v>2025.777167030486</v>
+        <v>1775.208958806755</v>
       </c>
       <c r="E8">
-        <v>2762</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
       <c r="B9">
-        <v>985</v>
+        <v>905</v>
       </c>
       <c r="C9">
-        <v>1766</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2027.61925224013</v>
+        <v>1774.273863825249</v>
       </c>
       <c r="E9">
-        <v>2751</v>
+        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
       <c r="B10">
-        <v>981</v>
+        <v>915</v>
       </c>
       <c r="C10">
-        <v>1764</v>
+        <v>1714</v>
       </c>
       <c r="D10">
-        <v>2030.933056321242</v>
+        <v>1767.916667710663</v>
       </c>
       <c r="E10">
-        <v>2745</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
       <c r="B11">
-        <v>982</v>
+        <v>912</v>
       </c>
       <c r="C11">
-        <v>1765</v>
+        <v>1712</v>
       </c>
       <c r="D11">
-        <v>2034.246860402353</v>
+        <v>1761.559471596078</v>
       </c>
       <c r="E11">
-        <v>2747</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
       <c r="B12">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1763</v>
+        <v>1711</v>
       </c>
       <c r="D12">
-        <v>2037.560664483465</v>
+        <v>1755.202275481493</v>
       </c>
       <c r="E12">
-        <v>2692</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
       <c r="B13">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C13">
-        <v>1762</v>
+        <v>1712</v>
       </c>
       <c r="D13">
-        <v>2040.874468564577</v>
+        <v>1748.845079366908</v>
       </c>
       <c r="E13">
-        <v>2680</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
       <c r="B14">
-        <v>799</v>
+        <v>915</v>
       </c>
       <c r="C14">
-        <v>1717</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2038.408608468857</v>
+        <v>1744.952474676356</v>
       </c>
       <c r="E14">
-        <v>2516</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
       <c r="B15">
-        <v>803</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D15">
-        <v>2035.942748373137</v>
+        <v>1741.059869985803</v>
       </c>
       <c r="E15">
-        <v>2518</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
       <c r="B16">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="C16">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2033.476888277416</v>
+        <v>1737.167265295251</v>
       </c>
       <c r="E16">
-        <v>2522</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
       <c r="B17">
-        <v>810</v>
+        <v>915</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="D17">
-        <v>2031.011028181696</v>
+        <v>1733.274660604699</v>
       </c>
       <c r="E17">
-        <v>810</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
       <c r="B18">
-        <v>824</v>
+        <v>930</v>
       </c>
       <c r="C18">
-        <v>1699</v>
+        <v>1723</v>
       </c>
       <c r="D18">
-        <v>2071.897522649805</v>
+        <v>1759.131124163102</v>
       </c>
       <c r="E18">
-        <v>2523</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
       <c r="B19">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1700</v>
+        <v>1724</v>
       </c>
       <c r="D19">
-        <v>2112.784017117915</v>
+        <v>1784.987587721505</v>
       </c>
       <c r="E19">
-        <v>2529</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="C20">
-        <v>1703</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2153.670511586024</v>
+        <v>1810.844051279909</v>
       </c>
       <c r="E20">
-        <v>1703</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
       <c r="B21">
-        <v>838</v>
+        <v>950</v>
       </c>
       <c r="C21">
-        <v>1701</v>
+        <v>1722</v>
       </c>
       <c r="D21">
-        <v>2194.557006054133</v>
+        <v>1836.700514838312</v>
       </c>
       <c r="E21">
-        <v>2539</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
       <c r="B22">
-        <v>1055</v>
+        <v>1161</v>
       </c>
       <c r="C22">
-        <v>1784</v>
+        <v>1717</v>
       </c>
       <c r="D22">
-        <v>2321.514688280813</v>
+        <v>1915.552942813846</v>
       </c>
       <c r="E22">
-        <v>2839</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
       <c r="B23">
-        <v>1052</v>
+        <v>1156</v>
       </c>
       <c r="C23">
-        <v>1783</v>
+        <v>1716</v>
       </c>
       <c r="D23">
-        <v>2448.472370507493</v>
+        <v>1994.40537078938</v>
       </c>
       <c r="E23">
-        <v>2835</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
       <c r="B24">
-        <v>1057</v>
+        <v>1163</v>
       </c>
       <c r="C24">
-        <v>1813</v>
+        <v>1718</v>
       </c>
       <c r="D24">
-        <v>2575.430052734172</v>
+        <v>2073.257798764913</v>
       </c>
       <c r="E24">
-        <v>2870</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
       <c r="B25">
-        <v>1055</v>
+        <v>1175</v>
       </c>
       <c r="C25">
-        <v>1812</v>
+        <v>1719</v>
       </c>
       <c r="D25">
-        <v>2702.387734960852</v>
+        <v>2152.110226740447</v>
       </c>
       <c r="E25">
-        <v>2867</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
       <c r="B26">
-        <v>1181</v>
+        <v>1300</v>
       </c>
       <c r="C26">
-        <v>1813</v>
+        <v>1711</v>
       </c>
       <c r="D26">
-        <v>2716.071796518209</v>
+        <v>2165.01308772546</v>
       </c>
       <c r="E26">
-        <v>2994</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
       <c r="B27">
-        <v>1183</v>
+        <v>1289</v>
       </c>
       <c r="C27">
-        <v>1808</v>
+        <v>1705</v>
       </c>
       <c r="D27">
-        <v>2729.755858075565</v>
+        <v>2177.915948710473</v>
       </c>
       <c r="E27">
-        <v>2991</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
       <c r="B28">
-        <v>1186</v>
+        <v>1285</v>
       </c>
       <c r="C28">
-        <v>1817</v>
+        <v>1703</v>
       </c>
       <c r="D28">
-        <v>2743.439919632921</v>
+        <v>2190.818809695486</v>
       </c>
       <c r="E28">
-        <v>3003</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
       <c r="B29">
-        <v>1228</v>
+        <v>1284</v>
       </c>
       <c r="C29">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2757.123981190278</v>
+        <v>2203.721670680499</v>
       </c>
       <c r="E29">
-        <v>3039</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
       <c r="B30">
-        <v>1273</v>
+        <v>1327</v>
       </c>
       <c r="C30">
-        <v>1787</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2749.492485321631</v>
+        <v>2195.885719711558</v>
       </c>
       <c r="E30">
-        <v>3060</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
       <c r="B31">
-        <v>1269</v>
+        <v>1325</v>
       </c>
       <c r="C31">
-        <v>1789</v>
+        <v>1691</v>
       </c>
       <c r="D31">
-        <v>2741.860989452985</v>
+        <v>2188.049768742616</v>
       </c>
       <c r="E31">
-        <v>3058</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
       <c r="B32">
-        <v>1268</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1781</v>
+        <v>1683</v>
       </c>
       <c r="D32">
-        <v>2734.229493584338</v>
+        <v>2180.213817773675</v>
       </c>
       <c r="E32">
-        <v>3049</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
       <c r="B33">
-        <v>1278</v>
+        <v>1329</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="D33">
-        <v>2726.597997715691</v>
+        <v>2172.377866804733</v>
       </c>
       <c r="E33">
-        <v>1278</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
       <c r="B34">
-        <v>1243</v>
+        <v>1295</v>
       </c>
       <c r="C34">
-        <v>1767</v>
+        <v>1690</v>
       </c>
       <c r="D34">
-        <v>2695.867338107305</v>
+        <v>2158.075987746379</v>
       </c>
       <c r="E34">
-        <v>3010</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
       <c r="B35">
-        <v>1190</v>
+        <v>1284</v>
       </c>
       <c r="C35">
-        <v>1762</v>
+        <v>1686</v>
       </c>
       <c r="D35">
-        <v>2665.136678498919</v>
+        <v>2143.774108688025</v>
       </c>
       <c r="E35">
-        <v>2952</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
       <c r="B36">
-        <v>1183</v>
+        <v>1288</v>
       </c>
       <c r="C36">
-        <v>1760</v>
+        <v>1683</v>
       </c>
       <c r="D36">
-        <v>2634.406018890533</v>
+        <v>2129.47222962967</v>
       </c>
       <c r="E36">
-        <v>2943</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B37">
-        <v>1175</v>
+        <v>1300</v>
       </c>
       <c r="C37">
-        <v>1754</v>
+        <v>1682</v>
       </c>
       <c r="D37">
-        <v>2603.675359282147</v>
+        <v>2115.170350571316</v>
       </c>
       <c r="E37">
-        <v>2929</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
       <c r="B38">
-        <v>1148</v>
+        <v>1229</v>
       </c>
       <c r="C38">
-        <v>1768</v>
+        <v>1702</v>
       </c>
       <c r="D38">
-        <v>2594.90352495028</v>
+        <v>2116.554871047925</v>
       </c>
       <c r="E38">
-        <v>2916</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
       <c r="B39">
-        <v>1149</v>
+        <v>1218</v>
       </c>
       <c r="C39">
-        <v>1774</v>
+        <v>1715</v>
       </c>
       <c r="D39">
-        <v>2586.131690618413</v>
+        <v>2117.939391524535</v>
       </c>
       <c r="E39">
-        <v>2923</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
       <c r="B40">
-        <v>1147</v>
+        <v>1216</v>
       </c>
       <c r="C40">
-        <v>1769</v>
+        <v>1731</v>
       </c>
       <c r="D40">
-        <v>2577.359856286546</v>
+        <v>2119.323912001144</v>
       </c>
       <c r="E40">
-        <v>2916</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="C41">
-        <v>1774</v>
+        <v>1730</v>
       </c>
       <c r="D41">
-        <v>2568.58802195468</v>
+        <v>2120.708432477753</v>
       </c>
       <c r="E41">
-        <v>1774</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.42708333334</v>
       </c>
       <c r="B42">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="C42">
-        <v>1765</v>
+        <v>1664</v>
       </c>
       <c r="D42">
-        <v>2577.379349251728</v>
+        <v>2131.378663584559</v>
       </c>
       <c r="E42">
-        <v>2894</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45993.4375</v>
+        <v>45995.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2586.170676548776</v>
+        <v>2142.048894691366</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45993.44791666666</v>
+        <v>45995.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2594.962003845824</v>
+        <v>2152.719125798172</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45993.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2603.753331142872</v>
+        <v>2163.389356904978</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45993.46875</v>
+        <v>45995.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2593.821665382825</v>
+        <v>2152.494413050678</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45993.47916666666</v>
+        <v>45995.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2583.889999622778</v>
+        <v>2141.599469196378</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45993.48958333334</v>
+        <v>45995.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>2573.958333862732</v>
+        <v>2130.704525342077</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45993.5</v>
+        <v>45995.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>2564.026668102685</v>
+        <v>2119.809581487777</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2557.204130289189</v>
+        <v>2111.480712233778</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2550.381592475694</v>
+        <v>2103.151842979779</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45993.53125</v>
+        <v>45995.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2543.559054662198</v>
+        <v>2094.82297372578</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45993.54166666666</v>
+        <v>45995.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2536.736516848703</v>
+        <v>2086.494104471781</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45993.55208333334</v>
+        <v>45995.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2569.825825244156</v>
+        <v>2104.869808178365</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45993.5625</v>
+        <v>45995.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2602.915133639609</v>
+        <v>2123.24551188495</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45993.57291666666</v>
+        <v>45995.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2636.004442035062</v>
+        <v>2141.621215591535</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45993.58333333334</v>
+        <v>45995.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2669.093750430515</v>
+        <v>2159.99691929812</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45993.59375</v>
+        <v>45995.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2707.99196245028</v>
+        <v>2181.206903141981</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45993.60416666666</v>
+        <v>45995.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2746.890174470046</v>
+        <v>2202.416886985842</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45993.61458333334</v>
+        <v>45995.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2785.788386489812</v>
+        <v>2223.626870829704</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45993.625</v>
+        <v>45995.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2824.686598509578</v>
+        <v>2244.836854673565</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45993.63541666666</v>
+        <v>45995.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2838.555843235777</v>
+        <v>2255.072157882118</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45993.64583333334</v>
+        <v>45995.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2852.425087961975</v>
+        <v>2265.307461090671</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45993.65625</v>
+        <v>45995.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2866.294332688173</v>
+        <v>2275.542764299223</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45993.66666666666</v>
+        <v>45995.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2880.163577414372</v>
+        <v>2285.778067507776</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45993.67708333334</v>
+        <v>45995.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2905.075586916481</v>
+        <v>2307.770921568951</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45993.6875</v>
+        <v>45995.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2929.98759641859</v>
+        <v>2329.763775630126</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45993.69791666666</v>
+        <v>45995.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2954.899605920699</v>
+        <v>2351.756629691302</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45993.70833333334</v>
+        <v>45995.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2979.811615422809</v>
+        <v>2373.749483752477</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45993.71875</v>
+        <v>45995.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2986.46846303213</v>
+        <v>2378.330724281901</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45993.72916666666</v>
+        <v>45995.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2993.125310641452</v>
+        <v>2382.911964811324</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45993.73958333334</v>
+        <v>45995.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2999.782158250773</v>
+        <v>2387.493205340747</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45993.75</v>
+        <v>45995.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>3006.439005860094</v>
+        <v>2392.07444587017</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45993.76041666666</v>
+        <v>45995.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>3004.752864371902</v>
+        <v>2391.972962694012</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45993.77083333334</v>
+        <v>45995.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3003.066722883709</v>
+        <v>2391.871479517854</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45993.78125</v>
+        <v>45995.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3001.380581395516</v>
+        <v>2391.769996341696</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45993.79166666666</v>
+        <v>45995.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2999.694439907324</v>
+        <v>2391.668513165539</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45993.80208333334</v>
+        <v>45995.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2988.944069609642</v>
+        <v>2384.963374732125</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45993.8125</v>
+        <v>45995.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2978.19369931196</v>
+        <v>2378.258236298711</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45993.82291666666</v>
+        <v>45995.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2967.443329014278</v>
+        <v>2371.553097865298</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45993.83333333334</v>
+        <v>45995.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2956.692958716596</v>
+        <v>2364.847959431885</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45993.84375</v>
+        <v>45995.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2934.675654544319</v>
+        <v>2347.719049034334</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45993.85416666666</v>
+        <v>45995.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2912.658350372041</v>
+        <v>2330.590138636783</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45993.86458333334</v>
+        <v>45995.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2890.641046199763</v>
+        <v>2313.461228239233</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45993.875</v>
+        <v>45995.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2868.623742027486</v>
+        <v>2296.332317841682</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45993.88541666666</v>
+        <v>45995.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2815.213017430525</v>
+        <v>2266.467268819914</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45993.89583333334</v>
+        <v>45995.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2761.802292833564</v>
+        <v>2236.602219798147</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45993.90625</v>
+        <v>45995.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2708.391568236602</v>
+        <v>2206.737170776379</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45993.91666666666</v>
+        <v>45995.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2654.980843639642</v>
+        <v>2176.872121754611</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45993.92708333334</v>
+        <v>45995.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2549.280239943496</v>
+        <v>2101.999284049107</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45993.9375</v>
+        <v>45995.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2443.57963624735</v>
+        <v>2027.126446343603</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45993.94791666666</v>
+        <v>45995.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>2337.879032551204</v>
+        <v>1952.253608638099</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45993.95833333334</v>
+        <v>45995.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2232.178428855058</v>
+        <v>1877.380770932595</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45993.96875</v>
+        <v>45995.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2178.356835672334</v>
+        <v>1827.318448730275</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45993.97916666666</v>
+        <v>45995.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2124.535242489609</v>
+        <v>1777.256126527955</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45993.98958333334</v>
+        <v>45995.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>2070.713649306885</v>
+        <v>1727.193804325635</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2016.89205612416</v>
+        <v>1677.131482123315</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,704 +415,704 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
       <c r="B2">
-        <v>1021</v>
+        <v>608</v>
       </c>
       <c r="C2">
-        <v>1727</v>
+        <v>676</v>
       </c>
       <c r="D2">
-        <v>1764.248775767699</v>
+        <v>1066.749049282409</v>
       </c>
       <c r="E2">
-        <v>2748</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
       <c r="B3">
-        <v>1030</v>
+        <v>597</v>
       </c>
       <c r="C3">
-        <v>1724</v>
+        <v>670</v>
       </c>
       <c r="D3">
-        <v>1768.837265095558</v>
+        <v>1062.612292643739</v>
       </c>
       <c r="E3">
-        <v>2754</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
       <c r="B4">
-        <v>1027</v>
+        <v>600</v>
       </c>
       <c r="C4">
-        <v>1723</v>
+        <v>671</v>
       </c>
       <c r="D4">
-        <v>1773.425754423417</v>
+        <v>1058.475536005069</v>
       </c>
       <c r="E4">
-        <v>2750</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
       <c r="B5">
-        <v>1026</v>
+        <v>599</v>
       </c>
       <c r="C5">
-        <v>1721</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1778.014243751276</v>
+        <v>1054.338779366399</v>
       </c>
       <c r="E5">
-        <v>2747</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
       <c r="B6">
-        <v>912</v>
+        <v>602</v>
       </c>
       <c r="C6">
-        <v>1705</v>
+        <v>658</v>
       </c>
       <c r="D6">
-        <v>1777.079148769769</v>
+        <v>1047.150317010678</v>
       </c>
       <c r="E6">
-        <v>2617</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
       <c r="B7">
-        <v>906</v>
+        <v>598</v>
       </c>
       <c r="C7">
-        <v>1706</v>
+        <v>654</v>
       </c>
       <c r="D7">
-        <v>1776.144053788262</v>
+        <v>1039.961854654957</v>
       </c>
       <c r="E7">
-        <v>2612</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1704</v>
+        <v>655</v>
       </c>
       <c r="D8">
-        <v>1775.208958806755</v>
+        <v>1032.773392299236</v>
       </c>
       <c r="E8">
-        <v>1704</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
       <c r="B9">
-        <v>905</v>
+        <v>597</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1774.273863825249</v>
+        <v>1025.584929943515</v>
       </c>
       <c r="E9">
-        <v>905</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
       <c r="B10">
-        <v>915</v>
+        <v>549</v>
       </c>
       <c r="C10">
-        <v>1714</v>
+        <v>671</v>
       </c>
       <c r="D10">
-        <v>1767.916667710663</v>
+        <v>1024.703326069624</v>
       </c>
       <c r="E10">
-        <v>2629</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
       <c r="B11">
-        <v>912</v>
+        <v>546</v>
       </c>
       <c r="C11">
-        <v>1712</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1761.559471596078</v>
+        <v>1023.821722195733</v>
       </c>
       <c r="E11">
-        <v>2624</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1711</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1755.202275481493</v>
+        <v>1022.940118321842</v>
       </c>
       <c r="E12">
-        <v>1711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
       <c r="B13">
-        <v>913</v>
+        <v>547</v>
       </c>
       <c r="C13">
-        <v>1712</v>
+        <v>670</v>
       </c>
       <c r="D13">
-        <v>1748.845079366908</v>
+        <v>1022.058514447951</v>
       </c>
       <c r="E13">
-        <v>2625</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
       <c r="B14">
-        <v>915</v>
+        <v>549</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="D14">
-        <v>1744.952474676356</v>
+        <v>1028.480659590198</v>
       </c>
       <c r="E14">
-        <v>915</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="C15">
-        <v>1713</v>
+        <v>671</v>
       </c>
       <c r="D15">
-        <v>1741.059869985803</v>
+        <v>1034.902804732446</v>
       </c>
       <c r="E15">
-        <v>1713</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
       <c r="B16">
-        <v>916</v>
+        <v>548</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1737.167265295251</v>
+        <v>1041.324949874694</v>
       </c>
       <c r="E16">
-        <v>916</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
       <c r="B17">
-        <v>915</v>
+        <v>546</v>
       </c>
       <c r="C17">
-        <v>1712</v>
+        <v>672</v>
       </c>
       <c r="D17">
-        <v>1733.274660604699</v>
+        <v>1047.747095016941</v>
       </c>
       <c r="E17">
-        <v>2627</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
       <c r="B18">
-        <v>930</v>
+        <v>526</v>
       </c>
       <c r="C18">
-        <v>1723</v>
+        <v>688</v>
       </c>
       <c r="D18">
-        <v>1759.131124163102</v>
+        <v>1061.303449969232</v>
       </c>
       <c r="E18">
-        <v>2653</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1724</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1784.987587721505</v>
+        <v>1074.859804921522</v>
       </c>
       <c r="E19">
-        <v>1724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
       <c r="B20">
-        <v>932</v>
+        <v>531</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1810.844051279909</v>
+        <v>1088.416159873812</v>
       </c>
       <c r="E20">
-        <v>932</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B21">
-        <v>950</v>
+        <v>533</v>
       </c>
       <c r="C21">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1836.700514838312</v>
+        <v>1101.972514826102</v>
       </c>
       <c r="E21">
-        <v>2672</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
       <c r="B22">
-        <v>1161</v>
+        <v>597</v>
       </c>
       <c r="C22">
-        <v>1717</v>
+        <v>715</v>
       </c>
       <c r="D22">
-        <v>1915.552942813846</v>
+        <v>1209.860484275977</v>
       </c>
       <c r="E22">
-        <v>2878</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
       <c r="B23">
-        <v>1156</v>
+        <v>599</v>
       </c>
       <c r="C23">
-        <v>1716</v>
+        <v>717</v>
       </c>
       <c r="D23">
-        <v>1994.40537078938</v>
+        <v>1317.748453725852</v>
       </c>
       <c r="E23">
-        <v>2872</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
       <c r="B24">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1718</v>
+        <v>718</v>
       </c>
       <c r="D24">
-        <v>2073.257798764913</v>
+        <v>1425.636423175726</v>
       </c>
       <c r="E24">
-        <v>2881</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
       <c r="B25">
-        <v>1175</v>
+        <v>619</v>
       </c>
       <c r="C25">
-        <v>1719</v>
+        <v>724</v>
       </c>
       <c r="D25">
-        <v>2152.110226740447</v>
+        <v>1533.5243926256</v>
       </c>
       <c r="E25">
-        <v>2894</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
       <c r="B26">
-        <v>1300</v>
+        <v>791</v>
       </c>
       <c r="C26">
-        <v>1711</v>
+        <v>1030</v>
       </c>
       <c r="D26">
-        <v>2165.01308772546</v>
+        <v>1557.924475225484</v>
       </c>
       <c r="E26">
-        <v>3011</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
       <c r="B27">
-        <v>1289</v>
+        <v>797</v>
       </c>
       <c r="C27">
-        <v>1705</v>
+        <v>1045</v>
       </c>
       <c r="D27">
-        <v>2177.915948710473</v>
+        <v>1582.324557825367</v>
       </c>
       <c r="E27">
-        <v>2994</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45995.28125</v>
+        <v>46006.28125</v>
       </c>
       <c r="B28">
-        <v>1285</v>
+        <v>817</v>
       </c>
       <c r="C28">
-        <v>1703</v>
+        <v>1051</v>
       </c>
       <c r="D28">
-        <v>2190.818809695486</v>
+        <v>1606.72464042525</v>
       </c>
       <c r="E28">
-        <v>2988</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.29166666666</v>
       </c>
       <c r="B29">
-        <v>1284</v>
+        <v>818</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="D29">
-        <v>2203.721670680499</v>
+        <v>1631.124723025133</v>
       </c>
       <c r="E29">
-        <v>1284</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.30208333334</v>
       </c>
       <c r="B30">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2195.885719711558</v>
+        <v>1620.782831428462</v>
       </c>
       <c r="E30">
-        <v>1327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45995.3125</v>
+        <v>46006.3125</v>
       </c>
       <c r="B31">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2188.049768742616</v>
+        <v>1610.440939831791</v>
       </c>
       <c r="E31">
-        <v>3016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45995.32291666666</v>
+        <v>46006.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2180.213817773675</v>
+        <v>1600.09904823512</v>
       </c>
       <c r="E32">
-        <v>1683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45995.33333333334</v>
+        <v>46006.33333333334</v>
       </c>
       <c r="B33">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2172.377866804733</v>
+        <v>1589.757156638449</v>
       </c>
       <c r="E33">
-        <v>3009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45995.34375</v>
+        <v>46006.34375</v>
       </c>
       <c r="B34">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2158.075987746379</v>
+        <v>1578.791360761965</v>
       </c>
       <c r="E34">
-        <v>2985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45995.35416666666</v>
+        <v>46006.35416666666</v>
       </c>
       <c r="B35">
-        <v>1284</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1686</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2143.774108688025</v>
+        <v>1567.825564885482</v>
       </c>
       <c r="E35">
-        <v>2970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45995.36458333334</v>
+        <v>46006.36458333334</v>
       </c>
       <c r="B36">
-        <v>1288</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1683</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2129.47222962967</v>
+        <v>1556.859769008998</v>
       </c>
       <c r="E36">
-        <v>2971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45995.375</v>
+        <v>46006.375</v>
       </c>
       <c r="B37">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1682</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2115.170350571316</v>
+        <v>1545.893973132514</v>
       </c>
       <c r="E37">
-        <v>2982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45995.38541666666</v>
+        <v>46006.38541666666</v>
       </c>
       <c r="B38">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>2116.554871047925</v>
+        <v>1520.849641547803</v>
       </c>
       <c r="E38">
-        <v>2931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45995.39583333334</v>
+        <v>46006.39583333334</v>
       </c>
       <c r="B39">
-        <v>1218</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2117.939391524535</v>
+        <v>1495.805309963092</v>
       </c>
       <c r="E39">
-        <v>2933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45995.40625</v>
+        <v>46006.40625</v>
       </c>
       <c r="B40">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1731</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2119.323912001144</v>
+        <v>1470.760978378381</v>
       </c>
       <c r="E40">
-        <v>2947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.41666666666</v>
       </c>
       <c r="B41">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2120.708432477753</v>
+        <v>1445.71664679367</v>
       </c>
       <c r="E41">
-        <v>2945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45995.42708333334</v>
+        <v>46006.42708333334</v>
       </c>
       <c r="B42">
-        <v>1107</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2131.378663584559</v>
+        <v>1429.345941013968</v>
       </c>
       <c r="E42">
-        <v>2771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45995.4375</v>
+        <v>46006.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2142.048894691366</v>
+        <v>1412.975235234266</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45995.44791666666</v>
+        <v>46006.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2152.719125798172</v>
+        <v>1396.604529454564</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45995.45833333334</v>
+        <v>46006.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2163.389356904978</v>
+        <v>1380.233823674863</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45995.46875</v>
+        <v>46006.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>2152.494413050678</v>
+        <v>1368.420331765539</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45995.47916666666</v>
+        <v>46006.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2141.599469196378</v>
+        <v>1356.606839856215</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45995.48958333334</v>
+        <v>46006.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>2130.704525342077</v>
+        <v>1344.793347946891</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45995.5</v>
+        <v>46006.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>2119.809581487777</v>
+        <v>1332.979856037568</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45995.51041666666</v>
+        <v>46006.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2111.480712233778</v>
+        <v>1340.358202304569</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45995.52083333334</v>
+        <v>46006.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2103.151842979779</v>
+        <v>1347.736548571571</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45995.53125</v>
+        <v>46006.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2094.82297372578</v>
+        <v>1355.114894838573</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45995.54166666666</v>
+        <v>46006.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2086.494104471781</v>
+        <v>1362.493241105575</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45995.55208333334</v>
+        <v>46006.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2104.869808178365</v>
+        <v>1393.68167353383</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45995.5625</v>
+        <v>46006.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2123.24551188495</v>
+        <v>1424.870105962085</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45995.57291666666</v>
+        <v>46006.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2141.621215591535</v>
+        <v>1456.058538390341</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45995.58333333334</v>
+        <v>46006.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2159.99691929812</v>
+        <v>1487.246970818596</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45995.59375</v>
+        <v>46006.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2181.206903141981</v>
+        <v>1527.75327803637</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45995.60416666666</v>
+        <v>46006.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2202.416886985842</v>
+        <v>1568.259585254145</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45995.61458333334</v>
+        <v>46006.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2223.626870829704</v>
+        <v>1608.765892471919</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45995.625</v>
+        <v>46006.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2244.836854673565</v>
+        <v>1649.272199689693</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45995.63541666666</v>
+        <v>46006.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2255.072157882118</v>
+        <v>1685.451866357539</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45995.64583333334</v>
+        <v>46006.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2265.307461090671</v>
+        <v>1721.631533025384</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45995.65625</v>
+        <v>46006.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2275.542764299223</v>
+        <v>1757.81119969323</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45995.66666666666</v>
+        <v>46006.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2285.778067507776</v>
+        <v>1793.990866361075</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45995.67708333334</v>
+        <v>46006.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2307.770921568951</v>
+        <v>1821.157828810811</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45995.6875</v>
+        <v>46006.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2329.763775630126</v>
+        <v>1848.324791260547</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45995.69791666666</v>
+        <v>46006.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2351.756629691302</v>
+        <v>1875.491753710283</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45995.70833333334</v>
+        <v>46006.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2373.749483752477</v>
+        <v>1902.658716160019</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45995.71875</v>
+        <v>46006.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2378.330724281901</v>
+        <v>1914.668873548529</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45995.72916666666</v>
+        <v>46006.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2382.911964811324</v>
+        <v>1926.679030937038</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45995.73958333334</v>
+        <v>46006.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2387.493205340747</v>
+        <v>1938.689188325548</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45995.75</v>
+        <v>46006.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2392.07444587017</v>
+        <v>1950.699345714057</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45995.76041666666</v>
+        <v>46006.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2391.972962694012</v>
+        <v>1946.630404758434</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45995.77083333334</v>
+        <v>46006.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2391.871479517854</v>
+        <v>1942.56146380281</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45995.78125</v>
+        <v>46006.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2391.769996341696</v>
+        <v>1938.492522847187</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45995.79166666666</v>
+        <v>46006.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2391.668513165539</v>
+        <v>1934.423581891563</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45995.80208333334</v>
+        <v>46006.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2384.963374732125</v>
+        <v>1921.999748838743</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45995.8125</v>
+        <v>46006.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2378.258236298711</v>
+        <v>1909.575915785922</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45995.82291666666</v>
+        <v>46006.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2371.553097865298</v>
+        <v>1897.152082733102</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45995.83333333334</v>
+        <v>46006.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2364.847959431885</v>
+        <v>1884.728249680282</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45995.84375</v>
+        <v>46006.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2347.719049034334</v>
+        <v>1829.316055427033</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45995.85416666666</v>
+        <v>46006.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2330.590138636783</v>
+        <v>1773.903861173784</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45995.86458333334</v>
+        <v>46006.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2313.461228239233</v>
+        <v>1718.491666920535</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45995.875</v>
+        <v>46006.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2296.332317841682</v>
+        <v>1663.079472667286</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45995.88541666666</v>
+        <v>46006.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2266.467268819914</v>
+        <v>1611.342888410875</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45995.89583333334</v>
+        <v>46006.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2236.602219798147</v>
+        <v>1559.606304154464</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45995.90625</v>
+        <v>46006.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2206.737170776379</v>
+        <v>1507.869719898054</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45995.91666666666</v>
+        <v>46006.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>2176.872121754611</v>
+        <v>1456.133135641643</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45995.92708333334</v>
+        <v>46006.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2101.999284049107</v>
+        <v>1385.726893965049</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45995.9375</v>
+        <v>46006.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>2027.126446343603</v>
+        <v>1315.320652288456</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45995.94791666666</v>
+        <v>46006.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1952.253608638099</v>
+        <v>1244.914410611863</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45995.95833333334</v>
+        <v>46006.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1877.380770932595</v>
+        <v>1174.508168935269</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45995.96875</v>
+        <v>46006.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1827.318448730275</v>
+        <v>1151.140362784208</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45995.97916666666</v>
+        <v>46006.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1777.256126527955</v>
+        <v>1127.772556633146</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45995.98958333334</v>
+        <v>46006.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1727.193804325635</v>
+        <v>1104.404750482085</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1677.131482123315</v>
+        <v>1081.036944331024</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,296 +415,296 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
       <c r="B2">
-        <v>608</v>
+        <v>697</v>
       </c>
       <c r="C2">
-        <v>676</v>
+        <v>462</v>
       </c>
       <c r="D2">
-        <v>1066.749049282409</v>
+        <v>1189.514447421573</v>
       </c>
       <c r="E2">
-        <v>1284</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
       <c r="B3">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="C3">
-        <v>670</v>
+        <v>454</v>
       </c>
       <c r="D3">
-        <v>1062.612292643739</v>
+        <v>1181.198763528253</v>
       </c>
       <c r="E3">
-        <v>1267</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>692</v>
       </c>
       <c r="C4">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1058.475536005069</v>
+        <v>1172.883079634933</v>
       </c>
       <c r="E4">
-        <v>1271</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
       <c r="B5">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="D5">
-        <v>1054.338779366399</v>
+        <v>1164.567395741612</v>
       </c>
       <c r="E5">
-        <v>599</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
       <c r="B6">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="C6">
-        <v>658</v>
+        <v>450</v>
       </c>
       <c r="D6">
-        <v>1047.150317010678</v>
+        <v>1158.56523731135</v>
       </c>
       <c r="E6">
-        <v>1260</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
       <c r="B7">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="C7">
-        <v>654</v>
+        <v>446</v>
       </c>
       <c r="D7">
-        <v>1039.961854654957</v>
+        <v>1152.563078881088</v>
       </c>
       <c r="E7">
-        <v>1252</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>655</v>
+        <v>460</v>
       </c>
       <c r="D8">
-        <v>1032.773392299236</v>
+        <v>1146.560920450826</v>
       </c>
       <c r="E8">
-        <v>655</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
       <c r="B9">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="D9">
-        <v>1025.584929943515</v>
+        <v>1140.558762020563</v>
       </c>
       <c r="E9">
-        <v>597</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
       <c r="B10">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="C10">
-        <v>671</v>
+        <v>442</v>
       </c>
       <c r="D10">
-        <v>1024.703326069624</v>
+        <v>1138.068702486072</v>
       </c>
       <c r="E10">
-        <v>1220</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
       <c r="B11">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="D11">
-        <v>1023.821722195733</v>
+        <v>1135.578642951581</v>
       </c>
       <c r="E11">
-        <v>546</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="D12">
-        <v>1022.940118321842</v>
+        <v>1133.08858341709</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
       <c r="B13">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="C13">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1022.058514447951</v>
+        <v>1130.598523882599</v>
       </c>
       <c r="E13">
-        <v>1217</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
       <c r="B14">
-        <v>549</v>
+        <v>684</v>
       </c>
       <c r="C14">
-        <v>672</v>
+        <v>437</v>
       </c>
       <c r="D14">
-        <v>1028.480659590198</v>
+        <v>1137.353274933375</v>
       </c>
       <c r="E14">
-        <v>1221</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
       <c r="B15">
-        <v>547</v>
+        <v>676</v>
       </c>
       <c r="C15">
-        <v>671</v>
+        <v>440</v>
       </c>
       <c r="D15">
-        <v>1034.902804732446</v>
+        <v>1144.108025984151</v>
       </c>
       <c r="E15">
-        <v>1218</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
       <c r="B16">
-        <v>548</v>
+        <v>735</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="D16">
-        <v>1041.324949874694</v>
+        <v>1150.862777034928</v>
       </c>
       <c r="E16">
-        <v>548</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
       <c r="B17">
-        <v>546</v>
+        <v>737</v>
       </c>
       <c r="C17">
-        <v>672</v>
+        <v>484</v>
       </c>
       <c r="D17">
-        <v>1047.747095016941</v>
+        <v>1157.617528085704</v>
       </c>
       <c r="E17">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
       <c r="B18">
-        <v>526</v>
+        <v>736</v>
       </c>
       <c r="C18">
-        <v>688</v>
+        <v>540</v>
       </c>
       <c r="D18">
-        <v>1061.303449969232</v>
+        <v>1185.50991137923</v>
       </c>
       <c r="E18">
-        <v>1214</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1074.859804921522</v>
+        <v>1213.402294672755</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -721,364 +721,364 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
       <c r="B20">
-        <v>531</v>
+        <v>737</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="D20">
-        <v>1088.416159873812</v>
+        <v>1241.294677966281</v>
       </c>
       <c r="E20">
-        <v>531</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B21">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D21">
-        <v>1101.972514826102</v>
+        <v>1269.187061259807</v>
       </c>
       <c r="E21">
-        <v>533</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
       <c r="B22">
-        <v>597</v>
+        <v>705</v>
       </c>
       <c r="C22">
-        <v>715</v>
+        <v>457</v>
       </c>
       <c r="D22">
-        <v>1209.860484275977</v>
+        <v>1301.920194618709</v>
       </c>
       <c r="E22">
-        <v>1312</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
       <c r="B23">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="C23">
-        <v>717</v>
+        <v>464</v>
       </c>
       <c r="D23">
-        <v>1317.748453725852</v>
+        <v>1334.65332797761</v>
       </c>
       <c r="E23">
-        <v>1316</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="C24">
-        <v>718</v>
+        <v>465</v>
       </c>
       <c r="D24">
-        <v>1425.636423175726</v>
+        <v>1367.386461336512</v>
       </c>
       <c r="E24">
-        <v>718</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
       <c r="B25">
-        <v>619</v>
+        <v>684</v>
       </c>
       <c r="C25">
-        <v>724</v>
+        <v>470</v>
       </c>
       <c r="D25">
-        <v>1533.5243926256</v>
+        <v>1400.119594695413</v>
       </c>
       <c r="E25">
-        <v>1343</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
       <c r="B26">
-        <v>791</v>
+        <v>635</v>
       </c>
       <c r="C26">
-        <v>1030</v>
+        <v>675</v>
       </c>
       <c r="D26">
-        <v>1557.924475225484</v>
+        <v>1406.539860137015</v>
       </c>
       <c r="E26">
-        <v>1821</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
       <c r="B27">
-        <v>797</v>
+        <v>633</v>
       </c>
       <c r="C27">
-        <v>1045</v>
+        <v>670</v>
       </c>
       <c r="D27">
-        <v>1582.324557825367</v>
+        <v>1412.960125578618</v>
       </c>
       <c r="E27">
-        <v>1842</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
       <c r="B28">
-        <v>817</v>
+        <v>601</v>
       </c>
       <c r="C28">
-        <v>1051</v>
+        <v>655</v>
       </c>
       <c r="D28">
-        <v>1606.72464042525</v>
+        <v>1419.38039102022</v>
       </c>
       <c r="E28">
-        <v>1868</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
       <c r="B29">
-        <v>818</v>
+        <v>594</v>
       </c>
       <c r="C29">
-        <v>1081</v>
+        <v>656</v>
       </c>
       <c r="D29">
-        <v>1631.124723025133</v>
+        <v>1425.800656461823</v>
       </c>
       <c r="E29">
-        <v>1899</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="D30">
-        <v>1620.782831428462</v>
+        <v>1415.199320906315</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46006.3125</v>
+        <v>46022.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="D31">
-        <v>1610.440939831791</v>
+        <v>1404.597985350807</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46006.32291666666</v>
+        <v>46022.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="D32">
-        <v>1600.09904823512</v>
+        <v>1393.996649795299</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46006.33333333334</v>
+        <v>46022.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="D33">
-        <v>1589.757156638449</v>
+        <v>1383.395314239792</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46006.34375</v>
+        <v>46022.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="D34">
-        <v>1578.791360761965</v>
+        <v>1363.669954568711</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46006.35416666666</v>
+        <v>46022.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1567.825564885482</v>
+        <v>1343.94459489763</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46006.36458333334</v>
+        <v>46022.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="D36">
-        <v>1556.859769008998</v>
+        <v>1324.219235226549</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46006.375</v>
+        <v>46022.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="D37">
-        <v>1545.893973132514</v>
+        <v>1304.493875555468</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46006.38541666666</v>
+        <v>46022.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="D38">
-        <v>1520.849641547803</v>
+        <v>1291.78342240898</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46006.39583333334</v>
+        <v>46022.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="D39">
-        <v>1495.805309963092</v>
+        <v>1279.072969262493</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46006.40625</v>
+        <v>46022.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="D40">
-        <v>1470.760978378381</v>
+        <v>1266.362516116005</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46006.41666666666</v>
+        <v>46022.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1445.71664679367</v>
+        <v>1253.652062969517</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46006.42708333334</v>
+        <v>46022.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1429.345941013968</v>
+        <v>1233.787334294798</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46006.4375</v>
+        <v>46022.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1412.975235234266</v>
+        <v>1213.922605620078</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46006.44791666666</v>
+        <v>46022.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1396.604529454564</v>
+        <v>1194.057876945359</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46006.45833333334</v>
+        <v>46022.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1380.233823674863</v>
+        <v>1174.19314827064</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46006.46875</v>
+        <v>46022.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1368.420331765539</v>
+        <v>1169.640427480022</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46006.47916666666</v>
+        <v>46022.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1356.606839856215</v>
+        <v>1165.087706689404</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46006.48958333334</v>
+        <v>46022.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1344.793347946891</v>
+        <v>1160.534985898786</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46006.5</v>
+        <v>46022.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1332.979856037568</v>
+        <v>1155.982265108168</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46006.51041666666</v>
+        <v>46022.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1340.358202304569</v>
+        <v>1172.065448146444</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46006.52083333334</v>
+        <v>46022.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1347.736548571571</v>
+        <v>1188.14863118472</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46006.53125</v>
+        <v>46022.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1355.114894838573</v>
+        <v>1204.231814222996</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46006.54166666666</v>
+        <v>46022.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1362.493241105575</v>
+        <v>1220.314997261271</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46006.55208333334</v>
+        <v>46022.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1393.68167353383</v>
+        <v>1247.389749066002</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46006.5625</v>
+        <v>46022.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1424.870105962085</v>
+        <v>1274.464500870732</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46006.57291666666</v>
+        <v>46022.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1456.058538390341</v>
+        <v>1301.539252675462</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46006.58333333334</v>
+        <v>46022.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1487.246970818596</v>
+        <v>1328.614004480192</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46006.59375</v>
+        <v>46022.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1527.75327803637</v>
+        <v>1376.417572782913</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46006.60416666666</v>
+        <v>46022.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1568.259585254145</v>
+        <v>1424.221141085635</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46006.61458333334</v>
+        <v>46022.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1608.765892471919</v>
+        <v>1472.024709388356</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46006.625</v>
+        <v>46022.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1649.272199689693</v>
+        <v>1519.828277691077</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46006.63541666666</v>
+        <v>46022.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1685.451866357539</v>
+        <v>1567.44602065568</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46006.64583333334</v>
+        <v>46022.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1721.631533025384</v>
+        <v>1615.063763620283</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46006.65625</v>
+        <v>46022.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1757.81119969323</v>
+        <v>1662.681506584887</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46006.66666666666</v>
+        <v>46022.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1793.990866361075</v>
+        <v>1710.29924954949</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46006.67708333334</v>
+        <v>46022.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1821.157828810811</v>
+        <v>1753.197028918718</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46006.6875</v>
+        <v>46022.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1848.324791260547</v>
+        <v>1796.094808287946</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46006.69791666666</v>
+        <v>46022.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1875.491753710283</v>
+        <v>1838.992587657174</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46006.70833333334</v>
+        <v>46022.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1902.658716160019</v>
+        <v>1881.890367026401</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46006.71875</v>
+        <v>46022.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1914.668873548529</v>
+        <v>1902.070998776448</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46006.72916666666</v>
+        <v>46022.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1926.679030937038</v>
+        <v>1922.251630526494</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46006.73958333334</v>
+        <v>46022.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1938.689188325548</v>
+        <v>1942.43226227654</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46006.75</v>
+        <v>46022.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1950.699345714057</v>
+        <v>1962.612894026586</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46006.76041666666</v>
+        <v>46022.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1946.630404758434</v>
+        <v>1972.387306826492</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46006.77083333334</v>
+        <v>46022.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1942.56146380281</v>
+        <v>1982.161719626397</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46006.78125</v>
+        <v>46022.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1938.492522847187</v>
+        <v>1991.936132426303</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46006.79166666666</v>
+        <v>46022.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1934.423581891563</v>
+        <v>2001.710545226209</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46006.80208333334</v>
+        <v>46022.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1921.999748838743</v>
+        <v>1979.699533892781</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46006.8125</v>
+        <v>46022.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1909.575915785922</v>
+        <v>1957.688522559352</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46006.82291666666</v>
+        <v>46022.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1897.152082733102</v>
+        <v>1935.677511225924</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46006.83333333334</v>
+        <v>46022.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1884.728249680282</v>
+        <v>1913.666499892496</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46006.84375</v>
+        <v>46022.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1829.316055427033</v>
+        <v>1863.865309201843</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46006.85416666666</v>
+        <v>46022.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1773.903861173784</v>
+        <v>1814.06411851119</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46006.86458333334</v>
+        <v>46022.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1718.491666920535</v>
+        <v>1764.262927820536</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46006.875</v>
+        <v>46022.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1663.079472667286</v>
+        <v>1714.461737129883</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46006.88541666666</v>
+        <v>46022.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1611.342888410875</v>
+        <v>1648.651693536145</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46006.89583333334</v>
+        <v>46022.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1559.606304154464</v>
+        <v>1582.841649942407</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46006.90625</v>
+        <v>46022.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1507.869719898054</v>
+        <v>1517.031606348668</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46006.91666666666</v>
+        <v>46022.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1456.133135641643</v>
+        <v>1451.22156275493</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46006.92708333334</v>
+        <v>46022.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1385.726893965049</v>
+        <v>1426.776239488479</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46006.9375</v>
+        <v>46022.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1315.320652288456</v>
+        <v>1402.330916222028</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46006.94791666666</v>
+        <v>46022.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1244.914410611863</v>
+        <v>1377.885592955577</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46006.95833333334</v>
+        <v>46022.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1174.508168935269</v>
+        <v>1353.440269689126</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46006.96875</v>
+        <v>46022.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1151.140362784208</v>
+        <v>1305.190406410766</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46006.97916666666</v>
+        <v>46022.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1127.772556633146</v>
+        <v>1256.940543132406</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46006.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1104.404750482085</v>
+        <v>1208.690679854046</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46007</v>
+        <v>46023</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1081.036944331024</v>
+        <v>1160.440816575686</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,670 +415,670 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B2">
-        <v>697</v>
+        <v>522</v>
       </c>
       <c r="C2">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="D2">
-        <v>1189.514447421573</v>
+        <v>1100.332859850345</v>
       </c>
       <c r="E2">
-        <v>1159</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B3">
-        <v>695</v>
+        <v>511</v>
       </c>
       <c r="C3">
-        <v>454</v>
+        <v>540</v>
       </c>
       <c r="D3">
-        <v>1181.198763528253</v>
+        <v>1090.000200887129</v>
       </c>
       <c r="E3">
-        <v>1149</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B4">
-        <v>692</v>
+        <v>514</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1172.883079634933</v>
+        <v>1079.667541923914</v>
       </c>
       <c r="E4">
-        <v>692</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B5">
-        <v>688</v>
+        <v>513</v>
       </c>
       <c r="C5">
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="D5">
-        <v>1164.567395741612</v>
+        <v>1069.334882960698</v>
       </c>
       <c r="E5">
-        <v>1141</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B6">
-        <v>654</v>
+        <v>422</v>
       </c>
       <c r="C6">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="D6">
-        <v>1158.56523731135</v>
+        <v>1062.386074488203</v>
       </c>
       <c r="E6">
-        <v>1104</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B7">
-        <v>620</v>
+        <v>443</v>
       </c>
       <c r="C7">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="D7">
-        <v>1152.563078881088</v>
+        <v>1055.437266015708</v>
       </c>
       <c r="E7">
-        <v>1066</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="C8">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1146.560920450826</v>
+        <v>1048.488457543214</v>
       </c>
       <c r="E8">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B9">
-        <v>621</v>
+        <v>443</v>
       </c>
       <c r="C9">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="D9">
-        <v>1140.558762020563</v>
+        <v>1041.539649070719</v>
       </c>
       <c r="E9">
-        <v>1082</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B10">
-        <v>596</v>
+        <v>448</v>
       </c>
       <c r="C10">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="D10">
-        <v>1138.068702486072</v>
+        <v>1047.630579954017</v>
       </c>
       <c r="E10">
-        <v>1038</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B11">
-        <v>591</v>
+        <v>446</v>
       </c>
       <c r="C11">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="D11">
-        <v>1135.578642951581</v>
+        <v>1053.721510837315</v>
       </c>
       <c r="E11">
-        <v>1031</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B12">
-        <v>596</v>
+        <v>448</v>
       </c>
       <c r="C12">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1133.08858341709</v>
+        <v>1059.812441720612</v>
       </c>
       <c r="E12">
-        <v>1035</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B13">
-        <v>623</v>
+        <v>445</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="D13">
-        <v>1130.598523882599</v>
+        <v>1065.90337260391</v>
       </c>
       <c r="E13">
-        <v>623</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B14">
-        <v>684</v>
+        <v>452</v>
       </c>
       <c r="C14">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="D14">
-        <v>1137.353274933375</v>
+        <v>1072.118219138946</v>
       </c>
       <c r="E14">
-        <v>1121</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B15">
-        <v>676</v>
+        <v>433</v>
       </c>
       <c r="C15">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1144.108025984151</v>
+        <v>1078.333065673982</v>
       </c>
       <c r="E15">
-        <v>1116</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B16">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1150.862777034928</v>
+        <v>1084.547912209017</v>
       </c>
       <c r="E16">
-        <v>1217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B17">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D17">
-        <v>1157.617528085704</v>
+        <v>1090.762758744053</v>
       </c>
       <c r="E17">
-        <v>1221</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B18">
-        <v>736</v>
+        <v>443</v>
       </c>
       <c r="C18">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D18">
-        <v>1185.50991137923</v>
+        <v>1136.459038328683</v>
       </c>
       <c r="E18">
-        <v>1276</v>
+        <v>977</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D19">
-        <v>1213.402294672755</v>
+        <v>1182.155317913313</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B20">
-        <v>737</v>
+        <v>365</v>
       </c>
       <c r="C20">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="D20">
-        <v>1241.294677966281</v>
+        <v>1227.851597497943</v>
       </c>
       <c r="E20">
-        <v>1278</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B21">
-        <v>647</v>
+        <v>371</v>
       </c>
       <c r="C21">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="D21">
-        <v>1269.187061259807</v>
+        <v>1273.547877082573</v>
       </c>
       <c r="E21">
-        <v>1112</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B22">
-        <v>705</v>
+        <v>452</v>
       </c>
       <c r="C22">
-        <v>457</v>
+        <v>607</v>
       </c>
       <c r="D22">
-        <v>1301.920194618709</v>
+        <v>1409.645390621952</v>
       </c>
       <c r="E22">
-        <v>1162</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B23">
-        <v>703</v>
+        <v>457</v>
       </c>
       <c r="C23">
-        <v>464</v>
+        <v>614</v>
       </c>
       <c r="D23">
-        <v>1334.65332797761</v>
+        <v>1545.74290416133</v>
       </c>
       <c r="E23">
-        <v>1167</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B24">
-        <v>678</v>
+        <v>511</v>
       </c>
       <c r="C24">
-        <v>465</v>
+        <v>615</v>
       </c>
       <c r="D24">
-        <v>1367.386461336512</v>
+        <v>1681.840417700709</v>
       </c>
       <c r="E24">
-        <v>1143</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B25">
-        <v>684</v>
+        <v>575</v>
       </c>
       <c r="C25">
-        <v>470</v>
+        <v>669</v>
       </c>
       <c r="D25">
-        <v>1400.119594695413</v>
+        <v>1817.937931240088</v>
       </c>
       <c r="E25">
-        <v>1154</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B26">
-        <v>635</v>
+        <v>831</v>
       </c>
       <c r="C26">
-        <v>675</v>
+        <v>1141</v>
       </c>
       <c r="D26">
-        <v>1406.539860137015</v>
+        <v>1865.950480315597</v>
       </c>
       <c r="E26">
-        <v>1310</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B27">
-        <v>633</v>
+        <v>834</v>
       </c>
       <c r="C27">
-        <v>670</v>
+        <v>1130</v>
       </c>
       <c r="D27">
-        <v>1412.960125578618</v>
+        <v>1913.963029391105</v>
       </c>
       <c r="E27">
-        <v>1303</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B28">
-        <v>601</v>
+        <v>840</v>
       </c>
       <c r="C28">
-        <v>655</v>
+        <v>1118</v>
       </c>
       <c r="D28">
-        <v>1419.38039102022</v>
+        <v>1961.975578466614</v>
       </c>
       <c r="E28">
-        <v>1256</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B29">
-        <v>594</v>
+        <v>838</v>
       </c>
       <c r="C29">
-        <v>656</v>
+        <v>1117</v>
       </c>
       <c r="D29">
-        <v>1425.800656461823</v>
+        <v>2009.988127542123</v>
       </c>
       <c r="E29">
-        <v>1250</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B30">
-        <v>572</v>
+        <v>885</v>
       </c>
       <c r="C30">
-        <v>677</v>
+        <v>1148</v>
       </c>
       <c r="D30">
-        <v>1415.199320906315</v>
+        <v>2022.265309040853</v>
       </c>
       <c r="E30">
-        <v>1249</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B31">
-        <v>573</v>
+        <v>883</v>
       </c>
       <c r="C31">
-        <v>670</v>
+        <v>1144</v>
       </c>
       <c r="D31">
-        <v>1404.597985350807</v>
+        <v>2034.542490539583</v>
       </c>
       <c r="E31">
-        <v>1243</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B32">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1393.996649795299</v>
+        <v>2046.819672038314</v>
       </c>
       <c r="E32">
-        <v>1248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B33">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1383.395314239792</v>
+        <v>2059.096853537044</v>
       </c>
       <c r="E33">
-        <v>1257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B34">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1363.669954568711</v>
+        <v>2065.778766759433</v>
       </c>
       <c r="E34">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B35">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1343.94459489763</v>
+        <v>2072.460679981822</v>
       </c>
       <c r="E35">
-        <v>517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1324.219235226549</v>
+        <v>2079.142593204211</v>
       </c>
       <c r="E36">
-        <v>724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B37">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1304.493875555468</v>
+        <v>2085.824506426599</v>
       </c>
       <c r="E37">
-        <v>1234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B38">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1291.78342240898</v>
+        <v>2065.073400741315</v>
       </c>
       <c r="E38">
-        <v>1147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B39">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1279.072969262493</v>
+        <v>2044.322295056031</v>
       </c>
       <c r="E39">
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B40">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1266.362516116005</v>
+        <v>2023.571189370747</v>
       </c>
       <c r="E40">
-        <v>1148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1253.652062969517</v>
+        <v>2002.820083685463</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1233.787334294798</v>
+        <v>1942.222152644119</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1213.922605620078</v>
+        <v>1881.624221602775</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1194.057876945359</v>
+        <v>1821.026290561431</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1174.19314827064</v>
+        <v>1760.428359520087</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1169.640427480022</v>
+        <v>1742.692534694488</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1165.087706689404</v>
+        <v>1724.956709868889</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1160.534985898786</v>
+        <v>1707.22088504329</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1155.982265108168</v>
+        <v>1689.485060217692</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1172.065448146444</v>
+        <v>1695.528331235033</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1188.14863118472</v>
+        <v>1701.571602252374</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1204.231814222996</v>
+        <v>1707.614873269715</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1220.314997261271</v>
+        <v>1713.658144287056</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1247.389749066002</v>
+        <v>1736.325176588283</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1274.464500870732</v>
+        <v>1758.99220888951</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1301.539252675462</v>
+        <v>1781.659241190737</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1328.614004480192</v>
+        <v>1804.326273491964</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1376.417572782913</v>
+        <v>1868.180962047661</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1424.221141085635</v>
+        <v>1932.035650603358</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1472.024709388356</v>
+        <v>1995.890339159055</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1519.828277691077</v>
+        <v>2059.745027714752</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1567.44602065568</v>
+        <v>2110.969851763298</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1615.063763620283</v>
+        <v>2162.194675811843</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1662.681506584887</v>
+        <v>2213.419499860389</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1710.29924954949</v>
+        <v>2264.644323908935</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1753.197028918718</v>
+        <v>2297.3199280839</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1796.094808287946</v>
+        <v>2329.995532258864</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1838.992587657174</v>
+        <v>2362.671136433829</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1881.890367026401</v>
+        <v>2395.346740608794</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1902.070998776448</v>
+        <v>2417.051043615552</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1922.251630526494</v>
+        <v>2438.75534662231</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1942.43226227654</v>
+        <v>2460.459649629068</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>1962.612894026586</v>
+        <v>2482.163952635826</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1972.387306826492</v>
+        <v>2461.717870093301</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1982.161719626397</v>
+        <v>2441.271787550775</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>1991.936132426303</v>
+        <v>2420.82570500825</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2001.710545226209</v>
+        <v>2400.379622465724</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1979.699533892781</v>
+        <v>2358.353152568291</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1957.688522559352</v>
+        <v>2316.326682670857</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1935.677511225924</v>
+        <v>2274.300212773423</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1913.666499892496</v>
+        <v>2232.273742875989</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1863.865309201843</v>
+        <v>2172.184183739418</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1814.06411851119</v>
+        <v>2112.094624602847</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1764.262927820536</v>
+        <v>2052.005065466277</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1714.461737129883</v>
+        <v>1991.915506329706</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1648.651693536145</v>
+        <v>1913.181407587795</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1582.841649942407</v>
+        <v>1834.447308845884</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1517.031606348668</v>
+        <v>1755.713210103973</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1451.22156275493</v>
+        <v>1676.979111362062</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1426.776239488479</v>
+        <v>1564.244464168339</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1402.330916222028</v>
+        <v>1451.509816974616</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1377.885592955577</v>
+        <v>1338.775169780893</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46022.95833333334</v>
+        <v>46044.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1353.440269689126</v>
+        <v>1226.04052258717</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46022.96875</v>
+        <v>46044.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1305.190406410766</v>
+        <v>1196.805206655897</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46022.97916666666</v>
+        <v>46044.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1256.940543132406</v>
+        <v>1167.569890724624</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46022.98958333334</v>
+        <v>46044.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1208.690679854046</v>
+        <v>1138.33457479335</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1160.440816575686</v>
+        <v>1109.099258862077</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,517 +415,517 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B2">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D2">
-        <v>1100.332859850345</v>
+        <v>910.5635727743655</v>
       </c>
       <c r="E2">
-        <v>1070</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B3">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="C3">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="D3">
-        <v>1090.000200887129</v>
+        <v>902.5647668860452</v>
       </c>
       <c r="E3">
-        <v>1051</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B4">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="D4">
-        <v>1079.667541923914</v>
+        <v>894.5659609977248</v>
       </c>
       <c r="E4">
-        <v>514</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B5">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1069.334882960698</v>
+        <v>886.5671551094044</v>
       </c>
       <c r="E5">
-        <v>1052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B6">
-        <v>422</v>
+        <v>527</v>
       </c>
       <c r="C6">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1062.386074488203</v>
+        <v>880.8931253167043</v>
       </c>
       <c r="E6">
-        <v>960</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B7">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="C7">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1055.437266015708</v>
+        <v>875.219095524004</v>
       </c>
       <c r="E7">
-        <v>980</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B8">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1048.488457543214</v>
+        <v>869.5450657313038</v>
       </c>
       <c r="E8">
-        <v>447</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B9">
-        <v>443</v>
+        <v>564</v>
       </c>
       <c r="C9">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="D9">
-        <v>1041.539649070719</v>
+        <v>863.8710359386037</v>
       </c>
       <c r="E9">
-        <v>979</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B10">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="C10">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="D10">
-        <v>1047.630579954017</v>
+        <v>868.4023791759317</v>
       </c>
       <c r="E10">
-        <v>975</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B11">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="C11">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="D11">
-        <v>1053.721510837315</v>
+        <v>872.9337224132598</v>
       </c>
       <c r="E11">
-        <v>972</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B12">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1059.812441720612</v>
+        <v>877.4650656505879</v>
       </c>
       <c r="E12">
-        <v>448</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B13">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="C13">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="D13">
-        <v>1065.90337260391</v>
+        <v>881.996408887916</v>
       </c>
       <c r="E13">
-        <v>952</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B14">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="C14">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1072.118219138946</v>
+        <v>886.2598118292732</v>
       </c>
       <c r="E14">
-        <v>961</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B15">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1078.333065673982</v>
+        <v>890.5232147706304</v>
       </c>
       <c r="E15">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1084.547912209017</v>
+        <v>894.7866177119877</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C17">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D17">
-        <v>1090.762758744053</v>
+        <v>899.0500206533449</v>
       </c>
       <c r="E17">
-        <v>498</v>
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B18">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="C18">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="D18">
-        <v>1136.459038328683</v>
+        <v>935.5056620714436</v>
       </c>
       <c r="E18">
-        <v>977</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B19">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="D19">
-        <v>1182.155317913313</v>
+        <v>971.9613034895424</v>
       </c>
       <c r="E19">
-        <v>963</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B20">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="C20">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1227.851597497943</v>
+        <v>1008.416944907641</v>
       </c>
       <c r="E20">
-        <v>871</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B21">
-        <v>371</v>
+        <v>537</v>
       </c>
       <c r="C21">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1273.547877082573</v>
+        <v>1044.87258632574</v>
       </c>
       <c r="E21">
-        <v>882</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B22">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="C22">
-        <v>607</v>
+        <v>511</v>
       </c>
       <c r="D22">
-        <v>1409.645390621952</v>
+        <v>1157.903988154604</v>
       </c>
       <c r="E22">
-        <v>1059</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B23">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="C23">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1545.74290416133</v>
+        <v>1270.935389983468</v>
       </c>
       <c r="E23">
-        <v>1071</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B24">
         <v>511</v>
       </c>
       <c r="C24">
-        <v>615</v>
+        <v>510</v>
       </c>
       <c r="D24">
-        <v>1681.840417700709</v>
+        <v>1383.966791812332</v>
       </c>
       <c r="E24">
-        <v>1126</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B25">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="C25">
-        <v>669</v>
+        <v>522</v>
       </c>
       <c r="D25">
-        <v>1817.937931240088</v>
+        <v>1496.998193641196</v>
       </c>
       <c r="E25">
-        <v>1244</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B26">
-        <v>831</v>
+        <v>525</v>
       </c>
       <c r="C26">
-        <v>1141</v>
+        <v>897</v>
       </c>
       <c r="D26">
-        <v>1865.950480315597</v>
+        <v>1536.503626072819</v>
       </c>
       <c r="E26">
-        <v>1972</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B27">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1130</v>
+        <v>921</v>
       </c>
       <c r="D27">
-        <v>1913.963029391105</v>
+        <v>1576.009058504442</v>
       </c>
       <c r="E27">
-        <v>1964</v>
+        <v>921</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B28">
-        <v>840</v>
+        <v>527</v>
       </c>
       <c r="C28">
-        <v>1118</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1961.975578466614</v>
+        <v>1615.514490936066</v>
       </c>
       <c r="E28">
-        <v>1958</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B29">
-        <v>838</v>
+        <v>536</v>
       </c>
       <c r="C29">
-        <v>1117</v>
+        <v>957</v>
       </c>
       <c r="D29">
-        <v>2009.988127542123</v>
+        <v>1655.019923367689</v>
       </c>
       <c r="E29">
-        <v>1955</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B30">
-        <v>885</v>
+        <v>693</v>
       </c>
       <c r="C30">
-        <v>1148</v>
+        <v>1248</v>
       </c>
       <c r="D30">
-        <v>2022.265309040853</v>
+        <v>1669.504460533011</v>
       </c>
       <c r="E30">
-        <v>2033</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46044.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B31">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2034.542490539583</v>
+        <v>1683.988997698334</v>
       </c>
       <c r="E31">
-        <v>2027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2046.819672038314</v>
+        <v>1698.473534863656</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46044.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2059.096853537044</v>
+        <v>1712.958072028979</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46044.34375</v>
+        <v>46046.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2065.778766759433</v>
+        <v>1718.498131673529</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46044.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2072.460679981822</v>
+        <v>1724.03819131808</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46044.36458333334</v>
+        <v>46046.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2079.142593204211</v>
+        <v>1729.578250962631</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46044.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2085.824506426599</v>
+        <v>1735.118310607181</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46044.38541666666</v>
+        <v>46046.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2065.073400741315</v>
+        <v>1713.895863063421</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46044.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2044.322295056031</v>
+        <v>1692.673415519661</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46044.40625</v>
+        <v>46046.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2023.571189370747</v>
+        <v>1671.450967975901</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46044.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2002.820083685463</v>
+        <v>1650.22852043214</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46044.42708333334</v>
+        <v>46046.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1942.222152644119</v>
+        <v>1598.253356784669</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46044.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1881.624221602775</v>
+        <v>1546.278193137197</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46044.44791666666</v>
+        <v>46046.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1821.026290561431</v>
+        <v>1494.303029489726</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46044.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1760.428359520087</v>
+        <v>1442.327865842255</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46044.46875</v>
+        <v>46046.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1742.692534694488</v>
+        <v>1431.423746550709</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46044.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1724.956709868889</v>
+        <v>1420.519627259163</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46044.48958333334</v>
+        <v>46046.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1707.22088504329</v>
+        <v>1409.615507967617</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46044.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1689.485060217692</v>
+        <v>1398.711388676071</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46044.51041666666</v>
+        <v>46046.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1695.528331235033</v>
+        <v>1411.265179592364</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46044.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1701.571602252374</v>
+        <v>1423.818970508657</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46044.53125</v>
+        <v>46046.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1707.614873269715</v>
+        <v>1436.372761424951</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46044.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1713.658144287056</v>
+        <v>1448.926552341244</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46044.55208333334</v>
+        <v>46046.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1736.325176588283</v>
+        <v>1471.930014792657</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46044.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1758.99220888951</v>
+        <v>1494.933477244071</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46044.57291666666</v>
+        <v>46046.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1781.659241190737</v>
+        <v>1517.936939695485</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46044.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1804.326273491964</v>
+        <v>1540.940402146899</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46044.59375</v>
+        <v>46046.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1868.180962047661</v>
+        <v>1598.973117971076</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46044.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1932.035650603358</v>
+        <v>1657.005833795254</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46044.61458333334</v>
+        <v>46046.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1995.890339159055</v>
+        <v>1715.038549619431</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46044.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2059.745027714752</v>
+        <v>1773.071265443609</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46044.63541666666</v>
+        <v>46046.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2110.969851763298</v>
+        <v>1802.087623355727</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46044.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2162.194675811843</v>
+        <v>1831.103981267845</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46044.65625</v>
+        <v>46046.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2213.419499860389</v>
+        <v>1860.120339179964</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46044.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2264.644323908935</v>
+        <v>1889.136697092082</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46044.67708333334</v>
+        <v>46046.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2297.3199280839</v>
+        <v>1915.970129653398</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46044.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2329.995532258864</v>
+        <v>1942.803562214713</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46044.69791666666</v>
+        <v>46046.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2362.671136433829</v>
+        <v>1969.636994776029</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46044.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2395.346740608794</v>
+        <v>1996.470427337344</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46044.71875</v>
+        <v>46046.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2417.051043615552</v>
+        <v>2014.059919694717</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46044.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2438.75534662231</v>
+        <v>2031.649412052091</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46044.73958333334</v>
+        <v>46046.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2460.459649629068</v>
+        <v>2049.238904409464</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46044.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2482.163952635826</v>
+        <v>2066.828396766837</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46044.76041666666</v>
+        <v>46046.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2461.717870093301</v>
+        <v>2051.287859612384</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46044.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2441.271787550775</v>
+        <v>2035.74732245793</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46044.78125</v>
+        <v>46046.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2420.82570500825</v>
+        <v>2020.206785303477</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46044.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2400.379622465724</v>
+        <v>2004.666248149023</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46044.80208333334</v>
+        <v>46046.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2358.353152568291</v>
+        <v>1971.094905208803</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46044.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2316.326682670857</v>
+        <v>1937.523562268583</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46044.82291666666</v>
+        <v>46046.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2274.300212773423</v>
+        <v>1903.952219328362</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46044.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2232.273742875989</v>
+        <v>1870.380876388142</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46044.84375</v>
+        <v>46046.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2172.184183739418</v>
+        <v>1818.439861994261</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46044.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2112.094624602847</v>
+        <v>1766.49884760038</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46044.86458333334</v>
+        <v>46046.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2052.005065466277</v>
+        <v>1714.557833206499</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46044.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1991.915506329706</v>
+        <v>1662.616818812618</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46044.88541666666</v>
+        <v>46046.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1913.181407587795</v>
+        <v>1603.315326882003</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46044.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1834.447308845884</v>
+        <v>1544.013834951389</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46044.90625</v>
+        <v>46046.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1755.713210103973</v>
+        <v>1484.712343020774</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46044.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1676.979111362062</v>
+        <v>1425.41085109016</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46044.92708333334</v>
+        <v>46046.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1564.244464168339</v>
+        <v>1331.545061005356</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46044.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1451.509816974616</v>
+        <v>1237.679270920553</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46044.94791666666</v>
+        <v>46046.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1338.775169780893</v>
+        <v>1143.813480835749</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46044.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1226.04052258717</v>
+        <v>1049.947690750946</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46044.96875</v>
+        <v>46046.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1196.805206655897</v>
+        <v>1013.593345433478</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46044.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1167.569890724624</v>
+        <v>977.2390001160102</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46044.98958333334</v>
+        <v>46046.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1138.33457479335</v>
+        <v>940.8846547985423</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1109.099258862077</v>
+        <v>904.5303094810745</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,721 +415,721 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="C2">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="D2">
-        <v>910.5635727743655</v>
+        <v>1043.305461100807</v>
       </c>
       <c r="E2">
-        <v>544</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B3">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="C3">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="D3">
-        <v>902.5647668860452</v>
+        <v>1035.008067491039</v>
       </c>
       <c r="E3">
-        <v>1033</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B4">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="C4">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="D4">
-        <v>894.5659609977248</v>
+        <v>1026.710673881271</v>
       </c>
       <c r="E4">
-        <v>1029</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>886.5671551094044</v>
+        <v>1018.413280271503</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B6">
-        <v>527</v>
+        <v>382</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="D6">
-        <v>880.8931253167043</v>
+        <v>1014.494046785473</v>
       </c>
       <c r="E6">
-        <v>527</v>
+        <v>946</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B7">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="D7">
-        <v>875.219095524004</v>
+        <v>1010.574813299443</v>
       </c>
       <c r="E7">
-        <v>520</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B8">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="D8">
-        <v>869.5450657313038</v>
+        <v>1006.655579813413</v>
       </c>
       <c r="E8">
-        <v>562</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B9">
-        <v>564</v>
+        <v>380</v>
       </c>
       <c r="C9">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="D9">
-        <v>863.8710359386037</v>
+        <v>1002.736346327383</v>
       </c>
       <c r="E9">
-        <v>1055</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B10">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="C10">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="D10">
-        <v>868.4023791759317</v>
+        <v>1004.471089017758</v>
       </c>
       <c r="E10">
-        <v>1051</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B11">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="C11">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="D11">
-        <v>872.9337224132598</v>
+        <v>1006.205831708132</v>
       </c>
       <c r="E11">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B12">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="D12">
-        <v>877.4650656505879</v>
+        <v>1007.940574398507</v>
       </c>
       <c r="E12">
-        <v>510</v>
+        <v>995</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B13">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="C13">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="D13">
-        <v>881.996408887916</v>
+        <v>1009.675317088881</v>
       </c>
       <c r="E13">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B14">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="D14">
-        <v>886.2598118292732</v>
+        <v>1013.667978837108</v>
       </c>
       <c r="E14">
-        <v>512</v>
+        <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B15">
-        <v>510</v>
+        <v>383</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="D15">
-        <v>890.5232147706304</v>
+        <v>1017.660640585334</v>
       </c>
       <c r="E15">
-        <v>510</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B16">
-        <v>504</v>
+        <v>382</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="D16">
-        <v>894.7866177119877</v>
+        <v>1021.653302333561</v>
       </c>
       <c r="E16">
-        <v>504</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="C17">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>899.0500206533449</v>
+        <v>1025.645964081787</v>
       </c>
       <c r="E17">
-        <v>989</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B18">
-        <v>534</v>
+        <v>391</v>
       </c>
       <c r="C18">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>935.5056620714436</v>
+        <v>1069.96909875155</v>
       </c>
       <c r="E18">
-        <v>1018</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="C19">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="D19">
-        <v>971.9613034895424</v>
+        <v>1114.292233421312</v>
       </c>
       <c r="E19">
-        <v>483</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B20">
-        <v>533</v>
+        <v>391</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D20">
-        <v>1008.416944907641</v>
+        <v>1158.615368091074</v>
       </c>
       <c r="E20">
-        <v>533</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B21">
+        <v>394</v>
+      </c>
+      <c r="C21">
         <v>537</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
-        <v>1044.87258632574</v>
+        <v>1202.938502760836</v>
       </c>
       <c r="E21">
-        <v>537</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B22">
-        <v>519</v>
+        <v>393</v>
       </c>
       <c r="C22">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="D22">
-        <v>1157.903988154604</v>
+        <v>1349.381992853535</v>
       </c>
       <c r="E22">
-        <v>1030</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B23">
-        <v>509</v>
+        <v>396</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D23">
-        <v>1270.935389983468</v>
+        <v>1495.825482946234</v>
       </c>
       <c r="E23">
-        <v>509</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B24">
-        <v>511</v>
+        <v>397</v>
       </c>
       <c r="C24">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="D24">
-        <v>1383.966791812332</v>
+        <v>1642.268973038933</v>
       </c>
       <c r="E24">
-        <v>1021</v>
+        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B25">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="C25">
-        <v>522</v>
+        <v>615</v>
       </c>
       <c r="D25">
-        <v>1496.998193641196</v>
+        <v>1788.712463131632</v>
       </c>
       <c r="E25">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B26">
-        <v>525</v>
+        <v>692</v>
       </c>
       <c r="C26">
-        <v>897</v>
+        <v>1024</v>
       </c>
       <c r="D26">
-        <v>1536.503626072819</v>
+        <v>1856.119607678285</v>
       </c>
       <c r="E26">
-        <v>1422</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="C27">
-        <v>921</v>
+        <v>1076</v>
       </c>
       <c r="D27">
-        <v>1576.009058504442</v>
+        <v>1923.526752224938</v>
       </c>
       <c r="E27">
-        <v>921</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B28">
-        <v>527</v>
+        <v>834</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1123</v>
       </c>
       <c r="D28">
-        <v>1615.514490936066</v>
+        <v>1990.933896771591</v>
       </c>
       <c r="E28">
-        <v>527</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B29">
-        <v>536</v>
+        <v>832</v>
       </c>
       <c r="C29">
-        <v>957</v>
+        <v>1134</v>
       </c>
       <c r="D29">
-        <v>1655.019923367689</v>
+        <v>2058.341041318244</v>
       </c>
       <c r="E29">
-        <v>1493</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B30">
-        <v>693</v>
+        <v>923</v>
       </c>
       <c r="C30">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="D30">
-        <v>1669.504460533011</v>
+        <v>2067.088183033032</v>
       </c>
       <c r="E30">
-        <v>1941</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="D31">
-        <v>1683.988997698334</v>
+        <v>2075.83532474782</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46046.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="D32">
-        <v>1698.473534863656</v>
+        <v>2084.582466462607</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46046.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1712.958072028979</v>
+        <v>2093.329608177396</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46046.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="D34">
-        <v>1718.498131673529</v>
+        <v>2108.097867378641</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46046.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="D35">
-        <v>1724.03819131808</v>
+        <v>2122.866126579887</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46046.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1729.578250962631</v>
+        <v>2137.634385781133</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46046.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="D37">
-        <v>1735.118310607181</v>
+        <v>2152.402644982379</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46046.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="D38">
-        <v>1713.895863063421</v>
+        <v>2128.400781830574</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46046.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="D39">
-        <v>1692.673415519661</v>
+        <v>2104.398918678769</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46046.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="D40">
-        <v>1671.450967975901</v>
+        <v>2080.397055526964</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46046.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1249</v>
       </c>
       <c r="D41">
-        <v>1650.22852043214</v>
+        <v>2056.395192375159</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46046.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="D42">
-        <v>1598.253356784669</v>
+        <v>2005.065777702685</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46046.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="D43">
-        <v>1546.278193137197</v>
+        <v>1953.736363030211</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46046.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1494.303029489726</v>
+        <v>1902.406948357738</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46046.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1442.327865842255</v>
+        <v>1851.077533685264</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46046.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1431.423746550709</v>
+        <v>1814.972245341353</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46046.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1420.519627259163</v>
+        <v>1778.866956997442</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46046.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1409.615507967617</v>
+        <v>1742.761668653531</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46046.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1398.711388676071</v>
+        <v>1706.65638030962</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46046.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1411.265179592364</v>
+        <v>1716.826194601293</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46046.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1423.818970508657</v>
+        <v>1726.996008892965</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46046.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1436.372761424951</v>
+        <v>1737.165823184638</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46046.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1448.926552341244</v>
+        <v>1747.33563747631</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46046.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1471.930014792657</v>
+        <v>1775.642232489981</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46046.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1494.933477244071</v>
+        <v>1803.948827503652</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46046.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1517.936939695485</v>
+        <v>1832.255422517323</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46046.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1540.940402146899</v>
+        <v>1860.562017530994</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46046.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1598.973117971076</v>
+        <v>1935.706665189541</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46046.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1657.005833795254</v>
+        <v>2010.851312848088</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46046.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1715.038549619431</v>
+        <v>2085.995960506635</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46046.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1773.071265443609</v>
+        <v>2161.140608165182</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46046.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1802.087623355727</v>
+        <v>2177.955680170744</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46046.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1831.103981267845</v>
+        <v>2194.770752176306</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46046.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1860.120339179964</v>
+        <v>2211.585824181869</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46046.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1889.136697092082</v>
+        <v>2228.400896187431</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46046.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1915.970129653398</v>
+        <v>2246.813032892288</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46046.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1942.803562214713</v>
+        <v>2265.225169597144</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46046.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1969.636994776029</v>
+        <v>2283.637306302001</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46046.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1996.470427337344</v>
+        <v>2302.049443006858</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46046.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2014.059919694717</v>
+        <v>2319.323441650199</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46046.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2031.649412052091</v>
+        <v>2336.597440293539</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46046.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2049.238904409464</v>
+        <v>2353.87143893688</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46046.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2066.828396766837</v>
+        <v>2371.14543758022</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46046.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2051.287859612384</v>
+        <v>2364.243180949087</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46046.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2035.74732245793</v>
+        <v>2357.340924317954</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46046.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2020.206785303477</v>
+        <v>2350.438667686822</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46046.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2004.666248149023</v>
+        <v>2343.536411055689</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46046.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1971.094905208803</v>
+        <v>2316.845237806574</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46046.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>1937.523562268583</v>
+        <v>2290.15406455746</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46046.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1903.952219328362</v>
+        <v>2263.462891308345</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46046.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>1870.380876388142</v>
+        <v>2236.77171805923</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46046.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1818.439861994261</v>
+        <v>2165.70233894366</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46046.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1766.49884760038</v>
+        <v>2094.632959828089</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46046.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1714.557833206499</v>
+        <v>2023.563580712519</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46046.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1662.616818812618</v>
+        <v>1952.494201596949</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46046.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1603.315326882003</v>
+        <v>1884.976914657367</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46046.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1544.013834951389</v>
+        <v>1817.459627717786</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46046.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1484.712343020774</v>
+        <v>1749.942340778204</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46046.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1425.41085109016</v>
+        <v>1682.425053838622</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46046.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1331.545061005356</v>
+        <v>1575.550218449154</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46046.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1237.679270920553</v>
+        <v>1468.675383059686</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46046.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1143.813480835749</v>
+        <v>1361.800547670219</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46046.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1049.947690750946</v>
+        <v>1254.925712280751</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46046.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1013.593345433478</v>
+        <v>1223.004193323594</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46046.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>977.2390001160102</v>
+        <v>1191.082674366437</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46046.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>940.8846547985423</v>
+        <v>1159.16115540928</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>904.5303094810745</v>
+        <v>1127.239636452123</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,645 +415,645 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B2">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="C2">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="D2">
-        <v>1043.305461100807</v>
+        <v>1103.101666019057</v>
       </c>
       <c r="E2">
-        <v>1080</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C3">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="D3">
-        <v>1035.008067491039</v>
+        <v>1093.1387329837</v>
       </c>
       <c r="E3">
-        <v>958</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B4">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C4">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="D4">
-        <v>1026.710673881271</v>
+        <v>1083.175799948343</v>
       </c>
       <c r="E4">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B5">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D5">
-        <v>1018.413280271503</v>
+        <v>1073.212866912986</v>
       </c>
       <c r="E5">
-        <v>379</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B6">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="D6">
-        <v>1014.494046785473</v>
+        <v>1071.878119903464</v>
       </c>
       <c r="E6">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B7">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C7">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="D7">
-        <v>1010.574813299443</v>
+        <v>1070.543372893943</v>
       </c>
       <c r="E7">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B8">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C8">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="D8">
-        <v>1006.655579813413</v>
+        <v>1069.208625884421</v>
       </c>
       <c r="E8">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B9">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C9">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="D9">
-        <v>1002.736346327383</v>
+        <v>1067.8738788749</v>
       </c>
       <c r="E9">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B10">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="C10">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="D10">
-        <v>1004.471089017758</v>
+        <v>1064.61328260875</v>
       </c>
       <c r="E10">
-        <v>995</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B11">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="C11">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="D11">
-        <v>1006.205831708132</v>
+        <v>1061.3526863426</v>
       </c>
       <c r="E11">
-        <v>991</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B12">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="C12">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="D12">
-        <v>1007.940574398507</v>
+        <v>1058.09209007645</v>
       </c>
       <c r="E12">
-        <v>995</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B13">
-        <v>434</v>
+        <v>274</v>
       </c>
       <c r="C13">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="D13">
-        <v>1009.675317088881</v>
+        <v>1054.831493810301</v>
       </c>
       <c r="E13">
-        <v>992</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B14">
-        <v>422</v>
+        <v>252</v>
       </c>
       <c r="C14">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="D14">
-        <v>1013.667978837108</v>
+        <v>1057.434250478934</v>
       </c>
       <c r="E14">
-        <v>975</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B15">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="C15">
-        <v>530</v>
+        <v>452</v>
       </c>
       <c r="D15">
-        <v>1017.660640585334</v>
+        <v>1060.037007147567</v>
       </c>
       <c r="E15">
-        <v>913</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B16">
-        <v>382</v>
+        <v>248</v>
       </c>
       <c r="C16">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="D16">
-        <v>1021.653302333561</v>
+        <v>1062.6397638162</v>
       </c>
       <c r="E16">
-        <v>911</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>251</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="D17">
-        <v>1025.645964081787</v>
+        <v>1065.242520484833</v>
       </c>
       <c r="E17">
-        <v>385</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B18">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="D18">
-        <v>1069.96909875155</v>
+        <v>1090.717120552203</v>
       </c>
       <c r="E18">
-        <v>391</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B19">
-        <v>393</v>
+        <v>255</v>
       </c>
       <c r="C19">
-        <v>536</v>
+        <v>732</v>
       </c>
       <c r="D19">
-        <v>1114.292233421312</v>
+        <v>1116.191720619572</v>
       </c>
       <c r="E19">
-        <v>929</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B20">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>535</v>
+        <v>735</v>
       </c>
       <c r="D20">
-        <v>1158.615368091074</v>
+        <v>1141.666320686942</v>
       </c>
       <c r="E20">
-        <v>926</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B21">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="C21">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1202.938502760836</v>
+        <v>1167.140920754311</v>
       </c>
       <c r="E21">
-        <v>931</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B22">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="C22">
-        <v>573</v>
+        <v>691</v>
       </c>
       <c r="D22">
-        <v>1349.381992853535</v>
+        <v>1343.985365608679</v>
       </c>
       <c r="E22">
-        <v>966</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B23">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C23">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="D23">
-        <v>1495.825482946234</v>
+        <v>1520.829810463047</v>
       </c>
       <c r="E23">
-        <v>986</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B24">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C24">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="D24">
-        <v>1642.268973038933</v>
+        <v>1697.674255317415</v>
       </c>
       <c r="E24">
-        <v>993</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B25">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C25">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="D25">
-        <v>1788.712463131632</v>
+        <v>1874.518700171783</v>
       </c>
       <c r="E25">
-        <v>1038</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B26">
-        <v>692</v>
+        <v>403</v>
       </c>
       <c r="C26">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D26">
-        <v>1856.119607678285</v>
+        <v>1944.650121615053</v>
       </c>
       <c r="E26">
-        <v>1716</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B27">
-        <v>755</v>
+        <v>396</v>
       </c>
       <c r="C27">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="D27">
-        <v>1923.526752224938</v>
+        <v>2014.781543058324</v>
       </c>
       <c r="E27">
-        <v>1831</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B28">
-        <v>834</v>
+        <v>399</v>
       </c>
       <c r="C28">
-        <v>1123</v>
+        <v>1043</v>
       </c>
       <c r="D28">
-        <v>1990.933896771591</v>
+        <v>2084.912964501595</v>
       </c>
       <c r="E28">
-        <v>1957</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B29">
-        <v>832</v>
+        <v>442</v>
       </c>
       <c r="C29">
-        <v>1134</v>
+        <v>1045</v>
       </c>
       <c r="D29">
-        <v>2058.341041318244</v>
+        <v>2155.044385944866</v>
       </c>
       <c r="E29">
-        <v>1966</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B30">
-        <v>923</v>
+        <v>760</v>
       </c>
       <c r="C30">
-        <v>1260</v>
+        <v>1209</v>
       </c>
       <c r="D30">
-        <v>2067.088183033032</v>
+        <v>2159.000957437241</v>
       </c>
       <c r="E30">
-        <v>2183</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B31">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C31">
-        <v>1174</v>
+        <v>1225</v>
       </c>
       <c r="D31">
-        <v>2075.83532474782</v>
+        <v>2162.957528929615</v>
       </c>
       <c r="E31">
-        <v>1959</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="C32">
-        <v>1159</v>
+        <v>1220</v>
       </c>
       <c r="D32">
-        <v>2084.582466462607</v>
+        <v>2166.91410042199</v>
       </c>
       <c r="E32">
-        <v>1159</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B33">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2093.329608177396</v>
+        <v>2170.870671914365</v>
       </c>
       <c r="E33">
-        <v>786</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="C34">
-        <v>1169</v>
+        <v>1224</v>
       </c>
       <c r="D34">
-        <v>2108.097867378641</v>
+        <v>2177.601610405237</v>
       </c>
       <c r="E34">
-        <v>1169</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B35">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C35">
-        <v>1166</v>
+        <v>1220</v>
       </c>
       <c r="D35">
-        <v>2122.866126579887</v>
+        <v>2184.332548896109</v>
       </c>
       <c r="E35">
-        <v>1951</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B36">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="D36">
-        <v>2137.634385781133</v>
+        <v>2191.063487386981</v>
       </c>
       <c r="E36">
-        <v>788</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="C37">
-        <v>1167</v>
+        <v>1250</v>
       </c>
       <c r="D37">
-        <v>2152.402644982379</v>
+        <v>2197.794425877853</v>
       </c>
       <c r="E37">
-        <v>1167</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B38">
-        <v>747</v>
+        <v>637</v>
       </c>
       <c r="C38">
-        <v>1137</v>
+        <v>1358</v>
       </c>
       <c r="D38">
-        <v>2128.400781830574</v>
+        <v>2179.270044167205</v>
       </c>
       <c r="E38">
-        <v>1884</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B39">
-        <v>814</v>
+        <v>636</v>
       </c>
       <c r="C39">
-        <v>1193</v>
+        <v>1371</v>
       </c>
       <c r="D39">
-        <v>2104.398918678769</v>
+        <v>2160.745662456558</v>
       </c>
       <c r="E39">
         <v>2007</v>
@@ -1061,109 +1061,109 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B40">
-        <v>824</v>
+        <v>635</v>
       </c>
       <c r="C40">
-        <v>1210</v>
+        <v>1373</v>
       </c>
       <c r="D40">
-        <v>2080.397055526964</v>
+        <v>2142.22128074591</v>
       </c>
       <c r="E40">
-        <v>2034</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B41">
-        <v>887</v>
+        <v>633</v>
       </c>
       <c r="C41">
-        <v>1249</v>
+        <v>1371</v>
       </c>
       <c r="D41">
-        <v>2056.395192375159</v>
+        <v>2123.696899035262</v>
       </c>
       <c r="E41">
-        <v>2136</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B42">
-        <v>871</v>
+        <v>600</v>
       </c>
       <c r="C42">
-        <v>1236</v>
+        <v>1335</v>
       </c>
       <c r="D42">
-        <v>2005.065777702685</v>
+        <v>2081.220164441714</v>
       </c>
       <c r="E42">
-        <v>2107</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B43">
-        <v>858</v>
+        <v>599</v>
       </c>
       <c r="C43">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1953.736363030211</v>
+        <v>2038.743429848166</v>
       </c>
       <c r="E43">
-        <v>2092</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="D44">
-        <v>1902.406948357738</v>
+        <v>1996.266695254618</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="D45">
-        <v>1851.077533685264</v>
+        <v>1953.78996066107</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1814.972245341353</v>
+        <v>1910.06110625395</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1778.866956997442</v>
+        <v>1866.33225184683</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1742.761668653531</v>
+        <v>1822.60339743971</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1706.65638030962</v>
+        <v>1778.874543032589</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1716.826194601293</v>
+        <v>1791.5165039942</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1726.996008892965</v>
+        <v>1804.158464955811</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1737.165823184638</v>
+        <v>1816.800425917422</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1747.33563747631</v>
+        <v>1829.442386879033</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1775.642232489981</v>
+        <v>1859.054702675989</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1803.948827503652</v>
+        <v>1888.667018472945</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1832.255422517323</v>
+        <v>1918.279334269901</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1860.562017530994</v>
+        <v>1947.891650066857</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1935.706665189541</v>
+        <v>2015.15336543953</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2010.851312848088</v>
+        <v>2082.415080812204</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2085.995960506635</v>
+        <v>2149.676796184877</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2161.140608165182</v>
+        <v>2216.938511557551</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2177.955680170744</v>
+        <v>2243.662053469614</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2194.770752176306</v>
+        <v>2270.385595381677</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2211.585824181869</v>
+        <v>2297.10913729374</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2228.400896187431</v>
+        <v>2323.832679205803</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2246.813032892288</v>
+        <v>2346.637785254199</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2265.225169597144</v>
+        <v>2369.442891302595</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2283.637306302001</v>
+        <v>2392.247997350991</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2302.049443006858</v>
+        <v>2415.053103399388</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2319.323441650199</v>
+        <v>2424.825358290297</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2336.597440293539</v>
+        <v>2434.597613181207</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2353.87143893688</v>
+        <v>2444.369868072116</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2371.14543758022</v>
+        <v>2454.142122963025</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2364.243180949087</v>
+        <v>2446.85821785438</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2357.340924317954</v>
+        <v>2439.574312745734</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2350.438667686822</v>
+        <v>2432.290407637089</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2343.536411055689</v>
+        <v>2425.006502528443</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2316.845237806574</v>
+        <v>2393.773422505268</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2290.15406455746</v>
+        <v>2362.540342482094</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2263.462891308345</v>
+        <v>2331.307262458919</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2236.77171805923</v>
+        <v>2300.074182435745</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2165.70233894366</v>
+        <v>2220.084700936706</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2094.632959828089</v>
+        <v>2140.095219437668</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2023.563580712519</v>
+        <v>2060.105737938629</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1952.494201596949</v>
+        <v>1980.116256439591</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1884.976914657367</v>
+        <v>1903.825930938173</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1817.459627717786</v>
+        <v>1827.535605436755</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1749.942340778204</v>
+        <v>1751.245279935337</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1682.425053838622</v>
+        <v>1674.954954433919</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1575.550218449154</v>
+        <v>1578.099991078764</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1468.675383059686</v>
+        <v>1481.245027723608</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1361.800547670219</v>
+        <v>1384.390064368453</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1254.925712280751</v>
+        <v>1287.535101013298</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1223.004193323594</v>
+        <v>1240.372385432428</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1191.082674366437</v>
+        <v>1193.20966985156</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1159.16115540928</v>
+        <v>1146.046954270691</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1127.239636452123</v>
+        <v>1098.884238689821</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,823 +415,823 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C2">
-        <v>593</v>
+        <v>971</v>
       </c>
       <c r="D2">
-        <v>1103.101666019057</v>
+        <v>1465.585359184455</v>
       </c>
       <c r="E2">
-        <v>962</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
       <c r="B3">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="C3">
-        <v>522</v>
+        <v>955</v>
       </c>
       <c r="D3">
-        <v>1093.1387329837</v>
+        <v>1460.395036285225</v>
       </c>
       <c r="E3">
-        <v>887</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="C4">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1083.175799948343</v>
+        <v>1455.204713385996</v>
       </c>
       <c r="E4">
-        <v>953</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
       <c r="B5">
-        <v>344</v>
+        <v>253</v>
       </c>
       <c r="C5">
-        <v>616</v>
+        <v>954</v>
       </c>
       <c r="D5">
-        <v>1073.212866912986</v>
+        <v>1450.014390486765</v>
       </c>
       <c r="E5">
-        <v>960</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
       <c r="B6">
-        <v>368</v>
+        <v>258</v>
       </c>
       <c r="C6">
-        <v>584</v>
+        <v>938</v>
       </c>
       <c r="D6">
-        <v>1071.878119903464</v>
+        <v>1440.995464384301</v>
       </c>
       <c r="E6">
-        <v>952</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
       <c r="B7">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="C7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D7">
-        <v>1070.543372893943</v>
+        <v>1431.976538281837</v>
       </c>
       <c r="E7">
-        <v>947</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
       <c r="B8">
-        <v>368</v>
+        <v>256</v>
       </c>
       <c r="C8">
-        <v>586</v>
+        <v>937</v>
       </c>
       <c r="D8">
-        <v>1069.208625884421</v>
+        <v>1422.957612179373</v>
       </c>
       <c r="E8">
-        <v>954</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
       <c r="B9">
-        <v>365</v>
+        <v>255</v>
       </c>
       <c r="C9">
-        <v>584</v>
+        <v>935</v>
       </c>
       <c r="D9">
-        <v>1067.8738788749</v>
+        <v>1413.938686076909</v>
       </c>
       <c r="E9">
-        <v>949</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
       <c r="B10">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="C10">
-        <v>586</v>
+        <v>880</v>
       </c>
       <c r="D10">
-        <v>1064.61328260875</v>
+        <v>1412.547363778826</v>
       </c>
       <c r="E10">
-        <v>956</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
       <c r="B11">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="C11">
-        <v>585</v>
+        <v>877</v>
       </c>
       <c r="D11">
-        <v>1061.3526863426</v>
+        <v>1411.156041480744</v>
       </c>
       <c r="E11">
-        <v>953</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
       <c r="B12">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C12">
-        <v>472</v>
+        <v>879</v>
       </c>
       <c r="D12">
-        <v>1058.09209007645</v>
+        <v>1409.764719182661</v>
       </c>
       <c r="E12">
-        <v>772</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
       <c r="B13">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>438</v>
+        <v>877</v>
       </c>
       <c r="D13">
-        <v>1054.831493810301</v>
+        <v>1408.373396884579</v>
       </c>
       <c r="E13">
-        <v>712</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
       <c r="B14">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>450</v>
+        <v>883</v>
       </c>
       <c r="D14">
-        <v>1057.434250478934</v>
+        <v>1425.118602131714</v>
       </c>
       <c r="E14">
-        <v>702</v>
+        <v>883</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
       <c r="B15">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C15">
-        <v>452</v>
+        <v>882</v>
       </c>
       <c r="D15">
-        <v>1060.037007147567</v>
+        <v>1441.863807378849</v>
       </c>
       <c r="E15">
-        <v>696</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
       <c r="B16">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C16">
-        <v>588</v>
+        <v>883</v>
       </c>
       <c r="D16">
-        <v>1062.6397638162</v>
+        <v>1458.609012625985</v>
       </c>
       <c r="E16">
-        <v>836</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
       <c r="B17">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C17">
-        <v>665</v>
+        <v>884</v>
       </c>
       <c r="D17">
-        <v>1065.242520484833</v>
+        <v>1475.35421787312</v>
       </c>
       <c r="E17">
-        <v>916</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
       <c r="B18">
         <v>257</v>
       </c>
       <c r="C18">
-        <v>723</v>
+        <v>901</v>
       </c>
       <c r="D18">
-        <v>1090.717120552203</v>
+        <v>1497.191070679196</v>
       </c>
       <c r="E18">
-        <v>980</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
       <c r="B19">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1116.191720619572</v>
+        <v>1519.027923485271</v>
       </c>
       <c r="E19">
-        <v>987</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="C20">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1141.666320686942</v>
+        <v>1540.864776291347</v>
       </c>
       <c r="E20">
-        <v>735</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
       <c r="B21">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>913</v>
       </c>
       <c r="D21">
-        <v>1167.140920754311</v>
+        <v>1562.701629097423</v>
       </c>
       <c r="E21">
-        <v>263</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
       <c r="B22">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="C22">
-        <v>691</v>
+        <v>1235</v>
       </c>
       <c r="D22">
-        <v>1343.985365608679</v>
+        <v>1700.472139209739</v>
       </c>
       <c r="E22">
-        <v>1033</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
       <c r="B23">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C23">
-        <v>690</v>
+        <v>1242</v>
       </c>
       <c r="D23">
-        <v>1520.829810463047</v>
+        <v>1838.242649322056</v>
       </c>
       <c r="E23">
-        <v>1065</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
       <c r="B24">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C24">
-        <v>685</v>
+        <v>1243</v>
       </c>
       <c r="D24">
-        <v>1697.674255317415</v>
+        <v>1976.013159434372</v>
       </c>
       <c r="E24">
-        <v>1077</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
       <c r="B25">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="C25">
-        <v>694</v>
+        <v>1252</v>
       </c>
       <c r="D25">
-        <v>1874.518700171783</v>
+        <v>2113.783669546688</v>
       </c>
       <c r="E25">
-        <v>1093</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
       <c r="B26">
-        <v>403</v>
+        <v>808</v>
       </c>
       <c r="C26">
-        <v>1016</v>
+        <v>1439</v>
       </c>
       <c r="D26">
-        <v>1944.650121615053</v>
+        <v>2191.076063595363</v>
       </c>
       <c r="E26">
-        <v>1419</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="B27">
-        <v>396</v>
+        <v>803</v>
       </c>
       <c r="C27">
-        <v>1034</v>
+        <v>1441</v>
       </c>
       <c r="D27">
-        <v>2014.781543058324</v>
+        <v>2268.368457644038</v>
       </c>
       <c r="E27">
-        <v>1430</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
       <c r="B28">
-        <v>399</v>
+        <v>834</v>
       </c>
       <c r="C28">
-        <v>1043</v>
+        <v>1444</v>
       </c>
       <c r="D28">
-        <v>2084.912964501595</v>
+        <v>2345.660851692714</v>
       </c>
       <c r="E28">
-        <v>1442</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B29">
-        <v>442</v>
+        <v>897</v>
       </c>
       <c r="C29">
-        <v>1045</v>
+        <v>1467</v>
       </c>
       <c r="D29">
-        <v>2155.044385944866</v>
+        <v>2422.953245741388</v>
       </c>
       <c r="E29">
-        <v>1487</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
       <c r="B30">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="C30">
-        <v>1209</v>
+        <v>1601</v>
       </c>
       <c r="D30">
-        <v>2159.000957437241</v>
+        <v>2424.916885013216</v>
       </c>
       <c r="E30">
-        <v>1969</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
       <c r="B31">
-        <v>770</v>
+        <v>944</v>
       </c>
       <c r="C31">
-        <v>1225</v>
+        <v>1603</v>
       </c>
       <c r="D31">
-        <v>2162.957528929615</v>
+        <v>2426.880524285044</v>
       </c>
       <c r="E31">
-        <v>1995</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
       <c r="B32">
-        <v>767</v>
+        <v>947</v>
       </c>
       <c r="C32">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2166.91410042199</v>
+        <v>2428.844163556872</v>
       </c>
       <c r="E32">
-        <v>1987</v>
+        <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
       <c r="B33">
-        <v>755</v>
+        <v>902</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="D33">
-        <v>2170.870671914365</v>
+        <v>2430.8078028287</v>
       </c>
       <c r="E33">
-        <v>755</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
       <c r="B34">
-        <v>789</v>
+        <v>938</v>
       </c>
       <c r="C34">
-        <v>1224</v>
+        <v>1603</v>
       </c>
       <c r="D34">
-        <v>2177.601610405237</v>
+        <v>2427.936350426274</v>
       </c>
       <c r="E34">
-        <v>2013</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
       <c r="B35">
-        <v>791</v>
+        <v>873</v>
       </c>
       <c r="C35">
-        <v>1220</v>
+        <v>1601</v>
       </c>
       <c r="D35">
-        <v>2184.332548896109</v>
+        <v>2425.064898023848</v>
       </c>
       <c r="E35">
-        <v>2011</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="C36">
-        <v>1242</v>
+        <v>1595</v>
       </c>
       <c r="D36">
-        <v>2191.063487386981</v>
+        <v>2422.193445621423</v>
       </c>
       <c r="E36">
-        <v>1242</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
       <c r="B37">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C37">
-        <v>1250</v>
+        <v>1593</v>
       </c>
       <c r="D37">
-        <v>2197.794425877853</v>
+        <v>2419.321993218997</v>
       </c>
       <c r="E37">
-        <v>2035</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
       <c r="B38">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="C38">
-        <v>1358</v>
+        <v>1617</v>
       </c>
       <c r="D38">
-        <v>2179.270044167205</v>
+        <v>2394.554482806322</v>
       </c>
       <c r="E38">
-        <v>1995</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
       <c r="B39">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="C39">
-        <v>1371</v>
+        <v>1620</v>
       </c>
       <c r="D39">
-        <v>2160.745662456558</v>
+        <v>2369.786972393646</v>
       </c>
       <c r="E39">
-        <v>2007</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
       <c r="B40">
-        <v>635</v>
+        <v>673</v>
       </c>
       <c r="C40">
-        <v>1373</v>
+        <v>1621</v>
       </c>
       <c r="D40">
-        <v>2142.22128074591</v>
+        <v>2345.019461980972</v>
       </c>
       <c r="E40">
-        <v>2008</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
       <c r="B41">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="C41">
-        <v>1371</v>
+        <v>1622</v>
       </c>
       <c r="D41">
-        <v>2123.696899035262</v>
+        <v>2320.251951568297</v>
       </c>
       <c r="E41">
-        <v>2004</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
       <c r="B42">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="C42">
-        <v>1335</v>
+        <v>1617</v>
       </c>
       <c r="D42">
-        <v>2081.220164441714</v>
+        <v>2292.168949721953</v>
       </c>
       <c r="E42">
-        <v>1935</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
       <c r="B43">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1611</v>
       </c>
       <c r="D43">
-        <v>2038.743429848166</v>
+        <v>2264.085947875609</v>
       </c>
       <c r="E43">
-        <v>599</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="C44">
-        <v>1333</v>
+        <v>1605</v>
       </c>
       <c r="D44">
-        <v>1996.266695254618</v>
+        <v>2236.002946029265</v>
       </c>
       <c r="E44">
-        <v>1333</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46049.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="B45">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C45">
-        <v>1331</v>
+        <v>1613</v>
       </c>
       <c r="D45">
-        <v>1953.78996066107</v>
+        <v>2207.919944182922</v>
       </c>
       <c r="E45">
-        <v>1926</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46049.46875</v>
+        <v>46056.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1592</v>
       </c>
       <c r="D46">
-        <v>1910.06110625395</v>
+        <v>2192.960762594967</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46049.47916666666</v>
+        <v>46056.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="D47">
-        <v>1866.33225184683</v>
+        <v>2178.001581007013</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46049.48958333334</v>
+        <v>46056.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="D48">
-        <v>1822.60339743971</v>
+        <v>2163.042399419058</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46049.5</v>
+        <v>46056.5</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="D49">
-        <v>1778.874543032589</v>
+        <v>2148.083217831103</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46049.51041666666</v>
+        <v>46056.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1791.5165039942</v>
+        <v>2147.71811907209</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46049.52083333334</v>
+        <v>46056.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1804.158464955811</v>
+        <v>2147.353020313078</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46049.53125</v>
+        <v>46056.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1816.800425917422</v>
+        <v>2146.987921554065</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46049.54166666666</v>
+        <v>46056.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1829.442386879033</v>
+        <v>2146.622822795052</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46049.55208333334</v>
+        <v>46056.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1859.054702675989</v>
+        <v>2158.375055823418</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46049.5625</v>
+        <v>46056.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1888.667018472945</v>
+        <v>2170.127288851784</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46049.57291666666</v>
+        <v>46056.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1918.279334269901</v>
+        <v>2181.879521880151</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46049.58333333334</v>
+        <v>46056.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1947.891650066857</v>
+        <v>2193.631754908517</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46049.59375</v>
+        <v>46056.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2015.15336543953</v>
+        <v>2231.75990639652</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46049.60416666666</v>
+        <v>46056.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2082.415080812204</v>
+        <v>2269.888057884523</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46049.61458333334</v>
+        <v>46056.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2149.676796184877</v>
+        <v>2308.016209372525</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46049.625</v>
+        <v>46056.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2216.938511557551</v>
+        <v>2346.144360860528</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46049.63541666666</v>
+        <v>46056.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2243.662053469614</v>
+        <v>2383.996221395329</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46049.64583333334</v>
+        <v>46056.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2270.385595381677</v>
+        <v>2421.848081930129</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46049.65625</v>
+        <v>46056.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2297.10913729374</v>
+        <v>2459.69994246493</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46049.66666666666</v>
+        <v>46056.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2323.832679205803</v>
+        <v>2497.551802999731</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46049.67708333334</v>
+        <v>46056.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2346.637785254199</v>
+        <v>2524.687521579559</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46049.6875</v>
+        <v>46056.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2369.442891302595</v>
+        <v>2551.823240159387</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46049.69791666666</v>
+        <v>46056.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2392.247997350991</v>
+        <v>2578.958958739215</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46049.70833333334</v>
+        <v>46056.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2415.053103399388</v>
+        <v>2606.094677319043</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46049.71875</v>
+        <v>46056.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2424.825358290297</v>
+        <v>2611.038311867691</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46049.72916666666</v>
+        <v>46056.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2434.597613181207</v>
+        <v>2615.98194641634</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46049.73958333334</v>
+        <v>46056.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2444.369868072116</v>
+        <v>2620.925580964989</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46049.75</v>
+        <v>46056.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2454.142122963025</v>
+        <v>2625.869215513638</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46049.76041666666</v>
+        <v>46056.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2446.85821785438</v>
+        <v>2616.978567353478</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46049.77083333334</v>
+        <v>46056.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2439.574312745734</v>
+        <v>2608.087919193318</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46049.78125</v>
+        <v>46056.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2432.290407637089</v>
+        <v>2599.197271033158</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46049.79166666666</v>
+        <v>46056.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2425.006502528443</v>
+        <v>2590.306622872998</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46049.80208333334</v>
+        <v>46056.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2393.773422505268</v>
+        <v>2574.113999531345</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46049.8125</v>
+        <v>46056.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2362.540342482094</v>
+        <v>2557.921376189692</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46049.82291666666</v>
+        <v>46056.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2331.307262458919</v>
+        <v>2541.728752848038</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46049.83333333334</v>
+        <v>46056.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2300.074182435745</v>
+        <v>2525.536129506385</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46049.84375</v>
+        <v>46056.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2220.084700936706</v>
+        <v>2488.177645672769</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46049.85416666666</v>
+        <v>46056.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2140.095219437668</v>
+        <v>2450.819161839152</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46049.86458333334</v>
+        <v>46056.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2060.105737938629</v>
+        <v>2413.460678005536</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46049.875</v>
+        <v>46056.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1980.116256439591</v>
+        <v>2376.102194171919</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46049.88541666666</v>
+        <v>46056.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1903.825930938173</v>
+        <v>2247.666371251166</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46049.89583333334</v>
+        <v>46056.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1827.535605436755</v>
+        <v>2119.230548330414</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46049.90625</v>
+        <v>46056.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1751.245279935337</v>
+        <v>1990.79472540966</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46049.91666666666</v>
+        <v>46056.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1674.954954433919</v>
+        <v>1862.358902488907</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46049.92708333334</v>
+        <v>46056.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1578.099991078764</v>
+        <v>1777.182348750924</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46049.9375</v>
+        <v>46056.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1481.245027723608</v>
+        <v>1692.00579501294</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46049.94791666666</v>
+        <v>46056.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1384.390064368453</v>
+        <v>1606.829241274957</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46049.95833333334</v>
+        <v>46056.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1287.535101013298</v>
+        <v>1521.652687536973</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46049.96875</v>
+        <v>46056.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1240.372385432428</v>
+        <v>1483.456518462315</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46049.97916666666</v>
+        <v>46056.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1193.20966985156</v>
+        <v>1445.260349387657</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46049.98958333334</v>
+        <v>46056.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1146.046954270691</v>
+        <v>1407.064180313</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1098.884238689821</v>
+        <v>1368.868011238342</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,823 +415,823 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="C2">
-        <v>971</v>
+        <v>620</v>
       </c>
       <c r="D2">
-        <v>1465.585359184455</v>
+        <v>1266.126876865654</v>
       </c>
       <c r="E2">
-        <v>1238</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B3">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>955</v>
+        <v>613</v>
       </c>
       <c r="D3">
-        <v>1460.395036285225</v>
+        <v>1269.242134267719</v>
       </c>
       <c r="E3">
-        <v>1211</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
       <c r="B4">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1455.204713385996</v>
+        <v>1272.357391669784</v>
       </c>
       <c r="E4">
-        <v>255</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B5">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="C5">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1450.014390486765</v>
+        <v>1275.472649071849</v>
       </c>
       <c r="E5">
-        <v>1207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
       <c r="B6">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C6">
-        <v>938</v>
+        <v>566</v>
       </c>
       <c r="D6">
-        <v>1440.995464384301</v>
+        <v>1259.944289098479</v>
       </c>
       <c r="E6">
-        <v>1196</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B7">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C7">
-        <v>936</v>
+        <v>640</v>
       </c>
       <c r="D7">
-        <v>1431.976538281837</v>
+        <v>1244.41592912511</v>
       </c>
       <c r="E7">
-        <v>1191</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.07291666666</v>
       </c>
       <c r="B8">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>937</v>
+        <v>661</v>
       </c>
       <c r="D8">
-        <v>1422.957612179373</v>
+        <v>1228.887569151741</v>
       </c>
       <c r="E8">
-        <v>1193</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B9">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="C9">
-        <v>935</v>
+        <v>662</v>
       </c>
       <c r="D9">
-        <v>1413.938686076909</v>
+        <v>1213.359209178372</v>
       </c>
       <c r="E9">
-        <v>1190</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46056.09375</v>
+        <v>46069.09375</v>
       </c>
       <c r="B10">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C10">
-        <v>880</v>
+        <v>694</v>
       </c>
       <c r="D10">
-        <v>1412.547363778826</v>
+        <v>1210.742392960422</v>
       </c>
       <c r="E10">
-        <v>1136</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B11">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="C11">
-        <v>877</v>
+        <v>696</v>
       </c>
       <c r="D11">
-        <v>1411.156041480744</v>
+        <v>1208.125576742473</v>
       </c>
       <c r="E11">
-        <v>1132</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.11458333334</v>
       </c>
       <c r="B12">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1409.764719182661</v>
+        <v>1205.508760524524</v>
       </c>
       <c r="E12">
-        <v>1135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46056.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C13">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1408.373396884579</v>
+        <v>1202.891944306574</v>
       </c>
       <c r="E13">
-        <v>877</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.13541666666</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="C14">
-        <v>883</v>
+        <v>703</v>
       </c>
       <c r="D14">
-        <v>1425.118602131714</v>
+        <v>1211.777616958217</v>
       </c>
       <c r="E14">
-        <v>883</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B15">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="C15">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1441.863807378849</v>
+        <v>1220.66328960986</v>
       </c>
       <c r="E15">
-        <v>1137</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46056.15625</v>
+        <v>46069.15625</v>
       </c>
       <c r="B16">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="C16">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1458.609012625985</v>
+        <v>1229.548962261503</v>
       </c>
       <c r="E16">
-        <v>1139</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B17">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="C17">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1475.35421787312</v>
+        <v>1238.434634913146</v>
       </c>
       <c r="E17">
-        <v>1138</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.17708333334</v>
       </c>
       <c r="B18">
-        <v>257</v>
+        <v>417</v>
       </c>
       <c r="C18">
-        <v>901</v>
+        <v>711</v>
       </c>
       <c r="D18">
-        <v>1497.191070679196</v>
+        <v>1276.747508254764</v>
       </c>
       <c r="E18">
-        <v>1158</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46056.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B19">
-        <v>256</v>
+        <v>428</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1519.027923485271</v>
+        <v>1315.060381596383</v>
       </c>
       <c r="E19">
-        <v>256</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.19791666666</v>
       </c>
       <c r="B20">
-        <v>258</v>
+        <v>431</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="D20">
-        <v>1540.864776291347</v>
+        <v>1353.373254938002</v>
       </c>
       <c r="E20">
-        <v>258</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B21">
-        <v>268</v>
+        <v>440</v>
       </c>
       <c r="C21">
-        <v>913</v>
+        <v>713</v>
       </c>
       <c r="D21">
-        <v>1562.701629097423</v>
+        <v>1391.686128279621</v>
       </c>
       <c r="E21">
-        <v>1181</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46056.21875</v>
+        <v>46069.21875</v>
       </c>
       <c r="B22">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="C22">
-        <v>1235</v>
+        <v>796</v>
       </c>
       <c r="D22">
-        <v>1700.472139209739</v>
+        <v>1559.641636584133</v>
       </c>
       <c r="E22">
-        <v>1633</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B23">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C23">
-        <v>1242</v>
+        <v>798</v>
       </c>
       <c r="D23">
-        <v>1838.242649322056</v>
+        <v>1727.597144888645</v>
       </c>
       <c r="E23">
-        <v>1646</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.23958333334</v>
       </c>
       <c r="B24">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="C24">
-        <v>1243</v>
+        <v>799</v>
       </c>
       <c r="D24">
-        <v>1976.013159434372</v>
+        <v>1895.552653193157</v>
       </c>
       <c r="E24">
-        <v>1653</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46056.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B25">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C25">
-        <v>1252</v>
+        <v>820</v>
       </c>
       <c r="D25">
-        <v>2113.783669546688</v>
+        <v>2063.508161497669</v>
       </c>
       <c r="E25">
-        <v>1691</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.26041666666</v>
       </c>
       <c r="B26">
-        <v>808</v>
+        <v>614</v>
       </c>
       <c r="C26">
-        <v>1439</v>
+        <v>1514</v>
       </c>
       <c r="D26">
-        <v>2191.076063595363</v>
+        <v>2113.572744300686</v>
       </c>
       <c r="E26">
-        <v>2247</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B27">
-        <v>803</v>
+        <v>613</v>
       </c>
       <c r="C27">
-        <v>1441</v>
+        <v>1571</v>
       </c>
       <c r="D27">
-        <v>2268.368457644038</v>
+        <v>2163.637327103704</v>
       </c>
       <c r="E27">
-        <v>2244</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46056.28125</v>
+        <v>46069.28125</v>
       </c>
       <c r="B28">
-        <v>834</v>
+        <v>614</v>
       </c>
       <c r="C28">
-        <v>1444</v>
+        <v>1569</v>
       </c>
       <c r="D28">
-        <v>2345.660851692714</v>
+        <v>2213.701909906721</v>
       </c>
       <c r="E28">
-        <v>2278</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46056.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B29">
-        <v>897</v>
+        <v>616</v>
       </c>
       <c r="C29">
-        <v>1467</v>
+        <v>1570</v>
       </c>
       <c r="D29">
-        <v>2422.953245741388</v>
+        <v>2263.766492709738</v>
       </c>
       <c r="E29">
-        <v>2364</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46056.30208333334</v>
+        <v>46069.30208333334</v>
       </c>
       <c r="B30">
-        <v>830</v>
+        <v>659</v>
       </c>
       <c r="C30">
-        <v>1601</v>
+        <v>1572</v>
       </c>
       <c r="D30">
-        <v>2424.916885013216</v>
+        <v>2254.104402059578</v>
       </c>
       <c r="E30">
-        <v>2431</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46056.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B31">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2426.880524285044</v>
+        <v>2244.442311409417</v>
       </c>
       <c r="E31">
-        <v>2547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46056.32291666666</v>
+        <v>46069.32291666666</v>
       </c>
       <c r="B32">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2428.844163556872</v>
+        <v>2234.780220759257</v>
       </c>
       <c r="E32">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46056.33333333334</v>
+        <v>46069.33333333334</v>
       </c>
       <c r="B33">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1608</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2430.8078028287</v>
+        <v>2225.118130109096</v>
       </c>
       <c r="E33">
-        <v>2510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46056.34375</v>
+        <v>46069.34375</v>
       </c>
       <c r="B34">
-        <v>938</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2427.936350426274</v>
+        <v>2186.958623285726</v>
       </c>
       <c r="E34">
-        <v>2541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46056.35416666666</v>
+        <v>46069.35416666666</v>
       </c>
       <c r="B35">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1601</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>2425.064898023848</v>
+        <v>2148.799116462355</v>
       </c>
       <c r="E35">
-        <v>2474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46056.36458333334</v>
+        <v>46069.36458333334</v>
       </c>
       <c r="B36">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1595</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>2422.193445621423</v>
+        <v>2110.639609638984</v>
       </c>
       <c r="E36">
-        <v>2381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46056.375</v>
+        <v>46069.375</v>
       </c>
       <c r="B37">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2419.321993218997</v>
+        <v>2072.480102815614</v>
       </c>
       <c r="E37">
-        <v>2368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46056.38541666666</v>
+        <v>46069.38541666666</v>
       </c>
       <c r="B38">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1617</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>2394.554482806322</v>
+        <v>2055.005905142001</v>
       </c>
       <c r="E38">
-        <v>2295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46056.39583333334</v>
+        <v>46069.39583333334</v>
       </c>
       <c r="B39">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2369.786972393646</v>
+        <v>2037.531707468389</v>
       </c>
       <c r="E39">
-        <v>2295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46056.40625</v>
+        <v>46069.40625</v>
       </c>
       <c r="B40">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2345.019461980972</v>
+        <v>2020.057509794776</v>
       </c>
       <c r="E40">
-        <v>2294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46056.41666666666</v>
+        <v>46069.41666666666</v>
       </c>
       <c r="B41">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1622</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2320.251951568297</v>
+        <v>2002.583312121164</v>
       </c>
       <c r="E41">
-        <v>2298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46056.42708333334</v>
+        <v>46069.42708333334</v>
       </c>
       <c r="B42">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1617</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2292.168949721953</v>
+        <v>1967.567818921734</v>
       </c>
       <c r="E42">
-        <v>2232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46056.4375</v>
+        <v>46069.4375</v>
       </c>
       <c r="B43">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>2264.085947875609</v>
+        <v>1932.552325722304</v>
       </c>
       <c r="E43">
-        <v>2221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46056.44791666666</v>
+        <v>46069.44791666666</v>
       </c>
       <c r="B44">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1605</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>2236.002946029265</v>
+        <v>1897.536832522874</v>
       </c>
       <c r="E44">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46056.45833333334</v>
+        <v>46069.45833333334</v>
       </c>
       <c r="B45">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2207.919944182922</v>
+        <v>1862.521339323443</v>
       </c>
       <c r="E45">
-        <v>2206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46056.46875</v>
+        <v>46069.46875</v>
       </c>
       <c r="B46">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1592</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>2192.960762594967</v>
+        <v>1846.810856609707</v>
       </c>
       <c r="E46">
-        <v>2177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46056.47916666666</v>
+        <v>46069.47916666666</v>
       </c>
       <c r="B47">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2178.001581007013</v>
+        <v>1831.10037389597</v>
       </c>
       <c r="E47">
-        <v>2164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46056.48958333334</v>
+        <v>46069.48958333334</v>
       </c>
       <c r="B48">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2163.042399419058</v>
+        <v>1815.389891182234</v>
       </c>
       <c r="E48">
-        <v>2160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46056.5</v>
+        <v>46069.5</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>2148.083217831103</v>
+        <v>1799.679408468498</v>
       </c>
       <c r="E49">
-        <v>1582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46056.51041666666</v>
+        <v>46069.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2147.71811907209</v>
+        <v>1813.539907556054</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46056.52083333334</v>
+        <v>46069.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2147.353020313078</v>
+        <v>1827.40040664361</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46056.53125</v>
+        <v>46069.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2146.987921554065</v>
+        <v>1841.260905731167</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46056.54166666666</v>
+        <v>46069.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2146.622822795052</v>
+        <v>1855.121404818724</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46056.55208333334</v>
+        <v>46069.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2158.375055823418</v>
+        <v>1859.712814958719</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46056.5625</v>
+        <v>46069.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2170.127288851784</v>
+        <v>1864.304225098715</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46056.57291666666</v>
+        <v>46069.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2181.879521880151</v>
+        <v>1868.895635238711</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46056.58333333334</v>
+        <v>46069.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2193.631754908517</v>
+        <v>1873.487045378706</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46056.59375</v>
+        <v>46069.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2231.75990639652</v>
+        <v>1936.300220011884</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46056.60416666666</v>
+        <v>46069.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2269.888057884523</v>
+        <v>1999.113394645061</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46056.61458333334</v>
+        <v>46069.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2308.016209372525</v>
+        <v>2061.926569278238</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46056.625</v>
+        <v>46069.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2346.144360860528</v>
+        <v>2124.739743911415</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46056.63541666666</v>
+        <v>46069.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2383.996221395329</v>
+        <v>2195.441708827048</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46056.64583333334</v>
+        <v>46069.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2421.848081930129</v>
+        <v>2266.143673742681</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46056.65625</v>
+        <v>46069.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2459.69994246493</v>
+        <v>2336.845638658313</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46056.66666666666</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2497.551802999731</v>
+        <v>2407.547603573946</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46056.67708333334</v>
+        <v>46069.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2524.687521579559</v>
+        <v>2436.03543433997</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46056.6875</v>
+        <v>46069.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2551.823240159387</v>
+        <v>2464.523265105993</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46056.69791666666</v>
+        <v>46069.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2578.958958739215</v>
+        <v>2493.011095872017</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46056.70833333334</v>
+        <v>46069.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2606.094677319043</v>
+        <v>2521.498926638041</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46056.71875</v>
+        <v>46069.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2611.038311867691</v>
+        <v>2533.538198321018</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46056.72916666666</v>
+        <v>46069.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2615.98194641634</v>
+        <v>2545.577470003995</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46056.73958333334</v>
+        <v>46069.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2620.925580964989</v>
+        <v>2557.616741686972</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46056.75</v>
+        <v>46069.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2625.869215513638</v>
+        <v>2569.65601336995</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46056.76041666666</v>
+        <v>46069.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2616.978567353478</v>
+        <v>2575.196378842159</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46056.77083333334</v>
+        <v>46069.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2608.087919193318</v>
+        <v>2580.736744314368</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46056.78125</v>
+        <v>46069.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2599.197271033158</v>
+        <v>2586.277109786578</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46056.79166666666</v>
+        <v>46069.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2590.306622872998</v>
+        <v>2591.817475258787</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46056.80208333334</v>
+        <v>46069.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2574.113999531345</v>
+        <v>2578.685467132933</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46056.8125</v>
+        <v>46069.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2557.921376189692</v>
+        <v>2565.553459007079</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46056.82291666666</v>
+        <v>46069.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2541.728752848038</v>
+        <v>2552.421450881226</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46056.83333333334</v>
+        <v>46069.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2525.536129506385</v>
+        <v>2539.289442755372</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46056.84375</v>
+        <v>46069.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2488.177645672769</v>
+        <v>2454.151854308819</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46056.85416666666</v>
+        <v>46069.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2450.819161839152</v>
+        <v>2369.014265862266</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46056.86458333334</v>
+        <v>46069.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2413.460678005536</v>
+        <v>2283.876677415713</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46056.875</v>
+        <v>46069.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2376.102194171919</v>
+        <v>2198.73908896916</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46056.88541666666</v>
+        <v>46069.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2247.666371251166</v>
+        <v>2116.572976813918</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46056.89583333334</v>
+        <v>46069.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2119.230548330414</v>
+        <v>2034.406864658676</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46056.90625</v>
+        <v>46069.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1990.79472540966</v>
+        <v>1952.240752503433</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46056.91666666666</v>
+        <v>46069.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1862.358902488907</v>
+        <v>1870.074640348191</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46056.92708333334</v>
+        <v>46069.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1777.182348750924</v>
+        <v>1751.752371514005</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46056.9375</v>
+        <v>46069.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1692.00579501294</v>
+        <v>1633.43010267982</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46056.94791666666</v>
+        <v>46069.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1606.829241274957</v>
+        <v>1515.107833845634</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46056.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1521.652687536973</v>
+        <v>1396.785565011448</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46056.96875</v>
+        <v>46069.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1483.456518462315</v>
+        <v>1355.240519008503</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46056.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1445.260349387657</v>
+        <v>1313.695473005558</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46056.98958333334</v>
+        <v>46069.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1407.064180313</v>
+        <v>1272.150427002613</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46057</v>
+        <v>46070</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1368.868011238342</v>
+        <v>1230.605380999668</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,500 +415,500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
       <c r="B2">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>620</v>
+        <v>1087</v>
       </c>
       <c r="D2">
-        <v>1266.126876865654</v>
+        <v>1245.682082257708</v>
       </c>
       <c r="E2">
-        <v>807</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.02083333334</v>
       </c>
       <c r="B3">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="C3">
-        <v>613</v>
+        <v>1095</v>
       </c>
       <c r="D3">
-        <v>1269.242134267719</v>
+        <v>1252.115077440379</v>
       </c>
       <c r="E3">
-        <v>798</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46069.03125</v>
+        <v>46070.03125</v>
       </c>
       <c r="B4">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="D4">
-        <v>1272.357391669784</v>
+        <v>1258.54807262305</v>
       </c>
       <c r="E4">
-        <v>186</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.04166666666</v>
       </c>
       <c r="B5">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="D5">
-        <v>1275.472649071849</v>
+        <v>1264.981067805721</v>
       </c>
       <c r="E5">
-        <v>185</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.05208333334</v>
       </c>
       <c r="B6">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="C6">
-        <v>566</v>
+        <v>1124</v>
       </c>
       <c r="D6">
-        <v>1259.944289098479</v>
+        <v>1256.520175197442</v>
       </c>
       <c r="E6">
-        <v>788</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46069.0625</v>
+        <v>46070.0625</v>
       </c>
       <c r="B7">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C7">
-        <v>640</v>
+        <v>1073</v>
       </c>
       <c r="D7">
-        <v>1244.41592912511</v>
+        <v>1248.059282589162</v>
       </c>
       <c r="E7">
-        <v>888</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46069.07291666666</v>
+        <v>46070.07291666666</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C8">
-        <v>661</v>
+        <v>1117</v>
       </c>
       <c r="D8">
-        <v>1228.887569151741</v>
+        <v>1239.598389980883</v>
       </c>
       <c r="E8">
-        <v>982</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
       <c r="B9">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="C9">
-        <v>662</v>
+        <v>1118</v>
       </c>
       <c r="D9">
-        <v>1213.359209178372</v>
+        <v>1231.137497372604</v>
       </c>
       <c r="E9">
-        <v>994</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
       <c r="B10">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="C10">
-        <v>694</v>
+        <v>1101</v>
       </c>
       <c r="D10">
-        <v>1210.742392960422</v>
+        <v>1230.27394296652</v>
       </c>
       <c r="E10">
-        <v>1022</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
       <c r="B11">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="C11">
-        <v>696</v>
+        <v>1098</v>
       </c>
       <c r="D11">
-        <v>1208.125576742473</v>
+        <v>1229.410388560437</v>
       </c>
       <c r="E11">
-        <v>1029</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1205.508760524524</v>
+        <v>1228.546834154353</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
       <c r="B13">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="D13">
-        <v>1202.891944306574</v>
+        <v>1227.683279748269</v>
       </c>
       <c r="E13">
-        <v>340</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
       <c r="B14">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="C14">
-        <v>703</v>
+        <v>1093</v>
       </c>
       <c r="D14">
-        <v>1211.777616958217</v>
+        <v>1237.095052489169</v>
       </c>
       <c r="E14">
-        <v>1089</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
       <c r="B15">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="D15">
-        <v>1220.66328960986</v>
+        <v>1246.506825230069</v>
       </c>
       <c r="E15">
-        <v>385</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
       <c r="B16">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="D16">
-        <v>1229.548962261503</v>
+        <v>1255.91859797097</v>
       </c>
       <c r="E16">
-        <v>387</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
       <c r="B17">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="D17">
-        <v>1238.434634913146</v>
+        <v>1265.33037071187</v>
       </c>
       <c r="E17">
-        <v>385</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
       <c r="B18">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="C18">
-        <v>711</v>
+        <v>1164</v>
       </c>
       <c r="D18">
-        <v>1276.747508254764</v>
+        <v>1297.359506606251</v>
       </c>
       <c r="E18">
-        <v>1128</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
       <c r="B19">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="D19">
-        <v>1315.060381596383</v>
+        <v>1329.388642500632</v>
       </c>
       <c r="E19">
-        <v>428</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
       <c r="B20">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="C20">
-        <v>710</v>
+        <v>1185</v>
       </c>
       <c r="D20">
-        <v>1353.373254938002</v>
+        <v>1361.417778395013</v>
       </c>
       <c r="E20">
-        <v>1141</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
       <c r="B21">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="C21">
-        <v>713</v>
+        <v>1213</v>
       </c>
       <c r="D21">
-        <v>1391.686128279621</v>
+        <v>1393.446914289394</v>
       </c>
       <c r="E21">
-        <v>1153</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
       <c r="B22">
-        <v>455</v>
+        <v>572</v>
       </c>
       <c r="C22">
-        <v>796</v>
+        <v>1194</v>
       </c>
       <c r="D22">
-        <v>1559.641636584133</v>
+        <v>1564.731475314716</v>
       </c>
       <c r="E22">
-        <v>1251</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
       <c r="B23">
-        <v>451</v>
+        <v>559</v>
       </c>
       <c r="C23">
-        <v>798</v>
+        <v>1182</v>
       </c>
       <c r="D23">
-        <v>1727.597144888645</v>
+        <v>1736.016036340038</v>
       </c>
       <c r="E23">
-        <v>1249</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
       <c r="B24">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="C24">
-        <v>799</v>
+        <v>1115</v>
       </c>
       <c r="D24">
-        <v>1895.552653193157</v>
+        <v>1907.300597365359</v>
       </c>
       <c r="E24">
-        <v>1242</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
       <c r="B25">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="C25">
-        <v>820</v>
+        <v>1135</v>
       </c>
       <c r="D25">
-        <v>2063.508161497669</v>
+        <v>2078.585158390681</v>
       </c>
       <c r="E25">
-        <v>1266</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
       <c r="B26">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="C26">
-        <v>1514</v>
+        <v>1422</v>
       </c>
       <c r="D26">
-        <v>2113.572744300686</v>
+        <v>2129.340811181675</v>
       </c>
       <c r="E26">
-        <v>2128</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
       <c r="B27">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C27">
-        <v>1571</v>
+        <v>1393</v>
       </c>
       <c r="D27">
-        <v>2163.637327103704</v>
+        <v>2180.096463972669</v>
       </c>
       <c r="E27">
-        <v>2184</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
       <c r="B28">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="C28">
-        <v>1569</v>
+        <v>1391</v>
       </c>
       <c r="D28">
-        <v>2213.701909906721</v>
+        <v>2230.852116763663</v>
       </c>
       <c r="E28">
-        <v>2183</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
       <c r="B29">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1570</v>
+        <v>1399</v>
       </c>
       <c r="D29">
-        <v>2263.766492709738</v>
+        <v>2281.607769554656</v>
       </c>
       <c r="E29">
-        <v>2186</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46069.30208333334</v>
+        <v>46070.30208333334</v>
       </c>
       <c r="B30">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="C30">
         <v>1572</v>
       </c>
       <c r="D30">
-        <v>2254.104402059578</v>
+        <v>2274.146271371438</v>
       </c>
       <c r="E30">
-        <v>2231</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46069.3125</v>
+        <v>46070.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2244.442311409417</v>
+        <v>2266.684773188219</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46069.32291666666</v>
+        <v>46070.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2234.780220759257</v>
+        <v>2259.223275005</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46069.33333333334</v>
+        <v>46070.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2225.118130109096</v>
+        <v>2251.761776821781</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46069.34375</v>
+        <v>46070.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2186.958623285726</v>
+        <v>2201.413644087483</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46069.35416666666</v>
+        <v>46070.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2148.799116462355</v>
+        <v>2151.065511353185</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46069.36458333334</v>
+        <v>46070.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2110.639609638984</v>
+        <v>2100.717378618887</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46069.375</v>
+        <v>46070.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2072.480102815614</v>
+        <v>2050.369245884589</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46069.38541666666</v>
+        <v>46070.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2055.005905142001</v>
+        <v>2025.918042475339</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46069.39583333334</v>
+        <v>46070.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2037.531707468389</v>
+        <v>2001.466839066088</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46069.40625</v>
+        <v>46070.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2020.057509794776</v>
+        <v>1977.015635656838</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46069.41666666666</v>
+        <v>46070.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2002.583312121164</v>
+        <v>1952.564432247587</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46069.42708333334</v>
+        <v>46070.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1967.567818921734</v>
+        <v>1907.940986025652</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46069.4375</v>
+        <v>46070.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1932.552325722304</v>
+        <v>1863.317539803717</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46069.44791666666</v>
+        <v>46070.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1897.536832522874</v>
+        <v>1818.694093581782</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46069.45833333334</v>
+        <v>46070.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1862.521339323443</v>
+        <v>1774.070647359847</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46069.46875</v>
+        <v>46070.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1846.810856609707</v>
+        <v>1759.390222455906</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46069.47916666666</v>
+        <v>46070.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1831.10037389597</v>
+        <v>1744.709797551964</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46069.48958333334</v>
+        <v>46070.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1815.389891182234</v>
+        <v>1730.029372648022</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46069.5</v>
+        <v>46070.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1799.679408468498</v>
+        <v>1715.34894774408</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46069.51041666666</v>
+        <v>46070.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1813.539907556054</v>
+        <v>1733.347750253616</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46069.52083333334</v>
+        <v>46070.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1827.40040664361</v>
+        <v>1751.346552763152</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46069.53125</v>
+        <v>46070.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1841.260905731167</v>
+        <v>1769.345355272688</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46069.54166666666</v>
+        <v>46070.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1855.121404818724</v>
+        <v>1787.344157782224</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46069.55208333334</v>
+        <v>46070.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1859.712814958719</v>
+        <v>1805.401177442841</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46069.5625</v>
+        <v>46070.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1864.304225098715</v>
+        <v>1823.458197103458</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46069.57291666666</v>
+        <v>46070.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1868.895635238711</v>
+        <v>1841.515216764075</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46069.58333333334</v>
+        <v>46070.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1873.487045378706</v>
+        <v>1859.572236424692</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46069.59375</v>
+        <v>46070.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1936.300220011884</v>
+        <v>1926.521960045203</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46069.60416666666</v>
+        <v>46070.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1999.113394645061</v>
+        <v>1993.471683665714</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46069.61458333334</v>
+        <v>46070.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2061.926569278238</v>
+        <v>2060.421407286226</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46069.625</v>
+        <v>46070.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2124.739743911415</v>
+        <v>2127.371130906737</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46069.63541666666</v>
+        <v>46070.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2195.441708827048</v>
+        <v>2197.58101498187</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46069.64583333334</v>
+        <v>46070.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2266.143673742681</v>
+        <v>2267.790899057003</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46069.65625</v>
+        <v>46070.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2336.845638658313</v>
+        <v>2338.000783132137</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46069.66666666666</v>
+        <v>46070.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2407.547603573946</v>
+        <v>2408.21066720727</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46069.67708333334</v>
+        <v>46070.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2436.03543433997</v>
+        <v>2437.571517015362</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46069.6875</v>
+        <v>46070.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2464.523265105993</v>
+        <v>2466.932366823454</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46069.69791666666</v>
+        <v>46070.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2493.011095872017</v>
+        <v>2496.293216631546</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46069.70833333334</v>
+        <v>46070.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2521.498926638041</v>
+        <v>2525.654066439638</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46069.71875</v>
+        <v>46070.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2533.538198321018</v>
+        <v>2540.906959994933</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46069.72916666666</v>
+        <v>46070.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2545.577470003995</v>
+        <v>2556.159853550227</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46069.73958333334</v>
+        <v>46070.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2557.616741686972</v>
+        <v>2571.412747105521</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46069.75</v>
+        <v>46070.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2569.65601336995</v>
+        <v>2586.665640660815</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46069.76041666666</v>
+        <v>46070.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2575.196378842159</v>
+        <v>2596.882750656745</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46069.77083333334</v>
+        <v>46070.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2580.736744314368</v>
+        <v>2607.099860652675</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46069.78125</v>
+        <v>46070.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2586.277109786578</v>
+        <v>2617.316970648605</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46069.79166666666</v>
+        <v>46070.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2591.817475258787</v>
+        <v>2627.534080644534</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46069.80208333334</v>
+        <v>46070.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2578.685467132933</v>
+        <v>2614.949473175722</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46069.8125</v>
+        <v>46070.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2565.553459007079</v>
+        <v>2602.364865706911</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46069.82291666666</v>
+        <v>46070.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2552.421450881226</v>
+        <v>2589.780258238099</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46069.83333333334</v>
+        <v>46070.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2539.289442755372</v>
+        <v>2577.195650769287</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46069.84375</v>
+        <v>46070.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2454.151854308819</v>
+        <v>2487.308369664661</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46069.85416666666</v>
+        <v>46070.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2369.014265862266</v>
+        <v>2397.421088560035</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46069.86458333334</v>
+        <v>46070.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2283.876677415713</v>
+        <v>2307.533807455409</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46069.875</v>
+        <v>46070.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2198.73908896916</v>
+        <v>2217.646526350783</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46069.88541666666</v>
+        <v>46070.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2116.572976813918</v>
+        <v>2131.591874352294</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46069.89583333334</v>
+        <v>46070.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2034.406864658676</v>
+        <v>2045.537222353805</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46069.90625</v>
+        <v>46070.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1952.240752503433</v>
+        <v>1959.482570355315</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46069.91666666666</v>
+        <v>46070.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1870.074640348191</v>
+        <v>1873.427918356826</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46069.92708333334</v>
+        <v>46070.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1751.752371514005</v>
+        <v>1751.045764149976</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46069.9375</v>
+        <v>46070.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1633.43010267982</v>
+        <v>1628.663609943126</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46069.94791666666</v>
+        <v>46070.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1515.107833845634</v>
+        <v>1506.281455736276</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46069.95833333334</v>
+        <v>46070.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1396.785565011448</v>
+        <v>1383.899301529426</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46069.96875</v>
+        <v>46070.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1355.240519008503</v>
+        <v>1328.656755127787</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46069.97916666666</v>
+        <v>46070.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1313.695473005558</v>
+        <v>1273.414208726148</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46069.98958333334</v>
+        <v>46070.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1272.150427002613</v>
+        <v>1218.171662324509</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1230.605380999668</v>
+        <v>1162.92911592287</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,500 +415,500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
       <c r="B2">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="C2">
-        <v>1087</v>
+        <v>1215</v>
       </c>
       <c r="D2">
-        <v>1245.682082257708</v>
+        <v>1262.78096852753</v>
       </c>
       <c r="E2">
-        <v>1367</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B3">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="C3">
-        <v>1095</v>
+        <v>1226</v>
       </c>
       <c r="D3">
-        <v>1252.115077440379</v>
+        <v>1263.272973892031</v>
       </c>
       <c r="E3">
-        <v>1384</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46070.03125</v>
+        <v>46071.03125</v>
       </c>
       <c r="B4">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1144</v>
+        <v>1225</v>
       </c>
       <c r="D4">
-        <v>1258.54807262305</v>
+        <v>1263.764979256531</v>
       </c>
       <c r="E4">
-        <v>1426</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B5">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C5">
-        <v>1145</v>
+        <v>1224</v>
       </c>
       <c r="D5">
-        <v>1264.981067805721</v>
+        <v>1264.256984621032</v>
       </c>
       <c r="E5">
-        <v>1425</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.05208333334</v>
       </c>
       <c r="B6">
-        <v>281</v>
+        <v>379</v>
       </c>
       <c r="C6">
-        <v>1124</v>
+        <v>1233</v>
       </c>
       <c r="D6">
-        <v>1256.520175197442</v>
+        <v>1258.500521856374</v>
       </c>
       <c r="E6">
-        <v>1405</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B7">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="C7">
-        <v>1073</v>
+        <v>1226</v>
       </c>
       <c r="D7">
-        <v>1248.059282589162</v>
+        <v>1252.744059091716</v>
       </c>
       <c r="E7">
-        <v>1358</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.07291666666</v>
       </c>
       <c r="B8">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="C8">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1239.598389980883</v>
+        <v>1246.987596327057</v>
       </c>
       <c r="E8">
-        <v>1394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B9">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="C9">
-        <v>1118</v>
+        <v>1224</v>
       </c>
       <c r="D9">
-        <v>1231.137497372604</v>
+        <v>1241.231133562399</v>
       </c>
       <c r="E9">
-        <v>1393</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46070.09375</v>
+        <v>46071.09375</v>
       </c>
       <c r="B10">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="C10">
-        <v>1101</v>
+        <v>1389</v>
       </c>
       <c r="D10">
-        <v>1230.27394296652</v>
+        <v>1246.357829460572</v>
       </c>
       <c r="E10">
-        <v>1383</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B11">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="C11">
-        <v>1098</v>
+        <v>1432</v>
       </c>
       <c r="D11">
-        <v>1229.410388560437</v>
+        <v>1251.484525358744</v>
       </c>
       <c r="E11">
-        <v>1381</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.11458333334</v>
       </c>
       <c r="B12">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="D12">
-        <v>1228.546834154353</v>
+        <v>1256.611221256916</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B13">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="C13">
-        <v>1089</v>
+        <v>1434</v>
       </c>
       <c r="D13">
-        <v>1227.683279748269</v>
+        <v>1261.737917155089</v>
       </c>
       <c r="E13">
-        <v>1376</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.13541666666</v>
       </c>
       <c r="B14">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="C14">
-        <v>1093</v>
+        <v>1488</v>
       </c>
       <c r="D14">
-        <v>1237.095052489169</v>
+        <v>1276.734240665114</v>
       </c>
       <c r="E14">
-        <v>1384</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B15">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="C15">
-        <v>1141</v>
+        <v>1504</v>
       </c>
       <c r="D15">
-        <v>1246.506825230069</v>
+        <v>1291.730564175138</v>
       </c>
       <c r="E15">
-        <v>1426</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46070.15625</v>
+        <v>46071.15625</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="C16">
-        <v>1144</v>
+        <v>1500</v>
       </c>
       <c r="D16">
-        <v>1255.91859797097</v>
+        <v>1306.726887685163</v>
       </c>
       <c r="E16">
-        <v>1144</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B17">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="C17">
-        <v>1140</v>
+        <v>1528</v>
       </c>
       <c r="D17">
-        <v>1265.33037071187</v>
+        <v>1321.723211195188</v>
       </c>
       <c r="E17">
-        <v>1432</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.17708333334</v>
       </c>
       <c r="B18">
-        <v>347</v>
+        <v>568</v>
       </c>
       <c r="C18">
-        <v>1164</v>
+        <v>1501</v>
       </c>
       <c r="D18">
-        <v>1297.359506606251</v>
+        <v>1342.082393178193</v>
       </c>
       <c r="E18">
-        <v>1511</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B19">
-        <v>341</v>
+        <v>578</v>
       </c>
       <c r="C19">
-        <v>1171</v>
+        <v>1488</v>
       </c>
       <c r="D19">
-        <v>1329.388642500632</v>
+        <v>1362.441575161198</v>
       </c>
       <c r="E19">
-        <v>1512</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.19791666666</v>
       </c>
       <c r="B20">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="C20">
-        <v>1185</v>
+        <v>1493</v>
       </c>
       <c r="D20">
-        <v>1361.417778395013</v>
+        <v>1382.800757144203</v>
       </c>
       <c r="E20">
-        <v>1648</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B21">
-        <v>504</v>
+        <v>591</v>
       </c>
       <c r="C21">
-        <v>1213</v>
+        <v>1492</v>
       </c>
       <c r="D21">
-        <v>1393.446914289394</v>
+        <v>1403.159939127208</v>
       </c>
       <c r="E21">
-        <v>1717</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46070.21875</v>
+        <v>46071.21875</v>
       </c>
       <c r="B22">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="C22">
-        <v>1194</v>
+        <v>1463</v>
       </c>
       <c r="D22">
-        <v>1564.731475314716</v>
+        <v>1567.922695591246</v>
       </c>
       <c r="E22">
-        <v>1766</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B23">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="C23">
-        <v>1182</v>
+        <v>1464</v>
       </c>
       <c r="D23">
-        <v>1736.016036340038</v>
+        <v>1732.685452055284</v>
       </c>
       <c r="E23">
-        <v>1741</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.23958333334</v>
       </c>
       <c r="B24">
-        <v>469</v>
+        <v>596</v>
       </c>
       <c r="C24">
-        <v>1115</v>
+        <v>1465</v>
       </c>
       <c r="D24">
-        <v>1907.300597365359</v>
+        <v>1897.448208519322</v>
       </c>
       <c r="E24">
-        <v>1584</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B25">
-        <v>486</v>
+        <v>616</v>
       </c>
       <c r="C25">
-        <v>1135</v>
+        <v>1479</v>
       </c>
       <c r="D25">
-        <v>2078.585158390681</v>
+        <v>2062.21096498336</v>
       </c>
       <c r="E25">
-        <v>1621</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.26041666666</v>
       </c>
       <c r="B26">
-        <v>641</v>
+        <v>852</v>
       </c>
       <c r="C26">
-        <v>1422</v>
+        <v>1753</v>
       </c>
       <c r="D26">
-        <v>2129.340811181675</v>
+        <v>2117.413966880285</v>
       </c>
       <c r="E26">
-        <v>2063</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B27">
-        <v>592</v>
+        <v>883</v>
       </c>
       <c r="C27">
-        <v>1393</v>
+        <v>1750</v>
       </c>
       <c r="D27">
-        <v>2180.096463972669</v>
+        <v>2172.61696877721</v>
       </c>
       <c r="E27">
-        <v>1985</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46070.28125</v>
+        <v>46071.28125</v>
       </c>
       <c r="B28">
-        <v>589</v>
+        <v>834</v>
       </c>
       <c r="C28">
-        <v>1391</v>
+        <v>1749</v>
       </c>
       <c r="D28">
-        <v>2230.852116763663</v>
+        <v>2227.819970674135</v>
       </c>
       <c r="E28">
-        <v>1980</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="C29">
-        <v>1399</v>
+        <v>1750</v>
       </c>
       <c r="D29">
-        <v>2281.607769554656</v>
+        <v>2283.022972571061</v>
       </c>
       <c r="E29">
-        <v>1399</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46070.30208333334</v>
+        <v>46071.30208333334</v>
       </c>
       <c r="B30">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1572</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2274.146271371438</v>
+        <v>2277.266509806402</v>
       </c>
       <c r="E30">
-        <v>2266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2266.684773188219</v>
+        <v>2271.510047041743</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46070.32291666666</v>
+        <v>46071.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2259.223275005</v>
+        <v>2265.753584277084</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46070.33333333334</v>
+        <v>46071.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2251.761776821781</v>
+        <v>2259.997121512425</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46070.34375</v>
+        <v>46071.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2201.413644087483</v>
+        <v>2214.732627978477</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46070.35416666666</v>
+        <v>46071.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2151.065511353185</v>
+        <v>2169.46813444453</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46070.36458333334</v>
+        <v>46071.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2100.717378618887</v>
+        <v>2124.203640910583</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46070.375</v>
+        <v>46071.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2050.369245884589</v>
+        <v>2078.939147376635</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46070.38541666666</v>
+        <v>46071.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2025.918042475339</v>
+        <v>2051.386846964527</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46070.39583333334</v>
+        <v>46071.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2001.466839066088</v>
+        <v>2023.834546552419</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46070.40625</v>
+        <v>46071.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1977.015635656838</v>
+        <v>1996.28224614031</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46070.41666666666</v>
+        <v>46071.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1952.564432247587</v>
+        <v>1968.729945728202</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46070.42708333334</v>
+        <v>46071.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1907.940986025652</v>
+        <v>1919.745891638447</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46070.4375</v>
+        <v>46071.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1863.317539803717</v>
+        <v>1870.761837548691</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46070.44791666666</v>
+        <v>46071.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1818.694093581782</v>
+        <v>1821.777783458936</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46070.45833333334</v>
+        <v>46071.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1774.070647359847</v>
+        <v>1772.79372936918</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46070.46875</v>
+        <v>46071.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1759.390222455906</v>
+        <v>1753.841682728712</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46070.47916666666</v>
+        <v>46071.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1744.709797551964</v>
+        <v>1734.889636088243</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46070.48958333334</v>
+        <v>46071.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1730.029372648022</v>
+        <v>1715.937589447774</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46070.5</v>
+        <v>46071.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1715.34894774408</v>
+        <v>1696.985542807306</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46070.51041666666</v>
+        <v>46071.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1733.347750253616</v>
+        <v>1716.498475563252</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46070.52083333334</v>
+        <v>46071.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1751.346552763152</v>
+        <v>1736.011408319199</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46070.53125</v>
+        <v>46071.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1769.345355272688</v>
+        <v>1755.524341075146</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46070.54166666666</v>
+        <v>46071.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1787.344157782224</v>
+        <v>1775.037273831093</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46070.55208333334</v>
+        <v>46071.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1805.401177442841</v>
+        <v>1797.138154804687</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46070.5625</v>
+        <v>46071.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1823.458197103458</v>
+        <v>1819.239035778281</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46070.57291666666</v>
+        <v>46071.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1841.515216764075</v>
+        <v>1841.339916751874</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46070.58333333334</v>
+        <v>46071.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1859.572236424692</v>
+        <v>1863.440797725468</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46070.59375</v>
+        <v>46071.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1926.521960045203</v>
+        <v>1935.440862766409</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46070.60416666666</v>
+        <v>46071.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1993.471683665714</v>
+        <v>2007.440927807349</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46070.61458333334</v>
+        <v>46071.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2060.421407286226</v>
+        <v>2079.44099284829</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46070.625</v>
+        <v>46071.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2127.371130906737</v>
+        <v>2151.44105788923</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46070.63541666666</v>
+        <v>46071.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2197.58101498187</v>
+        <v>2208.425119205645</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46070.64583333334</v>
+        <v>46071.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2267.790899057003</v>
+        <v>2265.409180522061</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46070.65625</v>
+        <v>46071.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2338.000783132137</v>
+        <v>2322.393241838477</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46070.66666666666</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2408.21066720727</v>
+        <v>2379.377303154892</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46070.67708333334</v>
+        <v>46071.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2437.571517015362</v>
+        <v>2423.126420166376</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46070.6875</v>
+        <v>46071.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2466.932366823454</v>
+        <v>2466.875537177861</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46070.69791666666</v>
+        <v>46071.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2496.293216631546</v>
+        <v>2510.624654189346</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46070.70833333334</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2525.654066439638</v>
+        <v>2554.373771200831</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46070.71875</v>
+        <v>46071.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2540.906959994933</v>
+        <v>2569.379934818106</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46070.72916666666</v>
+        <v>46071.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2556.159853550227</v>
+        <v>2584.386098435381</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46070.73958333334</v>
+        <v>46071.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2571.412747105521</v>
+        <v>2599.392262052656</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46070.75</v>
+        <v>46071.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2586.665640660815</v>
+        <v>2614.398425669932</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46070.76041666666</v>
+        <v>46071.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2596.882750656745</v>
+        <v>2624.523896071201</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46070.77083333334</v>
+        <v>46071.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2607.099860652675</v>
+        <v>2634.64936647247</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46070.78125</v>
+        <v>46071.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2617.316970648605</v>
+        <v>2644.774836873739</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46070.79166666666</v>
+        <v>46071.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2627.534080644534</v>
+        <v>2654.900307275008</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46070.80208333334</v>
+        <v>46071.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2614.949473175722</v>
+        <v>2628.764982312958</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46070.8125</v>
+        <v>46071.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2602.364865706911</v>
+        <v>2602.629657350907</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46070.82291666666</v>
+        <v>46071.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2589.780258238099</v>
+        <v>2576.494332388857</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46070.83333333334</v>
+        <v>46071.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2577.195650769287</v>
+        <v>2550.359007426807</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46070.84375</v>
+        <v>46071.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2487.308369664661</v>
+        <v>2460.538508083394</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46070.85416666666</v>
+        <v>46071.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2397.421088560035</v>
+        <v>2370.718008739982</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46070.86458333334</v>
+        <v>46071.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2307.533807455409</v>
+        <v>2280.897509396569</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46070.875</v>
+        <v>46071.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2217.646526350783</v>
+        <v>2191.077010053156</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46070.88541666666</v>
+        <v>46071.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2131.591874352294</v>
+        <v>2106.826011436155</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46070.89583333334</v>
+        <v>46071.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2045.537222353805</v>
+        <v>2022.575012819153</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46070.90625</v>
+        <v>46071.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1959.482570355315</v>
+        <v>1938.324014202151</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46070.91666666666</v>
+        <v>46071.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1873.427918356826</v>
+        <v>1854.073015585149</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46070.92708333334</v>
+        <v>46071.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1751.045764149976</v>
+        <v>1733.10857666892</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46070.9375</v>
+        <v>46071.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1628.663609943126</v>
+        <v>1612.144137752691</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46070.94791666666</v>
+        <v>46071.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1506.281455736276</v>
+        <v>1491.179698836461</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46070.95833333334</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1383.899301529426</v>
+        <v>1370.215259920232</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46070.96875</v>
+        <v>46071.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1328.656755127787</v>
+        <v>1361.418052629081</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46070.97916666666</v>
+        <v>46071.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1273.414208726148</v>
+        <v>1352.620845337929</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46070.98958333334</v>
+        <v>46071.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1218.171662324509</v>
+        <v>1343.823638046778</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1162.92911592287</v>
+        <v>1335.026430755626</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,483 +415,483 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
       <c r="B2">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="C2">
-        <v>1215</v>
+        <v>1595</v>
       </c>
       <c r="D2">
-        <v>1262.78096852753</v>
+        <v>1754.130417158193</v>
       </c>
       <c r="E2">
-        <v>1584</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B3">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="C3">
-        <v>1226</v>
+        <v>1630</v>
       </c>
       <c r="D3">
-        <v>1263.272973892031</v>
+        <v>1758.045311242754</v>
       </c>
       <c r="E3">
-        <v>1597</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1225</v>
+        <v>1634</v>
       </c>
       <c r="D4">
-        <v>1263.764979256531</v>
+        <v>1761.960205327314</v>
       </c>
       <c r="E4">
-        <v>1225</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>462</v>
       </c>
       <c r="C5">
-        <v>1224</v>
+        <v>1633</v>
       </c>
       <c r="D5">
-        <v>1264.256984621032</v>
+        <v>1765.875099411875</v>
       </c>
       <c r="E5">
-        <v>1587</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
       <c r="B6">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="C6">
-        <v>1233</v>
+        <v>1644</v>
       </c>
       <c r="D6">
-        <v>1258.500521856374</v>
+        <v>1757.951541324561</v>
       </c>
       <c r="E6">
-        <v>1612</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B7">
-        <v>373</v>
+        <v>524</v>
       </c>
       <c r="C7">
-        <v>1226</v>
+        <v>1642</v>
       </c>
       <c r="D7">
-        <v>1252.744059091716</v>
+        <v>1750.027983237246</v>
       </c>
       <c r="E7">
-        <v>1599</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
       <c r="B8">
-        <v>375</v>
+        <v>523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1246.987596327057</v>
+        <v>1742.104425149932</v>
       </c>
       <c r="E8">
-        <v>375</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B9">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="C9">
-        <v>1224</v>
+        <v>1641</v>
       </c>
       <c r="D9">
-        <v>1241.231133562399</v>
+        <v>1734.180867062618</v>
       </c>
       <c r="E9">
-        <v>1590</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
       <c r="B10">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="C10">
-        <v>1389</v>
+        <v>1529</v>
       </c>
       <c r="D10">
-        <v>1246.357829460572</v>
+        <v>1745.316044848087</v>
       </c>
       <c r="E10">
-        <v>1763</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B11">
-        <v>370</v>
+        <v>446</v>
       </c>
       <c r="C11">
-        <v>1432</v>
+        <v>1516</v>
       </c>
       <c r="D11">
-        <v>1251.484525358744</v>
+        <v>1756.451222633556</v>
       </c>
       <c r="E11">
-        <v>1802</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
       <c r="B12">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="C12">
-        <v>1431</v>
+        <v>1518</v>
       </c>
       <c r="D12">
-        <v>1256.611221256916</v>
+        <v>1767.586400419026</v>
       </c>
       <c r="E12">
-        <v>1792</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B13">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="C13">
-        <v>1434</v>
+        <v>1519</v>
       </c>
       <c r="D13">
-        <v>1261.737917155089</v>
+        <v>1778.721578204495</v>
       </c>
       <c r="E13">
-        <v>1797</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
       <c r="B14">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="C14">
-        <v>1488</v>
+        <v>1589</v>
       </c>
       <c r="D14">
-        <v>1276.734240665114</v>
+        <v>1802.972823297225</v>
       </c>
       <c r="E14">
-        <v>1862</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B15">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1504</v>
+        <v>1594</v>
       </c>
       <c r="D15">
-        <v>1291.730564175138</v>
+        <v>1827.224068389955</v>
       </c>
       <c r="E15">
-        <v>1882</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
       <c r="B16">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="C16">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1306.726887685163</v>
+        <v>1851.475313482685</v>
       </c>
       <c r="E16">
-        <v>1876</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B17">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C17">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1321.723211195188</v>
+        <v>1875.726558575414</v>
       </c>
       <c r="E17">
-        <v>1968</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
       <c r="B18">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="C18">
-        <v>1501</v>
+        <v>1657</v>
       </c>
       <c r="D18">
-        <v>1342.082393178193</v>
+        <v>1917.747203165691</v>
       </c>
       <c r="E18">
-        <v>2069</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B19">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="C19">
-        <v>1488</v>
+        <v>1660</v>
       </c>
       <c r="D19">
-        <v>1362.441575161198</v>
+        <v>1959.767847755968</v>
       </c>
       <c r="E19">
-        <v>2066</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
       <c r="B20">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C20">
-        <v>1493</v>
+        <v>1657</v>
       </c>
       <c r="D20">
-        <v>1382.800757144203</v>
+        <v>2001.788492346246</v>
       </c>
       <c r="E20">
-        <v>2002</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B21">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="C21">
-        <v>1492</v>
+        <v>1659</v>
       </c>
       <c r="D21">
-        <v>1403.159939127208</v>
+        <v>2043.809136936523</v>
       </c>
       <c r="E21">
-        <v>2083</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
       <c r="B22">
-        <v>596</v>
+        <v>874</v>
       </c>
       <c r="C22">
-        <v>1463</v>
+        <v>1669</v>
       </c>
       <c r="D22">
-        <v>1567.922695591246</v>
+        <v>2188.378908310589</v>
       </c>
       <c r="E22">
-        <v>2059</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B23">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1464</v>
+        <v>1663</v>
       </c>
       <c r="D23">
-        <v>1732.685452055284</v>
+        <v>2332.948679684655</v>
       </c>
       <c r="E23">
-        <v>2061</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
       <c r="B24">
-        <v>596</v>
+        <v>892</v>
       </c>
       <c r="C24">
-        <v>1465</v>
+        <v>1655</v>
       </c>
       <c r="D24">
-        <v>1897.448208519322</v>
+        <v>2477.518451058721</v>
       </c>
       <c r="E24">
-        <v>2061</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B25">
-        <v>616</v>
+        <v>891</v>
       </c>
       <c r="C25">
-        <v>1479</v>
+        <v>1654</v>
       </c>
       <c r="D25">
-        <v>2062.21096498336</v>
+        <v>2622.088222432788</v>
       </c>
       <c r="E25">
-        <v>2095</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
       <c r="B26">
-        <v>852</v>
+        <v>979</v>
       </c>
       <c r="C26">
-        <v>1753</v>
+        <v>1651</v>
       </c>
       <c r="D26">
-        <v>2117.413966880285</v>
+        <v>2655.728180584617</v>
       </c>
       <c r="E26">
-        <v>2605</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B27">
-        <v>883</v>
+        <v>983</v>
       </c>
       <c r="C27">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="D27">
-        <v>2172.61696877721</v>
+        <v>2689.368138736447</v>
       </c>
       <c r="E27">
-        <v>2633</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
       <c r="B28">
-        <v>834</v>
+        <v>981</v>
       </c>
       <c r="C28">
-        <v>1749</v>
+        <v>1654</v>
       </c>
       <c r="D28">
-        <v>2227.819970674135</v>
+        <v>2723.008096888276</v>
       </c>
       <c r="E28">
-        <v>2583</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46071.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B29">
-        <v>812</v>
+        <v>941</v>
       </c>
       <c r="C29">
-        <v>1750</v>
+        <v>1653</v>
       </c>
       <c r="D29">
-        <v>2283.022972571061</v>
+        <v>2756.648055040105</v>
       </c>
       <c r="E29">
-        <v>2562</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46071.30208333334</v>
+        <v>46073.30208333334</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2277.266509806402</v>
+        <v>2740.085943239253</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46071.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2271.510047041743</v>
+        <v>2723.523831438401</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46071.32291666666</v>
+        <v>46073.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2265.753584277084</v>
+        <v>2706.961719637548</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46071.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2259.997121512425</v>
+        <v>2690.399607836696</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46071.34375</v>
+        <v>46073.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2214.732627978477</v>
+        <v>2589.280472305236</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46071.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2169.46813444453</v>
+        <v>2488.161336773775</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46071.36458333334</v>
+        <v>46073.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2124.203640910583</v>
+        <v>2387.042201242315</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46071.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2078.939147376635</v>
+        <v>2285.923065710854</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46071.38541666666</v>
+        <v>46073.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2051.386846964527</v>
+        <v>2273.791582544732</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46071.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2023.834546552419</v>
+        <v>2261.66009937861</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46071.40625</v>
+        <v>46073.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1996.28224614031</v>
+        <v>2249.528616212488</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46071.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1968.729945728202</v>
+        <v>2237.397133046365</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46071.42708333334</v>
+        <v>46073.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1919.745891638447</v>
+        <v>2182.190093709987</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46071.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1870.761837548691</v>
+        <v>2126.983054373608</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46071.44791666666</v>
+        <v>46073.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1821.777783458936</v>
+        <v>2071.77601503723</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46071.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1772.79372936918</v>
+        <v>2016.568975700852</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46071.46875</v>
+        <v>46073.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1753.841682728712</v>
+        <v>1994.533044925667</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46071.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1734.889636088243</v>
+        <v>1972.497114150483</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46071.48958333334</v>
+        <v>46073.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1715.937589447774</v>
+        <v>1950.461183375298</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46071.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1696.985542807306</v>
+        <v>1928.425252600114</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46071.51041666666</v>
+        <v>46073.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1716.498475563252</v>
+        <v>1972.204083156365</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46071.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1736.011408319199</v>
+        <v>2015.982913712615</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46071.53125</v>
+        <v>46073.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1755.524341075146</v>
+        <v>2059.761744268866</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46071.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1775.037273831093</v>
+        <v>2103.540574825116</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46071.55208333334</v>
+        <v>46073.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1797.138154804687</v>
+        <v>2146.065232725728</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46071.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1819.239035778281</v>
+        <v>2188.589890626339</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46071.57291666666</v>
+        <v>46073.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1841.339916751874</v>
+        <v>2231.11454852695</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46071.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1863.440797725468</v>
+        <v>2273.639206427561</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46071.59375</v>
+        <v>46073.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1935.440862766409</v>
+        <v>2363.658327892916</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46071.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2007.440927807349</v>
+        <v>2453.677449358271</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46071.61458333334</v>
+        <v>46073.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2079.44099284829</v>
+        <v>2543.696570823625</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46071.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2151.44105788923</v>
+        <v>2633.71569228898</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46071.63541666666</v>
+        <v>46073.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2208.425119205645</v>
+        <v>2695.885148050853</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46071.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2265.409180522061</v>
+        <v>2758.054603812726</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46071.65625</v>
+        <v>46073.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2322.393241838477</v>
+        <v>2820.224059574598</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46071.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2379.377303154892</v>
+        <v>2882.393515336471</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46071.67708333334</v>
+        <v>46073.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2423.126420166376</v>
+        <v>2948.044179311613</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46071.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2466.875537177861</v>
+        <v>3013.694843286755</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46071.69791666666</v>
+        <v>46073.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2510.624654189346</v>
+        <v>3079.345507261897</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46071.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2554.373771200831</v>
+        <v>3144.996171237039</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46071.71875</v>
+        <v>46073.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2569.379934818106</v>
+        <v>3156.787738449743</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46071.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2584.386098435381</v>
+        <v>3168.579305662447</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46071.73958333334</v>
+        <v>46073.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2599.392262052656</v>
+        <v>3180.370872875151</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46071.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>2614.398425669932</v>
+        <v>3192.162440087855</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46071.76041666666</v>
+        <v>46073.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>2624.523896071201</v>
+        <v>3200.109440654796</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46071.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>2634.64936647247</v>
+        <v>3208.056441221737</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46071.78125</v>
+        <v>46073.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2644.774836873739</v>
+        <v>3216.003441788678</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46071.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>2654.900307275008</v>
+        <v>3223.950442355619</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46071.80208333334</v>
+        <v>46073.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>2628.764982312958</v>
+        <v>3190.111223127688</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46071.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2602.629657350907</v>
+        <v>3156.272003899758</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46071.82291666666</v>
+        <v>46073.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>2576.494332388857</v>
+        <v>3122.432784671828</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46071.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>2550.359007426807</v>
+        <v>3088.593565443898</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46071.84375</v>
+        <v>46073.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>2460.538508083394</v>
+        <v>3009.627573085411</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46071.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2370.718008739982</v>
+        <v>2930.661580726925</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46071.86458333334</v>
+        <v>46073.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2280.897509396569</v>
+        <v>2851.695588368439</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46071.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2191.077010053156</v>
+        <v>2772.729596009953</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46071.88541666666</v>
+        <v>46073.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2106.826011436155</v>
+        <v>2690.469935275141</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46071.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2022.575012819153</v>
+        <v>2608.21027454033</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46071.90625</v>
+        <v>46073.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1938.324014202151</v>
+        <v>2525.950613805519</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46071.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1854.073015585149</v>
+        <v>2443.690953070708</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46071.92708333334</v>
+        <v>46073.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1733.10857666892</v>
+        <v>2274.236989656042</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46071.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>1612.144137752691</v>
+        <v>2104.783026241376</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46071.94791666666</v>
+        <v>46073.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>1491.179698836461</v>
+        <v>1935.32906282671</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46071.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1370.215259920232</v>
+        <v>1765.875099412044</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46071.96875</v>
+        <v>46073.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1361.418052629081</v>
+        <v>1726.026398204325</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46071.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1352.620845337929</v>
+        <v>1686.177696996605</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46071.98958333334</v>
+        <v>46073.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1343.823638046778</v>
+        <v>1646.328995788886</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1335.026430755626</v>
+        <v>1606.480294581166</v>
       </c>
       <c r="E97">
         <v>0</v>

--- a/data_fetching/Entsoe/Hydro_Production.xlsx
+++ b/data_fetching/Entsoe/Hydro_Production.xlsx
@@ -415,500 +415,500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
       <c r="B2">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1595</v>
+        <v>1424</v>
       </c>
       <c r="D2">
-        <v>1754.130417158193</v>
+        <v>1703.289754175855</v>
       </c>
       <c r="E2">
-        <v>2060</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B3">
-        <v>464</v>
+        <v>273</v>
       </c>
       <c r="C3">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1758.045311242754</v>
+        <v>1710.554578891174</v>
       </c>
       <c r="E3">
-        <v>2094</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1634</v>
+        <v>1417</v>
       </c>
       <c r="D4">
-        <v>1761.960205327314</v>
+        <v>1717.819403606494</v>
       </c>
       <c r="E4">
-        <v>1634</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B5">
-        <v>462</v>
+        <v>274</v>
       </c>
       <c r="C5">
-        <v>1633</v>
+        <v>1421</v>
       </c>
       <c r="D5">
-        <v>1765.875099411875</v>
+        <v>1725.084228321813</v>
       </c>
       <c r="E5">
-        <v>2095</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
       <c r="B6">
-        <v>523</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>1644</v>
+        <v>1430</v>
       </c>
       <c r="D6">
-        <v>1757.951541324561</v>
+        <v>1710.799805041902</v>
       </c>
       <c r="E6">
-        <v>2167</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1642</v>
+        <v>1435</v>
       </c>
       <c r="D7">
-        <v>1750.027983237246</v>
+        <v>1696.515381761992</v>
       </c>
       <c r="E7">
-        <v>2166</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
       <c r="B8">
-        <v>523</v>
+        <v>277</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1742.104425149932</v>
+        <v>1682.230958482081</v>
       </c>
       <c r="E8">
-        <v>523</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B9">
-        <v>537</v>
+        <v>276</v>
       </c>
       <c r="C9">
-        <v>1641</v>
+        <v>1434</v>
       </c>
       <c r="D9">
-        <v>1734.180867062618</v>
+        <v>1667.94653520217</v>
       </c>
       <c r="E9">
-        <v>2178</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
       <c r="B10">
-        <v>458</v>
+        <v>274</v>
       </c>
       <c r="C10">
-        <v>1529</v>
+        <v>1424</v>
       </c>
       <c r="D10">
-        <v>1745.316044848087</v>
+        <v>1680.177189469733</v>
       </c>
       <c r="E10">
-        <v>1987</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B11">
-        <v>446</v>
+        <v>266</v>
       </c>
       <c r="C11">
-        <v>1516</v>
+        <v>1423</v>
       </c>
       <c r="D11">
-        <v>1756.451222633556</v>
+        <v>1692.407843737296</v>
       </c>
       <c r="E11">
-        <v>1962</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
       <c r="B12">
-        <v>445</v>
+        <v>273</v>
       </c>
       <c r="C12">
-        <v>1518</v>
+        <v>1421</v>
       </c>
       <c r="D12">
-        <v>1767.586400419026</v>
+        <v>1704.638498004859</v>
       </c>
       <c r="E12">
-        <v>1963</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B13">
-        <v>453</v>
+        <v>267</v>
       </c>
       <c r="C13">
-        <v>1519</v>
+        <v>1425</v>
       </c>
       <c r="D13">
-        <v>1778.721578204495</v>
+        <v>1716.869152272423</v>
       </c>
       <c r="E13">
-        <v>1972</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
       <c r="B14">
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="C14">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="D14">
-        <v>1802.972823297225</v>
+        <v>1742.485067267275</v>
       </c>
       <c r="E14">
-        <v>2039</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C15">
-        <v>1594</v>
+        <v>1432</v>
       </c>
       <c r="D15">
-        <v>1827.224068389955</v>
+        <v>1768.100982262127</v>
       </c>
       <c r="E15">
-        <v>1594</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
       <c r="B16">
-        <v>451</v>
+        <v>287</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1433</v>
       </c>
       <c r="D16">
-        <v>1851.475313482685</v>
+        <v>1793.716897256979</v>
       </c>
       <c r="E16">
-        <v>451</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B17">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="D17">
-        <v>1875.726558575414</v>
+        <v>1819.332812251831</v>
       </c>
       <c r="E17">
-        <v>455</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
       <c r="B18">
-        <v>523</v>
+        <v>300</v>
       </c>
       <c r="C18">
-        <v>1657</v>
+        <v>1443</v>
       </c>
       <c r="D18">
-        <v>1917.747203165691</v>
+        <v>1867.059951837289</v>
       </c>
       <c r="E18">
-        <v>2180</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B19">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1660</v>
+        <v>1442</v>
       </c>
       <c r="D19">
-        <v>1959.767847755968</v>
+        <v>1914.787091422747</v>
       </c>
       <c r="E19">
-        <v>2193</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
       <c r="B20">
-        <v>531</v>
+        <v>299</v>
       </c>
       <c r="C20">
-        <v>1657</v>
+        <v>1441</v>
       </c>
       <c r="D20">
-        <v>2001.788492346246</v>
+        <v>1962.514231008205</v>
       </c>
       <c r="E20">
-        <v>2188</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B21">
-        <v>547</v>
+        <v>312</v>
       </c>
       <c r="C21">
-        <v>1659</v>
+        <v>1445</v>
       </c>
       <c r="D21">
-        <v>2043.809136936523</v>
+        <v>2010.241370593663</v>
       </c>
       <c r="E21">
-        <v>2206</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
       <c r="B22">
-        <v>874</v>
+        <v>465</v>
       </c>
       <c r="C22">
-        <v>1669</v>
+        <v>1426</v>
       </c>
       <c r="D22">
-        <v>2188.378908310589</v>
+        <v>2119.785935674971</v>
       </c>
       <c r="E22">
-        <v>2543</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="C23">
-        <v>1663</v>
+        <v>1432</v>
       </c>
       <c r="D23">
-        <v>2332.948679684655</v>
+        <v>2229.330500756279</v>
       </c>
       <c r="E23">
-        <v>1663</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
       <c r="B24">
-        <v>892</v>
+        <v>610</v>
       </c>
       <c r="C24">
-        <v>1655</v>
+        <v>1458</v>
       </c>
       <c r="D24">
-        <v>2477.518451058721</v>
+        <v>2338.875065837588</v>
       </c>
       <c r="E24">
-        <v>2547</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B25">
-        <v>891</v>
+        <v>617</v>
       </c>
       <c r="C25">
-        <v>1654</v>
+        <v>1463</v>
       </c>
       <c r="D25">
-        <v>2622.088222432788</v>
+        <v>2448.419630918896</v>
       </c>
       <c r="E25">
-        <v>2545</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
       <c r="B26">
-        <v>979</v>
+        <v>630</v>
       </c>
       <c r="C26">
-        <v>1651</v>
+        <v>1575</v>
       </c>
       <c r="D26">
-        <v>2655.728180584617</v>
+        <v>2458.014104066327</v>
       </c>
       <c r="E26">
-        <v>2630</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B27">
-        <v>983</v>
+        <v>519</v>
       </c>
       <c r="C27">
-        <v>1652</v>
+        <v>1578</v>
       </c>
       <c r="D27">
-        <v>2689.368138736447</v>
+        <v>2467.608577213758</v>
       </c>
       <c r="E27">
-        <v>2635</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
       </c>
       <c r="B28">
-        <v>981</v>
+        <v>545</v>
       </c>
       <c r="C28">
-        <v>1654</v>
+        <v>1589</v>
       </c>
       <c r="D28">
-        <v>2723.008096888276</v>
+        <v>2477.203050361188</v>
       </c>
       <c r="E28">
-        <v>2635</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B29">
-        <v>941</v>
+        <v>594</v>
       </c>
       <c r="C29">
-        <v>1653</v>
+        <v>1594</v>
       </c>
       <c r="D29">
-        <v>2756.648055040105</v>
+        <v>2486.797523508619</v>
       </c>
       <c r="E29">
-        <v>2594</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46073.30208333334</v>
+        <v>46074.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="D30">
-        <v>2740.085943239253</v>
+        <v>2471.930688120791</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2723.523831438401</v>
+        <v>2457.063852732963</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46073.32291666666</v>
+        <v>46074.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2706.961719637548</v>
+        <v>2442.197017345135</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>2690.399607836696</v>
+        <v>2427.330181957308</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46073.34375</v>
+        <v>46074.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2589.280472305236</v>
+        <v>2311.838882720585</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2488.161336773775</v>
+        <v>2196.347583483863</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46073.36458333334</v>
+        <v>46074.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2387.042201242315</v>
+        <v>2080.856284247141</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2285.923065710854</v>
+        <v>1965.364985010419</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46073.38541666666</v>
+        <v>46074.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2273.791582544732</v>
+        <v>1952.337345752938</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2261.66009937861</v>
+        <v>1939.309706495457</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46073.40625</v>
+        <v>46074.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2249.528616212488</v>
+        <v>1926.282067237976</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2237.397133046365</v>
+        <v>1913.254427980495</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46073.42708333334</v>
+        <v>46074.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2182.190093709987</v>
+        <v>1881.875698443534</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2126.983054373608</v>
+        <v>1850.496968906572</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46073.44791666666</v>
+        <v>46074.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>2071.77601503723</v>
+        <v>1819.118239369611</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>2016.568975700852</v>
+        <v>1787.73950983265</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46073.46875</v>
+        <v>46074.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1994.533044925667</v>
+        <v>1765.924600174223</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1972.497114150483</v>
+        <v>1744.109690515796</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46073.48958333334</v>
+        <v>46074.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1950.461183375298</v>
+        <v>1722.294780857368</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1928.425252600114</v>
+        <v>1700.479871198941</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46073.51041666666</v>
+        <v>46074.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1972.204083156365</v>
+        <v>1747.113710862453</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>2015.982913712615</v>
+        <v>1793.747550525964</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46073.53125</v>
+        <v>46074.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2059.761744268866</v>
+        <v>1840.381390189476</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2103.540574825116</v>
+        <v>1887.015229852987</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46073.55208333334</v>
+        <v>46074.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2146.065232725728</v>
+        <v>1937.858785103844</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2188.589890626339</v>
+        <v>1988.7023403547</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46073.57291666666</v>
+        <v>46074.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2231.11454852695</v>
+        <v>2039.545895605556</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2273.639206427561</v>
+        <v>2090.389450856413</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46073.59375</v>
+        <v>46074.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2363.658327892916</v>
+        <v>2164.049255881298</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2453.677449358271</v>
+        <v>2237.709060906182</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46073.61458333334</v>
+        <v>46074.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2543.696570823625</v>
+        <v>2311.368865931066</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2633.71569228898</v>
+        <v>2385.028670955951</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46073.63541666666</v>
+        <v>46074.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2695.885148050853</v>
+        <v>2436.526162609048</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2758.054603812726</v>
+        <v>2488.023654262144</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46073.65625</v>
+        <v>46074.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2820.224059574598</v>
+        <v>2539.521145915241</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>2882.393515336471</v>
+        <v>2591.018637568337</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46073.67708333334</v>
+        <v>46074.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2948.044179311613</v>
+        <v>2643.323331967244</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>3013.694843286755</v>
+        <v>2695.628026366152</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46073.69791666666</v>
+        <v>46074.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>3079.345507261897</v>
+        <v>2747.93272076506</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>3144.996171237039</v>
+        <v>2800.237415163968</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46073.71875</v>
+        <v>46074.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>3156.787738449743</v>
+        <v>2808.002909936874</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>3168.579305662447</v>
+        <v>2815.768404709781</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46073.73958333334</v>
+        <v>46074.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>3180.370872875151</v>
+        <v>2823.533899482688</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>3192.162440087855</v>
+        <v>2831.299394255595</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46073.76041666666</v>
+        <v>46074.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>3200.109440654796</v>
+        <v>2839.003582491268</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3208.056441221737</v>
+        <v>2846.707770726942</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46073.78125</v>
+        <v>46074.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3216.003441788678</v>
+        <v>2854.411958962615</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3223.950442355619</v>
+        <v>2862.116147198289</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46073.80208333334</v>
+        <v>46074.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3190.111223127688</v>
+        <v>2831.381136306957</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="79" spans="1:5">
      